--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,40 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FF74E-0805-4D2A-8FF9-3F3A5359CE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +58,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -69,7 +73,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,14 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -94,7 +96,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,14 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +129,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -146,7 +144,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -156,14 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="W3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -172,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -181,14 +176,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AF3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -197,7 +191,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -205,14 +198,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -245,14 +237,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -261,7 +252,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -275,18 +265,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -475,6 +465,9 @@
   </si>
   <si>
     <t>主城</t>
+  </si>
+  <si>
+    <t>-4000,-0,8,2983,10000</t>
   </si>
   <si>
     <t>-220,-25,4000</t>
@@ -659,7 +652,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -669,7 +661,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -679,7 +670,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -689,7 +679,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -732,6 +721,9 @@
     <t>-4190,5,-123</t>
   </si>
   <si>
+    <t>20000101,20000102,20000103,20000104,20000105,20000106</t>
+  </si>
+  <si>
     <t>Back_6</t>
   </si>
   <si>
@@ -763,6 +755,9 @@
   </si>
   <si>
     <t>宠物天梯</t>
+  </si>
+  <si>
+    <t>1800,0,-1250</t>
   </si>
   <si>
     <t>宠物关卡</t>
@@ -779,7 +774,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -789,7 +783,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -799,7 +792,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -809,7 +801,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -819,7 +810,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -843,7 +833,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -853,7 +842,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -863,7 +851,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -873,7 +860,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -919,27 +905,23 @@
     <t>宠物矿场</t>
   </si>
   <si>
-    <t>20000101,20000102,20000103,20000104,20000105,20000106</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>赛季之塔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4000,-0,8,2983,10000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1V1挑战赛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,7 +933,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -960,14 +941,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -975,47 +954,165 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,12 +1139,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14954069643238624"/>
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1120,14 +1403,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1187,36 +1712,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1253,16 +1822,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter ref="C4:I6"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Icon"/>
+    <tableColumn id="4" name="StallArea"/>
+    <tableColumn id="5" name="InitPos"/>
+    <tableColumn id="6" name="NpcList"/>
+    <tableColumn id="7" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1549,19 +2118,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P22" workbookViewId="0">
-      <selection activeCell="Y44" sqref="Y44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -1587,7 +2156,7 @@
     <col min="32" max="32" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:32" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +2248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:32" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +2340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:32" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C5" s="5" t="s">
         <v>58</v>
       </c>
@@ -1863,7 +2432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="3:32" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -1872,16 +2441,16 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="14">
         <v>101</v>
@@ -1906,13 +2475,13 @@
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S6" s="14">
         <v>0</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U6" s="14">
         <v>0</v>
@@ -1940,22 +2509,22 @@
         <v>0</v>
       </c>
       <c r="AF6" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="15">
@@ -1965,7 +2534,7 @@
         <v>100101</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" s="14">
         <v>1</v>
@@ -1983,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" s="14">
         <v>2</v>
@@ -2007,11 +2576,11 @@
         <v>72001013</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="14">
@@ -2024,22 +2593,22 @@
         <v>601500201</v>
       </c>
       <c r="AF7" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -2049,7 +2618,7 @@
         <v>1000002</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" s="14">
         <v>1</v>
@@ -2067,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U8" s="14">
         <v>2</v>
@@ -2091,11 +2660,11 @@
         <v>72002013</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="14">
@@ -2108,22 +2677,22 @@
         <v>601500301</v>
       </c>
       <c r="AF8" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2133,7 +2702,7 @@
         <v>100102</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" s="14">
         <v>1</v>
@@ -2151,16 +2720,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
@@ -2175,11 +2744,11 @@
         <v>72003013</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="14">
@@ -2192,22 +2761,22 @@
         <v>601500401</v>
       </c>
       <c r="AF9" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="10" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="15">
@@ -2217,7 +2786,7 @@
         <v>1000001</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" s="14">
         <v>1</v>
@@ -2235,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U10" s="14">
         <v>2</v>
@@ -2259,11 +2828,11 @@
         <v>72004013</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" s="8"/>
       <c r="AC10" s="14">
@@ -2276,22 +2845,22 @@
         <v>601500501</v>
       </c>
       <c r="AF10" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="11" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="15">
@@ -2301,7 +2870,7 @@
         <v>2000007</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" s="14">
         <v>1</v>
@@ -2319,16 +2888,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
@@ -2344,10 +2913,10 @@
       </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="14">
@@ -2360,20 +2929,20 @@
         <v>601500501</v>
       </c>
       <c r="AF11" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="12" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2383,7 +2952,7 @@
         <v>2000001</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" s="14">
         <v>1</v>
@@ -2401,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S12" s="14">
         <v>1</v>
@@ -2421,7 +2990,7 @@
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2430,20 +2999,20 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="13" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2453,7 +3022,7 @@
         <v>2000002</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L13" s="14">
         <v>1</v>
@@ -2471,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S13" s="14">
         <v>1</v>
@@ -2498,20 +3067,20 @@
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="14" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2521,7 +3090,7 @@
         <v>2000003</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -2539,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S14" s="14">
         <v>1</v>
@@ -2567,17 +3136,17 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -2587,7 +3156,7 @@
         <v>2000003</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -2605,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S15" s="14">
         <v>1</v>
@@ -2625,7 +3194,7 @@
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="8"/>
@@ -2635,17 +3204,17 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="18"/>
     </row>
-    <row r="16" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="3:32">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -2657,7 +3226,7 @@
         <v>2000008</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L16" s="14">
         <v>1</v>
@@ -2675,16 +3244,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S16" s="14">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U16" s="14">
         <v>0</v>
@@ -2697,7 +3266,7 @@
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z16" s="14"/>
       <c r="AA16" s="8"/>
@@ -2706,23 +3275,23 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="17" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="3:32">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>168</v>
+        <v>135</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -2731,7 +3300,7 @@
         <v>2000009</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -2749,16 +3318,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S17" s="14">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U17" s="14">
         <v>0</v>
@@ -2780,20 +3349,20 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="18" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="20.1" customHeight="1" spans="3:32">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -2821,10 +3390,10 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S18" s="14">
         <v>1</v>
@@ -2841,7 +3410,7 @@
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z18" s="14"/>
       <c r="AA18" s="8"/>
@@ -2850,26 +3419,26 @@
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="19" spans="3:32" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J19" s="14">
         <v>102</v>
@@ -2893,16 +3462,16 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S19" s="14">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U19" s="14">
         <v>0</v>
@@ -2930,27 +3499,27 @@
         <v>0</v>
       </c>
       <c r="AF19" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="20" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="21" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
         <v>6</v>
       </c>
       <c r="J20" s="7">
-        <v>100001</v>
+        <v>10003</v>
       </c>
       <c r="K20" s="14">
         <v>0</v>
@@ -2971,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S20" s="14">
         <v>1</v>
@@ -2999,24 +3568,24 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="18"/>
     </row>
-    <row r="21" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="21" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
         <v>10</v>
       </c>
       <c r="J21" s="7">
-        <v>100001</v>
+        <v>10003</v>
       </c>
       <c r="K21" s="14">
         <v>0</v>
@@ -3037,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S21" s="14">
         <v>1</v>
@@ -3065,17 +3634,17 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="18"/>
     </row>
-    <row r="22" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3103,10 +3672,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S22" s="14">
         <v>1</v>
@@ -3131,20 +3700,20 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="18"/>
     </row>
-    <row r="23" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:32">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3171,16 +3740,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S23" s="14">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3193,8 +3762,8 @@
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="23" t="s">
-        <v>153</v>
+      <c r="Z23" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3202,23 +3771,23 @@
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="24" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="20.1" customHeight="1" spans="3:32">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3245,16 +3814,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S24" s="14">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3267,8 +3836,8 @@
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="23" t="s">
-        <v>156</v>
+      <c r="Z24" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3276,20 +3845,20 @@
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="25" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3317,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S25" s="14">
         <v>1</v>
@@ -3337,7 +3906,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="8"/>
@@ -3347,17 +3916,17 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="18"/>
     </row>
-    <row r="26" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3385,10 +3954,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S26" s="14">
         <v>1</v>
@@ -3405,7 +3974,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="8"/>
@@ -3415,17 +3984,17 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="18"/>
     </row>
-    <row r="27" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:32">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3453,16 +4022,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S27" s="14">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U27" s="14">
         <v>100</v>
@@ -3475,7 +4044,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -3484,20 +4053,20 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="28" spans="3:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C28" s="12">
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="24" t="s">
-        <v>163</v>
+      <c r="G28" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
@@ -3525,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S28" s="17">
         <v>1</v>
@@ -3554,20 +4123,20 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="29" spans="3:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C29" s="12">
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="24" t="s">
-        <v>163</v>
+      <c r="G29" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
@@ -3595,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S29" s="17">
         <v>1</v>
@@ -3622,20 +4191,20 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="30" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -3663,10 +4232,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S30" s="14">
         <v>1</v>
@@ -3683,7 +4252,7 @@
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z30" s="14"/>
       <c r="AA30" s="8"/>
@@ -3693,17 +4262,17 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="18"/>
     </row>
-    <row r="31" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -3731,10 +4300,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S31" s="14">
         <v>1</v>
@@ -3758,20 +4327,20 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="32" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -3799,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S32" s="14">
         <v>1</v>
@@ -3827,17 +4396,17 @@
       <c r="AE32" s="14"/>
       <c r="AF32" s="18"/>
     </row>
-    <row r="33" spans="3:32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -3865,10 +4434,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S33" s="14">
         <v>1</v>
@@ -3885,7 +4454,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="8"/>
@@ -3895,17 +4464,17 @@
       <c r="AE33" s="14"/>
       <c r="AF33" s="18"/>
     </row>
-    <row r="34" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:32">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -3933,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S34" s="14">
         <v>1</v>
@@ -3960,17 +4529,17 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="35" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -626,7 +626,7 @@
     <t>宝藏之地</t>
   </si>
   <si>
-    <t>-7000,100,450</t>
+    <t>1800,0,-1250</t>
   </si>
   <si>
     <t>Back_7</t>
@@ -755,9 +755,6 @@
   </si>
   <si>
     <t>宠物天梯</t>
-  </si>
-  <si>
-    <t>1800,0,-1250</t>
   </si>
   <si>
     <t>宠物关卡</t>
@@ -2126,8 +2123,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2949,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="7">
-        <v>2000001</v>
+        <v>10003</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>117</v>
@@ -3512,7 +3509,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="21" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -3573,12 +3570,12 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="21" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -3639,12 +3636,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3705,15 +3702,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3749,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3763,7 +3760,7 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3779,15 +3776,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3823,7 +3820,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3837,7 +3834,7 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3853,7 +3850,7 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3921,7 +3918,7 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3989,12 +3986,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -4044,7 +4041,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -4053,7 +4050,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4061,12 +4058,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
@@ -4123,7 +4120,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4131,12 +4128,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
@@ -4191,7 +4188,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4199,7 +4196,7 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4267,7 +4264,7 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -4327,7 +4324,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4335,7 +4332,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4401,7 +4398,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4469,7 +4466,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
   <si>
     <t>Id</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>密境</t>
-  </si>
-  <si>
-    <t>-1145,50,-2350</t>
   </si>
   <si>
     <t>Fight_1</t>
@@ -2124,7 +2121,7 @@
   <dimension ref="C3:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3009,14 +3006,14 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
         <v>14</v>
       </c>
       <c r="J13" s="7">
-        <v>2000002</v>
+        <v>10003</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>117</v>
@@ -3037,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>67</v>
@@ -3064,7 +3061,7 @@
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3072,12 +3069,12 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -3105,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>67</v>
@@ -3138,12 +3135,12 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -3171,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>67</v>
@@ -3191,7 +3188,7 @@
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="8"/>
@@ -3206,12 +3203,12 @@
         <v>2000008</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -3241,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>67</v>
@@ -3250,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U16" s="14">
         <v>0</v>
@@ -3263,7 +3260,7 @@
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z16" s="14"/>
       <c r="AA16" s="8"/>
@@ -3272,7 +3269,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="3:32">
@@ -3280,15 +3277,15 @@
         <v>2000009</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3297,7 +3294,7 @@
         <v>2000009</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -3324,7 +3321,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U17" s="14">
         <v>0</v>
@@ -3346,7 +3343,7 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="3:32">
@@ -3354,12 +3351,12 @@
         <v>2000010</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -3387,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>67</v>
@@ -3407,7 +3404,7 @@
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z18" s="14"/>
       <c r="AA18" s="8"/>
@@ -3416,7 +3413,7 @@
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3424,15 +3421,15 @@
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>66</v>
@@ -3459,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>68</v>
@@ -3496,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3504,7 +3501,7 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3537,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>67</v>
@@ -3570,7 +3567,7 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3603,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>67</v>
@@ -3636,12 +3633,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3669,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>67</v>
@@ -3702,15 +3699,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3737,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>67</v>
@@ -3746,7 +3743,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3760,7 +3757,7 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3768,7 +3765,7 @@
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="3:32">
@@ -3776,15 +3773,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3811,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>67</v>
@@ -3820,7 +3817,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3834,7 +3831,7 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3842,7 +3839,7 @@
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3850,12 +3847,12 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3883,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>67</v>
@@ -3903,7 +3900,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="8"/>
@@ -3918,12 +3915,12 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3951,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>67</v>
@@ -3971,7 +3968,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="8"/>
@@ -3986,12 +3983,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -4019,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>67</v>
@@ -4028,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U27" s="14">
         <v>100</v>
@@ -4041,7 +4038,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -4050,7 +4047,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4058,12 +4055,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
@@ -4091,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>67</v>
@@ -4120,7 +4117,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4128,12 +4125,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
@@ -4161,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>67</v>
@@ -4188,7 +4185,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4196,12 +4193,12 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -4229,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>67</v>
@@ -4249,7 +4246,7 @@
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z30" s="14"/>
       <c r="AA30" s="8"/>
@@ -4264,12 +4261,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4297,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>67</v>
@@ -4324,7 +4321,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4332,12 +4329,12 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4365,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>67</v>
@@ -4398,12 +4395,12 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4431,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>67</v>
@@ -4451,7 +4448,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="8"/>
@@ -4466,12 +4463,12 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4499,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>67</v>
@@ -4526,7 +4523,7 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="170">
   <si>
     <t>Id</t>
   </si>
@@ -685,13 +685,7 @@
     <t>挑战之地</t>
   </si>
   <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
     <t>Boss</t>
-  </si>
-  <si>
-    <t>35,0,-750</t>
   </si>
   <si>
     <t>2;0,0,3;72000001;1,1</t>
@@ -891,6 +885,9 @@
   </si>
   <si>
     <t>封印之塔</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
   </si>
   <si>
     <t>喜从天降</t>
@@ -1095,12 +1092,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2120,8 +2117,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3074,14 +3071,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
         <v>8</v>
       </c>
       <c r="J14" s="7">
-        <v>2000003</v>
+        <v>10003</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>117</v>
@@ -3102,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>67</v>
@@ -3140,14 +3137,14 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="21" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
         <v>8</v>
       </c>
       <c r="J15" s="7">
-        <v>2000003</v>
+        <v>10003</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>117</v>
@@ -3168,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>67</v>
@@ -3188,7 +3185,7 @@
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="8"/>
@@ -3203,12 +3200,12 @@
         <v>2000008</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -3247,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U16" s="14">
         <v>0</v>
@@ -3260,7 +3257,7 @@
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z16" s="14"/>
       <c r="AA16" s="8"/>
@@ -3269,7 +3266,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="3:32">
@@ -3277,15 +3274,15 @@
         <v>2000009</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3294,7 +3291,7 @@
         <v>2000009</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -3321,7 +3318,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U17" s="14">
         <v>0</v>
@@ -3343,7 +3340,7 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="3:32">
@@ -3351,12 +3348,12 @@
         <v>2000010</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -3384,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>67</v>
@@ -3404,7 +3401,7 @@
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z18" s="14"/>
       <c r="AA18" s="8"/>
@@ -3413,7 +3410,7 @@
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3421,15 +3418,15 @@
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>66</v>
@@ -3456,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>68</v>
@@ -3493,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3501,7 +3498,7 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3534,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>67</v>
@@ -3567,7 +3564,7 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3633,12 +3630,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3699,15 +3696,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3743,7 +3740,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3757,7 +3754,7 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3765,7 +3762,7 @@
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="3:32">
@@ -3773,15 +3770,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3817,7 +3814,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3831,7 +3828,7 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3839,7 +3836,7 @@
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3847,19 +3844,19 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
         <v>13</v>
       </c>
       <c r="J25" s="7">
-        <v>2000004</v>
+        <v>10003</v>
       </c>
       <c r="K25" s="14">
         <v>0</v>
@@ -3880,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>67</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="8"/>
@@ -3915,19 +3912,19 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
         <v>13</v>
       </c>
       <c r="J26" s="7">
-        <v>2000004</v>
+        <v>10003</v>
       </c>
       <c r="K26" s="14">
         <v>0</v>
@@ -3948,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>67</v>
@@ -3968,7 +3965,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="8"/>
@@ -3983,12 +3980,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -4016,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>67</v>
@@ -4025,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U27" s="14">
         <v>100</v>
@@ -4038,7 +4035,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -4047,7 +4044,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4055,12 +4052,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
@@ -4088,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>67</v>
@@ -4117,7 +4114,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4125,12 +4122,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
@@ -4158,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>67</v>
@@ -4185,7 +4182,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4193,12 +4190,12 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="21" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -4226,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>67</v>
@@ -4246,7 +4243,7 @@
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z30" s="14"/>
       <c r="AA30" s="8"/>
@@ -4261,12 +4258,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="21" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4294,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>67</v>
@@ -4321,7 +4318,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4329,12 +4326,12 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="21" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4362,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>67</v>
@@ -4395,12 +4392,12 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="21" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4428,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>67</v>
@@ -4448,7 +4445,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="8"/>
@@ -4463,12 +4460,12 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4496,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>67</v>
@@ -4523,7 +4520,7 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1092,12 +1092,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2117,8 +2117,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W14" s="14">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W15" s="14">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
   <si>
     <t>Id</t>
   </si>
@@ -688,7 +688,7 @@
     <t>Boss</t>
   </si>
   <si>
-    <t>2;0,0,3;72000001;1,1</t>
+    <t>2;18,0,-12.5;72000001;1,1</t>
   </si>
   <si>
     <t>家族争霸赛地图</t>
@@ -863,6 +863,9 @@
     <t>试炼之地</t>
   </si>
   <si>
+    <t>2;0,0,3;72000001;1,1</t>
+  </si>
+  <si>
     <t>勇士角斗</t>
   </si>
   <si>
@@ -887,10 +890,10 @@
     <t>封印之塔</t>
   </si>
   <si>
+    <t>喜从天降</t>
+  </si>
+  <si>
     <t>0,0,0</t>
-  </si>
-  <si>
-    <t>喜从天降</t>
   </si>
   <si>
     <t>宠物矿场</t>
@@ -2117,8 +2120,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3897,7 +3900,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="8"/>
@@ -3965,7 +3968,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="8"/>
@@ -3980,12 +3983,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -4035,7 +4038,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -4044,7 +4047,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4052,12 +4055,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
@@ -4114,7 +4117,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4122,12 +4125,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
@@ -4182,7 +4185,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4190,19 +4193,19 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="21" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
         <v>20</v>
       </c>
       <c r="J30" s="7">
-        <v>2000004</v>
+        <v>10003</v>
       </c>
       <c r="K30" s="14">
         <v>0</v>
@@ -4263,7 +4266,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4318,7 +4321,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4326,12 +4329,12 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4392,12 +4395,12 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4445,7 +4448,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="8"/>
@@ -4460,7 +4463,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -2120,8 +2120,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4334,14 +4334,14 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="21" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
         <v>24</v>
       </c>
       <c r="J32" s="7">
-        <v>100001</v>
+        <v>10003</v>
       </c>
       <c r="K32" s="14">
         <v>0</v>
@@ -4400,14 +4400,14 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="21" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
         <v>25</v>
       </c>
       <c r="J33" s="7">
-        <v>2000004</v>
+        <v>10003</v>
       </c>
       <c r="K33" s="14">
         <v>0</v>
@@ -4468,14 +4468,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
         <v>26</v>
       </c>
       <c r="J34" s="7">
-        <v>2000003</v>
+        <v>10003</v>
       </c>
       <c r="K34" s="14">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -881,7 +881,7 @@
     <t>动物奔跑大赛</t>
   </si>
   <si>
-    <t>1270,98,-4476</t>
+    <t>809,0,-2017</t>
   </si>
   <si>
     <t>恶魔活动地图</t>
@@ -2121,7 +2121,7 @@
   <dimension ref="C3:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4066,8 +4066,8 @@
       <c r="I28" s="12">
         <v>22</v>
       </c>
-      <c r="J28" s="12">
-        <v>2000011</v>
+      <c r="J28" s="7">
+        <v>10003</v>
       </c>
       <c r="K28" s="17">
         <v>0</v>
@@ -4136,8 +4136,8 @@
       <c r="I29" s="12">
         <v>23</v>
       </c>
-      <c r="J29" s="12">
-        <v>2000011</v>
+      <c r="J29" s="7">
+        <v>10003</v>
       </c>
       <c r="K29" s="17">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="170">
   <si>
     <t>Id</t>
   </si>
@@ -891,9 +891,6 @@
   </si>
   <si>
     <t>喜从天降</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
   </si>
   <si>
     <t>宠物矿场</t>
@@ -2121,7 +2118,7 @@
   <dimension ref="C3:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4265,15 +4262,15 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="21" t="s">
-        <v>167</v>
+      <c r="G31" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
         <v>21</v>
       </c>
       <c r="J31" s="7">
-        <v>2000010</v>
+        <v>10003</v>
       </c>
       <c r="K31" s="14">
         <v>0</v>
@@ -4329,7 +4326,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4395,7 +4392,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4463,7 +4460,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="169">
   <si>
     <t>Id</t>
   </si>
@@ -804,7 +804,7 @@
     </r>
   </si>
   <si>
-    <t>-8254,34,0,9990,34,0</t>
+    <t>1046,0,-1876,2559,0,-707</t>
   </si>
   <si>
     <t>40000001,40000002</t>
@@ -869,7 +869,7 @@
     <t>勇士角斗</t>
   </si>
   <si>
-    <t>-1350,57,0</t>
+    <t>809,0,-2017</t>
   </si>
   <si>
     <t>1;-13.5,0,-5;90000006;1,1</t>
@@ -879,9 +879,6 @@
   </si>
   <si>
     <t>动物奔跑大赛</t>
-  </si>
-  <si>
-    <t>809,0,-2017</t>
   </si>
   <si>
     <t>恶魔活动地图</t>
@@ -1676,10 +1673,10 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2117,8 +2114,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2126,8 +2123,8 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="34.875" customWidth="1"/>
     <col min="8" max="8" width="31.625" customWidth="1"/>
     <col min="9" max="9" width="28.125" customWidth="1"/>
     <col min="10" max="11" width="16.75" customWidth="1"/>
@@ -3710,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="7">
-        <v>201</v>
+        <v>10003</v>
       </c>
       <c r="K23" s="14">
         <v>0</v>
@@ -3784,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="7">
-        <v>201</v>
+        <v>10003</v>
       </c>
       <c r="K24" s="14">
         <v>0</v>
@@ -3984,7 +3981,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="25" t="s">
         <v>159</v>
       </c>
       <c r="H27" s="7"/>
@@ -3992,7 +3989,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="7">
-        <v>2000006</v>
+        <v>10003</v>
       </c>
       <c r="K27" s="14">
         <v>0</v>
@@ -4048,19 +4045,19 @@
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <v>6000002</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12">
+        <v>159</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
         <v>22</v>
       </c>
       <c r="J28" s="7">
@@ -4084,16 +4081,16 @@
       <c r="P28" s="17">
         <v>1</v>
       </c>
-      <c r="Q28" s="13" t="s">
+      <c r="Q28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="12" t="s">
         <v>67</v>
       </c>
       <c r="S28" s="17">
         <v>1</v>
       </c>
-      <c r="T28" s="13"/>
+      <c r="T28" s="12"/>
       <c r="U28" s="17">
         <v>0</v>
       </c>
@@ -4104,12 +4101,12 @@
         <v>1</v>
       </c>
       <c r="X28" s="17"/>
-      <c r="Y28" s="12"/>
+      <c r="Y28" s="13"/>
       <c r="Z28" s="17">
         <v>100101</v>
       </c>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
@@ -4118,19 +4115,19 @@
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>6000003</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12">
+        <v>159</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
         <v>23</v>
       </c>
       <c r="J29" s="7">
@@ -4154,16 +4151,16 @@
       <c r="P29" s="17">
         <v>1</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="12" t="s">
         <v>67</v>
       </c>
       <c r="S29" s="17">
         <v>1</v>
       </c>
-      <c r="T29" s="13"/>
+      <c r="T29" s="12"/>
       <c r="U29" s="17">
         <v>0</v>
       </c>
@@ -4174,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="X29" s="17"/>
-      <c r="Y29" s="12"/>
+      <c r="Y29" s="13"/>
       <c r="Z29" s="17"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
@@ -4190,7 +4187,7 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4258,12 +4255,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4326,7 +4323,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4392,7 +4389,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4460,7 +4457,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>我的家园</t>
-  </si>
-  <si>
-    <t>1188,0,-3704</t>
   </si>
   <si>
     <t>30000001,30000002,30000003,30000004,30000005,30000006,30000007,30000008,30000009,30000010,30000013,30000014,30000015,30000016</t>
@@ -2114,8 +2111,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3420,16 +3417,16 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="14">
-        <v>102</v>
+      <c r="J19" s="7">
+        <v>10003</v>
       </c>
       <c r="K19" s="14">
         <v>0</v>
@@ -3450,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>68</v>
@@ -3487,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3495,7 +3492,7 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3561,7 +3558,7 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3627,12 +3624,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3693,15 +3690,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3737,7 +3734,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3751,7 +3748,7 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3767,15 +3764,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3811,7 +3808,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3825,7 +3822,7 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3841,7 +3838,7 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3894,7 +3891,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="8"/>
@@ -3909,7 +3906,7 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3962,7 +3959,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="8"/>
@@ -3977,12 +3974,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -4032,7 +4029,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -4041,7 +4038,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4049,12 +4046,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13">
@@ -4111,7 +4108,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4119,12 +4116,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4179,7 +4176,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4187,7 +4184,7 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4255,12 +4252,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4315,7 +4312,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4323,7 +4320,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4389,7 +4386,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4442,7 +4439,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="8"/>
@@ -4457,7 +4454,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
   <si>
     <t>Id</t>
   </si>
@@ -494,7 +494,7 @@
     <t>ImgBig_13</t>
   </si>
   <si>
-    <t>-4501,0,13033</t>
+    <t>1800,0,-1250</t>
   </si>
   <si>
     <t>Back_11</t>
@@ -524,9 +524,6 @@
     <t>ImgBig_12</t>
   </si>
   <si>
-    <t>-6786,0,-4897</t>
-  </si>
-  <si>
     <t>Back_14</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>ImgBig_14</t>
   </si>
   <si>
-    <t>-1378,0,2202</t>
-  </si>
-  <si>
     <t>Back_15</t>
   </si>
   <si>
@@ -578,9 +572,6 @@
     <t>ImgBig_11</t>
   </si>
   <si>
-    <t>-7000,0,-3025</t>
-  </si>
-  <si>
     <t>Back_13</t>
   </si>
   <si>
@@ -605,9 +596,6 @@
     <t>ImgBig_15</t>
   </si>
   <si>
-    <t>16420,0,-4998</t>
-  </si>
-  <si>
     <t>dixiacheng_1</t>
   </si>
   <si>
@@ -624,9 +612,6 @@
   </si>
   <si>
     <t>宝藏之地</t>
-  </si>
-  <si>
-    <t>1800,0,-1250</t>
   </si>
   <si>
     <t>Back_7</t>
@@ -694,9 +679,6 @@
     <t>家族争霸赛地图</t>
   </si>
   <si>
-    <t>2954,4,-223</t>
-  </si>
-  <si>
     <t>12,100</t>
   </si>
   <si>
@@ -709,9 +691,6 @@
     <t>家族地图</t>
   </si>
   <si>
-    <t>-4190,5,-123</t>
-  </si>
-  <si>
     <t>20000101,20000102,20000103,20000104,20000105,20000106</t>
   </si>
   <si>
@@ -719,9 +698,6 @@
   </si>
   <si>
     <t>竞技场</t>
-  </si>
-  <si>
-    <t>-950,0,80</t>
   </si>
   <si>
     <t>1;-9.5,0,0.8;90000008;1;1@1;10.07,0,0.27;90000009;1;1</t>
@@ -2111,8 +2087,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2516,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="7">
-        <v>100101</v>
+        <v>10003</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>73</v>
@@ -2593,44 +2569,44 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
         <v>5</v>
       </c>
       <c r="J8" s="7">
-        <v>1000002</v>
+        <v>10003</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="U8" s="14">
         <v>2</v>
@@ -2645,7 +2621,7 @@
         <v>72002013</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8" t="s">
@@ -2662,7 +2638,7 @@
         <v>601500301</v>
       </c>
       <c r="AF8" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -2670,51 +2646,51 @@
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="21" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
         <v>5</v>
       </c>
       <c r="J9" s="7">
-        <v>100102</v>
+        <v>10003</v>
       </c>
       <c r="K9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
@@ -2729,7 +2705,7 @@
         <v>72003013</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8" t="s">
@@ -2746,7 +2722,7 @@
         <v>601500401</v>
       </c>
       <c r="AF9" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -2754,51 +2730,51 @@
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="21" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="15">
         <v>5</v>
       </c>
       <c r="J10" s="7">
-        <v>1000001</v>
+        <v>10003</v>
       </c>
       <c r="K10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="U10" s="14">
         <v>2</v>
@@ -2813,7 +2789,7 @@
         <v>72004013</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8" t="s">
@@ -2830,7 +2806,7 @@
         <v>601500501</v>
       </c>
       <c r="AF10" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -2838,24 +2814,24 @@
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="21" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="15">
         <v>5</v>
       </c>
       <c r="J11" s="7">
-        <v>2000007</v>
+        <v>10003</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L11" s="14">
         <v>1</v>
@@ -2873,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
@@ -2898,7 +2874,7 @@
       </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>78</v>
@@ -2914,7 +2890,7 @@
         <v>601500501</v>
       </c>
       <c r="AF11" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -2922,12 +2898,12 @@
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2937,7 +2913,7 @@
         <v>10003</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L12" s="14">
         <v>1</v>
@@ -2955,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>67</v>
@@ -2975,7 +2951,7 @@
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2984,7 +2960,7 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -2992,12 +2968,12 @@
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -3007,7 +2983,7 @@
         <v>10003</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L13" s="14">
         <v>1</v>
@@ -3025,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>67</v>
@@ -3052,7 +3028,7 @@
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3060,12 +3036,12 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -3075,7 +3051,7 @@
         <v>10003</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -3093,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>67</v>
@@ -3126,12 +3102,12 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -3141,7 +3117,7 @@
         <v>10003</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -3159,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>67</v>
@@ -3179,7 +3155,7 @@
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="8"/>
@@ -3194,12 +3170,12 @@
         <v>2000008</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="21" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -3208,10 +3184,10 @@
         <v>18</v>
       </c>
       <c r="J16" s="7">
-        <v>2000008</v>
+        <v>10003</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L16" s="14">
         <v>1</v>
@@ -3229,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>67</v>
@@ -3238,7 +3214,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="U16" s="14">
         <v>0</v>
@@ -3251,7 +3227,7 @@
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Z16" s="14"/>
       <c r="AA16" s="8"/>
@@ -3260,7 +3236,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="3:32">
@@ -3268,24 +3244,24 @@
         <v>2000009</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="21" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
       </c>
       <c r="J17" s="7">
-        <v>2000009</v>
+        <v>10003</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -3303,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>67</v>
@@ -3312,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="U17" s="14">
         <v>0</v>
@@ -3334,7 +3310,7 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="3:32">
@@ -3342,19 +3318,19 @@
         <v>2000010</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="21" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <v>19</v>
       </c>
       <c r="J18" s="7">
-        <v>2000003</v>
+        <v>10003</v>
       </c>
       <c r="K18" s="14">
         <v>0</v>
@@ -3375,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>67</v>
@@ -3395,7 +3371,7 @@
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="14"/>
       <c r="AA18" s="8"/>
@@ -3404,7 +3380,7 @@
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3412,15 +3388,15 @@
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>66</v>
@@ -3447,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>68</v>
@@ -3484,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3492,12 +3468,12 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -3525,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>67</v>
@@ -3558,12 +3534,12 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -3591,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>67</v>
@@ -3624,12 +3600,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3657,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>67</v>
@@ -3690,15 +3666,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3725,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>67</v>
@@ -3734,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3748,7 +3724,7 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="24" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3756,7 +3732,7 @@
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="3:32">
@@ -3764,15 +3740,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3799,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>67</v>
@@ -3808,7 +3784,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3822,7 +3798,7 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="24" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3830,7 +3806,7 @@
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -3838,12 +3814,12 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3871,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>67</v>
@@ -3891,7 +3867,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="8"/>
@@ -3906,12 +3882,12 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3939,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>67</v>
@@ -3959,7 +3935,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="8"/>
@@ -3974,12 +3950,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -4007,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>67</v>
@@ -4016,7 +3992,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="U27" s="14">
         <v>100</v>
@@ -4029,7 +4005,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -4038,7 +4014,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4046,12 +4022,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13">
@@ -4079,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R28" s="12" t="s">
         <v>67</v>
@@ -4108,7 +4084,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4116,12 +4092,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4149,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R29" s="12" t="s">
         <v>67</v>
@@ -4176,7 +4152,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4184,12 +4160,12 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -4217,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>67</v>
@@ -4237,7 +4213,7 @@
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z30" s="14"/>
       <c r="AA30" s="8"/>
@@ -4252,12 +4228,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4285,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>67</v>
@@ -4312,7 +4288,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4320,12 +4296,12 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4353,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>67</v>
@@ -4386,12 +4362,12 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4419,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>67</v>
@@ -4439,7 +4415,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="8"/>
@@ -4454,12 +4430,12 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4487,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>67</v>
@@ -4514,7 +4490,7 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
   <si>
     <t>Id</t>
   </si>
@@ -605,7 +605,7 @@
     <t>60,70</t>
   </si>
   <si>
-    <t>40001</t>
+    <t>20001</t>
   </si>
   <si>
     <t>35,89,10,0,90</t>
@@ -786,9 +786,6 @@
     <t>10,29</t>
   </si>
   <si>
-    <t>10001,30001,30101,30201</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -828,9 +825,6 @@
   </si>
   <si>
     <t>30,100</t>
-  </si>
-  <si>
-    <t>11001,30001,30101,30201</t>
   </si>
   <si>
     <t>试炼之地</t>
@@ -1682,9 +1676,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2087,8 +2078,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3723,8 +3714,8 @@
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="24" t="s">
-        <v>143</v>
+      <c r="Z23" s="14">
+        <v>20001</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3740,7 +3731,7 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -3784,7 +3775,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3797,8 +3788,8 @@
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="24" t="s">
-        <v>146</v>
+      <c r="Z24" s="14">
+        <v>20001</v>
       </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -3814,7 +3805,7 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3867,7 +3858,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="8"/>
@@ -3882,7 +3873,7 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3935,7 +3926,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="8"/>
@@ -3950,12 +3941,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="25" t="s">
-        <v>150</v>
+      <c r="G27" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -4005,7 +3996,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="8"/>
@@ -4014,7 +4005,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4022,12 +4013,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="25" t="s">
-        <v>150</v>
+      <c r="G28" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13">
@@ -4076,7 +4067,7 @@
       <c r="X28" s="17"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="17">
-        <v>100101</v>
+        <v>20001</v>
       </c>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
@@ -4084,7 +4075,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4092,12 +4083,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="25" t="s">
-        <v>150</v>
+      <c r="G29" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4152,7 +4143,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4160,7 +4151,7 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4228,12 +4219,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="25" t="s">
-        <v>150</v>
+      <c r="G31" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4288,7 +4279,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
@@ -4296,7 +4287,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4362,7 +4353,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4415,7 +4406,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="8"/>
@@ -4430,7 +4421,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
@@ -2078,8 +2078,8 @@
   <sheetPr/>
   <dimension ref="C3:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -428,9 +428,6 @@
     <t>BossId</t>
   </si>
   <si>
-    <t>CreateMonster</t>
-  </si>
-  <si>
     <t>CreateMonsterPosi</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>20001</t>
+  </si>
+  <si>
     <t>10,100,20,0,90</t>
   </si>
   <si>
@@ -509,9 +509,6 @@
     <t>18,29</t>
   </si>
   <si>
-    <t>1;15.83,0.05,-69.15;72001003;1@1;53.82,0.05,-67.31;72001004;1@1;-43.27,0.02,101.65;72001003;1@1;-29.75,0.05,55.92;72001003;1@1;-19.51,0.02,61.98;72001002;1@1;90.89,0.06,63.31;72001013;1@1;35.00,0.08,-63.73;72001012;1@1;-24.23,0.15,6.05;72001011;1@1;-34.08,0.05,121.12;72001001;1@1;-31.42,0.03,116.10;72001001;1@1;-30.16,0.04,111.97;72001001;1@1;-28.55,0.03,106.66;72001001;1@1;-27.29,0.04,102.53;72001001;1@1;-27.80,0.04,90.87;72001001;1@1;-29.06,0.03,95.00;72001001;1@1;-41.42,0.03,93.67;72001001;1@1;-40.16,0.04,89.54;72001001;1@1;-13.78,0.03,-36.14;72001001;1@1;-12.52,0.04,-40.27;72001001;1@1;-24.60,0.04,-38.69;72001001;1@1;-25.86,0.03,-34.55;72001001;1@1;-23.05,0.04,-48.54;72001001;1@1;-24.31,0.03,-44.41;72001001;1@1;-3.99,0.04,-51.50;72001001;1@1;-8.19,0.03,-49.74;72001001;1@1;-13.84,0.04,-59.26;72001001;1@1;-18.04,0.03,-57.50;72001001;1@1;58.35,0.04,-27.84;72001001;1@1;58.47,0.03,-23.88;72001001;1@1;71.76,0.04,-28.74;72001001;1@1;71.88,0.03,-24.78;72001001;1@1;71.32,0.04,-13.76;72001001;1@1;71.44,0.03,-9.80;72001001;1@1;60.80,0.04,-14.32;72001001;1@1;60.92,0.03,-10.36;72001001;1@1;87.37,0.03,46.68;72001001;1@1;83.34,0.04,41.53;72001001;1@1;81.91,0.03,47.71;72001001;1@1;75.57,0.03,45.78;72001001;1@1;83.25,0.03,53.93;72001001;1@1;74.54,0.03,71.98;72001001;1@1;75.88,0.03,78.20;72001001;1@1;75.97,0.04,65.80;72001001;1@1;-27.64,0.02,61.98;72001002;1@1;-17.63,0.02,50.00;72001002;1@1;-25.76,0.02,50.00;72001002;1@1;-13.19,0.05,55.74;72001003;1@1;-28.97,0.05,68.46;72001001;1@1;-16.77,0.05,69.24;72001001;1@1;-25.02,0.05,81.74;72001001;1@1;-42.70,0.02,109.76;72001002;1@1;-42.21,0.02,113.21;72001002;1@1;-38.99,0.02,85.59;72001003;1@1;-32.83,0.02,73.98;72001003;1@1;-20.69,0.02,75.10;72001003;1@1;-25.80,0.02,42.21;72001002;1@1;-16.57,0.02,41.06;72001002;1@1;-16.57,0.02,37.23;72001002;1@1;-25.80,0.02,38.38;72001002;1@1;-18.17,0.02,25.93;72001002;1@1;-26.30,0.02,25.93;72001002;1@1;-26.30,0.02,22.10;72001002;1@1;-18.17,0.02,22.10;72001002;1@1;-19.56,0.02,-14.21;72001002;1@1;-27.69,0.02,-14.21;72001002;1@1;-27.69,0.02,-10.38;72001002;1@1;-19.56,0.02,-10.38;72001002;1@1;-19.56,0.02,-20.77;72001002;1@1;-27.69,0.02,-20.77;72001002;1@1;-27.69,0.02,-24.60;72001002;1@1;-19.56,0.02,-24.60;72001002;1@1;19.42,0.05,-69.15;72001003;1@1;22.84,0.05,-69.15;72001003;1@1;15.83,0.05,-55.83;72001003;1@1;19.42,0.05,-55.83;72001003;1@1;22.84,0.05,-55.83;72001003;1@1;5.96,0.05,-54.84;72001003;1@1;2.54,0.05,-54.84;72001003;1@1;3.98,0.05,-67.26;72001003;1@1;7.40,0.05,-67.26;72001003;1@1;48.98,0.05,-54.24;72001004;1@1;68.83,0.05,-59.24;72001004;1@1;70.55,0.05,-44.22;72001004;1@1;63.15,0.05,-65.04;72001004;1@1;54.28,0.05,-49.76;72001004;1@1;70.55,0.05,-51.83;72001004;1@1;57.12,0.05,-42.69;72001004;1@1;67.07,0.02,-35.95;72001002;1@1;57.23,0.02,-35.04;72001002;1@1;60.58,0.02,2.08;72001002;1@1;70.56,0.02,2.08;72001002;1@1;60.58,0.02,5.77;72001002;1@1;70.56,0.02,5.77;72001002;1@1;63.26,0.02,21.87;72001002;1@1;72.07,0.02,18.16;72001002;1@1;72.07,0.02,21.85;72001002;1@1;63.26,0.02,25.56;72001002;1@1;60.30,0.05,14.63;72001004;1@1;72.32,0.05,12.44;72001004;1@1;62.65,0.05,33.72;72001004;1@1;74.67,0.05,31.53;72001004;1@1;80.25,0.05,36.90;72001004;1@1;65.09,0.05,50.98;72001004;1@1;65.90,0.02,65.19;72001002;1@1;65.90,0.02,60.08;72001002;1@1;62.90,0.02,41.10;72001002;1@1;80.50,0.02,74.00;72001002;1@1;91.21,0.05,50.10;72001003;1@1;68.40,0.05,69.29;72001003;1@1;80.25,0.05,69.29;72001003;1</t>
-  </si>
-  <si>
     <t>在人们眼中,这片区域有很深未知的东西,亲爱的冒险者,你准备好开始探险了嘛</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
     <t>30,39</t>
   </si>
   <si>
-    <t>2;-57.85,0.00,-51.78;72002001;2,2@2;-53.80,0.00,-41.19;72002001;2,2@2;-33.00,0.00,-53.09;72002002;2,2@2;-30.57,0.00,-41.94;72002002;2,2@2;-19.95,0.00,-53.09;72002001;2,2@2;-16.77,0.00,-40.30;72002003;2,2@2;19.17,0.00,-42.20;72002003;3,2@2;32.40,0.00,-48.68;72002002;3,2@2;41.68,0.00,-43.57;72002004;3,2@2;53.46,0.00,-47.85;72002001;3,2@2;65.84,0.00,-47.85;72002003;3,2@2;65.84,0.00,-22.00;72002003;3,2@2;55.70,0.00,2.50;72002002;3,2@2;66.00,0.00,13.10;72002004;3,2@2;54.20,0.00,28.80;72002001;3,2@2;66.60,0.00,43.10;72002003;3,2@2;-0.20,0.00,-46.67;72002003;1,2@2;59.60,0.00,-34.80;72002002;1,2@2;60.58,0.00,56.04;72002004;1,2@2;-0.2,0.00,-46.67;72002011;1,2@2;59.6,0.00,-34.8;72002012;1,2@2;60.58,0.00,56.04;72002013;1,2</t>
-  </si>
-  <si>
     <t>0.3,100,4,0,65</t>
   </si>
   <si>
@@ -560,9 +554,6 @@
     <t>40,49</t>
   </si>
   <si>
-    <t>1;95.45,0.05,200.41;72003002;1@1;64.65,0.05,196.05;72003004;1@1;47.22,0.05,192.84;72003003;1@1;112.18,0.10,175.26;72003013;1@1;13.74,0.05,187.48;72003012;1@1;59.70,0.02,79.04;72003001;1@1;-6.29,0.01,32.34;72003004;1@1;21.02,0.05,28.33;72003002;1@1;-3.98,0.05,28.95;72003003;1@1;113.41,0.01,7.43;72003011;1@1;-7.03,0.01,14.31;72003004;1@1;-7.78,0.05,28.95;72003003;1@1;-3.98,0.05,18.00;72003003;1@1;-7.78,0.05,18.00;72003003;1@1;6.85,0.05,27.04;72003003;1@1;3.05,0.05,27.20;72003003;1@1;3.05,0.05,16.65;72003003;1@1;7.87,0.05,17.35;72003003;1@1;21.02,0.05,19.07;72003002;1@1;14.19,0.05,19.07;72003002;1@1;12.07,0.01,28.50;72003004;1@1;15.71,0.01,28.50;72003004;1@1;17.06,0.01,16.52;72003004;1@1;37.69,0.05,19.07;72003002;1@1;30.86,0.05,19.07;72003002;1@1;27.89,0.01,31.55;72003004;1@1;31.39,0.01,31.55;72003004;1@1;42.86,0.05,27.04;72003003;1@1;49.43,0.05,27.04;72003003;1@1;63.84,0.05,28.64;72003003;1@1;38.53,0.01,27.33;72003004;1@1;57.57,0.05,19.07;72003002;1@1;61.60,0.05,19.07;72003002;1@1;67.17,0.01,15.81;72003004;1@1;70.56,0.01,15.81;72003004;1@1;96.06,0.05,13.60;72003002;1@1;104.48,0.05,22.79;72003002;1@1;107.40,0.05,20.37;72003002;1@1;99.00,0.05,9.38;72003002;1@1;78.87,0.05,49.57;72003002;1@1;81.81,0.05,45.35;72003002;1@1;75.75,0.05,54.13;72003002;1@1;72.81,0.05,58.35;72003002;1@1;98.80,0.01,40.49;72003004;1@1;92.33,0.01,46.77;72003004;1@1;81.18,0.01,66.51;72003004;1@1;81.28,0.01,76.63;72003004;1@1;82.51,0.01,73.72;72003004;1@1;63.91,0.02,81.51;72003001;1@1;66.23,0.02,100.55;72003001;1@1;65.62,0.02,107.81;72003001;1@1;47.25,0.02,110.75;72003001;1@1;43.04,0.02,110.24;72003001;1@1;58.03,0.02,113.07;72003001;1@1;51.21,0.02,138.55;72003001;1@1;49.37,0.02,140.86;72003001;1@1;30.38,0.02,141.83;72003001;1@1;28.54,0.02,144.14;72003001;1@1;11.64,0.02,175.94;72003001;1@1;13.48,0.02,173.63;72003001;1@1;58.83,0.05,89.52;72003002;1@1;66.22,0.05,73.00;72003002;1@1;50.36,0.05,104.18;72003002;1@1;42.75,0.05,119.94;72003002;1@1;35.94,0.05,136.90;72003002;1@1;28.68,0.05,153.05;72003002;1@1;19.44,0.05,168.40;72003002;1@1;27.05,0.05,190.03;72003002;1@1;31.31,0.05,190.03;72003002;1@1;39.19,0.05,160.07;72003002;1@1;36.49,0.05,162.93;72003002;1@1;44.15,0.05,145.40;72003002;1@1;50.83,0.05,130.10;72003002;1@1;43.49,0.05,192.01;72003003;1@1;48.72,0.05,180.24;72003003;1@1;44.99,0.05,179.41;72003003;1@1;57.49,0.05,194.97;72003003;1@1;53.76,0.05,194.14;72003003;1@1;55.26,0.05,179.41;72003003;1@1;58.99,0.05,180.24;72003003;1@1;75.80,0.05,185.48;72003003;1@1;72.07,0.05,184.65;72003003;1@1;73.64,0.05,197.56;72003003;1@1;77.37,0.05,198.39;72003003;1@1;65.64,0.05,183.27;72003004;1@1;86.56,0.05,203.82;72003004;1@1;89.94,0.05,204.89;72003004;1@1;102.32,0.05,201.17;72003002;1@1;106.70,0.05,197.97;72003002;1@1;90.05,0.05,182.51;72003002;1@1;94.74,0.05,176.71;72003002;1@1;99.26,0.05,179.77;72003002;1@1;109.80,0.05,193.34;72003002;1</t>
-  </si>
-  <si>
     <t>46.9,93.7,105,0,105</t>
   </si>
   <si>
@@ -584,9 +575,6 @@
     <t>50,60</t>
   </si>
   <si>
-    <t>2;-63.68,0.00,-19.01;72004001;2,2@2;-59.98,0.00,-29.94;72004002;3,2@2;-50.79,0.00,-14.70;72004003;2,2@2;-53.02,0.00,-26.89;72004001;1,2@2;-42.31,0.00,-21.28;72004002;2,2@2;-32.92,0.00,-13.48;72004003;3,2@2;-29.77,0.00,1.95;72004001;3,2@2;-19.55,0.00,6.14;72004002;2,2@2;-13.70,0.00,19.63;72004003;2,2@2;8.41,0.00,22.25;72004001;2,2@2;8.41,0.00,7.63;72004002;3,2@2;19.56,0.00,12.95;72004003;3,2@2;22.40,0.00,-8.74;72004001;1,2@2;36.11,0.00,-1.34;72004002;2,2@2;31.25,0.00,-14.41;72004003;2,2@2;44.26,0.00,-15.08;72004001;2,2@2;57.41,0.00,-15.08;72004002;3,2@2;52.62,0.00,-2.73;72004003;3,2@2;60.99,0.00,2.35;72004002;2,2@2;68.36,0.00,-15.66;72004003;2,2@2;-33,0.00,-4.26;72004011;1,2@2;0.61,0.00,25.13;72004012;1,2@2;72.48,0.00,0.34;72004013;1,2</t>
-  </si>
-  <si>
     <t>4,100,4,0,65</t>
   </si>
   <si>
@@ -605,9 +593,6 @@
     <t>60,70</t>
   </si>
   <si>
-    <t>20001</t>
-  </si>
-  <si>
     <t>35,89,10,0,90</t>
   </si>
   <si>
@@ -615,9 +600,6 @@
   </si>
   <si>
     <t>Back_7</t>
-  </si>
-  <si>
-    <t>5;-5.5,0,4;72009001;2,15;2000,2100,2200@5;-50,0,2;72009001;1,15;2000,2100,2200@5;-50,0,2;72009001;2,15;2000,2100,2200@5;-29,0,0;72009002;1,1;2115@5;-29,0,0;72009003;1,1;1230</t>
   </si>
   <si>
     <t>-30,100,3,0,32</t>
@@ -673,18 +655,12 @@
     <t>Boss</t>
   </si>
   <si>
-    <t>2;18,0,-12.5;72000001;1,1</t>
-  </si>
-  <si>
     <t>家族争霸赛地图</t>
   </si>
   <si>
     <t>12,100</t>
   </si>
   <si>
-    <t>1;29.54,0.04,-17.23;90000007;1,1@5;-33.91,0,22.9;70009051;1,1;2135,2145,2155@5;-32.1,0,-22.2;70009061;1,1;2135,2145,2155</t>
-  </si>
-  <si>
     <t>-34,20.41,0,0,50</t>
   </si>
   <si>
@@ -698,9 +674,6 @@
   </si>
   <si>
     <t>竞技场</t>
-  </si>
-  <si>
-    <t>1;-9.5,0,0.8;90000008;1;1@1;10.07,0,0.27;90000009;1;1</t>
   </si>
   <si>
     <t>9.5,156,0,0,70</t>
@@ -830,16 +803,10 @@
     <t>试炼之地</t>
   </si>
   <si>
-    <t>2;0,0,3;72000001;1,1</t>
-  </si>
-  <si>
     <t>勇士角斗</t>
   </si>
   <si>
     <t>809,0,-2017</t>
-  </si>
-  <si>
-    <t>1;-13.5,0,-5;90000006;1,1</t>
   </si>
   <si>
     <t>4,160,3,0,20</t>
@@ -1056,12 +1023,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1607,7 +1574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1660,9 +1627,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2076,10 +2040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AF35"/>
+  <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2100,15 +2064,15 @@
     <col min="20" max="21" width="9" customWidth="1"/>
     <col min="22" max="23" width="11.375" customWidth="1"/>
     <col min="24" max="24" width="13.75" customWidth="1"/>
-    <col min="25" max="26" width="22" customWidth="1"/>
-    <col min="27" max="27" width="17.375" customWidth="1"/>
-    <col min="28" max="28" width="16.375" customWidth="1"/>
-    <col min="29" max="29" width="18" customWidth="1"/>
-    <col min="31" max="31" width="9.375" customWidth="1"/>
-    <col min="32" max="32" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="39.75" customWidth="1"/>
+    <col min="26" max="26" width="17.375" customWidth="1"/>
+    <col min="27" max="27" width="16.375" customWidth="1"/>
+    <col min="28" max="28" width="18" customWidth="1"/>
+    <col min="30" max="30" width="9.375" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2179,28 +2143,25 @@
         <v>22</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2288,121 +2249,115 @@
       <c r="AE4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="5" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="R5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="U5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="5" t="s">
         <v>59</v>
       </c>
       <c r="Z5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C6" s="7">
         <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="J6" s="14">
         <v>101</v>
@@ -2427,44 +2382,45 @@
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="14">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="14">
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
       <c r="AC6" s="14">
         <v>0</v>
       </c>
       <c r="AD6" s="14">
         <v>0</v>
       </c>
-      <c r="AE6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="18" t="s">
+      <c r="AE6" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
@@ -2475,7 +2431,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="9"/>
@@ -2525,41 +2481,40 @@
         <v>0</v>
       </c>
       <c r="X7" s="14">
-        <v>72001013</v>
-      </c>
-      <c r="Y7" s="21" t="s">
+        <v>81000002</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8" t="s">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="14">
+        <v>28000</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>601500201</v>
+      </c>
+      <c r="AE7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="14">
-        <v>28000</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>601500201</v>
-      </c>
-      <c r="AF7" s="18" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="7"/>
@@ -2570,34 +2525,34 @@
         <v>10003</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="U8" s="14">
         <v>2</v>
@@ -2609,41 +2564,40 @@
         <v>0</v>
       </c>
       <c r="X8" s="14">
-        <v>72002013</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB8" s="8"/>
+        <v>81000002</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="14">
+        <v>58000</v>
+      </c>
       <c r="AC8" s="14">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="14">
         <v>601500301</v>
       </c>
-      <c r="AF8" s="18" t="s">
-        <v>87</v>
+      <c r="AE8" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H9" s="7"/>
@@ -2654,34 +2608,34 @@
         <v>10003</v>
       </c>
       <c r="K9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
@@ -2693,41 +2647,40 @@
         <v>0</v>
       </c>
       <c r="X9" s="14">
-        <v>72003013</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB9" s="8"/>
+        <v>81000002</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="14">
+        <v>88000</v>
+      </c>
       <c r="AC9" s="14">
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="14">
         <v>601500401</v>
       </c>
-      <c r="AF9" s="18" t="s">
-        <v>95</v>
+      <c r="AE9" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="9"/>
@@ -2738,34 +2691,34 @@
         <v>10003</v>
       </c>
       <c r="K10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="U10" s="14">
         <v>2</v>
@@ -2777,41 +2730,40 @@
         <v>0</v>
       </c>
       <c r="X10" s="14">
-        <v>72004013</v>
-      </c>
-      <c r="Y10" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB10" s="8"/>
+        <v>81000002</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="14">
+        <v>118000</v>
+      </c>
       <c r="AC10" s="14">
-        <v>118000</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="14">
         <v>601500501</v>
       </c>
-      <c r="AF10" s="18" t="s">
-        <v>103</v>
+      <c r="AE10" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="9"/>
@@ -2822,7 +2774,7 @@
         <v>10003</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L11" s="14">
         <v>1</v>
@@ -2840,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
@@ -2861,39 +2813,38 @@
         <v>0</v>
       </c>
       <c r="X11" s="14">
-        <v>72005013</v>
-      </c>
-      <c r="Y11" s="8"/>
+        <v>81000002</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="Z11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB11" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="14">
+        <v>158000</v>
+      </c>
       <c r="AC11" s="14">
-        <v>158000</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="14">
         <v>601500501</v>
       </c>
-      <c r="AF11" s="18" t="s">
-        <v>110</v>
+      <c r="AE11" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="7"/>
@@ -2904,7 +2855,7 @@
         <v>10003</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L12" s="14">
         <v>1</v>
@@ -2922,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S12" s="14">
         <v>1</v>
@@ -2941,29 +2892,28 @@
         <v>0</v>
       </c>
       <c r="X12" s="14"/>
-      <c r="Y12" s="19" t="s">
-        <v>113</v>
+      <c r="Y12" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="22" t="s">
-        <v>114</v>
+      <c r="AE12" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="7"/>
@@ -2974,7 +2924,7 @@
         <v>10003</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L13" s="14">
         <v>1</v>
@@ -2992,10 +2942,10 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S13" s="14">
         <v>1</v>
@@ -3011,27 +2961,28 @@
         <v>0</v>
       </c>
       <c r="X13" s="14"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="14"/>
+      <c r="Y13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
+      <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="18" t="s">
-        <v>117</v>
+      <c r="AE13" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="7"/>
@@ -3042,7 +2993,7 @@
         <v>10003</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -3060,10 +3011,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S14" s="14">
         <v>1</v>
@@ -3079,25 +3030,26 @@
         <v>0</v>
       </c>
       <c r="X14" s="14"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="14"/>
+      <c r="Y14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
+      <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="18"/>
+      <c r="AE14" s="18"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="7"/>
@@ -3108,7 +3060,7 @@
         <v>10003</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -3126,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S15" s="14">
         <v>1</v>
@@ -3145,27 +3097,26 @@
         <v>0</v>
       </c>
       <c r="X15" s="14"/>
-      <c r="Y15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z15" s="14"/>
+      <c r="Y15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
+      <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="18"/>
+      <c r="AE15" s="18"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:32">
+    <row r="16" ht="20.1" customHeight="1" spans="3:31">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="7">
@@ -3178,7 +3129,7 @@
         <v>10003</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L16" s="14">
         <v>1</v>
@@ -3196,16 +3147,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S16" s="14">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U16" s="14">
         <v>0</v>
@@ -3217,33 +3168,32 @@
         <v>0</v>
       </c>
       <c r="X16" s="14"/>
-      <c r="Y16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z16" s="14"/>
+      <c r="Y16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
+      <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="22" t="s">
-        <v>124</v>
+      <c r="AE16" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:32">
+    <row r="17" ht="20.1" customHeight="1" spans="3:31">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>126</v>
+      <c r="H17" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3252,7 +3202,7 @@
         <v>10003</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -3270,16 +3220,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S17" s="14">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U17" s="14">
         <v>0</v>
@@ -3291,29 +3241,30 @@
         <v>0</v>
       </c>
       <c r="X17" s="14">
-        <v>72005013</v>
-      </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="14"/>
+        <v>81000002</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
+      <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="22" t="s">
-        <v>124</v>
+      <c r="AE17" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:32">
+    <row r="18" ht="20.1" customHeight="1" spans="3:31">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H18" s="7"/>
@@ -3342,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S18" s="14">
         <v>1</v>
@@ -3361,36 +3312,35 @@
         <v>1</v>
       </c>
       <c r="X18" s="14"/>
-      <c r="Y18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z18" s="14"/>
+      <c r="Y18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
+      <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="18" t="s">
-        <v>130</v>
+      <c r="AE18" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" s="7">
         <v>10003</v>
@@ -3414,56 +3364,57 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S19" s="14">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0</v>
-      </c>
-      <c r="W19" s="14">
-        <v>0</v>
-      </c>
-      <c r="X19" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
       <c r="AC19" s="14">
         <v>0</v>
       </c>
       <c r="AD19" s="14">
         <v>0</v>
       </c>
-      <c r="AE19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="18" t="s">
-        <v>134</v>
+      <c r="AE19" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="7"/>
@@ -3492,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S20" s="14">
         <v>1</v>
@@ -3511,25 +3462,26 @@
         <v>0</v>
       </c>
       <c r="X20" s="14"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="14"/>
+      <c r="Y20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
+      <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="18"/>
+      <c r="AE20" s="18"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H21" s="7"/>
@@ -3558,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S21" s="14">
         <v>1</v>
@@ -3577,26 +3529,27 @@
         <v>0</v>
       </c>
       <c r="X21" s="14"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="14"/>
+      <c r="Y21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
+      <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="18"/>
+      <c r="AE21" s="18"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="21" t="s">
-        <v>138</v>
+      <c r="G22" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3624,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S22" s="14">
         <v>1</v>
@@ -3643,29 +3596,30 @@
         <v>0</v>
       </c>
       <c r="X22" s="14"/>
-      <c r="Y22" s="8"/>
+      <c r="Y22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
+      <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="18"/>
+      <c r="AE22" s="18"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:32">
+    <row r="23" ht="20.1" customHeight="1" spans="3:31">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="21" t="s">
-        <v>140</v>
+      <c r="G23" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3692,16 +3646,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S23" s="14">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3713,33 +3667,32 @@
         <v>0</v>
       </c>
       <c r="X23" s="14"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="14">
-        <v>20001</v>
-      </c>
+      <c r="Y23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
+      <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="18" t="s">
-        <v>130</v>
+      <c r="AE23" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:32">
+    <row r="24" ht="20.1" customHeight="1" spans="3:31">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="21" t="s">
-        <v>140</v>
+      <c r="G24" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3766,16 +3719,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S24" s="14">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3787,29 +3740,28 @@
         <v>0</v>
       </c>
       <c r="X24" s="14"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="14">
-        <v>20001</v>
-      </c>
+      <c r="Y24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
+      <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="18" t="s">
-        <v>130</v>
+      <c r="AE24" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="7"/>
@@ -3838,10 +3790,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S25" s="14">
         <v>1</v>
@@ -3857,27 +3809,26 @@
         <v>0</v>
       </c>
       <c r="X25" s="14"/>
-      <c r="Y25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z25" s="14"/>
+      <c r="Y25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
+      <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="18"/>
+      <c r="AE25" s="18"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="7"/>
@@ -3906,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S26" s="14">
         <v>1</v>
@@ -3925,28 +3876,27 @@
         <v>0</v>
       </c>
       <c r="X26" s="14"/>
-      <c r="Y26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z26" s="14"/>
+      <c r="Y26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
+      <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="18"/>
+      <c r="AE26" s="18"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:32">
+    <row r="27" ht="20.1" customHeight="1" spans="3:31">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="24" t="s">
-        <v>148</v>
+      <c r="G27" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3974,16 +3924,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S27" s="14">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U27" s="14">
         <v>100</v>
@@ -3995,30 +3945,29 @@
         <v>0</v>
       </c>
       <c r="X27" s="14"/>
-      <c r="Y27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z27" s="14"/>
+      <c r="Y27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
+      <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="18" t="s">
-        <v>150</v>
+      <c r="AE27" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C28" s="13">
         <v>6000002</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="24" t="s">
-        <v>148</v>
+      <c r="G28" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13">
@@ -4046,10 +3995,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S28" s="17">
         <v>1</v>
@@ -4065,30 +4014,29 @@
         <v>1</v>
       </c>
       <c r="X28" s="17"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="17">
-        <v>20001</v>
-      </c>
+      <c r="Y28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
+      <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="20" t="s">
-        <v>150</v>
+      <c r="AE28" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C29" s="13">
         <v>6000003</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="24" t="s">
-        <v>148</v>
+      <c r="G29" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4116,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S29" s="17">
         <v>1</v>
@@ -4135,27 +4083,28 @@
         <v>1</v>
       </c>
       <c r="X29" s="17"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="17"/>
+      <c r="Y29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
+      <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="20" t="s">
-        <v>150</v>
+      <c r="AE29" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H30" s="7"/>
@@ -4184,10 +4133,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S30" s="14">
         <v>1</v>
@@ -4203,28 +4152,27 @@
         <v>0</v>
       </c>
       <c r="X30" s="14"/>
-      <c r="Y30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z30" s="14"/>
+      <c r="Y30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
+      <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="18"/>
+      <c r="AE30" s="18"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="24" t="s">
-        <v>148</v>
+      <c r="G31" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4252,10 +4200,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S31" s="14">
         <v>1</v>
@@ -4271,27 +4219,28 @@
         <v>0</v>
       </c>
       <c r="X31" s="14"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="14"/>
+      <c r="Y31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
+      <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="18" t="s">
-        <v>150</v>
+      <c r="AE31" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="7"/>
@@ -4320,10 +4269,10 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S32" s="14">
         <v>1</v>
@@ -4339,25 +4288,26 @@
         <v>0</v>
       </c>
       <c r="X32" s="14"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="14"/>
+      <c r="Y32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
+      <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="18"/>
+      <c r="AE32" s="18"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:32">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H33" s="7"/>
@@ -4386,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S33" s="14">
         <v>1</v>
@@ -4405,27 +4355,26 @@
         <v>0</v>
       </c>
       <c r="X33" s="14"/>
-      <c r="Y33" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z33" s="14"/>
+      <c r="Y33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
+      <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="18"/>
+      <c r="AE33" s="18"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:32">
+    <row r="34" ht="20.1" customHeight="1" spans="3:31">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H34" s="7"/>
@@ -4454,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S34" s="14">
         <v>1</v>
@@ -4473,15 +4422,16 @@
         <v>1</v>
       </c>
       <c r="X34" s="14"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="14"/>
+      <c r="Y34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
+      <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="18" t="s">
-        <v>130</v>
+      <c r="AE34" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -482,9 +482,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>20001</t>
-  </si>
-  <si>
     <t>10,100,20,0,90</t>
   </si>
   <si>
@@ -507,6 +504,9 @@
   </si>
   <si>
     <t>18,29</t>
+  </si>
+  <si>
+    <t>30001</t>
   </si>
   <si>
     <t>在人们眼中,这片区域有很深未知的东西,亲爱的冒险者,你准备好开始探险了嘛</t>
@@ -2042,8 +2042,8 @@
   <sheetPr/>
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="P20" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2402,9 +2402,7 @@
       <c r="X6" s="14">
         <v>0</v>
       </c>
-      <c r="Y6" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="14">
@@ -2417,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
@@ -2425,14 +2423,14 @@
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="15">
@@ -2442,34 +2440,34 @@
         <v>10003</v>
       </c>
       <c r="K7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="14">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="U7" s="14">
         <v>2</v>
@@ -2481,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="X7" s="14">
-        <v>81000002</v>
+        <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>77</v>
@@ -2515,7 +2513,7 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -2564,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="14">
-        <v>81000002</v>
+        <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="8" t="s">
         <v>77</v>
@@ -2598,7 +2596,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2647,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="14">
-        <v>81000002</v>
+        <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="8" t="s">
         <v>77</v>
@@ -2681,7 +2679,7 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="15">
@@ -2730,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="14">
-        <v>81000002</v>
+        <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="8" t="s">
         <v>77</v>
@@ -2764,7 +2762,7 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="15">
@@ -2813,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="14">
-        <v>81000002</v>
+        <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="8" t="s">
         <v>77</v>
@@ -2845,7 +2843,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2893,7 +2891,7 @@
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2914,7 +2912,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2962,7 +2960,7 @@
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2983,7 +2981,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -3031,7 +3029,7 @@
       </c>
       <c r="X14" s="14"/>
       <c r="Y14" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -3050,7 +3048,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -3098,7 +3096,7 @@
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -3117,7 +3115,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -3169,7 +3167,7 @@
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -3190,7 +3188,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>118</v>
@@ -3241,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="14">
-        <v>81000002</v>
+        <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -3265,7 +3263,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -3313,7 +3311,7 @@
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -3334,7 +3332,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>123</v>
@@ -3384,11 +3382,9 @@
       <c r="W19" s="14">
         <v>0</v>
       </c>
-      <c r="X19" s="14">
-        <v>0</v>
-      </c>
+      <c r="X19" s="14"/>
       <c r="Y19" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -3415,7 +3411,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -3463,7 +3459,7 @@
       </c>
       <c r="X20" s="14"/>
       <c r="Y20" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -3482,7 +3478,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -3530,7 +3526,7 @@
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -3597,7 +3593,7 @@
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3668,7 +3664,7 @@
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3741,7 +3737,7 @@
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3762,7 +3758,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3810,7 +3806,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3829,7 +3825,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3877,7 +3873,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3946,7 +3942,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -4015,7 +4011,7 @@
       </c>
       <c r="X28" s="17"/>
       <c r="Y28" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4084,7 +4080,7 @@
       </c>
       <c r="X29" s="17"/>
       <c r="Y29" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
@@ -4105,7 +4101,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -4153,7 +4149,7 @@
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -4220,7 +4216,7 @@
       </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
@@ -4241,7 +4237,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4289,7 +4285,7 @@
       </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -4308,7 +4304,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4356,7 +4352,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -4375,7 +4371,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4423,7 +4419,7 @@
       </c>
       <c r="X34" s="14"/>
       <c r="Y34" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
@@ -4434,7 +4430,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1" spans="25:25">
+      <c r="Y35" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -1023,12 +1023,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2042,8 +2042,8 @@
   <sheetPr/>
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P20" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
+      <selection activeCell="M15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3383,9 +3383,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="14"/>
-      <c r="Y19" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="14">
@@ -3458,9 +3456,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="14"/>
-      <c r="Y20" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="14"/>
@@ -3941,9 +3937,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="14"/>
-      <c r="Y27" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="14"/>
@@ -4010,9 +4004,7 @@
         <v>1</v>
       </c>
       <c r="X28" s="17"/>
-      <c r="Y28" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y28" s="8"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="17"/>
@@ -4079,9 +4071,7 @@
         <v>1</v>
       </c>
       <c r="X29" s="17"/>
-      <c r="Y29" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y29" s="8"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="17"/>
@@ -4215,9 +4205,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="14"/>
-      <c r="Y31" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="14"/>
@@ -4284,9 +4272,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="14"/>
-      <c r="Y32" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="14"/>
@@ -4418,9 +4404,7 @@
         <v>1</v>
       </c>
       <c r="X34" s="14"/>
-      <c r="Y34" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="14"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,47 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F8EB42-C623-47C7-87E3-963A9AD324C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -49,7 +41,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 是否可以使用复活币
@@ -58,14 +49,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -73,7 +63,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0 不允许
@@ -81,14 +70,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>admin:</t>
         </r>
@@ -96,7 +84,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 是否允许使用带技能的道具
@@ -106,14 +93,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -121,7 +107,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0：默认
@@ -129,14 +114,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -144,7 +128,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 每日进入次数
@@ -153,14 +136,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>admin:</t>
         </r>
@@ -168,7 +150,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0 可以
@@ -176,14 +157,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0">
+    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -191,21 +171,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 X,Y,Z,旋转,摄像机距离</t>
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
         public const int InitScene = 1;
@@ -237,14 +215,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -252,7 +229,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0 不展示
@@ -265,12 +241,12 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -461,15 +437,6 @@
     <t>double[]</t>
   </si>
   <si>
-    <t>主城</t>
-  </si>
-  <si>
-    <t>-4000,-0,8,2983,10000</t>
-  </si>
-  <si>
-    <t>-220,-25,4000</t>
-  </si>
-  <si>
     <t>20000001,20000002,20000003,20000004,20000006,20000009,20000010,20000011,20000012,20000013,20000014,20000015,20000016,20000017,20000018,20000019,20000020,20000021,20000022,20000023,20000024,20000025,20000026,20000027,20000028,20000029,20000030,20000031,20000032,20000033,20000036,20000037,30000011,20000039,20000040,20000041</t>
   </si>
   <si>
@@ -616,7 +583,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
     </r>
@@ -625,7 +591,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>40</t>
     </r>
@@ -634,7 +599,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -643,7 +607,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>30</t>
     </r>
@@ -708,7 +671,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>战场(</t>
     </r>
@@ -717,7 +679,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -726,7 +687,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -735,7 +695,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -744,7 +703,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>29级)</t>
     </r>
@@ -764,7 +722,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>战场(3</t>
     </r>
@@ -773,7 +730,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>0-</t>
     </r>
@@ -782,7 +738,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>60级</t>
     </r>
@@ -791,7 +746,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -831,19 +785,24 @@
   </si>
   <si>
     <t>1V1挑战赛</t>
+  </si>
+  <si>
+    <t>天空之城</t>
+  </si>
+  <si>
+    <t>-5709,179,-2662,1500</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>987,150,-2897</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,7 +814,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,178 +821,51 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,198 +892,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
+        <fgColor theme="0" tint="-0.14951017792291024"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1325,256 +976,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1631,77 +1040,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
-    <cellStyle name="常规 6" xfId="51"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1738,16 +1109,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Icon"/>
-    <tableColumn id="4" name="StallArea"/>
-    <tableColumn id="5" name="InitPos"/>
-    <tableColumn id="6" name="NpcList"/>
-    <tableColumn id="7" name="MapType"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2034,19 +1405,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
-      <selection activeCell="M15" sqref="$A15:$XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -2072,7 +1443,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +1532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +1621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -2339,25 +1710,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="J6" s="14">
         <v>101</v>
@@ -2382,13 +1753,13 @@
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S6" s="14">
         <v>0</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U6" s="14">
         <v>0</v>
@@ -2415,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="15">
@@ -2440,34 +1811,34 @@
         <v>10003</v>
       </c>
       <c r="K7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="L7" s="14">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="U7" s="14">
         <v>2</v>
@@ -2482,10 +1853,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="14">
@@ -2498,22 +1869,22 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -2523,34 +1894,34 @@
         <v>10003</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="U8" s="14">
         <v>2</v>
@@ -2565,10 +1936,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="14">
@@ -2581,22 +1952,22 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2606,34 +1977,34 @@
         <v>10003</v>
       </c>
       <c r="K9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
@@ -2648,10 +2019,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="14">
@@ -2664,22 +2035,22 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="15">
@@ -2689,34 +2060,34 @@
         <v>10003</v>
       </c>
       <c r="K10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="U10" s="14">
         <v>2</v>
@@ -2731,10 +2102,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="14">
@@ -2747,22 +2118,22 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="15">
@@ -2772,7 +2143,7 @@
         <v>10003</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L11" s="14">
         <v>1</v>
@@ -2790,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
@@ -2814,10 +2185,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="14">
@@ -2830,20 +2201,20 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2853,7 +2224,7 @@
         <v>10003</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L12" s="14">
         <v>1</v>
@@ -2871,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S12" s="14">
         <v>1</v>
@@ -2891,7 +2262,7 @@
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2899,20 +2270,20 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
       <c r="AE12" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2922,28 +2293,28 @@
         <v>10003</v>
       </c>
       <c r="K13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="R13" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S13" s="14">
         <v>1</v>
@@ -2960,7 +2331,7 @@
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2968,20 +2339,20 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2991,7 +2362,7 @@
         <v>10003</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -3009,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S14" s="14">
         <v>1</v>
@@ -3029,7 +2400,7 @@
       </c>
       <c r="X14" s="14"/>
       <c r="Y14" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -3038,17 +2409,17 @@
       <c r="AD14" s="14"/>
       <c r="AE14" s="18"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -3058,7 +2429,7 @@
         <v>10003</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -3076,10 +2447,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S15" s="14">
         <v>1</v>
@@ -3096,7 +2467,7 @@
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -3105,17 +2476,17 @@
       <c r="AD15" s="14"/>
       <c r="AE15" s="18"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:31">
+    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -3127,34 +2498,34 @@
         <v>10003</v>
       </c>
       <c r="K16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14">
-        <v>0</v>
-      </c>
-      <c r="N16" s="14">
-        <v>1</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0</v>
-      </c>
-      <c r="P16" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="R16" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S16" s="14">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U16" s="14">
         <v>0</v>
@@ -3167,7 +2538,7 @@
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -3175,23 +2546,23 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:31">
+    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3200,7 +2571,7 @@
         <v>10003</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -3218,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S17" s="14">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U17" s="14">
         <v>0</v>
@@ -3242,7 +2613,7 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -3250,20 +2621,20 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:31">
+    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -3291,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S18" s="14">
         <v>1</v>
@@ -3311,7 +2682,7 @@
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -3319,26 +2690,26 @@
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J19" s="7">
         <v>10003</v>
@@ -3362,16 +2733,16 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S19" s="14">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U19" s="14">
         <v>0</v>
@@ -3396,20 +2767,20 @@
         <v>0</v>
       </c>
       <c r="AE19" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -3437,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S20" s="14">
         <v>1</v>
@@ -3464,17 +2835,17 @@
       <c r="AD20" s="14"/>
       <c r="AE20" s="18"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -3502,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S21" s="14">
         <v>1</v>
@@ -3522,7 +2893,7 @@
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -3531,17 +2902,17 @@
       <c r="AD21" s="14"/>
       <c r="AE21" s="18"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3569,10 +2940,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S22" s="14">
         <v>1</v>
@@ -3589,7 +2960,7 @@
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3598,20 +2969,20 @@
       <c r="AD22" s="14"/>
       <c r="AE22" s="18"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:31">
+    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3638,16 +3009,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S23" s="14">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U23" s="14">
         <v>40</v>
@@ -3660,7 +3031,7 @@
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3668,23 +3039,23 @@
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
       <c r="AE23" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:31">
+    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3711,16 +3082,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S24" s="14">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U24" s="14">
         <v>40</v>
@@ -3733,7 +3104,7 @@
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3741,20 +3112,20 @@
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3782,10 +3153,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S25" s="14">
         <v>1</v>
@@ -3802,7 +3173,7 @@
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3811,17 +3182,17 @@
       <c r="AD25" s="14"/>
       <c r="AE25" s="18"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3849,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S26" s="14">
         <v>1</v>
@@ -3869,7 +3240,7 @@
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3878,17 +3249,17 @@
       <c r="AD26" s="14"/>
       <c r="AE26" s="18"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:31">
+    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3916,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S27" s="14">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U27" s="14">
         <v>100</v>
@@ -3944,20 +3315,20 @@
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="13">
         <v>6000002</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13">
@@ -3985,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S28" s="17">
         <v>1</v>
@@ -4011,20 +3382,20 @@
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="13">
         <v>6000003</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4052,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S29" s="17">
         <v>1</v>
@@ -4078,20 +3449,20 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -4119,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S30" s="14">
         <v>1</v>
@@ -4139,7 +3510,7 @@
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -4148,17 +3519,17 @@
       <c r="AD30" s="14"/>
       <c r="AE30" s="18"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4186,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S31" s="14">
         <v>1</v>
@@ -4212,20 +3583,20 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4253,10 +3624,10 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S32" s="14">
         <v>1</v>
@@ -4280,17 +3651,17 @@
       <c r="AD32" s="14"/>
       <c r="AE32" s="18"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4318,10 +3689,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S33" s="14">
         <v>1</v>
@@ -4338,7 +3709,7 @@
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -4347,17 +3718,17 @@
       <c r="AD33" s="14"/>
       <c r="AE33" s="18"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:31">
+    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4385,10 +3756,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S34" s="14">
         <v>1</v>
@@ -4411,19 +3782,19 @@
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="25:25">
+    <row r="35" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Y35" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,39 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F8EB42-C623-47C7-87E3-963A9AD324C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -41,6 +49,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 是否可以使用复活币
@@ -49,13 +58,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -63,6 +73,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0 不允许
@@ -70,13 +81,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>admin:</t>
         </r>
@@ -84,6 +96,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 是否允许使用带技能的道具
@@ -93,13 +106,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -107,6 +121,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0：默认
@@ -114,13 +129,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -128,6 +144,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 每日进入次数
@@ -136,13 +153,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="W3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>admin:</t>
         </r>
@@ -150,6 +168,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0 可以
@@ -157,13 +176,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -171,19 +191,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 X,Y,Z,旋转,摄像机距离</t>
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
         public const int InitScene = 1;
@@ -211,17 +233,19 @@
         public const int Demon = 23;        //恶魔活动
         public const int PetMing = 24;      //宠物矿场
         public const int SeasonTower = 25;  //赛季之塔
-        public const int OneChallenge = 26;    //1v1挑战</t>
+        public const int OneChallenge = 26;    //1v1挑战
+        public const int PetMelee = 27;      //宠物乱斗</t>
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -229,6 +253,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0 不展示
@@ -241,18 +266,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -435,6 +460,15 @@
   </si>
   <si>
     <t>double[]</t>
+  </si>
+  <si>
+    <t>天空之城</t>
+  </si>
+  <si>
+    <t>-5709,179,-2662,1500</t>
+  </si>
+  <si>
+    <t>987,150,-2897</t>
   </si>
   <si>
     <t>20000001,20000002,20000003,20000004,20000006,20000009,20000010,20000011,20000012,20000013,20000014,20000015,20000016,20000017,20000018,20000019,20000020,20000021,20000022,20000023,20000024,20000025,20000026,20000027,20000028,20000029,20000030,20000031,20000032,20000033,20000036,20000037,30000011,20000039,20000040,20000041</t>
@@ -583,6 +617,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
     </r>
@@ -591,6 +626,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>40</t>
     </r>
@@ -599,6 +635,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -607,6 +644,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>30</t>
     </r>
@@ -671,6 +709,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>战场(</t>
     </r>
@@ -679,6 +718,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -687,6 +727,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -695,6 +736,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -703,6 +745,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>29级)</t>
     </r>
@@ -722,6 +765,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>战场(3</t>
     </r>
@@ -730,6 +774,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>0-</t>
     </r>
@@ -738,6 +783,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>60级</t>
     </r>
@@ -746,6 +792,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -787,22 +834,20 @@
     <t>1V1挑战赛</t>
   </si>
   <si>
-    <t>天空之城</t>
-  </si>
-  <si>
-    <t>-5709,179,-2662,1500</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>987,150,-2897</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>宠物乱斗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +859,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,51 +867,185 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,18 +1072,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291024"/>
+        <fgColor theme="0" tint="-0.14951017792291"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -976,14 +1342,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1007,10 +1615,13 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,7 +1639,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,39 +1651,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1109,16 +1761,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter ref="C4:I6"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Icon"/>
+    <tableColumn id="4" name="StallArea"/>
+    <tableColumn id="5" name="InitPos"/>
+    <tableColumn id="6" name="NpcList"/>
+    <tableColumn id="7" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1405,19 +2057,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -1443,7 +2095,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +2184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +2273,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1710,181 +2362,181 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C6" s="7">
         <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>146</v>
+      <c r="F6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="14">
+        <v>65</v>
+      </c>
+      <c r="J6" s="15">
         <v>101</v>
       </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>1</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
         <v>1</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" s="14">
+        <v>66</v>
+      </c>
+      <c r="S6" s="15">
         <v>0</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="14">
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
+        <v>67</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
         <v>0</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>65</v>
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="15">
+      <c r="G7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="16">
         <v>5</v>
       </c>
       <c r="J7" s="7">
         <v>10003</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="14">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
+      <c r="K7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" s="14">
+        <v>75</v>
+      </c>
+      <c r="U7" s="15">
         <v>2</v>
       </c>
-      <c r="V7" s="14">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0</v>
-      </c>
-      <c r="X7" s="14">
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="14">
+      <c r="AB7" s="15">
         <v>28000</v>
       </c>
-      <c r="AC7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="14">
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
         <v>601500201</v>
       </c>
-      <c r="AE7" s="18" t="s">
-        <v>75</v>
+      <c r="AE7" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="20" t="s">
-        <v>68</v>
+      <c r="G8" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -1893,81 +2545,81 @@
       <c r="J8" s="7">
         <v>10003</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
+      <c r="K8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="14">
+        <v>84</v>
+      </c>
+      <c r="U8" s="15">
         <v>2</v>
       </c>
-      <c r="V8" s="14">
-        <v>0</v>
-      </c>
-      <c r="W8" s="14">
-        <v>0</v>
-      </c>
-      <c r="X8" s="14">
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="14">
+      <c r="AB8" s="15">
         <v>58000</v>
       </c>
-      <c r="AC8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="14">
+      <c r="AC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
         <v>601500301</v>
       </c>
-      <c r="AE8" s="18" t="s">
-        <v>82</v>
+      <c r="AE8" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="20" t="s">
-        <v>68</v>
+      <c r="G9" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -1976,245 +2628,245 @@
       <c r="J9" s="7">
         <v>10003</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="K9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" s="14">
+        <v>91</v>
+      </c>
+      <c r="U9" s="15">
         <v>2</v>
       </c>
-      <c r="V9" s="14">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14">
-        <v>0</v>
-      </c>
-      <c r="X9" s="14">
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="14">
+      <c r="AB9" s="15">
         <v>88000</v>
       </c>
-      <c r="AC9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="14">
+      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
         <v>601500401</v>
       </c>
-      <c r="AE9" s="18" t="s">
-        <v>89</v>
+      <c r="AE9" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="15">
+      <c r="G10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="16">
         <v>5</v>
       </c>
       <c r="J10" s="7">
         <v>10003</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="K10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="14">
+        <v>98</v>
+      </c>
+      <c r="U10" s="15">
         <v>2</v>
       </c>
-      <c r="V10" s="14">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="14">
+      <c r="AB10" s="15">
         <v>118000</v>
       </c>
-      <c r="AC10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="14">
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
         <v>601500501</v>
       </c>
-      <c r="AE10" s="18" t="s">
-        <v>96</v>
+      <c r="AE10" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="15">
+      <c r="G11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="16">
         <v>5</v>
       </c>
       <c r="J11" s="7">
         <v>10003</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="14">
-        <v>1</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
+      <c r="K11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="U11" s="14">
+        <v>104</v>
+      </c>
+      <c r="U11" s="15">
         <v>2</v>
       </c>
-      <c r="V11" s="14">
-        <v>0</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0</v>
-      </c>
-      <c r="X11" s="14">
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="14">
+      <c r="AB11" s="15">
         <v>158000</v>
       </c>
-      <c r="AC11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="14">
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
         <v>601500501</v>
       </c>
-      <c r="AE11" s="18" t="s">
-        <v>102</v>
+      <c r="AE11" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="20" t="s">
-        <v>68</v>
+      <c r="G12" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2223,67 +2875,67 @@
       <c r="J12" s="7">
         <v>10003</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
-        <v>1</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
+      <c r="K12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="14">
+        <v>66</v>
+      </c>
+      <c r="S12" s="15">
         <v>1</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="14">
+      <c r="U12" s="15">
         <v>300</v>
       </c>
-      <c r="V12" s="14">
-        <v>0</v>
-      </c>
-      <c r="W12" s="14">
-        <v>0</v>
-      </c>
-      <c r="X12" s="14"/>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15"/>
       <c r="Y12" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="21" t="s">
-        <v>105</v>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="20" t="s">
-        <v>68</v>
+      <c r="G13" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2292,67 +2944,67 @@
       <c r="J13" s="7">
         <v>10003</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="K13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="14">
+        <v>66</v>
+      </c>
+      <c r="S13" s="15">
         <v>1</v>
       </c>
       <c r="T13" s="8"/>
-      <c r="U13" s="14">
+      <c r="U13" s="15">
         <v>200</v>
       </c>
-      <c r="V13" s="14">
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
-        <v>0</v>
-      </c>
-      <c r="X13" s="14"/>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15"/>
       <c r="Y13" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="18" t="s">
-        <v>108</v>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="20" t="s">
-        <v>68</v>
+      <c r="G14" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2361,65 +3013,65 @@
       <c r="J14" s="7">
         <v>10003</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>1</v>
-      </c>
-      <c r="P14" s="14">
+      <c r="K14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S14" s="14">
+        <v>66</v>
+      </c>
+      <c r="S14" s="15">
         <v>1</v>
       </c>
       <c r="T14" s="8"/>
-      <c r="U14" s="14">
-        <v>0</v>
-      </c>
-      <c r="V14" s="14">
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
         <v>10</v>
       </c>
-      <c r="W14" s="14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="14"/>
+      <c r="W14" s="15">
+        <v>0</v>
+      </c>
+      <c r="X14" s="15"/>
       <c r="Y14" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="18"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="19"/>
     </row>
-    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="20" t="s">
-        <v>68</v>
+      <c r="G15" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -2428,65 +3080,65 @@
       <c r="J15" s="7">
         <v>10003</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>1</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>1</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="K15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S15" s="14">
+        <v>66</v>
+      </c>
+      <c r="S15" s="15">
         <v>1</v>
       </c>
       <c r="T15" s="8"/>
-      <c r="U15" s="14">
-        <v>1</v>
-      </c>
-      <c r="V15" s="14">
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15">
         <v>10</v>
       </c>
-      <c r="W15" s="14">
-        <v>0</v>
-      </c>
-      <c r="X15" s="14"/>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15"/>
       <c r="Y15" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="18"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="19"/>
     </row>
-    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="3:31">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>111</v>
+      <c r="D16" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="20" t="s">
-        <v>68</v>
+      <c r="G16" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -2497,72 +3149,72 @@
       <c r="J16" s="7">
         <v>10003</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14">
-        <v>0</v>
-      </c>
-      <c r="N16" s="14">
-        <v>1</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0</v>
-      </c>
-      <c r="P16" s="14">
+      <c r="K16" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" s="14">
+        <v>66</v>
+      </c>
+      <c r="S16" s="15">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0</v>
-      </c>
-      <c r="V16" s="14">
-        <v>0</v>
-      </c>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="15"/>
       <c r="Y16" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="21" t="s">
-        <v>113</v>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="3:31">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>114</v>
+      <c r="D17" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>115</v>
+      <c r="G17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -2570,71 +3222,71 @@
       <c r="J17" s="7">
         <v>10003</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-      <c r="M17" s="14">
-        <v>1</v>
-      </c>
-      <c r="N17" s="14">
-        <v>1</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
+      <c r="K17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <v>1</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" s="14">
+        <v>66</v>
+      </c>
+      <c r="S17" s="15">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="U17" s="14">
-        <v>0</v>
-      </c>
-      <c r="V17" s="14">
-        <v>0</v>
-      </c>
-      <c r="W17" s="14">
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
+        <v>115</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="21" t="s">
-        <v>113</v>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="20.1" customHeight="1" spans="3:31">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>117</v>
+      <c r="D18" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="20" t="s">
-        <v>68</v>
+      <c r="G18" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -2643,144 +3295,144 @@
       <c r="J18" s="7">
         <v>10003</v>
       </c>
-      <c r="K18" s="14">
-        <v>0</v>
-      </c>
-      <c r="L18" s="14">
-        <v>1</v>
-      </c>
-      <c r="M18" s="14">
-        <v>1</v>
-      </c>
-      <c r="N18" s="14">
-        <v>1</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1</v>
+      </c>
+      <c r="M18" s="15">
+        <v>1</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" s="14">
+        <v>66</v>
+      </c>
+      <c r="S18" s="15">
         <v>1</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="14">
+      <c r="U18" s="15">
         <v>2</v>
       </c>
-      <c r="V18" s="14">
-        <v>0</v>
-      </c>
-      <c r="W18" s="14">
-        <v>1</v>
-      </c>
-      <c r="X18" s="14"/>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>1</v>
+      </c>
+      <c r="X18" s="15"/>
       <c r="Y18" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="18" t="s">
-        <v>118</v>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="20" t="s">
-        <v>68</v>
+      <c r="G19" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J19" s="7">
         <v>10003</v>
       </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
-        <v>1</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" s="14">
+        <v>67</v>
+      </c>
+      <c r="S19" s="15">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0</v>
-      </c>
-      <c r="W19" s="14">
-        <v>0</v>
-      </c>
-      <c r="X19" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="18" t="s">
-        <v>122</v>
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="20" t="s">
-        <v>68</v>
+      <c r="G20" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -2789,63 +3441,63 @@
       <c r="J20" s="7">
         <v>10003</v>
       </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0</v>
-      </c>
-      <c r="M20" s="14">
-        <v>1</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0</v>
-      </c>
-      <c r="P20" s="14">
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S20" s="14">
+        <v>66</v>
+      </c>
+      <c r="S20" s="15">
         <v>1</v>
       </c>
       <c r="T20" s="8"/>
-      <c r="U20" s="14">
-        <v>1</v>
-      </c>
-      <c r="V20" s="14">
+      <c r="U20" s="15">
+        <v>1</v>
+      </c>
+      <c r="V20" s="15">
         <v>5</v>
       </c>
-      <c r="W20" s="14">
-        <v>0</v>
-      </c>
-      <c r="X20" s="14"/>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="18"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="19"/>
     </row>
-    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="20" t="s">
-        <v>68</v>
+      <c r="G21" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -2854,65 +3506,65 @@
       <c r="J21" s="7">
         <v>10003</v>
       </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14">
-        <v>1</v>
-      </c>
-      <c r="N21" s="14">
-        <v>0</v>
-      </c>
-      <c r="O21" s="14">
-        <v>0</v>
-      </c>
-      <c r="P21" s="14">
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S21" s="14">
+        <v>66</v>
+      </c>
+      <c r="S21" s="15">
         <v>1</v>
       </c>
       <c r="T21" s="8"/>
-      <c r="U21" s="14">
-        <v>1</v>
-      </c>
-      <c r="V21" s="14">
+      <c r="U21" s="15">
+        <v>1</v>
+      </c>
+      <c r="V21" s="15">
         <v>10</v>
       </c>
-      <c r="W21" s="14">
-        <v>0</v>
-      </c>
-      <c r="X21" s="14"/>
+      <c r="W21" s="15">
+        <v>0</v>
+      </c>
+      <c r="X21" s="15"/>
       <c r="Y21" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="18"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="19"/>
     </row>
-    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="20" t="s">
-        <v>126</v>
+      <c r="G22" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -2921,68 +3573,68 @@
       <c r="J22" s="7">
         <v>10007</v>
       </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14">
-        <v>1</v>
-      </c>
-      <c r="N22" s="14">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S22" s="14">
+        <v>66</v>
+      </c>
+      <c r="S22" s="15">
         <v>1</v>
       </c>
       <c r="T22" s="8"/>
-      <c r="U22" s="14">
-        <v>1</v>
-      </c>
-      <c r="V22" s="14">
-        <v>0</v>
-      </c>
-      <c r="W22" s="14">
-        <v>0</v>
-      </c>
-      <c r="X22" s="14"/>
+      <c r="U22" s="15">
+        <v>1</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15"/>
       <c r="Y22" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="18"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="19"/>
     </row>
-    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:31">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>129</v>
+      <c r="G23" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -2990,72 +3642,72 @@
       <c r="J23" s="7">
         <v>10003</v>
       </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
-        <v>1</v>
-      </c>
-      <c r="M23" s="14">
-        <v>0</v>
-      </c>
-      <c r="N23" s="14">
-        <v>1</v>
-      </c>
-      <c r="O23" s="14">
-        <v>0</v>
-      </c>
-      <c r="P23" s="14">
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S23" s="14">
+        <v>66</v>
+      </c>
+      <c r="S23" s="15">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="U23" s="14">
+        <v>133</v>
+      </c>
+      <c r="U23" s="15">
         <v>40</v>
       </c>
-      <c r="V23" s="14">
-        <v>0</v>
-      </c>
-      <c r="W23" s="14">
-        <v>0</v>
-      </c>
-      <c r="X23" s="14"/>
+      <c r="V23" s="15">
+        <v>0</v>
+      </c>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15"/>
       <c r="Y23" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="18" t="s">
-        <v>118</v>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="20.1" customHeight="1" spans="3:31">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>129</v>
+      <c r="G24" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3063,69 +3715,69 @@
       <c r="J24" s="7">
         <v>10003</v>
       </c>
-      <c r="K24" s="14">
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
-        <v>1</v>
-      </c>
-      <c r="M24" s="14">
-        <v>0</v>
-      </c>
-      <c r="N24" s="14">
-        <v>1</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0</v>
-      </c>
-      <c r="P24" s="14">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S24" s="14">
+        <v>66</v>
+      </c>
+      <c r="S24" s="15">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="U24" s="14">
+        <v>135</v>
+      </c>
+      <c r="U24" s="15">
         <v>40</v>
       </c>
-      <c r="V24" s="14">
-        <v>0</v>
-      </c>
-      <c r="W24" s="14">
-        <v>0</v>
-      </c>
-      <c r="X24" s="14"/>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15"/>
       <c r="Y24" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="18" t="s">
-        <v>118</v>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="20" t="s">
-        <v>68</v>
+      <c r="G25" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3134,65 +3786,65 @@
       <c r="J25" s="7">
         <v>10003</v>
       </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14">
-        <v>0</v>
-      </c>
-      <c r="P25" s="14">
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>1</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S25" s="14">
+        <v>66</v>
+      </c>
+      <c r="S25" s="15">
         <v>1</v>
       </c>
       <c r="T25" s="8"/>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14">
-        <v>0</v>
-      </c>
-      <c r="W25" s="14">
-        <v>0</v>
-      </c>
-      <c r="X25" s="14"/>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
+        <v>0</v>
+      </c>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15"/>
       <c r="Y25" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="18"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="19"/>
     </row>
-    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="20" t="s">
-        <v>68</v>
+      <c r="G26" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3201,65 +3853,65 @@
       <c r="J26" s="7">
         <v>10003</v>
       </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14">
-        <v>1</v>
-      </c>
-      <c r="N26" s="14">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14">
-        <v>0</v>
-      </c>
-      <c r="P26" s="14">
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S26" s="14">
+        <v>66</v>
+      </c>
+      <c r="S26" s="15">
         <v>1</v>
       </c>
       <c r="T26" s="8"/>
-      <c r="U26" s="14">
-        <v>0</v>
-      </c>
-      <c r="V26" s="14">
-        <v>0</v>
-      </c>
-      <c r="W26" s="14">
-        <v>0</v>
-      </c>
-      <c r="X26" s="14"/>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15"/>
       <c r="Y26" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="18"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="19"/>
     </row>
-    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:31">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>134</v>
+      <c r="D27" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="23" t="s">
-        <v>135</v>
+      <c r="G27" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3268,201 +3920,201 @@
       <c r="J27" s="7">
         <v>10003</v>
       </c>
-      <c r="K27" s="14">
-        <v>0</v>
-      </c>
-      <c r="L27" s="14">
-        <v>1</v>
-      </c>
-      <c r="M27" s="14">
-        <v>1</v>
-      </c>
-      <c r="N27" s="14">
-        <v>1</v>
-      </c>
-      <c r="O27" s="14">
-        <v>0</v>
-      </c>
-      <c r="P27" s="14">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1</v>
+      </c>
+      <c r="N27" s="15">
+        <v>1</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S27" s="14">
+        <v>66</v>
+      </c>
+      <c r="S27" s="15">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="U27" s="14">
+        <v>115</v>
+      </c>
+      <c r="U27" s="15">
         <v>100</v>
       </c>
-      <c r="V27" s="14">
-        <v>0</v>
-      </c>
-      <c r="W27" s="14">
-        <v>0</v>
-      </c>
-      <c r="X27" s="14"/>
+      <c r="V27" s="15">
+        <v>0</v>
+      </c>
+      <c r="W27" s="15">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="18" t="s">
-        <v>136</v>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="13">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C28" s="14">
         <v>6000002</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13">
+      <c r="D28" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14">
         <v>22</v>
       </c>
       <c r="J28" s="7">
         <v>10003</v>
       </c>
-      <c r="K28" s="17">
-        <v>0</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
-      <c r="M28" s="17">
-        <v>1</v>
-      </c>
-      <c r="N28" s="17">
-        <v>1</v>
-      </c>
-      <c r="O28" s="17">
-        <v>0</v>
-      </c>
-      <c r="P28" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S28" s="17">
-        <v>1</v>
-      </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="17">
-        <v>0</v>
-      </c>
-      <c r="V28" s="17">
-        <v>0</v>
-      </c>
-      <c r="W28" s="17">
-        <v>1</v>
-      </c>
-      <c r="X28" s="17"/>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1</v>
+      </c>
+      <c r="O28" s="18">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" s="18">
+        <v>1</v>
+      </c>
+      <c r="T28" s="13"/>
+      <c r="U28" s="18">
+        <v>0</v>
+      </c>
+      <c r="V28" s="18">
+        <v>0</v>
+      </c>
+      <c r="W28" s="18">
+        <v>1</v>
+      </c>
+      <c r="X28" s="18"/>
       <c r="Y28" s="8"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="19" t="s">
-        <v>136</v>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="13">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C29" s="14">
         <v>6000003</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14">
         <v>23</v>
       </c>
       <c r="J29" s="7">
         <v>10003</v>
       </c>
-      <c r="K29" s="17">
-        <v>0</v>
-      </c>
-      <c r="L29" s="17">
-        <v>0</v>
-      </c>
-      <c r="M29" s="17">
-        <v>1</v>
-      </c>
-      <c r="N29" s="17">
-        <v>1</v>
-      </c>
-      <c r="O29" s="17">
-        <v>0</v>
-      </c>
-      <c r="P29" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S29" s="17">
-        <v>1</v>
-      </c>
-      <c r="T29" s="12"/>
-      <c r="U29" s="17">
-        <v>0</v>
-      </c>
-      <c r="V29" s="17">
-        <v>0</v>
-      </c>
-      <c r="W29" s="17">
-        <v>1</v>
-      </c>
-      <c r="X29" s="17"/>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" s="18">
+        <v>1</v>
+      </c>
+      <c r="T29" s="13"/>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18">
+        <v>0</v>
+      </c>
+      <c r="W29" s="18">
+        <v>1</v>
+      </c>
+      <c r="X29" s="18"/>
       <c r="Y29" s="8"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="19" t="s">
-        <v>136</v>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="20" t="s">
-        <v>68</v>
+      <c r="G30" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -3471,65 +4123,65 @@
       <c r="J30" s="7">
         <v>10003</v>
       </c>
-      <c r="K30" s="14">
-        <v>0</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0</v>
-      </c>
-      <c r="M30" s="14">
-        <v>1</v>
-      </c>
-      <c r="N30" s="14">
-        <v>0</v>
-      </c>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
-      <c r="P30" s="14">
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>1</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S30" s="14">
+        <v>66</v>
+      </c>
+      <c r="S30" s="15">
         <v>1</v>
       </c>
       <c r="T30" s="8"/>
-      <c r="U30" s="14">
-        <v>0</v>
-      </c>
-      <c r="V30" s="14">
-        <v>0</v>
-      </c>
-      <c r="W30" s="14">
-        <v>0</v>
-      </c>
-      <c r="X30" s="14"/>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30" s="15"/>
       <c r="Y30" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="18"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="19"/>
     </row>
-    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="23" t="s">
-        <v>135</v>
+      <c r="G31" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -3538,65 +4190,65 @@
       <c r="J31" s="7">
         <v>10003</v>
       </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-      <c r="L31" s="14">
-        <v>0</v>
-      </c>
-      <c r="M31" s="14">
-        <v>1</v>
-      </c>
-      <c r="N31" s="14">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
-      <c r="P31" s="14">
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S31" s="14">
+        <v>66</v>
+      </c>
+      <c r="S31" s="15">
         <v>1</v>
       </c>
       <c r="T31" s="8"/>
-      <c r="U31" s="14">
-        <v>0</v>
-      </c>
-      <c r="V31" s="14">
-        <v>0</v>
-      </c>
-      <c r="W31" s="14">
-        <v>0</v>
-      </c>
-      <c r="X31" s="14"/>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="18" t="s">
-        <v>136</v>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="20" t="s">
-        <v>68</v>
+      <c r="G32" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -3605,63 +4257,63 @@
       <c r="J32" s="7">
         <v>10003</v>
       </c>
-      <c r="K32" s="14">
-        <v>0</v>
-      </c>
-      <c r="L32" s="14">
-        <v>0</v>
-      </c>
-      <c r="M32" s="14">
-        <v>1</v>
-      </c>
-      <c r="N32" s="14">
-        <v>0</v>
-      </c>
-      <c r="O32" s="14">
-        <v>0</v>
-      </c>
-      <c r="P32" s="14">
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>1</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0</v>
+      </c>
+      <c r="P32" s="15">
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S32" s="14">
+        <v>66</v>
+      </c>
+      <c r="S32" s="15">
         <v>1</v>
       </c>
       <c r="T32" s="8"/>
-      <c r="U32" s="14">
-        <v>1</v>
-      </c>
-      <c r="V32" s="14">
+      <c r="U32" s="15">
+        <v>1</v>
+      </c>
+      <c r="V32" s="15">
         <v>10</v>
       </c>
-      <c r="W32" s="14">
-        <v>0</v>
-      </c>
-      <c r="X32" s="14"/>
+      <c r="W32" s="15">
+        <v>0</v>
+      </c>
+      <c r="X32" s="15"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="18"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="19"/>
     </row>
-    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="20" t="s">
-        <v>68</v>
+      <c r="G33" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -3670,65 +4322,65 @@
       <c r="J33" s="7">
         <v>10003</v>
       </c>
-      <c r="K33" s="14">
-        <v>0</v>
-      </c>
-      <c r="L33" s="14">
-        <v>0</v>
-      </c>
-      <c r="M33" s="14">
-        <v>1</v>
-      </c>
-      <c r="N33" s="14">
-        <v>0</v>
-      </c>
-      <c r="O33" s="14">
-        <v>0</v>
-      </c>
-      <c r="P33" s="14">
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>1</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15">
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S33" s="14">
+        <v>66</v>
+      </c>
+      <c r="S33" s="15">
         <v>1</v>
       </c>
       <c r="T33" s="8"/>
-      <c r="U33" s="14">
-        <v>0</v>
-      </c>
-      <c r="V33" s="14">
-        <v>0</v>
-      </c>
-      <c r="W33" s="14">
-        <v>0</v>
-      </c>
-      <c r="X33" s="14"/>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15"/>
       <c r="Y33" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="18"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="19"/>
     </row>
-    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:31">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>143</v>
+      <c r="D34" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="20" t="s">
-        <v>68</v>
+      <c r="G34" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -3737,64 +4389,126 @@
       <c r="J34" s="7">
         <v>10003</v>
       </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-      <c r="L34" s="14">
-        <v>1</v>
-      </c>
-      <c r="M34" s="14">
-        <v>1</v>
-      </c>
-      <c r="N34" s="14">
-        <v>1</v>
-      </c>
-      <c r="O34" s="14">
-        <v>0</v>
-      </c>
-      <c r="P34" s="14">
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>1</v>
+      </c>
+      <c r="M34" s="15">
+        <v>1</v>
+      </c>
+      <c r="N34" s="15">
+        <v>1</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0</v>
+      </c>
+      <c r="P34" s="15">
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S34" s="14">
+        <v>66</v>
+      </c>
+      <c r="S34" s="15">
         <v>1</v>
       </c>
       <c r="T34" s="8"/>
-      <c r="U34" s="14">
+      <c r="U34" s="15">
         <v>2</v>
       </c>
-      <c r="V34" s="14">
-        <v>0</v>
-      </c>
-      <c r="W34" s="14">
-        <v>1</v>
-      </c>
-      <c r="X34" s="14"/>
+      <c r="V34" s="15">
+        <v>0</v>
+      </c>
+      <c r="W34" s="15">
+        <v>1</v>
+      </c>
+      <c r="X34" s="15"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="18" t="s">
-        <v>118</v>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="35" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C35" s="7">
+        <v>2700001</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>27</v>
+      </c>
+      <c r="J35" s="7">
+        <v>10003</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S35" s="15">
+        <v>1</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="15">
+        <v>1</v>
+      </c>
+      <c r="V35" s="15">
+        <v>5</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15"/>
       <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -847,7 +847,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,13 +872,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1034,12 +1027,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1458,133 +1451,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1615,13 +1608,13 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,7 +1632,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,7 +1644,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2065,8 +2058,8 @@
   <sheetPr/>
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="M18" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1027,18 +1027,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1072,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149876400036622"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1463,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1481,16 +1487,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1499,92 +1505,92 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1643,6 +1649,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2059,7 +2068,7 @@
   <dimension ref="C3:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M18" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2366,7 +2375,7 @@
       <c r="F6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -2445,7 +2454,7 @@
         <v>70</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="10"/>
@@ -2528,7 +2537,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="7"/>
@@ -2611,7 +2620,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="7"/>
@@ -2694,7 +2703,7 @@
         <v>94</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
@@ -2777,7 +2786,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
@@ -2858,7 +2867,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="7"/>
@@ -2914,7 +2923,7 @@
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
-      <c r="AE12" s="23" t="s">
+      <c r="AE12" s="24" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2927,7 +2936,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="7"/>
@@ -2996,7 +3005,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="7"/>
@@ -3063,7 +3072,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="7"/>
@@ -3130,7 +3139,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H16" s="7">
@@ -3190,7 +3199,7 @@
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="23" t="s">
+      <c r="AE16" s="24" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3203,10 +3212,10 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="25" t="s">
         <v>118</v>
       </c>
       <c r="I17" s="7">
@@ -3265,7 +3274,7 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="23" t="s">
+      <c r="AE17" s="24" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3278,7 +3287,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="7"/>
@@ -3347,7 +3356,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3424,7 +3433,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="7"/>
@@ -3489,7 +3498,7 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="7"/>
@@ -3556,7 +3565,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="23" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="7"/>
@@ -3623,7 +3632,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="23" t="s">
         <v>131</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -3696,7 +3705,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>131</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -3769,7 +3778,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="7"/>
@@ -3836,7 +3845,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="7"/>
@@ -3903,7 +3912,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H27" s="7"/>
@@ -3972,7 +3981,7 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="14"/>
@@ -4039,7 +4048,7 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H29" s="14"/>
@@ -4106,7 +4115,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="7"/>
@@ -4173,7 +4182,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
@@ -4240,7 +4249,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H32" s="7"/>
@@ -4305,7 +4314,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="7"/>
@@ -4372,7 +4381,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="7"/>
@@ -4439,7 +4448,7 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H35" s="7"/>
@@ -4487,7 +4496,9 @@
         <v>0</v>
       </c>
       <c r="X35" s="15"/>
-      <c r="Y35" s="8"/>
+      <c r="Y35" s="21">
+        <v>100102</v>
+      </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="15"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10B647-F032-4E54-A15A-24C99B168FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0">
+    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -238,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -266,18 +259,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -836,18 +829,16 @@
   <si>
     <t>宠物乱斗</t>
   </si>
+  <si>
+    <t>100102,100103,100104</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,147 +874,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,8 +891,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,210 +933,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
+        <fgColor theme="0" tint="-0.14947965941343425"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1341,256 +1023,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1650,83 +1090,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
-    <cellStyle name="常规 6" xfId="51"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1763,16 +1159,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Icon"/>
-    <tableColumn id="4" name="StallArea"/>
-    <tableColumn id="5" name="InitPos"/>
-    <tableColumn id="6" name="NpcList"/>
-    <tableColumn id="7" name="MapType"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2059,19 +1455,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M18" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41"/>
+    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -2097,7 +1493,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +1582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +1671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -2364,7 +1760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -2375,7 +1771,7 @@
       <c r="F6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -2443,7 +1839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
@@ -2454,7 +1850,7 @@
         <v>70</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="10"/>
@@ -2526,7 +1922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
@@ -2537,7 +1933,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="7"/>
@@ -2609,7 +2005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
@@ -2620,7 +2016,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="7"/>
@@ -2692,7 +2088,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
@@ -2703,7 +2099,7 @@
         <v>94</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
@@ -2775,7 +2171,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
@@ -2786,7 +2182,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
@@ -2858,7 +2254,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
@@ -2867,7 +2263,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="7"/>
@@ -2923,11 +2319,11 @@
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
-      <c r="AE12" s="24" t="s">
+      <c r="AE12" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
@@ -2936,7 +2332,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="7"/>
@@ -2996,7 +2392,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
@@ -3005,7 +2401,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="7"/>
@@ -3063,7 +2459,7 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="19"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
@@ -3072,7 +2468,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="7"/>
@@ -3130,7 +2526,7 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="19"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:31">
+    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
@@ -3139,7 +2535,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H16" s="7">
@@ -3199,11 +2595,11 @@
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="24" t="s">
+      <c r="AE16" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:31">
+    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
@@ -3212,10 +2608,10 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>118</v>
       </c>
       <c r="I17" s="7">
@@ -3274,11 +2670,11 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="24" t="s">
+      <c r="AE17" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:31">
+    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
@@ -3287,7 +2683,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="7"/>
@@ -3347,7 +2743,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
@@ -3356,7 +2752,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3424,7 +2820,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
@@ -3433,7 +2829,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="7"/>
@@ -3489,7 +2885,7 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="19"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
@@ -3498,7 +2894,7 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="7"/>
@@ -3556,7 +2952,7 @@
       <c r="AD21" s="15"/>
       <c r="AE21" s="19"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
@@ -3565,7 +2961,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="7"/>
@@ -3623,7 +3019,7 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="19"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:31">
+    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
@@ -3632,7 +3028,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>131</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -3696,7 +3092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:31">
+    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
@@ -3705,7 +3101,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>131</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -3769,7 +3165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
@@ -3778,7 +3174,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="7"/>
@@ -3836,7 +3232,7 @@
       <c r="AD25" s="15"/>
       <c r="AE25" s="19"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
@@ -3845,7 +3241,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="7"/>
@@ -3903,7 +3299,7 @@
       <c r="AD26" s="15"/>
       <c r="AE26" s="19"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:31">
+    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
@@ -3912,7 +3308,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="25" t="s">
         <v>138</v>
       </c>
       <c r="H27" s="7"/>
@@ -3972,7 +3368,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
@@ -3981,7 +3377,7 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="25" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="14"/>
@@ -4039,7 +3435,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
@@ -4048,7 +3444,7 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="25" t="s">
         <v>138</v>
       </c>
       <c r="H29" s="14"/>
@@ -4106,7 +3502,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
@@ -4115,7 +3511,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="7"/>
@@ -4173,7 +3569,7 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="19"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
@@ -4182,7 +3578,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="25" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
@@ -4240,7 +3636,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
@@ -4249,7 +3645,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H32" s="7"/>
@@ -4305,7 +3701,7 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="19"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
@@ -4314,7 +3710,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="7"/>
@@ -4372,7 +3768,7 @@
       <c r="AD33" s="15"/>
       <c r="AE33" s="19"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:31">
+    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
@@ -4381,7 +3777,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="7"/>
@@ -4439,7 +3835,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="7">
         <v>2700001</v>
       </c>
@@ -4448,7 +3844,7 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="22" t="s">
         <v>71</v>
       </c>
       <c r="H35" s="7"/>
@@ -4496,8 +3892,8 @@
         <v>0</v>
       </c>
       <c r="X35" s="15"/>
-      <c r="Y35" s="21">
-        <v>100102</v>
+      <c r="Y35" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
@@ -4507,12 +3903,12 @@
       <c r="AE35" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10B647-F032-4E54-A15A-24C99B168FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F5A9D-48B2-44D7-B119-1146792F3C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,6 +60,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -66,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,6 +85,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -89,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,6 +112,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -114,6 +121,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -129,6 +137,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -137,6 +146,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -153,6 +163,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -161,6 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,6 +188,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -184,6 +197,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,6 +212,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -238,6 +253,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -246,6 +262,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -464,9 +481,6 @@
     <t>987,150,-2897</t>
   </si>
   <si>
-    <t>20000001,20000002,20000003,20000004,20000006,20000009,20000010,20000011,20000012,20000013,20000014,20000015,20000016,20000017,20000018,20000019,20000020,20000021,20000022,20000023,20000024,20000025,20000026,20000027,20000028,20000029,20000030,20000031,20000032,20000033,20000036,20000037,30000011,20000039,20000040,20000041</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -610,6 +624,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -619,6 +634,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -628,6 +644,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -637,6 +654,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -702,6 +720,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -711,6 +730,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -720,6 +740,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -729,6 +750,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -738,6 +760,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -758,6 +781,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -767,6 +791,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -776,6 +801,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -785,6 +811,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -831,6 +858,10 @@
   </si>
   <si>
     <t>100102,100103,100104</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,10010,1011</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -850,6 +881,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -858,12 +890,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -871,12 +905,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -884,16 +920,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1463,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1775,10 +1814,10 @@
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="J6" s="15">
         <v>101</v>
@@ -1803,13 +1842,13 @@
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="S6" s="15">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="U6" s="15">
         <v>0</v>
@@ -1836,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1844,14 +1883,14 @@
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="16">
@@ -1861,34 +1900,34 @@
         <v>10003</v>
       </c>
       <c r="K7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="15">
-        <v>1</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="U7" s="15">
         <v>2</v>
@@ -1903,10 +1942,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15">
@@ -1919,7 +1958,7 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1927,14 +1966,14 @@
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -1944,34 +1983,34 @@
         <v>10003</v>
       </c>
       <c r="K8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="U8" s="15">
         <v>2</v>
@@ -1986,10 +2025,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15">
@@ -2002,7 +2041,7 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2010,14 +2049,14 @@
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2027,34 +2066,34 @@
         <v>10003</v>
       </c>
       <c r="K9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0</v>
-      </c>
-      <c r="O9" s="15">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+      <c r="R9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="S9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="U9" s="15">
         <v>2</v>
@@ -2069,10 +2108,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15">
@@ -2085,7 +2124,7 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2093,14 +2132,14 @@
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="16">
@@ -2110,34 +2149,34 @@
         <v>10003</v>
       </c>
       <c r="K10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="S10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="U10" s="15">
         <v>2</v>
@@ -2152,10 +2191,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15">
@@ -2168,7 +2207,7 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2176,14 +2215,14 @@
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="16">
@@ -2193,7 +2232,7 @@
         <v>10003</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="15">
         <v>1</v>
@@ -2211,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="S11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="U11" s="15">
         <v>2</v>
@@ -2235,10 +2274,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15">
@@ -2251,7 +2290,7 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2259,12 +2298,12 @@
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2274,7 +2313,7 @@
         <v>10003</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" s="15">
         <v>1</v>
@@ -2292,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
@@ -2312,7 +2351,7 @@
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2320,7 +2359,7 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2328,12 +2367,12 @@
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2343,7 +2382,7 @@
         <v>10003</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" s="15">
         <v>1</v>
@@ -2361,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="15">
         <v>1</v>
@@ -2381,7 +2420,7 @@
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2389,7 +2428,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2397,12 +2436,12 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2412,7 +2451,7 @@
         <v>10003</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2430,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S14" s="15">
         <v>1</v>
@@ -2450,7 +2489,7 @@
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2464,12 +2503,12 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -2479,7 +2518,7 @@
         <v>10003</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2497,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S15" s="15">
         <v>1</v>
@@ -2517,7 +2556,7 @@
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -2531,12 +2570,12 @@
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -2548,7 +2587,7 @@
         <v>10003</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" s="15">
         <v>1</v>
@@ -2566,16 +2605,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S16" s="15">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U16" s="15">
         <v>0</v>
@@ -2588,7 +2627,7 @@
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -2596,7 +2635,7 @@
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2604,15 +2643,15 @@
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -2621,7 +2660,7 @@
         <v>10003</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" s="15">
         <v>1</v>
@@ -2639,16 +2678,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S17" s="15">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -2663,7 +2702,7 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -2671,7 +2710,7 @@
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2679,12 +2718,12 @@
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -2712,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S18" s="15">
         <v>1</v>
@@ -2732,7 +2771,7 @@
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -2740,7 +2779,7 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2748,18 +2787,18 @@
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="7">
         <v>10003</v>
@@ -2783,16 +2822,16 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S19" s="15">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U19" s="15">
         <v>0</v>
@@ -2817,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2825,12 +2864,12 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -2858,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S20" s="15">
         <v>1</v>
@@ -2890,12 +2929,12 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -2923,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S21" s="15">
         <v>1</v>
@@ -2943,7 +2982,7 @@
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -2957,12 +2996,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -2990,10 +3029,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S22" s="15">
         <v>1</v>
@@ -3010,7 +3049,7 @@
       </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3024,15 +3063,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3059,16 +3098,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S23" s="15">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U23" s="15">
         <v>40</v>
@@ -3081,7 +3120,7 @@
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3089,7 +3128,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3097,15 +3136,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3132,16 +3171,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S24" s="15">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U24" s="15">
         <v>40</v>
@@ -3154,7 +3193,7 @@
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3162,7 +3201,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3170,12 +3209,12 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3203,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S25" s="15">
         <v>1</v>
@@ -3223,7 +3262,7 @@
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3237,12 +3276,12 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3270,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S26" s="15">
         <v>1</v>
@@ -3290,7 +3329,7 @@
       </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3304,12 +3343,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3337,16 +3376,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S27" s="15">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U27" s="15">
         <v>100</v>
@@ -3365,7 +3404,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3373,12 +3412,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -3406,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S28" s="18">
         <v>1</v>
@@ -3432,7 +3471,7 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3440,12 +3479,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -3473,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S29" s="18">
         <v>1</v>
@@ -3499,7 +3538,7 @@
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3507,12 +3546,12 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -3540,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S30" s="15">
         <v>1</v>
@@ -3560,7 +3599,7 @@
       </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3574,12 +3613,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -3607,10 +3646,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S31" s="15">
         <v>1</v>
@@ -3633,7 +3672,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3641,12 +3680,12 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -3674,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S32" s="15">
         <v>1</v>
@@ -3706,12 +3745,12 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -3739,10 +3778,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S33" s="15">
         <v>1</v>
@@ -3759,7 +3798,7 @@
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -3773,12 +3812,12 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -3806,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S34" s="15">
         <v>1</v>
@@ -3832,7 +3871,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3840,12 +3879,12 @@
         <v>2700001</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -3873,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S35" s="15">
         <v>1</v>
@@ -3893,7 +3932,7 @@
       </c>
       <c r="X35" s="15"/>
       <c r="Y35" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F5A9D-48B2-44D7-B119-1146792F3C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B3690-EA92-4D59-AD63-620BBBDC067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -861,7 +861,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,10010,1011</t>
+    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,40 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B3690-EA92-4D59-AD63-620BBBDC067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +58,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -69,7 +73,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,14 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -94,7 +96,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,14 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +129,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -146,7 +144,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -156,14 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="W3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -172,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -181,14 +176,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -197,7 +191,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -205,14 +198,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -246,14 +238,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -262,7 +253,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -276,18 +266,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="150">
   <si>
     <t>Id</t>
   </si>
@@ -479,6 +469,9 @@
   </si>
   <si>
     <t>987,150,-2897</t>
+  </si>
+  <si>
+    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011</t>
   </si>
   <si>
     <t>3</t>
@@ -624,7 +617,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -634,7 +626,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -644,7 +635,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -654,7 +644,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -720,7 +709,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -730,7 +718,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -740,7 +727,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -750,7 +736,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -760,7 +745,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -781,7 +765,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -791,7 +774,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -801,7 +783,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -811,7 +792,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -857,19 +837,23 @@
     <t>宠物乱斗</t>
   </si>
   <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
     <t>100102,100103,100104</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,7 +865,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -890,14 +873,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -905,47 +886,165 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,24 +1071,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14947965941343425"/>
+        <fgColor theme="0" tint="-0.149479659413434"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="0" tint="-0.149845881527146"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1062,14 +1347,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1129,39 +1656,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1198,16 +1769,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:I6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Icon"/>
+    <tableColumn id="4" name="StallArea"/>
+    <tableColumn id="5" name="InitPos"/>
+    <tableColumn id="6" name="NpcList"/>
+    <tableColumn id="7" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1494,19 +2065,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -1532,7 +2103,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +2192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +2281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1799,7 +2370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -1810,14 +2381,14 @@
       <c r="F6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="15">
         <v>101</v>
@@ -1842,13 +2413,13 @@
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S6" s="15">
         <v>0</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U6" s="15">
         <v>0</v>
@@ -1875,22 +2446,22 @@
         <v>0</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="22" t="s">
-        <v>70</v>
+      <c r="G7" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="16">
@@ -1900,7 +2471,7 @@
         <v>10003</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" s="15">
         <v>1</v>
@@ -1918,16 +2489,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" s="15">
         <v>2</v>
@@ -1942,10 +2513,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15">
@@ -1958,22 +2529,22 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="22" t="s">
-        <v>70</v>
+      <c r="G8" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -1983,7 +2554,7 @@
         <v>10003</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="15">
         <v>1</v>
@@ -2001,16 +2572,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U8" s="15">
         <v>2</v>
@@ -2025,10 +2596,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15">
@@ -2041,22 +2612,22 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="22" t="s">
-        <v>70</v>
+      <c r="G9" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2066,7 +2637,7 @@
         <v>10003</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L9" s="15">
         <v>1</v>
@@ -2084,16 +2655,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U9" s="15">
         <v>2</v>
@@ -2108,10 +2679,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15">
@@ -2124,22 +2695,22 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="22" t="s">
-        <v>70</v>
+      <c r="G10" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="16">
@@ -2149,7 +2720,7 @@
         <v>10003</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="15">
         <v>1</v>
@@ -2167,16 +2738,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U10" s="15">
         <v>2</v>
@@ -2191,10 +2762,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15">
@@ -2207,22 +2778,22 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="22" t="s">
-        <v>70</v>
+      <c r="G11" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="16">
@@ -2232,7 +2803,7 @@
         <v>10003</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="15">
         <v>1</v>
@@ -2250,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U11" s="15">
         <v>2</v>
@@ -2274,10 +2845,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15">
@@ -2290,20 +2861,20 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="22" t="s">
-        <v>70</v>
+      <c r="G12" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2313,7 +2884,7 @@
         <v>10003</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L12" s="15">
         <v>1</v>
@@ -2331,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
@@ -2351,28 +2922,28 @@
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
-      <c r="AE12" s="23" t="s">
-        <v>107</v>
+      <c r="AE12" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="22" t="s">
-        <v>70</v>
+      <c r="G13" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2382,7 +2953,7 @@
         <v>10003</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L13" s="15">
         <v>1</v>
@@ -2400,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S13" s="15">
         <v>1</v>
@@ -2420,7 +2991,7 @@
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2428,20 +2999,20 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="22" t="s">
-        <v>70</v>
+      <c r="G14" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2451,7 +3022,7 @@
         <v>10003</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2469,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S14" s="15">
         <v>1</v>
@@ -2489,7 +3060,7 @@
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2498,17 +3069,17 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="19"/>
     </row>
-    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="22" t="s">
-        <v>70</v>
+      <c r="G15" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -2518,7 +3089,7 @@
         <v>10003</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2536,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S15" s="15">
         <v>1</v>
@@ -2556,7 +3127,7 @@
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -2565,17 +3136,17 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="19"/>
     </row>
-    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="3:31">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="22" t="s">
-        <v>70</v>
+      <c r="G16" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -2587,7 +3158,7 @@
         <v>10003</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="15">
         <v>1</v>
@@ -2605,16 +3176,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S16" s="15">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U16" s="15">
         <v>0</v>
@@ -2627,31 +3198,31 @@
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="23" t="s">
-        <v>115</v>
+      <c r="AE16" s="24" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="3:31">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>117</v>
+      <c r="G17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -2660,7 +3231,7 @@
         <v>10003</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="15">
         <v>1</v>
@@ -2678,16 +3249,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S17" s="15">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -2702,28 +3273,28 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="23" t="s">
-        <v>115</v>
+      <c r="AE17" s="24" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="20.1" customHeight="1" spans="3:31">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="22" t="s">
-        <v>70</v>
+      <c r="G18" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -2751,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S18" s="15">
         <v>1</v>
@@ -2771,7 +3342,7 @@
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -2779,26 +3350,26 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="22" t="s">
-        <v>70</v>
+      <c r="G19" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J19" s="7">
         <v>10003</v>
@@ -2822,16 +3393,16 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S19" s="15">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U19" s="15">
         <v>0</v>
@@ -2856,20 +3427,20 @@
         <v>0</v>
       </c>
       <c r="AE19" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="22" t="s">
-        <v>70</v>
+      <c r="G20" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -2897,10 +3468,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S20" s="15">
         <v>1</v>
@@ -2924,17 +3495,17 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="19"/>
     </row>
-    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="22" t="s">
-        <v>70</v>
+      <c r="G21" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -2962,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S21" s="15">
         <v>1</v>
@@ -2982,7 +3553,7 @@
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -2991,17 +3562,17 @@
       <c r="AD21" s="15"/>
       <c r="AE21" s="19"/>
     </row>
-    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="22" t="s">
-        <v>128</v>
+      <c r="G22" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3029,10 +3600,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S22" s="15">
         <v>1</v>
@@ -3049,7 +3620,7 @@
       </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3058,20 +3629,20 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="19"/>
     </row>
-    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:31">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="22" t="s">
-        <v>130</v>
+      <c r="G23" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3098,16 +3669,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S23" s="15">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U23" s="15">
         <v>40</v>
@@ -3120,7 +3691,7 @@
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3128,23 +3699,23 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="20.1" customHeight="1" spans="3:31">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="22" t="s">
-        <v>130</v>
+      <c r="G24" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3171,16 +3742,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S24" s="15">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U24" s="15">
         <v>40</v>
@@ -3193,7 +3764,7 @@
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3201,20 +3772,20 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="22" t="s">
-        <v>70</v>
+      <c r="G25" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3242,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S25" s="15">
         <v>1</v>
@@ -3262,7 +3833,7 @@
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3271,17 +3842,17 @@
       <c r="AD25" s="15"/>
       <c r="AE25" s="19"/>
     </row>
-    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="22" t="s">
-        <v>70</v>
+      <c r="G26" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3309,10 +3880,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S26" s="15">
         <v>1</v>
@@ -3329,7 +3900,7 @@
       </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3338,17 +3909,17 @@
       <c r="AD26" s="15"/>
       <c r="AE26" s="19"/>
     </row>
-    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:31">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="25" t="s">
-        <v>137</v>
+      <c r="G27" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3376,16 +3947,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S27" s="15">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U27" s="15">
         <v>100</v>
@@ -3404,20 +3975,20 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="25" t="s">
-        <v>137</v>
+      <c r="G28" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -3445,10 +4016,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S28" s="18">
         <v>1</v>
@@ -3471,20 +4042,20 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="25" t="s">
-        <v>137</v>
+      <c r="G29" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -3512,10 +4083,10 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S29" s="18">
         <v>1</v>
@@ -3538,20 +4109,20 @@
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="22" t="s">
-        <v>70</v>
+      <c r="G30" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -3579,10 +4150,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S30" s="15">
         <v>1</v>
@@ -3599,7 +4170,7 @@
       </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3608,17 +4179,17 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="19"/>
     </row>
-    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="25" t="s">
-        <v>137</v>
+      <c r="G31" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -3646,10 +4217,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S31" s="15">
         <v>1</v>
@@ -3672,20 +4243,20 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="22" t="s">
-        <v>70</v>
+      <c r="G32" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -3713,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S32" s="15">
         <v>1</v>
@@ -3740,17 +4311,17 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="19"/>
     </row>
-    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="22" t="s">
-        <v>70</v>
+      <c r="G33" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -3778,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S33" s="15">
         <v>1</v>
@@ -3798,7 +4369,7 @@
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -3807,17 +4378,17 @@
       <c r="AD33" s="15"/>
       <c r="AE33" s="19"/>
     </row>
-    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:31">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="22" t="s">
-        <v>70</v>
+      <c r="G34" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -3845,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S34" s="15">
         <v>1</v>
@@ -3871,27 +4442,27 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C35" s="7">
         <v>2700001</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="22" t="s">
-        <v>70</v>
+      <c r="G35" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
         <v>27</v>
       </c>
       <c r="J35" s="7">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="K35" s="15">
         <v>0</v>
@@ -3912,10 +4483,10 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S35" s="15">
         <v>1</v>
@@ -3931,8 +4502,8 @@
         <v>0</v>
       </c>
       <c r="X35" s="15"/>
-      <c r="Y35" s="26" t="s">
-        <v>147</v>
+      <c r="Y35" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
@@ -3942,12 +4513,12 @@
       <c r="AE35" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -840,7 +840,7 @@
     <t>0,0,0</t>
   </si>
   <si>
-    <t>100102,100103,100104</t>
+    <t>100102,100103,100104,100111,100112</t>
   </si>
 </sst>
 </file>
@@ -2073,8 +2073,8 @@
   <sheetPr/>
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -837,7 +837,7 @@
     <t>宠物乱斗</t>
   </si>
   <si>
-    <t>0,0,0</t>
+    <t>100,0,0</t>
   </si>
   <si>
     <t>100102,100103,100104,100111,100112</t>
@@ -2073,8 +2073,8 @@
   <sheetPr/>
   <dimension ref="C3:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -837,7 +837,7 @@
     <t>宠物乱斗</t>
   </si>
   <si>
-    <t>100,0,0</t>
+    <t>0,0,1000</t>
   </si>
   <si>
     <t>100102,100103,100104,100111,100112</t>
@@ -2074,7 +2074,7 @@
   <dimension ref="C3:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -837,7 +837,7 @@
     <t>宠物乱斗</t>
   </si>
   <si>
-    <t>0,0,1000</t>
+    <t>0,0,-1000</t>
   </si>
   <si>
     <t>100102,100103,100104,100111,100112</t>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -834,13 +834,22 @@
     <t>1V1挑战赛</t>
   </si>
   <si>
-    <t>宠物乱斗</t>
+    <t>宠物乱斗_1</t>
   </si>
   <si>
     <t>0,0,-1000</t>
   </si>
   <si>
     <t>100102,100103,100104,100111,100112</t>
+  </si>
+  <si>
+    <t>10000152;10</t>
+  </si>
+  <si>
+    <t>宠物乱斗_2</t>
+  </si>
+  <si>
+    <t>10000152;20</t>
   </si>
 </sst>
 </file>
@@ -1033,12 +1042,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2071,10 +2080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AE35"/>
+  <dimension ref="C3:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="P8" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4506,11 +4515,86 @@
         <v>149</v>
       </c>
       <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="15"/>
+      <c r="AA35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>28000</v>
+      </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="19"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C36" s="7">
+        <v>2700002</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <v>27</v>
+      </c>
+      <c r="J36" s="7">
+        <v>10004</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S36" s="15">
+        <v>1</v>
+      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="15">
+        <v>1</v>
+      </c>
+      <c r="V36" s="15">
+        <v>5</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,46 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6C9F7-8A80-4C95-8078-83973FEFC77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -49,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,13 +53,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -73,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,13 +78,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -96,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,13 +105,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,6 +121,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -129,13 +130,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -144,6 +146,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -153,13 +156,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -168,6 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,13 +181,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0">
+    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -191,6 +197,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,13 +205,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -238,13 +246,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -253,6 +262,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -266,12 +276,12 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -617,6 +627,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -626,6 +637,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -635,6 +647,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -644,6 +657,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -709,6 +723,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -718,6 +733,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -727,6 +743,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -736,6 +753,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -745,6 +763,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -765,6 +784,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -774,6 +794,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -783,6 +804,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -792,6 +814,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -855,14 +878,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +891,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -882,12 +900,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -895,165 +915,47 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,210 +982,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149479659413434"/>
+        <fgColor theme="0" tint="-0.14944914090395825"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149845881527146"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1356,256 +1072,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1668,80 +1142,37 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
-    <cellStyle name="常规 6" xfId="51"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1778,16 +1209,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:I6" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Icon"/>
-    <tableColumn id="4" name="StallArea"/>
-    <tableColumn id="5" name="InitPos"/>
-    <tableColumn id="6" name="NpcList"/>
-    <tableColumn id="7" name="MapType"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2074,19 +1505,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:AE36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P8" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -2112,7 +1543,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +1632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2290,7 +1721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -2379,7 +1810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -2458,7 +1889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
@@ -2541,7 +1972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
@@ -2624,7 +2055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
@@ -2707,7 +2138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
@@ -2790,7 +2221,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
@@ -2873,7 +2304,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
@@ -2942,7 +2373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
@@ -3011,7 +2442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
@@ -3078,7 +2509,7 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="19"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
@@ -3145,7 +2576,7 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="19"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:31">
+    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
@@ -3218,7 +2649,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:31">
+    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
@@ -3293,7 +2724,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:31">
+    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
@@ -3362,7 +2793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
@@ -3439,7 +2870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
@@ -3504,7 +2935,7 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="19"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
@@ -3571,7 +3002,7 @@
       <c r="AD21" s="15"/>
       <c r="AE21" s="19"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
@@ -3638,7 +3069,7 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="19"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:31">
+    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
@@ -3711,7 +3142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:31">
+    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
@@ -3784,7 +3215,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
@@ -3851,7 +3282,7 @@
       <c r="AD25" s="15"/>
       <c r="AE25" s="19"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
@@ -3918,7 +3349,7 @@
       <c r="AD26" s="15"/>
       <c r="AE26" s="19"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:31">
+    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
@@ -3987,7 +3418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
@@ -4054,7 +3485,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
@@ -4121,7 +3552,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
@@ -4188,7 +3619,7 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="19"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
@@ -4255,7 +3686,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
@@ -4320,7 +3751,7 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="19"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
@@ -4387,7 +3818,7 @@
       <c r="AD33" s="15"/>
       <c r="AE33" s="19"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:31">
+    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
@@ -4454,7 +3885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="7">
         <v>2700001</v>
       </c>
@@ -4525,7 +3956,7 @@
       <c r="AD35" s="15"/>
       <c r="AE35" s="19"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="36" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="7">
         <v>2700002</v>
       </c>
@@ -4596,13 +4027,22 @@
       <c r="AD36" s="15"/>
       <c r="AE36" s="19"/>
     </row>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="E39" s="27"/>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="E41" s="27"/>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="E43" s="27"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6C9F7-8A80-4C95-8078-83973FEFC77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745D193-6CFA-4CA3-98E2-19B9EE91914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1908,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>72</v>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>81</v>
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>88</v>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>95</v>
@@ -2240,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>95</v>
@@ -2321,7 +2321,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>107</v>
@@ -2390,7 +2390,7 @@
         <v>14</v>
       </c>
       <c r="J13" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>107</v>
@@ -2459,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>107</v>
@@ -2526,7 +2526,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>107</v>
@@ -2595,7 +2595,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>107</v>
@@ -2668,7 +2668,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>119</v>
@@ -2741,7 +2741,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K18" s="15">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>65</v>
       </c>
       <c r="J19" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K19" s="15">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K20" s="15">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K21" s="15">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="7">
-        <v>10007</v>
+        <v>104</v>
       </c>
       <c r="K22" s="15">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K23" s="15">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K25" s="15">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>22</v>
       </c>
       <c r="J28" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K28" s="18">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K29" s="18">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K30" s="15">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>21</v>
       </c>
       <c r="J31" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K31" s="15">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="J32" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K32" s="15">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>25</v>
       </c>
       <c r="J33" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K33" s="15">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>26</v>
       </c>
       <c r="J34" s="7">
-        <v>10003</v>
+        <v>104</v>
       </c>
       <c r="K34" s="15">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>27</v>
       </c>
       <c r="J35" s="7">
-        <v>10004</v>
+        <v>104</v>
       </c>
       <c r="K35" s="15">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>27</v>
       </c>
       <c r="J36" s="7">
-        <v>10004</v>
+        <v>104</v>
       </c>
       <c r="K36" s="15">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,40 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745D193-6CFA-4CA3-98E2-19B9EE91914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +58,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -69,7 +73,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,14 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -94,7 +96,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,14 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +129,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -146,7 +144,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -156,14 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="W3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -172,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -181,14 +176,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -197,7 +191,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -205,14 +198,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -246,14 +238,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -262,7 +253,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -276,18 +266,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -627,7 +617,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -637,7 +626,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -647,7 +635,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -657,7 +644,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -723,7 +709,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -733,7 +718,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -743,7 +727,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -753,7 +736,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -763,7 +745,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -784,7 +765,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -794,7 +774,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -804,7 +783,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -814,7 +792,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -874,12 +851,24 @@
   <si>
     <t>10000152;20</t>
   </si>
+  <si>
+    <t>宠物乱斗_3</t>
+  </si>
+  <si>
+    <t>10000152;30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,7 +880,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -900,14 +888,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -915,47 +901,172 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,24 +1093,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14944914090395825"/>
+        <fgColor theme="0" tint="-0.149449140903958"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <fgColor theme="0" tint="-0.14981536301767"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1072,14 +1369,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1121,6 +1660,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,37 +1682,80 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1209,16 +1792,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:I6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Icon"/>
+    <tableColumn id="4" name="StallArea"/>
+    <tableColumn id="5" name="InitPos"/>
+    <tableColumn id="6" name="NpcList"/>
+    <tableColumn id="7" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1505,19 +2088,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -1543,7 +2126,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +2215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +2304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1810,7 +2393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -1821,7 +2404,7 @@
       <c r="F6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -1830,66 +2413,66 @@
       <c r="I6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <v>101</v>
       </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>1</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
         <v>1</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="16">
         <v>0</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="15">
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>0</v>
-      </c>
-      <c r="X6" s="15">
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16">
         <v>0</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
@@ -1900,32 +2483,32 @@
         <v>70</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>5</v>
       </c>
       <c r="J7" s="7">
         <v>104</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="15">
-        <v>1</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
@@ -1940,16 +2523,16 @@
       <c r="T7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="16">
         <v>2</v>
       </c>
-      <c r="V7" s="15">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>0</v>
-      </c>
-      <c r="X7" s="15">
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
@@ -1959,20 +2542,20 @@
         <v>77</v>
       </c>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="15">
+      <c r="AB7" s="16">
         <v>28000</v>
       </c>
-      <c r="AC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="15">
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
         <v>601500201</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AE7" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
@@ -1983,7 +2566,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="7"/>
@@ -1993,22 +2576,22 @@
       <c r="J8" s="7">
         <v>104</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15">
+      <c r="L8" s="16">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
@@ -2023,16 +2606,16 @@
       <c r="T8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="16">
         <v>2</v>
       </c>
-      <c r="V8" s="15">
-        <v>0</v>
-      </c>
-      <c r="W8" s="15">
-        <v>0</v>
-      </c>
-      <c r="X8" s="15">
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
@@ -2042,20 +2625,20 @@
         <v>77</v>
       </c>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="15">
+      <c r="AB8" s="16">
         <v>58000</v>
       </c>
-      <c r="AC8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="15">
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
         <v>601500301</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AE8" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
@@ -2066,7 +2649,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="7"/>
@@ -2076,22 +2659,22 @@
       <c r="J9" s="7">
         <v>104</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0</v>
-      </c>
-      <c r="O9" s="15">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
@@ -2106,16 +2689,16 @@
       <c r="T9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="16">
         <v>2</v>
       </c>
-      <c r="V9" s="15">
-        <v>0</v>
-      </c>
-      <c r="W9" s="15">
-        <v>0</v>
-      </c>
-      <c r="X9" s="15">
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
@@ -2125,20 +2708,20 @@
         <v>77</v>
       </c>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="15">
+      <c r="AB9" s="16">
         <v>88000</v>
       </c>
-      <c r="AC9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="15">
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
         <v>601500401</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AE9" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
@@ -2149,32 +2732,32 @@
         <v>94</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="16">
+      <c r="I10" s="17">
         <v>5</v>
       </c>
       <c r="J10" s="7">
         <v>104</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
@@ -2189,16 +2772,16 @@
       <c r="T10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="16">
         <v>2</v>
       </c>
-      <c r="V10" s="15">
-        <v>0</v>
-      </c>
-      <c r="W10" s="15">
-        <v>0</v>
-      </c>
-      <c r="X10" s="15">
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
@@ -2208,20 +2791,20 @@
         <v>77</v>
       </c>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="15">
+      <c r="AB10" s="16">
         <v>118000</v>
       </c>
-      <c r="AC10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="15">
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
         <v>601500501</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AE10" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
@@ -2232,32 +2815,32 @@
         <v>101</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="16">
+      <c r="I11" s="17">
         <v>5</v>
       </c>
       <c r="J11" s="7">
         <v>104</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="M11" s="15">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0</v>
-      </c>
-      <c r="O11" s="15">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
+      <c r="L11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
@@ -2272,16 +2855,16 @@
       <c r="T11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="16">
         <v>2</v>
       </c>
-      <c r="V11" s="15">
-        <v>0</v>
-      </c>
-      <c r="W11" s="15">
-        <v>0</v>
-      </c>
-      <c r="X11" s="15">
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16">
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
@@ -2291,20 +2874,20 @@
         <v>77</v>
       </c>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="15">
+      <c r="AB11" s="16">
         <v>158000</v>
       </c>
-      <c r="AC11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="15">
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
         <v>601500501</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AE11" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
@@ -2313,7 +2896,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="7"/>
@@ -2323,22 +2906,22 @@
       <c r="J12" s="7">
         <v>104</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15">
-        <v>1</v>
-      </c>
-      <c r="O12" s="15">
-        <v>0</v>
-      </c>
-      <c r="P12" s="15">
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
@@ -2347,33 +2930,33 @@
       <c r="R12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="16">
         <v>1</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="15">
+      <c r="U12" s="16">
         <v>300</v>
       </c>
-      <c r="V12" s="15">
-        <v>0</v>
-      </c>
-      <c r="W12" s="15">
-        <v>0</v>
-      </c>
-      <c r="X12" s="15"/>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16"/>
       <c r="Y12" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="24" t="s">
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
@@ -2382,7 +2965,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="7"/>
@@ -2392,22 +2975,22 @@
       <c r="J13" s="7">
         <v>104</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="15">
-        <v>1</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15">
+      <c r="L13" s="16">
+        <v>1</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
@@ -2416,33 +2999,33 @@
       <c r="R13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="16">
         <v>1</v>
       </c>
       <c r="T13" s="8"/>
-      <c r="U13" s="15">
+      <c r="U13" s="16">
         <v>200</v>
       </c>
-      <c r="V13" s="15">
-        <v>0</v>
-      </c>
-      <c r="W13" s="15">
-        <v>0</v>
-      </c>
-      <c r="X13" s="15"/>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16"/>
       <c r="Y13" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="19" t="s">
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
@@ -2451,7 +3034,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="7"/>
@@ -2461,22 +3044,22 @@
       <c r="J14" s="7">
         <v>104</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <v>1</v>
-      </c>
-      <c r="N14" s="15">
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
-        <v>1</v>
-      </c>
-      <c r="P14" s="15">
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>1</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>1</v>
+      </c>
+      <c r="P14" s="16">
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -2485,31 +3068,31 @@
       <c r="R14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="16">
         <v>1</v>
       </c>
       <c r="T14" s="8"/>
-      <c r="U14" s="15">
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
         <v>10</v>
       </c>
-      <c r="W14" s="15">
-        <v>0</v>
-      </c>
-      <c r="X14" s="15"/>
+      <c r="W14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16"/>
       <c r="Y14" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="19"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="20"/>
     </row>
-    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
@@ -2518,7 +3101,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="7"/>
@@ -2528,22 +3111,22 @@
       <c r="J15" s="7">
         <v>104</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="15">
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1</v>
+      </c>
+      <c r="P15" s="16">
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -2552,31 +3135,31 @@
       <c r="R15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="16">
         <v>1</v>
       </c>
       <c r="T15" s="8"/>
-      <c r="U15" s="15">
-        <v>1</v>
-      </c>
-      <c r="V15" s="15">
+      <c r="U15" s="16">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16">
         <v>10</v>
       </c>
-      <c r="W15" s="15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="15"/>
+      <c r="W15" s="16">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16"/>
       <c r="Y15" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="19"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="20"/>
     </row>
-    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="3:31">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
@@ -2585,7 +3168,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H16" s="7">
@@ -2597,22 +3180,22 @@
       <c r="J16" s="7">
         <v>104</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="15">
-        <v>1</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15">
-        <v>1</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
+      <c r="L16" s="16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -2621,35 +3204,35 @@
       <c r="R16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="16">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="U16" s="15">
-        <v>0</v>
-      </c>
-      <c r="V16" s="15">
-        <v>0</v>
-      </c>
-      <c r="W16" s="15">
-        <v>0</v>
-      </c>
-      <c r="X16" s="15"/>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16"/>
       <c r="Y16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="24" t="s">
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="3:31">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
@@ -2658,10 +3241,10 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="26" t="s">
         <v>118</v>
       </c>
       <c r="I17" s="7">
@@ -2670,22 +3253,22 @@
       <c r="J17" s="7">
         <v>104</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="15">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15">
-        <v>1</v>
-      </c>
-      <c r="N17" s="15">
-        <v>1</v>
-      </c>
-      <c r="O17" s="15">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15">
+      <c r="L17" s="16">
+        <v>1</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -2694,22 +3277,22 @@
       <c r="R17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="16">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="U17" s="15">
-        <v>0</v>
-      </c>
-      <c r="V17" s="15">
-        <v>0</v>
-      </c>
-      <c r="W17" s="15">
-        <v>0</v>
-      </c>
-      <c r="X17" s="15">
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
@@ -2717,14 +3300,14 @@
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="24" t="s">
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="20.1" customHeight="1" spans="3:31">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
@@ -2733,7 +3316,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="7"/>
@@ -2743,22 +3326,22 @@
       <c r="J18" s="7">
         <v>104</v>
       </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15">
-        <v>1</v>
-      </c>
-      <c r="N18" s="15">
-        <v>1</v>
-      </c>
-      <c r="O18" s="15">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15">
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
@@ -2767,33 +3350,33 @@
       <c r="R18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="16">
         <v>1</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="15">
+      <c r="U18" s="16">
         <v>2</v>
       </c>
-      <c r="V18" s="15">
-        <v>0</v>
-      </c>
-      <c r="W18" s="15">
-        <v>1</v>
-      </c>
-      <c r="X18" s="15"/>
+      <c r="V18" s="16">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <v>1</v>
+      </c>
+      <c r="X18" s="16"/>
       <c r="Y18" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="19" t="s">
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
@@ -2802,7 +3385,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -2814,22 +3397,22 @@
       <c r="J19" s="7">
         <v>104</v>
       </c>
-      <c r="K19" s="15">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15">
-        <v>1</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
@@ -2838,39 +3421,39 @@
       <c r="R19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="16">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U19" s="15">
-        <v>0</v>
-      </c>
-      <c r="V19" s="15">
-        <v>0</v>
-      </c>
-      <c r="W19" s="15">
-        <v>0</v>
-      </c>
-      <c r="X19" s="15"/>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="19" t="s">
+      <c r="AB19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
@@ -2879,7 +3462,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="7"/>
@@ -2889,22 +3472,22 @@
       <c r="J20" s="7">
         <v>104</v>
       </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>1</v>
-      </c>
-      <c r="N20" s="15">
-        <v>0</v>
-      </c>
-      <c r="O20" s="15">
-        <v>0</v>
-      </c>
-      <c r="P20" s="15">
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
+        <v>1</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -2913,29 +3496,29 @@
       <c r="R20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="16">
         <v>1</v>
       </c>
       <c r="T20" s="8"/>
-      <c r="U20" s="15">
-        <v>1</v>
-      </c>
-      <c r="V20" s="15">
+      <c r="U20" s="16">
+        <v>1</v>
+      </c>
+      <c r="V20" s="16">
         <v>5</v>
       </c>
-      <c r="W20" s="15">
-        <v>0</v>
-      </c>
-      <c r="X20" s="15"/>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20" s="16"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="19"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="20"/>
     </row>
-    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
@@ -2944,7 +3527,7 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="7"/>
@@ -2954,22 +3537,22 @@
       <c r="J21" s="7">
         <v>104</v>
       </c>
-      <c r="K21" s="15">
-        <v>0</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <v>1</v>
-      </c>
-      <c r="N21" s="15">
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
-        <v>0</v>
-      </c>
-      <c r="P21" s="15">
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="16">
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -2978,31 +3561,31 @@
       <c r="R21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="16">
         <v>1</v>
       </c>
       <c r="T21" s="8"/>
-      <c r="U21" s="15">
-        <v>1</v>
-      </c>
-      <c r="V21" s="15">
+      <c r="U21" s="16">
+        <v>1</v>
+      </c>
+      <c r="V21" s="16">
         <v>10</v>
       </c>
-      <c r="W21" s="15">
-        <v>0</v>
-      </c>
-      <c r="X21" s="15"/>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="16"/>
       <c r="Y21" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="19"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="20"/>
     </row>
-    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
@@ -3011,7 +3594,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="7"/>
@@ -3021,22 +3604,22 @@
       <c r="J22" s="7">
         <v>104</v>
       </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>1</v>
-      </c>
-      <c r="N22" s="15">
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
-        <v>0</v>
-      </c>
-      <c r="P22" s="15">
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <v>1</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3045,31 +3628,31 @@
       <c r="R22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="16">
         <v>1</v>
       </c>
       <c r="T22" s="8"/>
-      <c r="U22" s="15">
-        <v>1</v>
-      </c>
-      <c r="V22" s="15">
-        <v>0</v>
-      </c>
-      <c r="W22" s="15">
-        <v>0</v>
-      </c>
-      <c r="X22" s="15"/>
+      <c r="U22" s="16">
+        <v>1</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0</v>
+      </c>
+      <c r="W22" s="16">
+        <v>0</v>
+      </c>
+      <c r="X22" s="16"/>
       <c r="Y22" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="19"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="20"/>
     </row>
-    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:31">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
@@ -3078,7 +3661,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>131</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -3090,22 +3673,22 @@
       <c r="J23" s="7">
         <v>104</v>
       </c>
-      <c r="K23" s="15">
-        <v>0</v>
-      </c>
-      <c r="L23" s="15">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
-        <v>1</v>
-      </c>
-      <c r="O23" s="15">
-        <v>0</v>
-      </c>
-      <c r="P23" s="15">
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3114,35 +3697,35 @@
       <c r="R23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S23" s="16">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="U23" s="15">
+      <c r="U23" s="16">
         <v>40</v>
       </c>
-      <c r="V23" s="15">
-        <v>0</v>
-      </c>
-      <c r="W23" s="15">
-        <v>0</v>
-      </c>
-      <c r="X23" s="15"/>
+      <c r="V23" s="16">
+        <v>0</v>
+      </c>
+      <c r="W23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16"/>
       <c r="Y23" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="19" t="s">
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="20.1" customHeight="1" spans="3:31">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
@@ -3151,7 +3734,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>131</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -3163,22 +3746,22 @@
       <c r="J24" s="7">
         <v>104</v>
       </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>1</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-      <c r="N24" s="15">
-        <v>1</v>
-      </c>
-      <c r="O24" s="15">
-        <v>0</v>
-      </c>
-      <c r="P24" s="15">
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>1</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3187,35 +3770,35 @@
       <c r="R24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S24" s="16">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U24" s="16">
         <v>40</v>
       </c>
-      <c r="V24" s="15">
-        <v>0</v>
-      </c>
-      <c r="W24" s="15">
-        <v>0</v>
-      </c>
-      <c r="X24" s="15"/>
+      <c r="V24" s="16">
+        <v>0</v>
+      </c>
+      <c r="W24" s="16">
+        <v>0</v>
+      </c>
+      <c r="X24" s="16"/>
       <c r="Y24" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="19" t="s">
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
@@ -3224,7 +3807,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="7"/>
@@ -3234,22 +3817,22 @@
       <c r="J25" s="7">
         <v>104</v>
       </c>
-      <c r="K25" s="15">
-        <v>0</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <v>1</v>
-      </c>
-      <c r="N25" s="15">
-        <v>0</v>
-      </c>
-      <c r="O25" s="15">
-        <v>0</v>
-      </c>
-      <c r="P25" s="15">
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <v>1</v>
+      </c>
+      <c r="N25" s="16">
+        <v>0</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3258,31 +3841,31 @@
       <c r="R25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="16">
         <v>1</v>
       </c>
       <c r="T25" s="8"/>
-      <c r="U25" s="15">
-        <v>0</v>
-      </c>
-      <c r="V25" s="15">
-        <v>0</v>
-      </c>
-      <c r="W25" s="15">
-        <v>0</v>
-      </c>
-      <c r="X25" s="15"/>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0</v>
+      </c>
+      <c r="X25" s="16"/>
       <c r="Y25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="19"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="20"/>
     </row>
-    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
@@ -3291,7 +3874,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="7"/>
@@ -3301,22 +3884,22 @@
       <c r="J26" s="7">
         <v>104</v>
       </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>1</v>
-      </c>
-      <c r="N26" s="15">
-        <v>0</v>
-      </c>
-      <c r="O26" s="15">
-        <v>0</v>
-      </c>
-      <c r="P26" s="15">
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <v>1</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3325,31 +3908,31 @@
       <c r="R26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="16">
         <v>1</v>
       </c>
       <c r="T26" s="8"/>
-      <c r="U26" s="15">
-        <v>0</v>
-      </c>
-      <c r="V26" s="15">
-        <v>0</v>
-      </c>
-      <c r="W26" s="15">
-        <v>0</v>
-      </c>
-      <c r="X26" s="15"/>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>0</v>
+      </c>
+      <c r="W26" s="16">
+        <v>0</v>
+      </c>
+      <c r="X26" s="16"/>
       <c r="Y26" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="19"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="20"/>
     </row>
-    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:31">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
@@ -3358,7 +3941,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H27" s="7"/>
@@ -3368,22 +3951,22 @@
       <c r="J27" s="7">
         <v>104</v>
       </c>
-      <c r="K27" s="15">
-        <v>0</v>
-      </c>
-      <c r="L27" s="15">
-        <v>1</v>
-      </c>
-      <c r="M27" s="15">
-        <v>1</v>
-      </c>
-      <c r="N27" s="15">
-        <v>1</v>
-      </c>
-      <c r="O27" s="15">
-        <v>0</v>
-      </c>
-      <c r="P27" s="15">
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1</v>
+      </c>
+      <c r="M27" s="16">
+        <v>1</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3392,33 +3975,33 @@
       <c r="R27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="16">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="U27" s="15">
+      <c r="U27" s="16">
         <v>100</v>
       </c>
-      <c r="V27" s="15">
-        <v>0</v>
-      </c>
-      <c r="W27" s="15">
-        <v>0</v>
-      </c>
-      <c r="X27" s="15"/>
+      <c r="V27" s="16">
+        <v>0</v>
+      </c>
+      <c r="W27" s="16">
+        <v>0</v>
+      </c>
+      <c r="X27" s="16"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="19" t="s">
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
@@ -3427,7 +4010,7 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="14"/>
@@ -3437,22 +4020,22 @@
       <c r="J28" s="7">
         <v>104</v>
       </c>
-      <c r="K28" s="18">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <v>0</v>
-      </c>
-      <c r="M28" s="18">
-        <v>1</v>
-      </c>
-      <c r="N28" s="18">
-        <v>1</v>
-      </c>
-      <c r="O28" s="18">
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
+        <v>1</v>
+      </c>
+      <c r="N28" s="19">
+        <v>1</v>
+      </c>
+      <c r="O28" s="19">
+        <v>0</v>
+      </c>
+      <c r="P28" s="19">
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
@@ -3461,31 +4044,31 @@
       <c r="R28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="19">
         <v>1</v>
       </c>
       <c r="T28" s="13"/>
-      <c r="U28" s="18">
-        <v>0</v>
-      </c>
-      <c r="V28" s="18">
-        <v>0</v>
-      </c>
-      <c r="W28" s="18">
-        <v>1</v>
-      </c>
-      <c r="X28" s="18"/>
+      <c r="U28" s="19">
+        <v>0</v>
+      </c>
+      <c r="V28" s="19">
+        <v>0</v>
+      </c>
+      <c r="W28" s="19">
+        <v>1</v>
+      </c>
+      <c r="X28" s="19"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="20" t="s">
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
@@ -3494,7 +4077,7 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H29" s="14"/>
@@ -3504,22 +4087,22 @@
       <c r="J29" s="7">
         <v>104</v>
       </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <v>1</v>
-      </c>
-      <c r="N29" s="18">
-        <v>1</v>
-      </c>
-      <c r="O29" s="18">
-        <v>0</v>
-      </c>
-      <c r="P29" s="18">
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
+        <v>1</v>
+      </c>
+      <c r="N29" s="19">
+        <v>1</v>
+      </c>
+      <c r="O29" s="19">
+        <v>0</v>
+      </c>
+      <c r="P29" s="19">
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
@@ -3528,31 +4111,31 @@
       <c r="R29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="19">
         <v>1</v>
       </c>
       <c r="T29" s="13"/>
-      <c r="U29" s="18">
-        <v>0</v>
-      </c>
-      <c r="V29" s="18">
-        <v>0</v>
-      </c>
-      <c r="W29" s="18">
-        <v>1</v>
-      </c>
-      <c r="X29" s="18"/>
+      <c r="U29" s="19">
+        <v>0</v>
+      </c>
+      <c r="V29" s="19">
+        <v>0</v>
+      </c>
+      <c r="W29" s="19">
+        <v>1</v>
+      </c>
+      <c r="X29" s="19"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="20" t="s">
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
@@ -3561,7 +4144,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="7"/>
@@ -3571,22 +4154,22 @@
       <c r="J30" s="7">
         <v>104</v>
       </c>
-      <c r="K30" s="15">
-        <v>0</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>1</v>
-      </c>
-      <c r="N30" s="15">
-        <v>0</v>
-      </c>
-      <c r="O30" s="15">
-        <v>0</v>
-      </c>
-      <c r="P30" s="15">
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>1</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
@@ -3595,31 +4178,31 @@
       <c r="R30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="15">
+      <c r="S30" s="16">
         <v>1</v>
       </c>
       <c r="T30" s="8"/>
-      <c r="U30" s="15">
-        <v>0</v>
-      </c>
-      <c r="V30" s="15">
-        <v>0</v>
-      </c>
-      <c r="W30" s="15">
-        <v>0</v>
-      </c>
-      <c r="X30" s="15"/>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0</v>
+      </c>
+      <c r="W30" s="16">
+        <v>0</v>
+      </c>
+      <c r="X30" s="16"/>
       <c r="Y30" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="19"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="20"/>
     </row>
-    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
@@ -3628,7 +4211,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
@@ -3638,22 +4221,22 @@
       <c r="J31" s="7">
         <v>104</v>
       </c>
-      <c r="K31" s="15">
-        <v>0</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <v>1</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-      <c r="O31" s="15">
-        <v>0</v>
-      </c>
-      <c r="P31" s="15">
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>1</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -3662,31 +4245,31 @@
       <c r="R31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S31" s="16">
         <v>1</v>
       </c>
       <c r="T31" s="8"/>
-      <c r="U31" s="15">
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
-        <v>0</v>
-      </c>
-      <c r="W31" s="15">
-        <v>0</v>
-      </c>
-      <c r="X31" s="15"/>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="19" t="s">
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
@@ -3695,7 +4278,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H32" s="7"/>
@@ -3705,22 +4288,22 @@
       <c r="J32" s="7">
         <v>104</v>
       </c>
-      <c r="K32" s="15">
-        <v>0</v>
-      </c>
-      <c r="L32" s="15">
-        <v>0</v>
-      </c>
-      <c r="M32" s="15">
-        <v>1</v>
-      </c>
-      <c r="N32" s="15">
-        <v>0</v>
-      </c>
-      <c r="O32" s="15">
-        <v>0</v>
-      </c>
-      <c r="P32" s="15">
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>1</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
@@ -3729,29 +4312,29 @@
       <c r="R32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S32" s="16">
         <v>1</v>
       </c>
       <c r="T32" s="8"/>
-      <c r="U32" s="15">
-        <v>1</v>
-      </c>
-      <c r="V32" s="15">
+      <c r="U32" s="16">
+        <v>1</v>
+      </c>
+      <c r="V32" s="16">
         <v>10</v>
       </c>
-      <c r="W32" s="15">
-        <v>0</v>
-      </c>
-      <c r="X32" s="15"/>
+      <c r="W32" s="16">
+        <v>0</v>
+      </c>
+      <c r="X32" s="16"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="19"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="20"/>
     </row>
-    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
@@ -3760,7 +4343,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="7"/>
@@ -3770,22 +4353,22 @@
       <c r="J33" s="7">
         <v>104</v>
       </c>
-      <c r="K33" s="15">
-        <v>0</v>
-      </c>
-      <c r="L33" s="15">
-        <v>0</v>
-      </c>
-      <c r="M33" s="15">
-        <v>1</v>
-      </c>
-      <c r="N33" s="15">
-        <v>0</v>
-      </c>
-      <c r="O33" s="15">
-        <v>0</v>
-      </c>
-      <c r="P33" s="15">
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>1</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="16">
+        <v>0</v>
+      </c>
+      <c r="P33" s="16">
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
@@ -3794,31 +4377,31 @@
       <c r="R33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S33" s="16">
         <v>1</v>
       </c>
       <c r="T33" s="8"/>
-      <c r="U33" s="15">
-        <v>0</v>
-      </c>
-      <c r="V33" s="15">
-        <v>0</v>
-      </c>
-      <c r="W33" s="15">
-        <v>0</v>
-      </c>
-      <c r="X33" s="15"/>
+      <c r="U33" s="16">
+        <v>0</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0</v>
+      </c>
+      <c r="W33" s="16">
+        <v>0</v>
+      </c>
+      <c r="X33" s="16"/>
       <c r="Y33" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="19"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="20"/>
     </row>
-    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:31">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
@@ -3827,7 +4410,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="7"/>
@@ -3837,22 +4420,22 @@
       <c r="J34" s="7">
         <v>104</v>
       </c>
-      <c r="K34" s="15">
-        <v>0</v>
-      </c>
-      <c r="L34" s="15">
-        <v>1</v>
-      </c>
-      <c r="M34" s="15">
-        <v>1</v>
-      </c>
-      <c r="N34" s="15">
-        <v>1</v>
-      </c>
-      <c r="O34" s="15">
-        <v>0</v>
-      </c>
-      <c r="P34" s="15">
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>1</v>
+      </c>
+      <c r="M34" s="16">
+        <v>1</v>
+      </c>
+      <c r="N34" s="16">
+        <v>1</v>
+      </c>
+      <c r="O34" s="16">
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
@@ -3861,31 +4444,31 @@
       <c r="R34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S34" s="15">
+      <c r="S34" s="16">
         <v>1</v>
       </c>
       <c r="T34" s="8"/>
-      <c r="U34" s="15">
+      <c r="U34" s="16">
         <v>2</v>
       </c>
-      <c r="V34" s="15">
-        <v>0</v>
-      </c>
-      <c r="W34" s="15">
-        <v>1</v>
-      </c>
-      <c r="X34" s="15"/>
+      <c r="V34" s="16">
+        <v>0</v>
+      </c>
+      <c r="W34" s="16">
+        <v>1</v>
+      </c>
+      <c r="X34" s="16"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="19" t="s">
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C35" s="7">
         <v>2700001</v>
       </c>
@@ -3894,7 +4477,7 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="24" t="s">
         <v>148</v>
       </c>
       <c r="H35" s="7"/>
@@ -3904,22 +4487,22 @@
       <c r="J35" s="7">
         <v>104</v>
       </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-      <c r="N35" s="15">
-        <v>0</v>
-      </c>
-      <c r="O35" s="15">
-        <v>0</v>
-      </c>
-      <c r="P35" s="15">
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
@@ -3928,35 +4511,35 @@
       <c r="R35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S35" s="15">
+      <c r="S35" s="16">
         <v>1</v>
       </c>
       <c r="T35" s="8"/>
-      <c r="U35" s="15">
-        <v>1</v>
-      </c>
-      <c r="V35" s="15">
+      <c r="U35" s="16">
+        <v>1</v>
+      </c>
+      <c r="V35" s="16">
         <v>5</v>
       </c>
-      <c r="W35" s="15">
-        <v>0</v>
-      </c>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="21" t="s">
+      <c r="W35" s="16">
+        <v>0</v>
+      </c>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AB35" s="15">
+      <c r="AB35" s="16">
         <v>28000</v>
       </c>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="19"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="20"/>
     </row>
-    <row r="36" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C36" s="7">
         <v>2700002</v>
       </c>
@@ -3965,7 +4548,7 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="24" t="s">
         <v>148</v>
       </c>
       <c r="H36" s="7"/>
@@ -3975,22 +4558,22 @@
       <c r="J36" s="7">
         <v>104</v>
       </c>
-      <c r="K36" s="15">
-        <v>0</v>
-      </c>
-      <c r="L36" s="15">
-        <v>0</v>
-      </c>
-      <c r="M36" s="15">
-        <v>0</v>
-      </c>
-      <c r="N36" s="15">
-        <v>0</v>
-      </c>
-      <c r="O36" s="15">
-        <v>0</v>
-      </c>
-      <c r="P36" s="15">
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0</v>
+      </c>
+      <c r="O36" s="16">
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
@@ -3999,50 +4582,121 @@
       <c r="R36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S36" s="15">
+      <c r="S36" s="16">
         <v>1</v>
       </c>
       <c r="T36" s="8"/>
-      <c r="U36" s="15">
-        <v>1</v>
-      </c>
-      <c r="V36" s="15">
+      <c r="U36" s="16">
+        <v>1</v>
+      </c>
+      <c r="V36" s="16">
         <v>5</v>
       </c>
-      <c r="W36" s="15">
-        <v>0</v>
-      </c>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="21" t="s">
+      <c r="W36" s="16">
+        <v>0</v>
+      </c>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AB36" s="15">
+      <c r="AB36" s="16">
         <v>28000</v>
       </c>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="19"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="20"/>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="E39" s="27"/>
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C37" s="7">
+        <v>2700003</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
+        <v>27</v>
+      </c>
+      <c r="J37" s="7">
+        <v>104</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+      <c r="O37" s="16">
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37" s="16">
+        <v>1</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="16">
+        <v>1</v>
+      </c>
+      <c r="V37" s="16">
+        <v>5</v>
+      </c>
+      <c r="W37" s="16">
+        <v>0</v>
+      </c>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>28000</v>
+      </c>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="20"/>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="E41" s="27"/>
+    <row r="39" spans="5:5">
+      <c r="E39" s="15"/>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="E43" s="27"/>
+    <row r="41" spans="5:5">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,46 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D16483-20A4-470C-989D-32E60EC2DD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -49,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,13 +53,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -73,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,13 +78,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -96,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,13 +105,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,6 +121,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -129,13 +130,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -144,6 +146,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -153,13 +156,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -168,6 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,13 +181,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0">
+    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -191,6 +197,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,13 +205,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -238,13 +246,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -253,6 +262,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -266,12 +276,12 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -483,9 +493,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>10,100,20,0,90</t>
-  </si>
-  <si>
     <t>绿谷村</t>
   </si>
   <si>
@@ -617,6 +624,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -626,6 +634,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -635,6 +644,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -644,6 +654,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -709,6 +720,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -718,6 +730,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -727,6 +740,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -736,6 +750,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -745,6 +760,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -765,6 +781,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -774,6 +791,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -783,6 +801,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -792,6 +811,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -857,18 +877,16 @@
   <si>
     <t>10000152;30</t>
   </si>
+  <si>
+    <t>0,100,0,0,65</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,6 +898,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -888,12 +907,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -901,172 +922,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,210 +981,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149449140903958"/>
+        <fgColor theme="0" tint="-0.14941862239448225"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14978484450819421"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1369,256 +1071,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1682,80 +1142,36 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
-    <cellStyle name="常规 6" xfId="51"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1792,16 +1208,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:I6" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Icon"/>
-    <tableColumn id="4" name="StallArea"/>
-    <tableColumn id="5" name="InitPos"/>
-    <tableColumn id="6" name="NpcList"/>
-    <tableColumn id="7" name="MapType"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2088,19 +1504,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -2126,7 +1542,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +1631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +1720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -2393,7 +1809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -2469,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="17">
@@ -2494,34 +1910,34 @@
         <v>104</v>
       </c>
       <c r="K7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="16">
-        <v>1</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="U7" s="16">
         <v>2</v>
@@ -2536,10 +1952,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="16">
@@ -2552,22 +1968,22 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -2577,34 +1993,34 @@
         <v>104</v>
       </c>
       <c r="K8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="16">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="U8" s="16">
         <v>2</v>
@@ -2619,10 +2035,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="16">
@@ -2635,22 +2051,22 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2660,34 +2076,34 @@
         <v>104</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="16">
-        <v>1</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+      <c r="R9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="S9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="U9" s="16">
         <v>2</v>
@@ -2702,10 +2118,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="16">
@@ -2718,22 +2134,22 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="17">
@@ -2743,34 +2159,34 @@
         <v>104</v>
       </c>
       <c r="K10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="S10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="U10" s="16">
         <v>2</v>
@@ -2785,10 +2201,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="16">
@@ -2801,22 +2217,22 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="17">
@@ -2826,7 +2242,7 @@
         <v>104</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="16">
         <v>1</v>
@@ -2844,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="S11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="U11" s="16">
         <v>2</v>
@@ -2868,10 +2284,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="16">
@@ -2884,20 +2300,20 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2907,7 +2323,7 @@
         <v>104</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" s="16">
         <v>1</v>
@@ -2925,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>66</v>
@@ -2945,7 +2361,7 @@
       </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2953,20 +2369,20 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2976,7 +2392,7 @@
         <v>104</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" s="16">
         <v>1</v>
@@ -2994,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>66</v>
@@ -3014,7 +2430,7 @@
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -3022,20 +2438,20 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -3045,7 +2461,7 @@
         <v>104</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -3063,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>66</v>
@@ -3083,7 +2499,7 @@
       </c>
       <c r="X14" s="16"/>
       <c r="Y14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -3092,17 +2508,17 @@
       <c r="AD14" s="16"/>
       <c r="AE14" s="20"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -3112,7 +2528,7 @@
         <v>104</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L15" s="16">
         <v>0</v>
@@ -3130,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>66</v>
@@ -3150,7 +2566,7 @@
       </c>
       <c r="X15" s="16"/>
       <c r="Y15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -3159,17 +2575,17 @@
       <c r="AD15" s="16"/>
       <c r="AE15" s="20"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:31">
+    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -3181,7 +2597,7 @@
         <v>104</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" s="16">
         <v>1</v>
@@ -3199,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>66</v>
@@ -3208,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U16" s="16">
         <v>0</v>
@@ -3221,7 +2637,7 @@
       </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -3229,23 +2645,23 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:31">
+    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3254,7 +2670,7 @@
         <v>104</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" s="16">
         <v>1</v>
@@ -3272,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>66</v>
@@ -3281,7 +2697,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U17" s="16">
         <v>0</v>
@@ -3296,7 +2712,7 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -3304,20 +2720,20 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:31">
+    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -3345,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>66</v>
@@ -3365,7 +2781,7 @@
       </c>
       <c r="X18" s="16"/>
       <c r="Y18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -3373,23 +2789,23 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>65</v>
@@ -3416,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>67</v>
@@ -3450,20 +2866,20 @@
         <v>0</v>
       </c>
       <c r="AE19" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -3491,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>66</v>
@@ -3518,17 +2934,17 @@
       <c r="AD20" s="16"/>
       <c r="AE20" s="20"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -3556,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>66</v>
@@ -3576,7 +2992,7 @@
       </c>
       <c r="X21" s="16"/>
       <c r="Y21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -3585,17 +3001,17 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="20"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3623,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>66</v>
@@ -3643,7 +3059,7 @@
       </c>
       <c r="X22" s="16"/>
       <c r="Y22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3652,20 +3068,20 @@
       <c r="AD22" s="16"/>
       <c r="AE22" s="20"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:31">
+    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3692,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>66</v>
@@ -3701,7 +3117,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U23" s="16">
         <v>40</v>
@@ -3714,7 +3130,7 @@
       </c>
       <c r="X23" s="16"/>
       <c r="Y23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3722,23 +3138,23 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:31">
+    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3765,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>66</v>
@@ -3774,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U24" s="16">
         <v>40</v>
@@ -3787,7 +3203,7 @@
       </c>
       <c r="X24" s="16"/>
       <c r="Y24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3795,20 +3211,20 @@
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3836,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>66</v>
@@ -3856,7 +3272,7 @@
       </c>
       <c r="X25" s="16"/>
       <c r="Y25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3865,17 +3281,17 @@
       <c r="AD25" s="16"/>
       <c r="AE25" s="20"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3903,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>66</v>
@@ -3923,7 +3339,7 @@
       </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3932,17 +3348,17 @@
       <c r="AD26" s="16"/>
       <c r="AE26" s="20"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:31">
+    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3970,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>66</v>
@@ -3979,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U27" s="16">
         <v>100</v>
@@ -3998,20 +3414,20 @@
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
       <c r="AE27" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -4039,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>66</v>
@@ -4065,20 +3481,20 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -4106,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>66</v>
@@ -4132,20 +3548,20 @@
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -4173,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>66</v>
@@ -4193,7 +3609,7 @@
       </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -4202,17 +3618,17 @@
       <c r="AD30" s="16"/>
       <c r="AE30" s="20"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4240,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>66</v>
@@ -4266,20 +3682,20 @@
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4307,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>66</v>
@@ -4334,17 +3750,17 @@
       <c r="AD32" s="16"/>
       <c r="AE32" s="20"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4372,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>66</v>
@@ -4392,7 +3808,7 @@
       </c>
       <c r="X33" s="16"/>
       <c r="Y33" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -4401,17 +3817,17 @@
       <c r="AD33" s="16"/>
       <c r="AE33" s="20"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:31">
+    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4439,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>66</v>
@@ -4465,20 +3881,20 @@
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
       <c r="AE34" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="7">
         <v>2700001</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -4506,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>66</v>
@@ -4526,11 +3942,11 @@
       </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB35" s="16">
         <v>28000</v>
@@ -4539,17 +3955,17 @@
       <c r="AD35" s="16"/>
       <c r="AE35" s="20"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="36" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="7">
         <v>2700002</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -4577,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>66</v>
@@ -4597,11 +4013,11 @@
       </c>
       <c r="X36" s="16"/>
       <c r="Y36" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB36" s="16">
         <v>28000</v>
@@ -4610,17 +4026,17 @@
       <c r="AD36" s="16"/>
       <c r="AE36" s="20"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="37" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="7">
         <v>2700003</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -4648,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>66</v>
@@ -4668,11 +4084,11 @@
       </c>
       <c r="X37" s="16"/>
       <c r="Y37" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB37" s="16">
         <v>28000</v>
@@ -4681,22 +4097,22 @@
       <c r="AD37" s="16"/>
       <c r="AE37" s="20"/>
     </row>
-    <row r="39" spans="5:5">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.15">
       <c r="E39" s="15"/>
     </row>
-    <row r="41" spans="5:5">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.15">
       <c r="E41" s="15"/>
     </row>
-    <row r="43" spans="5:5">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.15">
       <c r="E43" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,40 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D16483-20A4-470C-989D-32E60EC2DD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +58,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -69,7 +73,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,14 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -94,7 +96,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,14 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +129,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -146,7 +144,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -156,14 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="W3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -172,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -181,14 +176,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -197,7 +191,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -205,14 +198,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -246,14 +238,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -262,7 +253,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -276,18 +266,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
   <si>
     <t>Id</t>
   </si>
@@ -491,6 +481,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>0,100,0,0,65</t>
   </si>
   <si>
     <t>绿谷村</t>
@@ -624,7 +617,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -634,7 +626,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -644,7 +635,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -654,7 +644,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -720,7 +709,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -730,7 +718,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -740,7 +727,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -750,7 +736,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -760,7 +745,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -781,7 +765,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -791,7 +774,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -801,7 +783,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -811,7 +792,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -854,7 +834,7 @@
     <t>1V1挑战赛</t>
   </si>
   <si>
-    <t>宠物乱斗_1</t>
+    <t>宠物乱斗_1_1</t>
   </si>
   <si>
     <t>0,0,-1000</t>
@@ -866,27 +846,44 @@
     <t>10000152;10</t>
   </si>
   <si>
-    <t>宠物乱斗_2</t>
+    <t>宠物乱斗_1_2</t>
   </si>
   <si>
     <t>10000152;20</t>
   </si>
   <si>
-    <t>宠物乱斗_3</t>
+    <t>宠物乱斗_1_3</t>
   </si>
   <si>
     <t>10000152;30</t>
   </si>
   <si>
-    <t>0,100,0,0,65</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>宠物乱斗_1_4</t>
+  </si>
+  <si>
+    <t>宠物乱斗_2_1</t>
+  </si>
+  <si>
+    <t>宠物乱斗_2_2</t>
+  </si>
+  <si>
+    <t>宠物乱斗_2_3</t>
+  </si>
+  <si>
+    <t>宠物乱斗_2_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,7 +895,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -907,14 +903,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -922,39 +916,172 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,24 +1108,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14941862239448225"/>
+        <fgColor theme="0" tint="-0.149418622394482"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14978484450819421"/>
+        <fgColor theme="0" tint="-0.149784844508194"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1071,14 +1384,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1142,36 +1697,80 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1208,16 +1807,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:I6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Icon"/>
+    <tableColumn id="4" name="StallArea"/>
+    <tableColumn id="5" name="InitPos"/>
+    <tableColumn id="6" name="NpcList"/>
+    <tableColumn id="7" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1504,19 +2103,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -1542,7 +2141,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +2230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +2319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1809,7 +2408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -1885,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="17">
@@ -1910,7 +2509,7 @@
         <v>104</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" s="16">
         <v>1</v>
@@ -1928,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" s="16">
         <v>2</v>
@@ -1952,10 +2551,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="16">
@@ -1968,22 +2567,22 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -1993,7 +2592,7 @@
         <v>104</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="16">
         <v>1</v>
@@ -2011,16 +2610,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U8" s="16">
         <v>2</v>
@@ -2035,10 +2634,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="16">
@@ -2051,22 +2650,22 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2076,7 +2675,7 @@
         <v>104</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L9" s="16">
         <v>1</v>
@@ -2094,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U9" s="16">
         <v>2</v>
@@ -2118,10 +2717,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="16">
@@ -2134,22 +2733,22 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="17">
@@ -2159,7 +2758,7 @@
         <v>104</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="16">
         <v>1</v>
@@ -2177,16 +2776,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U10" s="16">
         <v>2</v>
@@ -2201,10 +2800,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="16">
@@ -2217,22 +2816,22 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="17">
@@ -2242,7 +2841,7 @@
         <v>104</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="16">
         <v>1</v>
@@ -2260,16 +2859,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U11" s="16">
         <v>2</v>
@@ -2284,10 +2883,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="16">
@@ -2300,20 +2899,20 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2323,7 +2922,7 @@
         <v>104</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L12" s="16">
         <v>1</v>
@@ -2341,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>66</v>
@@ -2361,7 +2960,7 @@
       </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2369,20 +2968,20 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2392,7 +2991,7 @@
         <v>104</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L13" s="16">
         <v>1</v>
@@ -2410,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>66</v>
@@ -2430,7 +3029,7 @@
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2438,20 +3037,20 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2461,7 +3060,7 @@
         <v>104</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -2479,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>66</v>
@@ -2499,7 +3098,7 @@
       </c>
       <c r="X14" s="16"/>
       <c r="Y14" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2508,17 +3107,17 @@
       <c r="AD14" s="16"/>
       <c r="AE14" s="20"/>
     </row>
-    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -2528,7 +3127,7 @@
         <v>104</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L15" s="16">
         <v>0</v>
@@ -2546,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>66</v>
@@ -2566,7 +3165,7 @@
       </c>
       <c r="X15" s="16"/>
       <c r="Y15" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -2575,17 +3174,17 @@
       <c r="AD15" s="16"/>
       <c r="AE15" s="20"/>
     </row>
-    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="3:31">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -2597,7 +3196,7 @@
         <v>104</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="16">
         <v>1</v>
@@ -2615,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>66</v>
@@ -2624,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U16" s="16">
         <v>0</v>
@@ -2637,7 +3236,7 @@
       </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -2645,23 +3244,23 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="3:31">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -2670,7 +3269,7 @@
         <v>104</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="16">
         <v>1</v>
@@ -2688,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>66</v>
@@ -2697,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U17" s="16">
         <v>0</v>
@@ -2712,7 +3311,7 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -2720,20 +3319,20 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="20.1" customHeight="1" spans="3:31">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -2761,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>66</v>
@@ -2781,7 +3380,7 @@
       </c>
       <c r="X18" s="16"/>
       <c r="Y18" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -2789,23 +3388,23 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>65</v>
@@ -2832,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>67</v>
@@ -2866,20 +3465,20 @@
         <v>0</v>
       </c>
       <c r="AE19" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -2907,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>66</v>
@@ -2934,17 +3533,17 @@
       <c r="AD20" s="16"/>
       <c r="AE20" s="20"/>
     </row>
-    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -2972,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>66</v>
@@ -2992,7 +3591,7 @@
       </c>
       <c r="X21" s="16"/>
       <c r="Y21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -3001,17 +3600,17 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="20"/>
     </row>
-    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3039,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>66</v>
@@ -3059,7 +3658,7 @@
       </c>
       <c r="X22" s="16"/>
       <c r="Y22" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3068,20 +3667,20 @@
       <c r="AD22" s="16"/>
       <c r="AE22" s="20"/>
     </row>
-    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:31">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3108,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>66</v>
@@ -3117,7 +3716,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U23" s="16">
         <v>40</v>
@@ -3130,7 +3729,7 @@
       </c>
       <c r="X23" s="16"/>
       <c r="Y23" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3138,23 +3737,23 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="20.1" customHeight="1" spans="3:31">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3181,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>66</v>
@@ -3190,7 +3789,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U24" s="16">
         <v>40</v>
@@ -3203,7 +3802,7 @@
       </c>
       <c r="X24" s="16"/>
       <c r="Y24" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3211,20 +3810,20 @@
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3252,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>66</v>
@@ -3272,7 +3871,7 @@
       </c>
       <c r="X25" s="16"/>
       <c r="Y25" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3281,17 +3880,17 @@
       <c r="AD25" s="16"/>
       <c r="AE25" s="20"/>
     </row>
-    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3319,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>66</v>
@@ -3339,7 +3938,7 @@
       </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3348,17 +3947,17 @@
       <c r="AD26" s="16"/>
       <c r="AE26" s="20"/>
     </row>
-    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:31">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3386,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>66</v>
@@ -3395,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U27" s="16">
         <v>100</v>
@@ -3414,20 +4013,20 @@
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
       <c r="AE27" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -3455,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>66</v>
@@ -3481,20 +4080,20 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -3522,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>66</v>
@@ -3548,20 +4147,20 @@
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -3589,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>66</v>
@@ -3609,7 +4208,7 @@
       </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3618,17 +4217,17 @@
       <c r="AD30" s="16"/>
       <c r="AE30" s="20"/>
     </row>
-    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -3656,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>66</v>
@@ -3682,20 +4281,20 @@
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -3723,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>66</v>
@@ -3750,17 +4349,17 @@
       <c r="AD32" s="16"/>
       <c r="AE32" s="20"/>
     </row>
-    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -3788,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>66</v>
@@ -3808,7 +4407,7 @@
       </c>
       <c r="X33" s="16"/>
       <c r="Y33" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -3817,17 +4416,17 @@
       <c r="AD33" s="16"/>
       <c r="AE33" s="20"/>
     </row>
-    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:31">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -3855,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>66</v>
@@ -3881,20 +4480,20 @@
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
       <c r="AE34" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C35" s="7">
-        <v>2700001</v>
+        <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -3922,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>66</v>
@@ -3942,11 +4541,11 @@
       </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB35" s="16">
         <v>28000</v>
@@ -3955,17 +4554,17 @@
       <c r="AD35" s="16"/>
       <c r="AE35" s="20"/>
     </row>
-    <row r="36" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C36" s="7">
-        <v>2700002</v>
+        <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -3993,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>66</v>
@@ -4013,11 +4612,11 @@
       </c>
       <c r="X36" s="16"/>
       <c r="Y36" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB36" s="16">
         <v>28000</v>
@@ -4026,17 +4625,17 @@
       <c r="AD36" s="16"/>
       <c r="AE36" s="20"/>
     </row>
-    <row r="37" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C37" s="7">
-        <v>2700003</v>
+        <v>2700103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -4064,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>66</v>
@@ -4084,11 +4683,11 @@
       </c>
       <c r="X37" s="16"/>
       <c r="Y37" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB37" s="16">
         <v>28000</v>
@@ -4097,22 +4696,371 @@
       <c r="AD37" s="16"/>
       <c r="AE37" s="20"/>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="E39" s="15"/>
+    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C38" s="7">
+        <v>2700104</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>27</v>
+      </c>
+      <c r="J38" s="7">
+        <v>104</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="M38" s="16">
+        <v>0</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0</v>
+      </c>
+      <c r="O38" s="16">
+        <v>0</v>
+      </c>
+      <c r="P38" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38" s="16">
+        <v>1</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="16">
+        <v>1</v>
+      </c>
+      <c r="V38" s="16">
+        <v>5</v>
+      </c>
+      <c r="W38" s="16">
+        <v>0</v>
+      </c>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>28000</v>
+      </c>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="20"/>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="E41" s="15"/>
+    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C39" s="7">
+        <v>2700201</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7">
+        <v>27</v>
+      </c>
+      <c r="J39" s="7">
+        <v>104</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
+        <v>0</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0</v>
+      </c>
+      <c r="P39" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S39" s="16">
+        <v>1</v>
+      </c>
+      <c r="T39" s="8"/>
+      <c r="U39" s="16">
+        <v>1</v>
+      </c>
+      <c r="V39" s="16">
+        <v>5</v>
+      </c>
+      <c r="W39" s="16">
+        <v>0</v>
+      </c>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB39" s="16">
+        <v>28000</v>
+      </c>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="20"/>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C40" s="7">
+        <v>2700202</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7">
+        <v>27</v>
+      </c>
+      <c r="J40" s="7">
+        <v>104</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <v>0</v>
+      </c>
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0</v>
+      </c>
+      <c r="P40" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S40" s="16">
+        <v>1</v>
+      </c>
+      <c r="T40" s="8"/>
+      <c r="U40" s="16">
+        <v>1</v>
+      </c>
+      <c r="V40" s="16">
+        <v>5</v>
+      </c>
+      <c r="W40" s="16">
+        <v>0</v>
+      </c>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB40" s="16">
+        <v>28000</v>
+      </c>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="20"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C41" s="7">
+        <v>2700203</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7">
+        <v>27</v>
+      </c>
+      <c r="J41" s="7">
+        <v>104</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0</v>
+      </c>
+      <c r="M41" s="16">
+        <v>0</v>
+      </c>
+      <c r="N41" s="16">
+        <v>0</v>
+      </c>
+      <c r="O41" s="16">
+        <v>0</v>
+      </c>
+      <c r="P41" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S41" s="16">
+        <v>1</v>
+      </c>
+      <c r="T41" s="8"/>
+      <c r="U41" s="16">
+        <v>1</v>
+      </c>
+      <c r="V41" s="16">
+        <v>5</v>
+      </c>
+      <c r="W41" s="16">
+        <v>0</v>
+      </c>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB41" s="16">
+        <v>28000</v>
+      </c>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="20"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+      <c r="C42" s="7">
+        <v>2700204</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7">
+        <v>27</v>
+      </c>
+      <c r="J42" s="7">
+        <v>104</v>
+      </c>
+      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+      <c r="M42" s="16">
+        <v>0</v>
+      </c>
+      <c r="N42" s="16">
+        <v>0</v>
+      </c>
+      <c r="O42" s="16">
+        <v>0</v>
+      </c>
+      <c r="P42" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S42" s="16">
+        <v>1</v>
+      </c>
+      <c r="T42" s="8"/>
+      <c r="U42" s="16">
+        <v>1</v>
+      </c>
+      <c r="V42" s="16">
+        <v>5</v>
+      </c>
+      <c r="W42" s="16">
+        <v>0</v>
+      </c>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB42" s="16">
+        <v>28000</v>
+      </c>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="20"/>
+    </row>
+    <row r="43" spans="5:5">
       <c r="E43" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,8 @@
         public const int PetMing = 24;      //宠物矿场
         public const int SeasonTower = 25;  //赛季之塔
         public const int OneChallenge = 26;    //1v1挑战
-        public const int PetMelee = 27;      //宠物乱斗</t>
+        public const int PetMelee = 27;      //宠物乱斗
+        public const int DragonDungeon = 28;  //龙与地下城副本模式</t>
         </r>
       </text>
     </comment>
@@ -883,7 +884,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,13 +918,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1070,12 +1064,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1500,138 +1494,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1675,7 +1669,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2111,8 +2105,8 @@
   <sheetPr/>
   <dimension ref="C3:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1064,12 +1064,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2105,8 +2105,8 @@
   <sheetPr/>
   <dimension ref="C3:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,46 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF09316-1DD2-4662-A692-32E20BCBE9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -49,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,13 +53,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -73,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,13 +78,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -96,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,13 +105,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,6 +121,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -129,13 +130,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -144,6 +146,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -153,13 +156,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -168,6 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,13 +181,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0">
+    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -191,6 +197,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,13 +205,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -239,13 +247,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -254,6 +263,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -267,12 +277,12 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -618,6 +628,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -627,6 +638,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -636,6 +648,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -645,6 +658,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -710,6 +724,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -719,6 +734,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -728,6 +744,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -737,6 +754,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -746,6 +764,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -766,6 +785,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -775,6 +795,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -784,6 +805,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -793,6 +815,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -835,9 +858,6 @@
     <t>1V1挑战赛</t>
   </si>
   <si>
-    <t>宠物乱斗_1_1</t>
-  </si>
-  <si>
     <t>0,0,-1000</t>
   </si>
   <si>
@@ -847,44 +867,42 @@
     <t>10000152;10</t>
   </si>
   <si>
-    <t>宠物乱斗_1_2</t>
-  </si>
-  <si>
     <t>10000152;20</t>
   </si>
   <si>
-    <t>宠物乱斗_1_3</t>
-  </si>
-  <si>
     <t>10000152;30</t>
   </si>
   <si>
-    <t>宠物乱斗_1_4</t>
-  </si>
-  <si>
-    <t>宠物乱斗_2_1</t>
-  </si>
-  <si>
-    <t>宠物乱斗_2_2</t>
-  </si>
-  <si>
-    <t>宠物乱斗_2_3</t>
-  </si>
-  <si>
-    <t>宠物乱斗_2_4</t>
+    <t>征程-1关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>征程-2关</t>
+  </si>
+  <si>
+    <t>征程-3关</t>
+  </si>
+  <si>
+    <t>征程-4关</t>
+  </si>
+  <si>
+    <t>征程-5关</t>
+  </si>
+  <si>
+    <t>征程-6关</t>
+  </si>
+  <si>
+    <t>征程-7关</t>
+  </si>
+  <si>
+    <t>征程-8关</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +914,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -904,12 +923,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -917,165 +938,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,210 +997,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149418622394482"/>
+        <fgColor theme="0" tint="-0.14938810388500626"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149784844508194"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14975432599871821"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1378,256 +1087,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1669,7 +1136,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,80 +1157,36 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
-    <cellStyle name="常规 6" xfId="51"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1801,16 +1223,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:I6" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Icon"/>
-    <tableColumn id="4" name="StallArea"/>
-    <tableColumn id="5" name="InitPos"/>
-    <tableColumn id="6" name="NpcList"/>
-    <tableColumn id="7" name="MapType"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2097,19 +1519,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:AE43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -2135,7 +1557,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +1646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +1735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -2402,7 +1824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -2413,7 +1835,7 @@
       <c r="F6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -2422,66 +1844,66 @@
       <c r="I6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>101</v>
       </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
         <v>1</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <v>0</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="16">
-        <v>0</v>
-      </c>
-      <c r="V6" s="16">
-        <v>0</v>
-      </c>
-      <c r="W6" s="16">
-        <v>0</v>
-      </c>
-      <c r="X6" s="16">
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
         <v>0</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
@@ -2492,32 +1914,32 @@
         <v>70</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>5</v>
       </c>
       <c r="J7" s="7">
         <v>104</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="16">
-        <v>1</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
@@ -2532,16 +1954,16 @@
       <c r="T7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="15">
         <v>2</v>
       </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
@@ -2551,20 +1973,20 @@
         <v>77</v>
       </c>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="16">
+      <c r="AB7" s="15">
         <v>28000</v>
       </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16">
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
         <v>601500201</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AE7" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
@@ -2575,7 +1997,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="7"/>
@@ -2585,22 +2007,22 @@
       <c r="J8" s="7">
         <v>104</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="16">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
@@ -2615,16 +2037,16 @@
       <c r="T8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="15">
         <v>2</v>
       </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
@@ -2634,20 +2056,20 @@
         <v>77</v>
       </c>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="16">
+      <c r="AB8" s="15">
         <v>58000</v>
       </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16">
+      <c r="AC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
         <v>601500301</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AE8" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
@@ -2658,7 +2080,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="7"/>
@@ -2668,22 +2090,22 @@
       <c r="J9" s="7">
         <v>104</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="16">
-        <v>1</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
@@ -2698,16 +2120,16 @@
       <c r="T9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="15">
         <v>2</v>
       </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
@@ -2717,20 +2139,20 @@
         <v>77</v>
       </c>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="16">
+      <c r="AB9" s="15">
         <v>88000</v>
       </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16">
+      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
         <v>601500401</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
@@ -2741,32 +2163,32 @@
         <v>94</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>5</v>
       </c>
       <c r="J10" s="7">
         <v>104</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
@@ -2781,16 +2203,16 @@
       <c r="T10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="15">
         <v>2</v>
       </c>
-      <c r="V10" s="16">
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="16">
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
@@ -2800,20 +2222,20 @@
         <v>77</v>
       </c>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="16">
+      <c r="AB10" s="15">
         <v>118000</v>
       </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="16">
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
         <v>601500501</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
@@ -2824,32 +2246,32 @@
         <v>101</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>5</v>
       </c>
       <c r="J11" s="7">
         <v>104</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="16">
-        <v>1</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
+      <c r="L11" s="15">
+        <v>1</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
@@ -2864,16 +2286,16 @@
       <c r="T11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="15">
         <v>2</v>
       </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-      <c r="W11" s="16">
-        <v>0</v>
-      </c>
-      <c r="X11" s="16">
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
@@ -2883,20 +2305,20 @@
         <v>77</v>
       </c>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="16">
+      <c r="AB11" s="15">
         <v>158000</v>
       </c>
-      <c r="AC11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="16">
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
         <v>601500501</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AE11" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
@@ -2905,7 +2327,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="7"/>
@@ -2915,22 +2337,22 @@
       <c r="J12" s="7">
         <v>104</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="16">
-        <v>1</v>
-      </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>1</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
@@ -2939,33 +2361,33 @@
       <c r="R12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="15">
         <v>1</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="16">
+      <c r="U12" s="15">
         <v>300</v>
       </c>
-      <c r="V12" s="16">
-        <v>0</v>
-      </c>
-      <c r="W12" s="16">
-        <v>0</v>
-      </c>
-      <c r="X12" s="16"/>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15"/>
       <c r="Y12" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="25" t="s">
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
@@ -2974,7 +2396,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="7"/>
@@ -2984,22 +2406,22 @@
       <c r="J13" s="7">
         <v>104</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="16">
-        <v>1</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
+      <c r="L13" s="15">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
@@ -3008,33 +2430,33 @@
       <c r="R13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="15">
         <v>1</v>
       </c>
       <c r="T13" s="8"/>
-      <c r="U13" s="16">
+      <c r="U13" s="15">
         <v>200</v>
       </c>
-      <c r="V13" s="16">
-        <v>0</v>
-      </c>
-      <c r="W13" s="16">
-        <v>0</v>
-      </c>
-      <c r="X13" s="16"/>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15"/>
       <c r="Y13" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="20" t="s">
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
@@ -3043,7 +2465,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="7"/>
@@ -3053,22 +2475,22 @@
       <c r="J14" s="7">
         <v>104</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>1</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0</v>
-      </c>
-      <c r="O14" s="16">
-        <v>1</v>
-      </c>
-      <c r="P14" s="16">
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -3077,31 +2499,31 @@
       <c r="R14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="15">
         <v>1</v>
       </c>
       <c r="T14" s="8"/>
-      <c r="U14" s="16">
-        <v>0</v>
-      </c>
-      <c r="V14" s="16">
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
         <v>10</v>
       </c>
-      <c r="W14" s="16">
-        <v>0</v>
-      </c>
-      <c r="X14" s="16"/>
+      <c r="W14" s="15">
+        <v>0</v>
+      </c>
+      <c r="X14" s="15"/>
       <c r="Y14" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="20"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="19"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
@@ -3110,7 +2532,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="7"/>
@@ -3120,22 +2542,22 @@
       <c r="J15" s="7">
         <v>104</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="16">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>1</v>
-      </c>
-      <c r="P15" s="16">
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -3144,31 +2566,31 @@
       <c r="R15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="15">
         <v>1</v>
       </c>
       <c r="T15" s="8"/>
-      <c r="U15" s="16">
-        <v>1</v>
-      </c>
-      <c r="V15" s="16">
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15">
         <v>10</v>
       </c>
-      <c r="W15" s="16">
-        <v>0</v>
-      </c>
-      <c r="X15" s="16"/>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15"/>
       <c r="Y15" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="20"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="19"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:31">
+    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
@@ -3177,7 +2599,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H16" s="7">
@@ -3189,22 +2611,22 @@
       <c r="J16" s="7">
         <v>104</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="16">
-        <v>1</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -3213,35 +2635,35 @@
       <c r="R16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="15">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="U16" s="16">
-        <v>0</v>
-      </c>
-      <c r="V16" s="16">
-        <v>0</v>
-      </c>
-      <c r="W16" s="16">
-        <v>0</v>
-      </c>
-      <c r="X16" s="16"/>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="15"/>
       <c r="Y16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="25" t="s">
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:31">
+    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
@@ -3250,10 +2672,10 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>118</v>
       </c>
       <c r="I17" s="7">
@@ -3262,22 +2684,22 @@
       <c r="J17" s="7">
         <v>104</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="16">
-        <v>1</v>
-      </c>
-      <c r="M17" s="16">
-        <v>1</v>
-      </c>
-      <c r="N17" s="16">
-        <v>1</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
+      <c r="L17" s="15">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <v>1</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -3286,22 +2708,22 @@
       <c r="R17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="15">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="U17" s="16">
-        <v>0</v>
-      </c>
-      <c r="V17" s="16">
-        <v>0</v>
-      </c>
-      <c r="W17" s="16">
-        <v>0</v>
-      </c>
-      <c r="X17" s="16">
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
@@ -3309,14 +2731,14 @@
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="25" t="s">
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:31">
+    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
@@ -3325,7 +2747,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="7"/>
@@ -3335,22 +2757,22 @@
       <c r="J18" s="7">
         <v>104</v>
       </c>
-      <c r="K18" s="16">
-        <v>0</v>
-      </c>
-      <c r="L18" s="16">
-        <v>1</v>
-      </c>
-      <c r="M18" s="16">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16">
-        <v>1</v>
-      </c>
-      <c r="O18" s="16">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1</v>
+      </c>
+      <c r="M18" s="15">
+        <v>1</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
@@ -3359,33 +2781,33 @@
       <c r="R18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="15">
         <v>1</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="16">
+      <c r="U18" s="15">
         <v>2</v>
       </c>
-      <c r="V18" s="16">
-        <v>0</v>
-      </c>
-      <c r="W18" s="16">
-        <v>1</v>
-      </c>
-      <c r="X18" s="16"/>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>1</v>
+      </c>
+      <c r="X18" s="15"/>
       <c r="Y18" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="20" t="s">
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
@@ -3394,7 +2816,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3406,22 +2828,22 @@
       <c r="J19" s="7">
         <v>104</v>
       </c>
-      <c r="K19" s="16">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
-        <v>1</v>
-      </c>
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
@@ -3430,39 +2852,39 @@
       <c r="R19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S19" s="15">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U19" s="16">
-        <v>0</v>
-      </c>
-      <c r="V19" s="16">
-        <v>0</v>
-      </c>
-      <c r="W19" s="16">
-        <v>0</v>
-      </c>
-      <c r="X19" s="16"/>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="20" t="s">
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
@@ -3471,7 +2893,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="7"/>
@@ -3481,22 +2903,22 @@
       <c r="J20" s="7">
         <v>104</v>
       </c>
-      <c r="K20" s="16">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
-        <v>0</v>
-      </c>
-      <c r="M20" s="16">
-        <v>1</v>
-      </c>
-      <c r="N20" s="16">
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -3505,29 +2927,29 @@
       <c r="R20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="15">
         <v>1</v>
       </c>
       <c r="T20" s="8"/>
-      <c r="U20" s="16">
-        <v>1</v>
-      </c>
-      <c r="V20" s="16">
+      <c r="U20" s="15">
+        <v>1</v>
+      </c>
+      <c r="V20" s="15">
         <v>5</v>
       </c>
-      <c r="W20" s="16">
-        <v>0</v>
-      </c>
-      <c r="X20" s="16"/>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="20"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="19"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
@@ -3536,7 +2958,7 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="7"/>
@@ -3546,22 +2968,22 @@
       <c r="J21" s="7">
         <v>104</v>
       </c>
-      <c r="K21" s="16">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16">
-        <v>0</v>
-      </c>
-      <c r="M21" s="16">
-        <v>1</v>
-      </c>
-      <c r="N21" s="16">
-        <v>0</v>
-      </c>
-      <c r="O21" s="16">
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -3570,31 +2992,31 @@
       <c r="R21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="15">
         <v>1</v>
       </c>
       <c r="T21" s="8"/>
-      <c r="U21" s="16">
-        <v>1</v>
-      </c>
-      <c r="V21" s="16">
+      <c r="U21" s="15">
+        <v>1</v>
+      </c>
+      <c r="V21" s="15">
         <v>10</v>
       </c>
-      <c r="W21" s="16">
-        <v>0</v>
-      </c>
-      <c r="X21" s="16"/>
+      <c r="W21" s="15">
+        <v>0</v>
+      </c>
+      <c r="X21" s="15"/>
       <c r="Y21" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="20"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="19"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
@@ -3603,7 +3025,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="7"/>
@@ -3613,22 +3035,22 @@
       <c r="J22" s="7">
         <v>104</v>
       </c>
-      <c r="K22" s="16">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
-        <v>0</v>
-      </c>
-      <c r="M22" s="16">
-        <v>1</v>
-      </c>
-      <c r="N22" s="16">
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3637,31 +3059,31 @@
       <c r="R22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="16">
+      <c r="S22" s="15">
         <v>1</v>
       </c>
       <c r="T22" s="8"/>
-      <c r="U22" s="16">
-        <v>1</v>
-      </c>
-      <c r="V22" s="16">
-        <v>0</v>
-      </c>
-      <c r="W22" s="16">
-        <v>0</v>
-      </c>
-      <c r="X22" s="16"/>
+      <c r="U22" s="15">
+        <v>1</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15"/>
       <c r="Y22" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="20"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="19"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:31">
+    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
@@ -3670,7 +3092,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>131</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -3682,22 +3104,22 @@
       <c r="J23" s="7">
         <v>104</v>
       </c>
-      <c r="K23" s="16">
-        <v>0</v>
-      </c>
-      <c r="L23" s="16">
-        <v>1</v>
-      </c>
-      <c r="M23" s="16">
-        <v>0</v>
-      </c>
-      <c r="N23" s="16">
-        <v>1</v>
-      </c>
-      <c r="O23" s="16">
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3706,35 +3128,35 @@
       <c r="R23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="15">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="U23" s="16">
+      <c r="U23" s="15">
         <v>40</v>
       </c>
-      <c r="V23" s="16">
-        <v>0</v>
-      </c>
-      <c r="W23" s="16">
-        <v>0</v>
-      </c>
-      <c r="X23" s="16"/>
+      <c r="V23" s="15">
+        <v>0</v>
+      </c>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15"/>
       <c r="Y23" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="20" t="s">
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:31">
+    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
@@ -3743,7 +3165,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>131</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -3755,22 +3177,22 @@
       <c r="J24" s="7">
         <v>104</v>
       </c>
-      <c r="K24" s="16">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16">
-        <v>1</v>
-      </c>
-      <c r="M24" s="16">
-        <v>0</v>
-      </c>
-      <c r="N24" s="16">
-        <v>1</v>
-      </c>
-      <c r="O24" s="16">
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3779,35 +3201,35 @@
       <c r="R24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S24" s="16">
+      <c r="S24" s="15">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="U24" s="16">
+      <c r="U24" s="15">
         <v>40</v>
       </c>
-      <c r="V24" s="16">
-        <v>0</v>
-      </c>
-      <c r="W24" s="16">
-        <v>0</v>
-      </c>
-      <c r="X24" s="16"/>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15"/>
       <c r="Y24" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="20" t="s">
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
@@ -3816,7 +3238,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="7"/>
@@ -3826,22 +3248,22 @@
       <c r="J25" s="7">
         <v>104</v>
       </c>
-      <c r="K25" s="16">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16">
-        <v>0</v>
-      </c>
-      <c r="M25" s="16">
-        <v>1</v>
-      </c>
-      <c r="N25" s="16">
-        <v>0</v>
-      </c>
-      <c r="O25" s="16">
-        <v>0</v>
-      </c>
-      <c r="P25" s="16">
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>1</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3850,31 +3272,31 @@
       <c r="R25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="15">
         <v>1</v>
       </c>
       <c r="T25" s="8"/>
-      <c r="U25" s="16">
-        <v>0</v>
-      </c>
-      <c r="V25" s="16">
-        <v>0</v>
-      </c>
-      <c r="W25" s="16">
-        <v>0</v>
-      </c>
-      <c r="X25" s="16"/>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
+        <v>0</v>
+      </c>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15"/>
       <c r="Y25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="20"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="19"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
@@ -3883,7 +3305,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="7"/>
@@ -3893,22 +3315,22 @@
       <c r="J26" s="7">
         <v>104</v>
       </c>
-      <c r="K26" s="16">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <v>1</v>
-      </c>
-      <c r="N26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="16">
-        <v>0</v>
-      </c>
-      <c r="P26" s="16">
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3917,31 +3339,31 @@
       <c r="R26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="15">
         <v>1</v>
       </c>
       <c r="T26" s="8"/>
-      <c r="U26" s="16">
-        <v>0</v>
-      </c>
-      <c r="V26" s="16">
-        <v>0</v>
-      </c>
-      <c r="W26" s="16">
-        <v>0</v>
-      </c>
-      <c r="X26" s="16"/>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15"/>
       <c r="Y26" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="20"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="19"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:31">
+    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
@@ -3950,7 +3372,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H27" s="7"/>
@@ -3960,22 +3382,22 @@
       <c r="J27" s="7">
         <v>104</v>
       </c>
-      <c r="K27" s="16">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
-        <v>1</v>
-      </c>
-      <c r="M27" s="16">
-        <v>1</v>
-      </c>
-      <c r="N27" s="16">
-        <v>1</v>
-      </c>
-      <c r="O27" s="16">
-        <v>0</v>
-      </c>
-      <c r="P27" s="16">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1</v>
+      </c>
+      <c r="N27" s="15">
+        <v>1</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3984,33 +3406,33 @@
       <c r="R27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S27" s="15">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="U27" s="16">
+      <c r="U27" s="15">
         <v>100</v>
       </c>
-      <c r="V27" s="16">
-        <v>0</v>
-      </c>
-      <c r="W27" s="16">
-        <v>0</v>
-      </c>
-      <c r="X27" s="16"/>
+      <c r="V27" s="15">
+        <v>0</v>
+      </c>
+      <c r="W27" s="15">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="20" t="s">
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
@@ -4019,7 +3441,7 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="14"/>
@@ -4029,22 +3451,22 @@
       <c r="J28" s="7">
         <v>104</v>
       </c>
-      <c r="K28" s="19">
-        <v>0</v>
-      </c>
-      <c r="L28" s="19">
-        <v>0</v>
-      </c>
-      <c r="M28" s="19">
-        <v>1</v>
-      </c>
-      <c r="N28" s="19">
-        <v>1</v>
-      </c>
-      <c r="O28" s="19">
-        <v>0</v>
-      </c>
-      <c r="P28" s="19">
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1</v>
+      </c>
+      <c r="O28" s="18">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
@@ -4053,31 +3475,31 @@
       <c r="R28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28" s="18">
         <v>1</v>
       </c>
       <c r="T28" s="13"/>
-      <c r="U28" s="19">
-        <v>0</v>
-      </c>
-      <c r="V28" s="19">
-        <v>0</v>
-      </c>
-      <c r="W28" s="19">
-        <v>1</v>
-      </c>
-      <c r="X28" s="19"/>
+      <c r="U28" s="18">
+        <v>0</v>
+      </c>
+      <c r="V28" s="18">
+        <v>0</v>
+      </c>
+      <c r="W28" s="18">
+        <v>1</v>
+      </c>
+      <c r="X28" s="18"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="21" t="s">
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
@@ -4086,7 +3508,7 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H29" s="14"/>
@@ -4096,22 +3518,22 @@
       <c r="J29" s="7">
         <v>104</v>
       </c>
-      <c r="K29" s="19">
-        <v>0</v>
-      </c>
-      <c r="L29" s="19">
-        <v>0</v>
-      </c>
-      <c r="M29" s="19">
-        <v>1</v>
-      </c>
-      <c r="N29" s="19">
-        <v>1</v>
-      </c>
-      <c r="O29" s="19">
-        <v>0</v>
-      </c>
-      <c r="P29" s="19">
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
@@ -4120,31 +3542,31 @@
       <c r="R29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="18">
         <v>1</v>
       </c>
       <c r="T29" s="13"/>
-      <c r="U29" s="19">
-        <v>0</v>
-      </c>
-      <c r="V29" s="19">
-        <v>0</v>
-      </c>
-      <c r="W29" s="19">
-        <v>1</v>
-      </c>
-      <c r="X29" s="19"/>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18">
+        <v>0</v>
+      </c>
+      <c r="W29" s="18">
+        <v>1</v>
+      </c>
+      <c r="X29" s="18"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="21" t="s">
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
@@ -4153,7 +3575,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="7"/>
@@ -4163,22 +3585,22 @@
       <c r="J30" s="7">
         <v>104</v>
       </c>
-      <c r="K30" s="16">
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <v>1</v>
-      </c>
-      <c r="N30" s="16">
-        <v>0</v>
-      </c>
-      <c r="O30" s="16">
-        <v>0</v>
-      </c>
-      <c r="P30" s="16">
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>1</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
@@ -4187,31 +3609,31 @@
       <c r="R30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="15">
         <v>1</v>
       </c>
       <c r="T30" s="8"/>
-      <c r="U30" s="16">
-        <v>0</v>
-      </c>
-      <c r="V30" s="16">
-        <v>0</v>
-      </c>
-      <c r="W30" s="16">
-        <v>0</v>
-      </c>
-      <c r="X30" s="16"/>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30" s="15"/>
       <c r="Y30" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="20"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="19"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
@@ -4220,7 +3642,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
@@ -4230,22 +3652,22 @@
       <c r="J31" s="7">
         <v>104</v>
       </c>
-      <c r="K31" s="16">
-        <v>0</v>
-      </c>
-      <c r="L31" s="16">
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <v>1</v>
-      </c>
-      <c r="N31" s="16">
-        <v>0</v>
-      </c>
-      <c r="O31" s="16">
-        <v>0</v>
-      </c>
-      <c r="P31" s="16">
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -4254,31 +3676,31 @@
       <c r="R31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S31" s="15">
         <v>1</v>
       </c>
       <c r="T31" s="8"/>
-      <c r="U31" s="16">
-        <v>0</v>
-      </c>
-      <c r="V31" s="16">
-        <v>0</v>
-      </c>
-      <c r="W31" s="16">
-        <v>0</v>
-      </c>
-      <c r="X31" s="16"/>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="20" t="s">
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
@@ -4287,7 +3709,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H32" s="7"/>
@@ -4297,22 +3719,22 @@
       <c r="J32" s="7">
         <v>104</v>
       </c>
-      <c r="K32" s="16">
-        <v>0</v>
-      </c>
-      <c r="L32" s="16">
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <v>1</v>
-      </c>
-      <c r="N32" s="16">
-        <v>0</v>
-      </c>
-      <c r="O32" s="16">
-        <v>0</v>
-      </c>
-      <c r="P32" s="16">
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>1</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0</v>
+      </c>
+      <c r="P32" s="15">
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
@@ -4321,29 +3743,29 @@
       <c r="R32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S32" s="16">
+      <c r="S32" s="15">
         <v>1</v>
       </c>
       <c r="T32" s="8"/>
-      <c r="U32" s="16">
-        <v>1</v>
-      </c>
-      <c r="V32" s="16">
+      <c r="U32" s="15">
+        <v>1</v>
+      </c>
+      <c r="V32" s="15">
         <v>10</v>
       </c>
-      <c r="W32" s="16">
-        <v>0</v>
-      </c>
-      <c r="X32" s="16"/>
+      <c r="W32" s="15">
+        <v>0</v>
+      </c>
+      <c r="X32" s="15"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="20"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="19"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
@@ -4352,7 +3774,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="7"/>
@@ -4362,22 +3784,22 @@
       <c r="J33" s="7">
         <v>104</v>
       </c>
-      <c r="K33" s="16">
-        <v>0</v>
-      </c>
-      <c r="L33" s="16">
-        <v>0</v>
-      </c>
-      <c r="M33" s="16">
-        <v>1</v>
-      </c>
-      <c r="N33" s="16">
-        <v>0</v>
-      </c>
-      <c r="O33" s="16">
-        <v>0</v>
-      </c>
-      <c r="P33" s="16">
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>1</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15">
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
@@ -4386,31 +3808,31 @@
       <c r="R33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S33" s="16">
+      <c r="S33" s="15">
         <v>1</v>
       </c>
       <c r="T33" s="8"/>
-      <c r="U33" s="16">
-        <v>0</v>
-      </c>
-      <c r="V33" s="16">
-        <v>0</v>
-      </c>
-      <c r="W33" s="16">
-        <v>0</v>
-      </c>
-      <c r="X33" s="16"/>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15"/>
       <c r="Y33" s="8" t="s">
         <v>76</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="20"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="19"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:31">
+    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
@@ -4419,7 +3841,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="7"/>
@@ -4429,22 +3851,22 @@
       <c r="J34" s="7">
         <v>104</v>
       </c>
-      <c r="K34" s="16">
-        <v>0</v>
-      </c>
-      <c r="L34" s="16">
-        <v>1</v>
-      </c>
-      <c r="M34" s="16">
-        <v>1</v>
-      </c>
-      <c r="N34" s="16">
-        <v>1</v>
-      </c>
-      <c r="O34" s="16">
-        <v>0</v>
-      </c>
-      <c r="P34" s="16">
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>1</v>
+      </c>
+      <c r="M34" s="15">
+        <v>1</v>
+      </c>
+      <c r="N34" s="15">
+        <v>1</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0</v>
+      </c>
+      <c r="P34" s="15">
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
@@ -4453,41 +3875,41 @@
       <c r="R34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S34" s="16">
+      <c r="S34" s="15">
         <v>1</v>
       </c>
       <c r="T34" s="8"/>
-      <c r="U34" s="16">
+      <c r="U34" s="15">
         <v>2</v>
       </c>
-      <c r="V34" s="16">
-        <v>0</v>
-      </c>
-      <c r="W34" s="16">
-        <v>1</v>
-      </c>
-      <c r="X34" s="16"/>
+      <c r="V34" s="15">
+        <v>0</v>
+      </c>
+      <c r="W34" s="15">
+        <v>1</v>
+      </c>
+      <c r="X34" s="15"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="20" t="s">
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="7">
         <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="24" t="s">
-        <v>148</v>
+      <c r="G35" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -4496,22 +3918,22 @@
       <c r="J35" s="7">
         <v>104</v>
       </c>
-      <c r="K35" s="16">
-        <v>0</v>
-      </c>
-      <c r="L35" s="16">
-        <v>0</v>
-      </c>
-      <c r="M35" s="16">
-        <v>0</v>
-      </c>
-      <c r="N35" s="16">
-        <v>0</v>
-      </c>
-      <c r="O35" s="16">
-        <v>0</v>
-      </c>
-      <c r="P35" s="16">
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
@@ -4520,45 +3942,45 @@
       <c r="R35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="15">
         <v>1</v>
       </c>
       <c r="T35" s="8"/>
-      <c r="U35" s="16">
-        <v>1</v>
-      </c>
-      <c r="V35" s="16">
+      <c r="U35" s="15">
+        <v>1</v>
+      </c>
+      <c r="V35" s="15">
         <v>5</v>
       </c>
-      <c r="W35" s="16">
-        <v>0</v>
-      </c>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="22" t="s">
-        <v>149</v>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB35" s="16">
+        <v>149</v>
+      </c>
+      <c r="AB35" s="15">
         <v>28000</v>
       </c>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="20"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="19"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="36" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="7">
         <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="24" t="s">
-        <v>148</v>
+      <c r="G36" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -4567,22 +3989,22 @@
       <c r="J36" s="7">
         <v>104</v>
       </c>
-      <c r="K36" s="16">
-        <v>0</v>
-      </c>
-      <c r="L36" s="16">
-        <v>0</v>
-      </c>
-      <c r="M36" s="16">
-        <v>0</v>
-      </c>
-      <c r="N36" s="16">
-        <v>0</v>
-      </c>
-      <c r="O36" s="16">
-        <v>0</v>
-      </c>
-      <c r="P36" s="16">
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15">
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
@@ -4591,45 +4013,45 @@
       <c r="R36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="15">
         <v>1</v>
       </c>
       <c r="T36" s="8"/>
-      <c r="U36" s="16">
-        <v>1</v>
-      </c>
-      <c r="V36" s="16">
+      <c r="U36" s="15">
+        <v>1</v>
+      </c>
+      <c r="V36" s="15">
         <v>5</v>
       </c>
-      <c r="W36" s="16">
-        <v>0</v>
-      </c>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="22" t="s">
-        <v>149</v>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB36" s="16">
+        <v>150</v>
+      </c>
+      <c r="AB36" s="15">
         <v>28000</v>
       </c>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="20"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="19"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="37" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="7">
         <v>2700103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="24" t="s">
-        <v>148</v>
+      <c r="G37" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -4638,22 +4060,22 @@
       <c r="J37" s="7">
         <v>104</v>
       </c>
-      <c r="K37" s="16">
-        <v>0</v>
-      </c>
-      <c r="L37" s="16">
-        <v>0</v>
-      </c>
-      <c r="M37" s="16">
-        <v>0</v>
-      </c>
-      <c r="N37" s="16">
-        <v>0</v>
-      </c>
-      <c r="O37" s="16">
-        <v>0</v>
-      </c>
-      <c r="P37" s="16">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
         <v>1</v>
       </c>
       <c r="Q37" s="8" t="s">
@@ -4662,35 +4084,35 @@
       <c r="R37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S37" s="16">
+      <c r="S37" s="15">
         <v>1</v>
       </c>
       <c r="T37" s="8"/>
-      <c r="U37" s="16">
-        <v>1</v>
-      </c>
-      <c r="V37" s="16">
+      <c r="U37" s="15">
+        <v>1</v>
+      </c>
+      <c r="V37" s="15">
         <v>5</v>
       </c>
-      <c r="W37" s="16">
-        <v>0</v>
-      </c>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="22" t="s">
-        <v>149</v>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB37" s="16">
+        <v>151</v>
+      </c>
+      <c r="AB37" s="15">
         <v>28000</v>
       </c>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="20"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="19"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="38" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="7">
         <v>2700104</v>
       </c>
@@ -4699,8 +4121,8 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="24" t="s">
-        <v>148</v>
+      <c r="G38" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
@@ -4709,22 +4131,22 @@
       <c r="J38" s="7">
         <v>104</v>
       </c>
-      <c r="K38" s="16">
-        <v>0</v>
-      </c>
-      <c r="L38" s="16">
-        <v>0</v>
-      </c>
-      <c r="M38" s="16">
-        <v>0</v>
-      </c>
-      <c r="N38" s="16">
-        <v>0</v>
-      </c>
-      <c r="O38" s="16">
-        <v>0</v>
-      </c>
-      <c r="P38" s="16">
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+      <c r="O38" s="15">
+        <v>0</v>
+      </c>
+      <c r="P38" s="15">
         <v>1</v>
       </c>
       <c r="Q38" s="8" t="s">
@@ -4733,35 +4155,35 @@
       <c r="R38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S38" s="16">
+      <c r="S38" s="15">
         <v>1</v>
       </c>
       <c r="T38" s="8"/>
-      <c r="U38" s="16">
-        <v>1</v>
-      </c>
-      <c r="V38" s="16">
+      <c r="U38" s="15">
+        <v>1</v>
+      </c>
+      <c r="V38" s="15">
         <v>5</v>
       </c>
-      <c r="W38" s="16">
-        <v>0</v>
-      </c>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="22" t="s">
-        <v>149</v>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB38" s="16">
+        <v>151</v>
+      </c>
+      <c r="AB38" s="15">
         <v>28000</v>
       </c>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="20"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="19"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="39" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="7">
         <v>2700201</v>
       </c>
@@ -4770,8 +4192,8 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="24" t="s">
-        <v>148</v>
+      <c r="G39" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7">
@@ -4780,22 +4202,22 @@
       <c r="J39" s="7">
         <v>104</v>
       </c>
-      <c r="K39" s="16">
-        <v>0</v>
-      </c>
-      <c r="L39" s="16">
-        <v>0</v>
-      </c>
-      <c r="M39" s="16">
-        <v>0</v>
-      </c>
-      <c r="N39" s="16">
-        <v>0</v>
-      </c>
-      <c r="O39" s="16">
-        <v>0</v>
-      </c>
-      <c r="P39" s="16">
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
         <v>1</v>
       </c>
       <c r="Q39" s="8" t="s">
@@ -4804,35 +4226,35 @@
       <c r="R39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S39" s="16">
+      <c r="S39" s="15">
         <v>1</v>
       </c>
       <c r="T39" s="8"/>
-      <c r="U39" s="16">
-        <v>1</v>
-      </c>
-      <c r="V39" s="16">
+      <c r="U39" s="15">
+        <v>1</v>
+      </c>
+      <c r="V39" s="15">
         <v>5</v>
       </c>
-      <c r="W39" s="16">
-        <v>0</v>
-      </c>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="22" t="s">
-        <v>149</v>
+      <c r="W39" s="15">
+        <v>0</v>
+      </c>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB39" s="16">
+        <v>149</v>
+      </c>
+      <c r="AB39" s="15">
         <v>28000</v>
       </c>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="20"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="19"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="40" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="7">
         <v>2700202</v>
       </c>
@@ -4841,8 +4263,8 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="24" t="s">
-        <v>148</v>
+      <c r="G40" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7">
@@ -4851,22 +4273,22 @@
       <c r="J40" s="7">
         <v>104</v>
       </c>
-      <c r="K40" s="16">
-        <v>0</v>
-      </c>
-      <c r="L40" s="16">
-        <v>0</v>
-      </c>
-      <c r="M40" s="16">
-        <v>0</v>
-      </c>
-      <c r="N40" s="16">
-        <v>0</v>
-      </c>
-      <c r="O40" s="16">
-        <v>0</v>
-      </c>
-      <c r="P40" s="16">
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <v>0</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0</v>
+      </c>
+      <c r="O40" s="15">
+        <v>0</v>
+      </c>
+      <c r="P40" s="15">
         <v>1</v>
       </c>
       <c r="Q40" s="8" t="s">
@@ -4875,35 +4297,35 @@
       <c r="R40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S40" s="16">
+      <c r="S40" s="15">
         <v>1</v>
       </c>
       <c r="T40" s="8"/>
-      <c r="U40" s="16">
-        <v>1</v>
-      </c>
-      <c r="V40" s="16">
+      <c r="U40" s="15">
+        <v>1</v>
+      </c>
+      <c r="V40" s="15">
         <v>5</v>
       </c>
-      <c r="W40" s="16">
-        <v>0</v>
-      </c>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="22" t="s">
-        <v>149</v>
+      <c r="W40" s="15">
+        <v>0</v>
+      </c>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB40" s="16">
+        <v>150</v>
+      </c>
+      <c r="AB40" s="15">
         <v>28000</v>
       </c>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="20"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="19"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="41" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7">
         <v>2700203</v>
       </c>
@@ -4912,8 +4334,8 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="24" t="s">
-        <v>148</v>
+      <c r="G41" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7">
@@ -4922,22 +4344,22 @@
       <c r="J41" s="7">
         <v>104</v>
       </c>
-      <c r="K41" s="16">
-        <v>0</v>
-      </c>
-      <c r="L41" s="16">
-        <v>0</v>
-      </c>
-      <c r="M41" s="16">
-        <v>0</v>
-      </c>
-      <c r="N41" s="16">
-        <v>0</v>
-      </c>
-      <c r="O41" s="16">
-        <v>0</v>
-      </c>
-      <c r="P41" s="16">
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0</v>
+      </c>
+      <c r="P41" s="15">
         <v>1</v>
       </c>
       <c r="Q41" s="8" t="s">
@@ -4946,35 +4368,35 @@
       <c r="R41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S41" s="16">
+      <c r="S41" s="15">
         <v>1</v>
       </c>
       <c r="T41" s="8"/>
-      <c r="U41" s="16">
-        <v>1</v>
-      </c>
-      <c r="V41" s="16">
+      <c r="U41" s="15">
+        <v>1</v>
+      </c>
+      <c r="V41" s="15">
         <v>5</v>
       </c>
-      <c r="W41" s="16">
-        <v>0</v>
-      </c>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="22" t="s">
-        <v>149</v>
+      <c r="W41" s="15">
+        <v>0</v>
+      </c>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB41" s="16">
+        <v>151</v>
+      </c>
+      <c r="AB41" s="15">
         <v>28000</v>
       </c>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="20"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="19"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
+    <row r="42" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="7">
         <v>2700204</v>
       </c>
@@ -4983,8 +4405,8 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="24" t="s">
-        <v>148</v>
+      <c r="G42" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7">
@@ -4993,22 +4415,22 @@
       <c r="J42" s="7">
         <v>104</v>
       </c>
-      <c r="K42" s="16">
-        <v>0</v>
-      </c>
-      <c r="L42" s="16">
-        <v>0</v>
-      </c>
-      <c r="M42" s="16">
-        <v>0</v>
-      </c>
-      <c r="N42" s="16">
-        <v>0</v>
-      </c>
-      <c r="O42" s="16">
-        <v>0</v>
-      </c>
-      <c r="P42" s="16">
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
+      <c r="L42" s="15">
+        <v>0</v>
+      </c>
+      <c r="M42" s="15">
+        <v>0</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0</v>
+      </c>
+      <c r="O42" s="15">
+        <v>0</v>
+      </c>
+      <c r="P42" s="15">
         <v>1</v>
       </c>
       <c r="Q42" s="8" t="s">
@@ -5017,44 +4439,41 @@
       <c r="R42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S42" s="16">
+      <c r="S42" s="15">
         <v>1</v>
       </c>
       <c r="T42" s="8"/>
-      <c r="U42" s="16">
-        <v>1</v>
-      </c>
-      <c r="V42" s="16">
+      <c r="U42" s="15">
+        <v>1</v>
+      </c>
+      <c r="V42" s="15">
         <v>5</v>
       </c>
-      <c r="W42" s="16">
-        <v>0</v>
-      </c>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="22" t="s">
-        <v>149</v>
+      <c r="W42" s="15">
+        <v>0</v>
+      </c>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB42" s="16">
+        <v>151</v>
+      </c>
+      <c r="AB42" s="15">
         <v>28000</v>
       </c>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="20"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF09316-1DD2-4662-A692-32E20BCBE9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FD51D2-67B5-4455-9508-50F8A8FEDA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="252">
   <si>
     <t>Id</t>
   </si>
@@ -873,29 +873,307 @@
     <t>10000152;30</t>
   </si>
   <si>
-    <t>征程-1关</t>
+    <t>征程1章-1关</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>征程-2关</t>
-  </si>
-  <si>
-    <t>征程-3关</t>
-  </si>
-  <si>
-    <t>征程-4关</t>
-  </si>
-  <si>
-    <t>征程-5关</t>
-  </si>
-  <si>
-    <t>征程-6关</t>
-  </si>
-  <si>
-    <t>征程-7关</t>
-  </si>
-  <si>
-    <t>征程-8关</t>
+    <t>征程1章-2关</t>
+  </si>
+  <si>
+    <t>征程1章-3关</t>
+  </si>
+  <si>
+    <t>征程1章-4关</t>
+  </si>
+  <si>
+    <t>征程1章-5关</t>
+  </si>
+  <si>
+    <t>征程1章-6关</t>
+  </si>
+  <si>
+    <t>征程1章-7关</t>
+  </si>
+  <si>
+    <t>征程1章-8关</t>
+  </si>
+  <si>
+    <t>征程1章-9关</t>
+  </si>
+  <si>
+    <t>征程1章-10关</t>
+  </si>
+  <si>
+    <t>征程1章-11关</t>
+  </si>
+  <si>
+    <t>征程1章-12关</t>
+  </si>
+  <si>
+    <t>征程1章-13关</t>
+  </si>
+  <si>
+    <t>征程1章-14关</t>
+  </si>
+  <si>
+    <t>征程1章-15关</t>
+  </si>
+  <si>
+    <t>征程1章-16关</t>
+  </si>
+  <si>
+    <t>征程1章-17关</t>
+  </si>
+  <si>
+    <t>征程1章-18关</t>
+  </si>
+  <si>
+    <t>征程1章-19关</t>
+  </si>
+  <si>
+    <t>征程1章-20关</t>
+  </si>
+  <si>
+    <t>征程2章-5关</t>
+  </si>
+  <si>
+    <t>征程2章-1关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>征程2章-2关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>征程2章-3关</t>
+  </si>
+  <si>
+    <t>征程2章-4关</t>
+  </si>
+  <si>
+    <t>征程2章-6关</t>
+  </si>
+  <si>
+    <t>征程2章-7关</t>
+  </si>
+  <si>
+    <t>征程2章-8关</t>
+  </si>
+  <si>
+    <t>征程2章-9关</t>
+  </si>
+  <si>
+    <t>征程2章-10关</t>
+  </si>
+  <si>
+    <t>征程2章-11关</t>
+  </si>
+  <si>
+    <t>征程2章-12关</t>
+  </si>
+  <si>
+    <t>征程2章-13关</t>
+  </si>
+  <si>
+    <t>征程2章-14关</t>
+  </si>
+  <si>
+    <t>征程2章-15关</t>
+  </si>
+  <si>
+    <t>征程2章-16关</t>
+  </si>
+  <si>
+    <t>征程2章-17关</t>
+  </si>
+  <si>
+    <t>征程2章-18关</t>
+  </si>
+  <si>
+    <t>征程2章-19关</t>
+  </si>
+  <si>
+    <t>征程2章-20关</t>
+  </si>
+  <si>
+    <t>征程3章-1关</t>
+  </si>
+  <si>
+    <t>征程3章-2关</t>
+  </si>
+  <si>
+    <t>征程3章-3关</t>
+  </si>
+  <si>
+    <t>征程3章-4关</t>
+  </si>
+  <si>
+    <t>征程3章-5关</t>
+  </si>
+  <si>
+    <t>征程3章-6关</t>
+  </si>
+  <si>
+    <t>征程3章-7关</t>
+  </si>
+  <si>
+    <t>征程3章-8关</t>
+  </si>
+  <si>
+    <t>征程3章-9关</t>
+  </si>
+  <si>
+    <t>征程3章-10关</t>
+  </si>
+  <si>
+    <t>征程3章-11关</t>
+  </si>
+  <si>
+    <t>征程3章-12关</t>
+  </si>
+  <si>
+    <t>征程3章-13关</t>
+  </si>
+  <si>
+    <t>征程3章-14关</t>
+  </si>
+  <si>
+    <t>征程3章-15关</t>
+  </si>
+  <si>
+    <t>征程3章-16关</t>
+  </si>
+  <si>
+    <t>征程3章-17关</t>
+  </si>
+  <si>
+    <t>征程3章-18关</t>
+  </si>
+  <si>
+    <t>征程3章-19关</t>
+  </si>
+  <si>
+    <t>征程3章-20关</t>
+  </si>
+  <si>
+    <t>征程4章-1关</t>
+  </si>
+  <si>
+    <t>征程4章-2关</t>
+  </si>
+  <si>
+    <t>征程4章-3关</t>
+  </si>
+  <si>
+    <t>征程4章-4关</t>
+  </si>
+  <si>
+    <t>征程4章-5关</t>
+  </si>
+  <si>
+    <t>征程4章-6关</t>
+  </si>
+  <si>
+    <t>征程4章-7关</t>
+  </si>
+  <si>
+    <t>征程4章-8关</t>
+  </si>
+  <si>
+    <t>征程4章-9关</t>
+  </si>
+  <si>
+    <t>征程4章-10关</t>
+  </si>
+  <si>
+    <t>征程4章-11关</t>
+  </si>
+  <si>
+    <t>征程4章-12关</t>
+  </si>
+  <si>
+    <t>征程4章-13关</t>
+  </si>
+  <si>
+    <t>征程4章-14关</t>
+  </si>
+  <si>
+    <t>征程4章-15关</t>
+  </si>
+  <si>
+    <t>征程4章-16关</t>
+  </si>
+  <si>
+    <t>征程4章-17关</t>
+  </si>
+  <si>
+    <t>征程4章-18关</t>
+  </si>
+  <si>
+    <t>征程4章-19关</t>
+  </si>
+  <si>
+    <t>征程4章-20关</t>
+  </si>
+  <si>
+    <t>征程5章-1关</t>
+  </si>
+  <si>
+    <t>征程5章-2关</t>
+  </si>
+  <si>
+    <t>征程5章-3关</t>
+  </si>
+  <si>
+    <t>征程5章-4关</t>
+  </si>
+  <si>
+    <t>征程5章-5关</t>
+  </si>
+  <si>
+    <t>征程5章-6关</t>
+  </si>
+  <si>
+    <t>征程5章-7关</t>
+  </si>
+  <si>
+    <t>征程5章-8关</t>
+  </si>
+  <si>
+    <t>征程5章-9关</t>
+  </si>
+  <si>
+    <t>征程5章-10关</t>
+  </si>
+  <si>
+    <t>征程5章-11关</t>
+  </si>
+  <si>
+    <t>征程5章-12关</t>
+  </si>
+  <si>
+    <t>征程5章-13关</t>
+  </si>
+  <si>
+    <t>征程5章-14关</t>
+  </si>
+  <si>
+    <t>征程5章-15关</t>
+  </si>
+  <si>
+    <t>征程5章-16关</t>
+  </si>
+  <si>
+    <t>征程5章-17关</t>
+  </si>
+  <si>
+    <t>征程5章-18关</t>
+  </si>
+  <si>
+    <t>征程5章-19关</t>
+  </si>
+  <si>
+    <t>征程5章-20关</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:AE42"/>
+  <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4185,7 +4463,7 @@
     </row>
     <row r="39" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="7">
-        <v>2700201</v>
+        <v>2700105</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>156</v>
@@ -4245,7 +4523,7 @@
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB39" s="15">
         <v>28000</v>
@@ -4256,7 +4534,7 @@
     </row>
     <row r="40" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="7">
-        <v>2700202</v>
+        <v>2700106</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>157</v>
@@ -4316,7 +4594,7 @@
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB40" s="15">
         <v>28000</v>
@@ -4327,7 +4605,7 @@
     </row>
     <row r="41" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7">
-        <v>2700203</v>
+        <v>2700107</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>158</v>
@@ -4398,7 +4676,7 @@
     </row>
     <row r="42" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="7">
-        <v>2700204</v>
+        <v>2700108</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>159</v>
@@ -4466,6 +4744,6538 @@
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="19"/>
+    </row>
+    <row r="43" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="7">
+        <v>2700109</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7">
+        <v>27</v>
+      </c>
+      <c r="J43" s="7">
+        <v>104</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S43" s="15">
+        <v>1</v>
+      </c>
+      <c r="T43" s="8"/>
+      <c r="U43" s="15">
+        <v>1</v>
+      </c>
+      <c r="V43" s="15">
+        <v>5</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB43" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="19"/>
+    </row>
+    <row r="44" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="7">
+        <v>2700110</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7">
+        <v>27</v>
+      </c>
+      <c r="J44" s="7">
+        <v>104</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="15">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0</v>
+      </c>
+      <c r="O44" s="15">
+        <v>0</v>
+      </c>
+      <c r="P44" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S44" s="15">
+        <v>1</v>
+      </c>
+      <c r="T44" s="8"/>
+      <c r="U44" s="15">
+        <v>1</v>
+      </c>
+      <c r="V44" s="15">
+        <v>5</v>
+      </c>
+      <c r="W44" s="15">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="19"/>
+    </row>
+    <row r="45" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="7">
+        <v>2700111</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7">
+        <v>27</v>
+      </c>
+      <c r="J45" s="7">
+        <v>104</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S45" s="15">
+        <v>1</v>
+      </c>
+      <c r="T45" s="8"/>
+      <c r="U45" s="15">
+        <v>1</v>
+      </c>
+      <c r="V45" s="15">
+        <v>5</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB45" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="19"/>
+    </row>
+    <row r="46" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="7">
+        <v>2700112</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7">
+        <v>27</v>
+      </c>
+      <c r="J46" s="7">
+        <v>104</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
+      <c r="M46" s="15">
+        <v>0</v>
+      </c>
+      <c r="N46" s="15">
+        <v>0</v>
+      </c>
+      <c r="O46" s="15">
+        <v>0</v>
+      </c>
+      <c r="P46" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S46" s="15">
+        <v>1</v>
+      </c>
+      <c r="T46" s="8"/>
+      <c r="U46" s="15">
+        <v>1</v>
+      </c>
+      <c r="V46" s="15">
+        <v>5</v>
+      </c>
+      <c r="W46" s="15">
+        <v>0</v>
+      </c>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB46" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="19"/>
+    </row>
+    <row r="47" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="7">
+        <v>2700113</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7">
+        <v>27</v>
+      </c>
+      <c r="J47" s="7">
+        <v>104</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S47" s="15">
+        <v>1</v>
+      </c>
+      <c r="T47" s="8"/>
+      <c r="U47" s="15">
+        <v>1</v>
+      </c>
+      <c r="V47" s="15">
+        <v>5</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB47" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="19"/>
+    </row>
+    <row r="48" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="7">
+        <v>2700114</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7">
+        <v>27</v>
+      </c>
+      <c r="J48" s="7">
+        <v>104</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15">
+        <v>0</v>
+      </c>
+      <c r="M48" s="15">
+        <v>0</v>
+      </c>
+      <c r="N48" s="15">
+        <v>0</v>
+      </c>
+      <c r="O48" s="15">
+        <v>0</v>
+      </c>
+      <c r="P48" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" s="15">
+        <v>1</v>
+      </c>
+      <c r="T48" s="8"/>
+      <c r="U48" s="15">
+        <v>1</v>
+      </c>
+      <c r="V48" s="15">
+        <v>5</v>
+      </c>
+      <c r="W48" s="15">
+        <v>0</v>
+      </c>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB48" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="19"/>
+    </row>
+    <row r="49" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="7">
+        <v>2700115</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7">
+        <v>27</v>
+      </c>
+      <c r="J49" s="7">
+        <v>104</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S49" s="15">
+        <v>1</v>
+      </c>
+      <c r="T49" s="8"/>
+      <c r="U49" s="15">
+        <v>1</v>
+      </c>
+      <c r="V49" s="15">
+        <v>5</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB49" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="19"/>
+    </row>
+    <row r="50" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="7">
+        <v>2700116</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7">
+        <v>27</v>
+      </c>
+      <c r="J50" s="7">
+        <v>104</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0</v>
+      </c>
+      <c r="O50" s="15">
+        <v>0</v>
+      </c>
+      <c r="P50" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S50" s="15">
+        <v>1</v>
+      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="15">
+        <v>1</v>
+      </c>
+      <c r="V50" s="15">
+        <v>5</v>
+      </c>
+      <c r="W50" s="15">
+        <v>0</v>
+      </c>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB50" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="19"/>
+    </row>
+    <row r="51" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="7">
+        <v>2700117</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7">
+        <v>27</v>
+      </c>
+      <c r="J51" s="7">
+        <v>104</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S51" s="15">
+        <v>1</v>
+      </c>
+      <c r="T51" s="8"/>
+      <c r="U51" s="15">
+        <v>1</v>
+      </c>
+      <c r="V51" s="15">
+        <v>5</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB51" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="19"/>
+    </row>
+    <row r="52" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="7">
+        <v>2700118</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7">
+        <v>27</v>
+      </c>
+      <c r="J52" s="7">
+        <v>104</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
+        <v>0</v>
+      </c>
+      <c r="M52" s="15">
+        <v>0</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+      <c r="O52" s="15">
+        <v>0</v>
+      </c>
+      <c r="P52" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S52" s="15">
+        <v>1</v>
+      </c>
+      <c r="T52" s="8"/>
+      <c r="U52" s="15">
+        <v>1</v>
+      </c>
+      <c r="V52" s="15">
+        <v>5</v>
+      </c>
+      <c r="W52" s="15">
+        <v>0</v>
+      </c>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB52" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="19"/>
+    </row>
+    <row r="53" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="7">
+        <v>2700119</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7">
+        <v>27</v>
+      </c>
+      <c r="J53" s="7">
+        <v>104</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S53" s="15">
+        <v>1</v>
+      </c>
+      <c r="T53" s="8"/>
+      <c r="U53" s="15">
+        <v>1</v>
+      </c>
+      <c r="V53" s="15">
+        <v>5</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB53" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="19"/>
+    </row>
+    <row r="54" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="7">
+        <v>2700120</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7">
+        <v>27</v>
+      </c>
+      <c r="J54" s="7">
+        <v>104</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0</v>
+      </c>
+      <c r="L54" s="15">
+        <v>0</v>
+      </c>
+      <c r="M54" s="15">
+        <v>0</v>
+      </c>
+      <c r="N54" s="15">
+        <v>0</v>
+      </c>
+      <c r="O54" s="15">
+        <v>0</v>
+      </c>
+      <c r="P54" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S54" s="15">
+        <v>1</v>
+      </c>
+      <c r="T54" s="8"/>
+      <c r="U54" s="15">
+        <v>1</v>
+      </c>
+      <c r="V54" s="15">
+        <v>5</v>
+      </c>
+      <c r="W54" s="15">
+        <v>0</v>
+      </c>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB54" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="19"/>
+    </row>
+    <row r="55" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="7">
+        <v>2700201</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7">
+        <v>27</v>
+      </c>
+      <c r="J55" s="7">
+        <v>104</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S55" s="15">
+        <v>1</v>
+      </c>
+      <c r="T55" s="8"/>
+      <c r="U55" s="15">
+        <v>1</v>
+      </c>
+      <c r="V55" s="15">
+        <v>5</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB55" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="19"/>
+    </row>
+    <row r="56" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="7">
+        <v>2700202</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7">
+        <v>27</v>
+      </c>
+      <c r="J56" s="7">
+        <v>104</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <v>0</v>
+      </c>
+      <c r="M56" s="15">
+        <v>0</v>
+      </c>
+      <c r="N56" s="15">
+        <v>0</v>
+      </c>
+      <c r="O56" s="15">
+        <v>0</v>
+      </c>
+      <c r="P56" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S56" s="15">
+        <v>1</v>
+      </c>
+      <c r="T56" s="8"/>
+      <c r="U56" s="15">
+        <v>1</v>
+      </c>
+      <c r="V56" s="15">
+        <v>5</v>
+      </c>
+      <c r="W56" s="15">
+        <v>0</v>
+      </c>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB56" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="19"/>
+    </row>
+    <row r="57" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="7">
+        <v>2700203</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7">
+        <v>27</v>
+      </c>
+      <c r="J57" s="7">
+        <v>104</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0</v>
+      </c>
+      <c r="M57" s="15">
+        <v>0</v>
+      </c>
+      <c r="N57" s="15">
+        <v>0</v>
+      </c>
+      <c r="O57" s="15">
+        <v>0</v>
+      </c>
+      <c r="P57" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S57" s="15">
+        <v>1</v>
+      </c>
+      <c r="T57" s="8"/>
+      <c r="U57" s="15">
+        <v>1</v>
+      </c>
+      <c r="V57" s="15">
+        <v>5</v>
+      </c>
+      <c r="W57" s="15">
+        <v>0</v>
+      </c>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB57" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="19"/>
+    </row>
+    <row r="58" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="7">
+        <v>2700204</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7">
+        <v>27</v>
+      </c>
+      <c r="J58" s="7">
+        <v>104</v>
+      </c>
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
+        <v>0</v>
+      </c>
+      <c r="M58" s="15">
+        <v>0</v>
+      </c>
+      <c r="N58" s="15">
+        <v>0</v>
+      </c>
+      <c r="O58" s="15">
+        <v>0</v>
+      </c>
+      <c r="P58" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S58" s="15">
+        <v>1</v>
+      </c>
+      <c r="T58" s="8"/>
+      <c r="U58" s="15">
+        <v>1</v>
+      </c>
+      <c r="V58" s="15">
+        <v>5</v>
+      </c>
+      <c r="W58" s="15">
+        <v>0</v>
+      </c>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB58" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="19"/>
+    </row>
+    <row r="59" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="7">
+        <v>2700205</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7">
+        <v>27</v>
+      </c>
+      <c r="J59" s="7">
+        <v>104</v>
+      </c>
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15">
+        <v>0</v>
+      </c>
+      <c r="M59" s="15">
+        <v>0</v>
+      </c>
+      <c r="N59" s="15">
+        <v>0</v>
+      </c>
+      <c r="O59" s="15">
+        <v>0</v>
+      </c>
+      <c r="P59" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S59" s="15">
+        <v>1</v>
+      </c>
+      <c r="T59" s="8"/>
+      <c r="U59" s="15">
+        <v>1</v>
+      </c>
+      <c r="V59" s="15">
+        <v>5</v>
+      </c>
+      <c r="W59" s="15">
+        <v>0</v>
+      </c>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB59" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="19"/>
+    </row>
+    <row r="60" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="7">
+        <v>2700206</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7">
+        <v>27</v>
+      </c>
+      <c r="J60" s="7">
+        <v>104</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0</v>
+      </c>
+      <c r="L60" s="15">
+        <v>0</v>
+      </c>
+      <c r="M60" s="15">
+        <v>0</v>
+      </c>
+      <c r="N60" s="15">
+        <v>0</v>
+      </c>
+      <c r="O60" s="15">
+        <v>0</v>
+      </c>
+      <c r="P60" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S60" s="15">
+        <v>1</v>
+      </c>
+      <c r="T60" s="8"/>
+      <c r="U60" s="15">
+        <v>1</v>
+      </c>
+      <c r="V60" s="15">
+        <v>5</v>
+      </c>
+      <c r="W60" s="15">
+        <v>0</v>
+      </c>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB60" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="19"/>
+    </row>
+    <row r="61" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="7">
+        <v>2700207</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7">
+        <v>27</v>
+      </c>
+      <c r="J61" s="7">
+        <v>104</v>
+      </c>
+      <c r="K61" s="15">
+        <v>0</v>
+      </c>
+      <c r="L61" s="15">
+        <v>0</v>
+      </c>
+      <c r="M61" s="15">
+        <v>0</v>
+      </c>
+      <c r="N61" s="15">
+        <v>0</v>
+      </c>
+      <c r="O61" s="15">
+        <v>0</v>
+      </c>
+      <c r="P61" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S61" s="15">
+        <v>1</v>
+      </c>
+      <c r="T61" s="8"/>
+      <c r="U61" s="15">
+        <v>1</v>
+      </c>
+      <c r="V61" s="15">
+        <v>5</v>
+      </c>
+      <c r="W61" s="15">
+        <v>0</v>
+      </c>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB61" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="19"/>
+    </row>
+    <row r="62" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="7">
+        <v>2700208</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7">
+        <v>27</v>
+      </c>
+      <c r="J62" s="7">
+        <v>104</v>
+      </c>
+      <c r="K62" s="15">
+        <v>0</v>
+      </c>
+      <c r="L62" s="15">
+        <v>0</v>
+      </c>
+      <c r="M62" s="15">
+        <v>0</v>
+      </c>
+      <c r="N62" s="15">
+        <v>0</v>
+      </c>
+      <c r="O62" s="15">
+        <v>0</v>
+      </c>
+      <c r="P62" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S62" s="15">
+        <v>1</v>
+      </c>
+      <c r="T62" s="8"/>
+      <c r="U62" s="15">
+        <v>1</v>
+      </c>
+      <c r="V62" s="15">
+        <v>5</v>
+      </c>
+      <c r="W62" s="15">
+        <v>0</v>
+      </c>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB62" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="19"/>
+    </row>
+    <row r="63" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="7">
+        <v>2700209</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7">
+        <v>27</v>
+      </c>
+      <c r="J63" s="7">
+        <v>104</v>
+      </c>
+      <c r="K63" s="15">
+        <v>0</v>
+      </c>
+      <c r="L63" s="15">
+        <v>0</v>
+      </c>
+      <c r="M63" s="15">
+        <v>0</v>
+      </c>
+      <c r="N63" s="15">
+        <v>0</v>
+      </c>
+      <c r="O63" s="15">
+        <v>0</v>
+      </c>
+      <c r="P63" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S63" s="15">
+        <v>1</v>
+      </c>
+      <c r="T63" s="8"/>
+      <c r="U63" s="15">
+        <v>1</v>
+      </c>
+      <c r="V63" s="15">
+        <v>5</v>
+      </c>
+      <c r="W63" s="15">
+        <v>0</v>
+      </c>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB63" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="19"/>
+    </row>
+    <row r="64" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="7">
+        <v>2700210</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7">
+        <v>27</v>
+      </c>
+      <c r="J64" s="7">
+        <v>104</v>
+      </c>
+      <c r="K64" s="15">
+        <v>0</v>
+      </c>
+      <c r="L64" s="15">
+        <v>0</v>
+      </c>
+      <c r="M64" s="15">
+        <v>0</v>
+      </c>
+      <c r="N64" s="15">
+        <v>0</v>
+      </c>
+      <c r="O64" s="15">
+        <v>0</v>
+      </c>
+      <c r="P64" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S64" s="15">
+        <v>1</v>
+      </c>
+      <c r="T64" s="8"/>
+      <c r="U64" s="15">
+        <v>1</v>
+      </c>
+      <c r="V64" s="15">
+        <v>5</v>
+      </c>
+      <c r="W64" s="15">
+        <v>0</v>
+      </c>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB64" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="19"/>
+    </row>
+    <row r="65" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="7">
+        <v>2700211</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7">
+        <v>27</v>
+      </c>
+      <c r="J65" s="7">
+        <v>104</v>
+      </c>
+      <c r="K65" s="15">
+        <v>0</v>
+      </c>
+      <c r="L65" s="15">
+        <v>0</v>
+      </c>
+      <c r="M65" s="15">
+        <v>0</v>
+      </c>
+      <c r="N65" s="15">
+        <v>0</v>
+      </c>
+      <c r="O65" s="15">
+        <v>0</v>
+      </c>
+      <c r="P65" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S65" s="15">
+        <v>1</v>
+      </c>
+      <c r="T65" s="8"/>
+      <c r="U65" s="15">
+        <v>1</v>
+      </c>
+      <c r="V65" s="15">
+        <v>5</v>
+      </c>
+      <c r="W65" s="15">
+        <v>0</v>
+      </c>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB65" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="19"/>
+    </row>
+    <row r="66" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="7">
+        <v>2700212</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7">
+        <v>27</v>
+      </c>
+      <c r="J66" s="7">
+        <v>104</v>
+      </c>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <v>0</v>
+      </c>
+      <c r="M66" s="15">
+        <v>0</v>
+      </c>
+      <c r="N66" s="15">
+        <v>0</v>
+      </c>
+      <c r="O66" s="15">
+        <v>0</v>
+      </c>
+      <c r="P66" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S66" s="15">
+        <v>1</v>
+      </c>
+      <c r="T66" s="8"/>
+      <c r="U66" s="15">
+        <v>1</v>
+      </c>
+      <c r="V66" s="15">
+        <v>5</v>
+      </c>
+      <c r="W66" s="15">
+        <v>0</v>
+      </c>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB66" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="19"/>
+    </row>
+    <row r="67" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="7">
+        <v>2700213</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7">
+        <v>27</v>
+      </c>
+      <c r="J67" s="7">
+        <v>104</v>
+      </c>
+      <c r="K67" s="15">
+        <v>0</v>
+      </c>
+      <c r="L67" s="15">
+        <v>0</v>
+      </c>
+      <c r="M67" s="15">
+        <v>0</v>
+      </c>
+      <c r="N67" s="15">
+        <v>0</v>
+      </c>
+      <c r="O67" s="15">
+        <v>0</v>
+      </c>
+      <c r="P67" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S67" s="15">
+        <v>1</v>
+      </c>
+      <c r="T67" s="8"/>
+      <c r="U67" s="15">
+        <v>1</v>
+      </c>
+      <c r="V67" s="15">
+        <v>5</v>
+      </c>
+      <c r="W67" s="15">
+        <v>0</v>
+      </c>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB67" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="19"/>
+    </row>
+    <row r="68" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="7">
+        <v>2700214</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7">
+        <v>27</v>
+      </c>
+      <c r="J68" s="7">
+        <v>104</v>
+      </c>
+      <c r="K68" s="15">
+        <v>0</v>
+      </c>
+      <c r="L68" s="15">
+        <v>0</v>
+      </c>
+      <c r="M68" s="15">
+        <v>0</v>
+      </c>
+      <c r="N68" s="15">
+        <v>0</v>
+      </c>
+      <c r="O68" s="15">
+        <v>0</v>
+      </c>
+      <c r="P68" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S68" s="15">
+        <v>1</v>
+      </c>
+      <c r="T68" s="8"/>
+      <c r="U68" s="15">
+        <v>1</v>
+      </c>
+      <c r="V68" s="15">
+        <v>5</v>
+      </c>
+      <c r="W68" s="15">
+        <v>0</v>
+      </c>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB68" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="19"/>
+    </row>
+    <row r="69" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="7">
+        <v>2700215</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7">
+        <v>27</v>
+      </c>
+      <c r="J69" s="7">
+        <v>104</v>
+      </c>
+      <c r="K69" s="15">
+        <v>0</v>
+      </c>
+      <c r="L69" s="15">
+        <v>0</v>
+      </c>
+      <c r="M69" s="15">
+        <v>0</v>
+      </c>
+      <c r="N69" s="15">
+        <v>0</v>
+      </c>
+      <c r="O69" s="15">
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S69" s="15">
+        <v>1</v>
+      </c>
+      <c r="T69" s="8"/>
+      <c r="U69" s="15">
+        <v>1</v>
+      </c>
+      <c r="V69" s="15">
+        <v>5</v>
+      </c>
+      <c r="W69" s="15">
+        <v>0</v>
+      </c>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB69" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="19"/>
+    </row>
+    <row r="70" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="7">
+        <v>2700216</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7">
+        <v>27</v>
+      </c>
+      <c r="J70" s="7">
+        <v>104</v>
+      </c>
+      <c r="K70" s="15">
+        <v>0</v>
+      </c>
+      <c r="L70" s="15">
+        <v>0</v>
+      </c>
+      <c r="M70" s="15">
+        <v>0</v>
+      </c>
+      <c r="N70" s="15">
+        <v>0</v>
+      </c>
+      <c r="O70" s="15">
+        <v>0</v>
+      </c>
+      <c r="P70" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S70" s="15">
+        <v>1</v>
+      </c>
+      <c r="T70" s="8"/>
+      <c r="U70" s="15">
+        <v>1</v>
+      </c>
+      <c r="V70" s="15">
+        <v>5</v>
+      </c>
+      <c r="W70" s="15">
+        <v>0</v>
+      </c>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB70" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="19"/>
+    </row>
+    <row r="71" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="7">
+        <v>2700217</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7">
+        <v>27</v>
+      </c>
+      <c r="J71" s="7">
+        <v>104</v>
+      </c>
+      <c r="K71" s="15">
+        <v>0</v>
+      </c>
+      <c r="L71" s="15">
+        <v>0</v>
+      </c>
+      <c r="M71" s="15">
+        <v>0</v>
+      </c>
+      <c r="N71" s="15">
+        <v>0</v>
+      </c>
+      <c r="O71" s="15">
+        <v>0</v>
+      </c>
+      <c r="P71" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S71" s="15">
+        <v>1</v>
+      </c>
+      <c r="T71" s="8"/>
+      <c r="U71" s="15">
+        <v>1</v>
+      </c>
+      <c r="V71" s="15">
+        <v>5</v>
+      </c>
+      <c r="W71" s="15">
+        <v>0</v>
+      </c>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB71" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="19"/>
+    </row>
+    <row r="72" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="7">
+        <v>2700218</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7">
+        <v>27</v>
+      </c>
+      <c r="J72" s="7">
+        <v>104</v>
+      </c>
+      <c r="K72" s="15">
+        <v>0</v>
+      </c>
+      <c r="L72" s="15">
+        <v>0</v>
+      </c>
+      <c r="M72" s="15">
+        <v>0</v>
+      </c>
+      <c r="N72" s="15">
+        <v>0</v>
+      </c>
+      <c r="O72" s="15">
+        <v>0</v>
+      </c>
+      <c r="P72" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S72" s="15">
+        <v>1</v>
+      </c>
+      <c r="T72" s="8"/>
+      <c r="U72" s="15">
+        <v>1</v>
+      </c>
+      <c r="V72" s="15">
+        <v>5</v>
+      </c>
+      <c r="W72" s="15">
+        <v>0</v>
+      </c>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB72" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="19"/>
+    </row>
+    <row r="73" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="7">
+        <v>2700219</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7">
+        <v>27</v>
+      </c>
+      <c r="J73" s="7">
+        <v>104</v>
+      </c>
+      <c r="K73" s="15">
+        <v>0</v>
+      </c>
+      <c r="L73" s="15">
+        <v>0</v>
+      </c>
+      <c r="M73" s="15">
+        <v>0</v>
+      </c>
+      <c r="N73" s="15">
+        <v>0</v>
+      </c>
+      <c r="O73" s="15">
+        <v>0</v>
+      </c>
+      <c r="P73" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S73" s="15">
+        <v>1</v>
+      </c>
+      <c r="T73" s="8"/>
+      <c r="U73" s="15">
+        <v>1</v>
+      </c>
+      <c r="V73" s="15">
+        <v>5</v>
+      </c>
+      <c r="W73" s="15">
+        <v>0</v>
+      </c>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB73" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="19"/>
+    </row>
+    <row r="74" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="7">
+        <v>2700220</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7">
+        <v>27</v>
+      </c>
+      <c r="J74" s="7">
+        <v>104</v>
+      </c>
+      <c r="K74" s="15">
+        <v>0</v>
+      </c>
+      <c r="L74" s="15">
+        <v>0</v>
+      </c>
+      <c r="M74" s="15">
+        <v>0</v>
+      </c>
+      <c r="N74" s="15">
+        <v>0</v>
+      </c>
+      <c r="O74" s="15">
+        <v>0</v>
+      </c>
+      <c r="P74" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R74" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S74" s="15">
+        <v>1</v>
+      </c>
+      <c r="T74" s="8"/>
+      <c r="U74" s="15">
+        <v>1</v>
+      </c>
+      <c r="V74" s="15">
+        <v>5</v>
+      </c>
+      <c r="W74" s="15">
+        <v>0</v>
+      </c>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB74" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="19"/>
+    </row>
+    <row r="75" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="7">
+        <v>2700301</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7">
+        <v>27</v>
+      </c>
+      <c r="J75" s="7">
+        <v>104</v>
+      </c>
+      <c r="K75" s="15">
+        <v>0</v>
+      </c>
+      <c r="L75" s="15">
+        <v>0</v>
+      </c>
+      <c r="M75" s="15">
+        <v>0</v>
+      </c>
+      <c r="N75" s="15">
+        <v>0</v>
+      </c>
+      <c r="O75" s="15">
+        <v>0</v>
+      </c>
+      <c r="P75" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S75" s="15">
+        <v>1</v>
+      </c>
+      <c r="T75" s="8"/>
+      <c r="U75" s="15">
+        <v>1</v>
+      </c>
+      <c r="V75" s="15">
+        <v>5</v>
+      </c>
+      <c r="W75" s="15">
+        <v>0</v>
+      </c>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB75" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="19"/>
+    </row>
+    <row r="76" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="7">
+        <v>2700302</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7">
+        <v>27</v>
+      </c>
+      <c r="J76" s="7">
+        <v>104</v>
+      </c>
+      <c r="K76" s="15">
+        <v>0</v>
+      </c>
+      <c r="L76" s="15">
+        <v>0</v>
+      </c>
+      <c r="M76" s="15">
+        <v>0</v>
+      </c>
+      <c r="N76" s="15">
+        <v>0</v>
+      </c>
+      <c r="O76" s="15">
+        <v>0</v>
+      </c>
+      <c r="P76" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R76" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S76" s="15">
+        <v>1</v>
+      </c>
+      <c r="T76" s="8"/>
+      <c r="U76" s="15">
+        <v>1</v>
+      </c>
+      <c r="V76" s="15">
+        <v>5</v>
+      </c>
+      <c r="W76" s="15">
+        <v>0</v>
+      </c>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB76" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="19"/>
+    </row>
+    <row r="77" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="7">
+        <v>2700303</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7">
+        <v>27</v>
+      </c>
+      <c r="J77" s="7">
+        <v>104</v>
+      </c>
+      <c r="K77" s="15">
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <v>0</v>
+      </c>
+      <c r="M77" s="15">
+        <v>0</v>
+      </c>
+      <c r="N77" s="15">
+        <v>0</v>
+      </c>
+      <c r="O77" s="15">
+        <v>0</v>
+      </c>
+      <c r="P77" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R77" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S77" s="15">
+        <v>1</v>
+      </c>
+      <c r="T77" s="8"/>
+      <c r="U77" s="15">
+        <v>1</v>
+      </c>
+      <c r="V77" s="15">
+        <v>5</v>
+      </c>
+      <c r="W77" s="15">
+        <v>0</v>
+      </c>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB77" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="19"/>
+    </row>
+    <row r="78" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="7">
+        <v>2700304</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7">
+        <v>27</v>
+      </c>
+      <c r="J78" s="7">
+        <v>104</v>
+      </c>
+      <c r="K78" s="15">
+        <v>0</v>
+      </c>
+      <c r="L78" s="15">
+        <v>0</v>
+      </c>
+      <c r="M78" s="15">
+        <v>0</v>
+      </c>
+      <c r="N78" s="15">
+        <v>0</v>
+      </c>
+      <c r="O78" s="15">
+        <v>0</v>
+      </c>
+      <c r="P78" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R78" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S78" s="15">
+        <v>1</v>
+      </c>
+      <c r="T78" s="8"/>
+      <c r="U78" s="15">
+        <v>1</v>
+      </c>
+      <c r="V78" s="15">
+        <v>5</v>
+      </c>
+      <c r="W78" s="15">
+        <v>0</v>
+      </c>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB78" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="19"/>
+    </row>
+    <row r="79" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="7">
+        <v>2700305</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7">
+        <v>27</v>
+      </c>
+      <c r="J79" s="7">
+        <v>104</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0</v>
+      </c>
+      <c r="O79" s="15">
+        <v>0</v>
+      </c>
+      <c r="P79" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R79" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S79" s="15">
+        <v>1</v>
+      </c>
+      <c r="T79" s="8"/>
+      <c r="U79" s="15">
+        <v>1</v>
+      </c>
+      <c r="V79" s="15">
+        <v>5</v>
+      </c>
+      <c r="W79" s="15">
+        <v>0</v>
+      </c>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB79" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="19"/>
+    </row>
+    <row r="80" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="7">
+        <v>2700306</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7">
+        <v>27</v>
+      </c>
+      <c r="J80" s="7">
+        <v>104</v>
+      </c>
+      <c r="K80" s="15">
+        <v>0</v>
+      </c>
+      <c r="L80" s="15">
+        <v>0</v>
+      </c>
+      <c r="M80" s="15">
+        <v>0</v>
+      </c>
+      <c r="N80" s="15">
+        <v>0</v>
+      </c>
+      <c r="O80" s="15">
+        <v>0</v>
+      </c>
+      <c r="P80" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R80" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S80" s="15">
+        <v>1</v>
+      </c>
+      <c r="T80" s="8"/>
+      <c r="U80" s="15">
+        <v>1</v>
+      </c>
+      <c r="V80" s="15">
+        <v>5</v>
+      </c>
+      <c r="W80" s="15">
+        <v>0</v>
+      </c>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB80" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="19"/>
+    </row>
+    <row r="81" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="7">
+        <v>2700307</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7">
+        <v>27</v>
+      </c>
+      <c r="J81" s="7">
+        <v>104</v>
+      </c>
+      <c r="K81" s="15">
+        <v>0</v>
+      </c>
+      <c r="L81" s="15">
+        <v>0</v>
+      </c>
+      <c r="M81" s="15">
+        <v>0</v>
+      </c>
+      <c r="N81" s="15">
+        <v>0</v>
+      </c>
+      <c r="O81" s="15">
+        <v>0</v>
+      </c>
+      <c r="P81" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R81" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S81" s="15">
+        <v>1</v>
+      </c>
+      <c r="T81" s="8"/>
+      <c r="U81" s="15">
+        <v>1</v>
+      </c>
+      <c r="V81" s="15">
+        <v>5</v>
+      </c>
+      <c r="W81" s="15">
+        <v>0</v>
+      </c>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB81" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="19"/>
+    </row>
+    <row r="82" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="7">
+        <v>2700308</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7">
+        <v>27</v>
+      </c>
+      <c r="J82" s="7">
+        <v>104</v>
+      </c>
+      <c r="K82" s="15">
+        <v>0</v>
+      </c>
+      <c r="L82" s="15">
+        <v>0</v>
+      </c>
+      <c r="M82" s="15">
+        <v>0</v>
+      </c>
+      <c r="N82" s="15">
+        <v>0</v>
+      </c>
+      <c r="O82" s="15">
+        <v>0</v>
+      </c>
+      <c r="P82" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R82" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S82" s="15">
+        <v>1</v>
+      </c>
+      <c r="T82" s="8"/>
+      <c r="U82" s="15">
+        <v>1</v>
+      </c>
+      <c r="V82" s="15">
+        <v>5</v>
+      </c>
+      <c r="W82" s="15">
+        <v>0</v>
+      </c>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB82" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="19"/>
+    </row>
+    <row r="83" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="7">
+        <v>2700309</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7">
+        <v>27</v>
+      </c>
+      <c r="J83" s="7">
+        <v>104</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0</v>
+      </c>
+      <c r="L83" s="15">
+        <v>0</v>
+      </c>
+      <c r="M83" s="15">
+        <v>0</v>
+      </c>
+      <c r="N83" s="15">
+        <v>0</v>
+      </c>
+      <c r="O83" s="15">
+        <v>0</v>
+      </c>
+      <c r="P83" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R83" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S83" s="15">
+        <v>1</v>
+      </c>
+      <c r="T83" s="8"/>
+      <c r="U83" s="15">
+        <v>1</v>
+      </c>
+      <c r="V83" s="15">
+        <v>5</v>
+      </c>
+      <c r="W83" s="15">
+        <v>0</v>
+      </c>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB83" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="19"/>
+    </row>
+    <row r="84" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="7">
+        <v>2700310</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7">
+        <v>27</v>
+      </c>
+      <c r="J84" s="7">
+        <v>104</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0</v>
+      </c>
+      <c r="L84" s="15">
+        <v>0</v>
+      </c>
+      <c r="M84" s="15">
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <v>0</v>
+      </c>
+      <c r="O84" s="15">
+        <v>0</v>
+      </c>
+      <c r="P84" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R84" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S84" s="15">
+        <v>1</v>
+      </c>
+      <c r="T84" s="8"/>
+      <c r="U84" s="15">
+        <v>1</v>
+      </c>
+      <c r="V84" s="15">
+        <v>5</v>
+      </c>
+      <c r="W84" s="15">
+        <v>0</v>
+      </c>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB84" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="19"/>
+    </row>
+    <row r="85" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="7">
+        <v>2700311</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7">
+        <v>27</v>
+      </c>
+      <c r="J85" s="7">
+        <v>104</v>
+      </c>
+      <c r="K85" s="15">
+        <v>0</v>
+      </c>
+      <c r="L85" s="15">
+        <v>0</v>
+      </c>
+      <c r="M85" s="15">
+        <v>0</v>
+      </c>
+      <c r="N85" s="15">
+        <v>0</v>
+      </c>
+      <c r="O85" s="15">
+        <v>0</v>
+      </c>
+      <c r="P85" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R85" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S85" s="15">
+        <v>1</v>
+      </c>
+      <c r="T85" s="8"/>
+      <c r="U85" s="15">
+        <v>1</v>
+      </c>
+      <c r="V85" s="15">
+        <v>5</v>
+      </c>
+      <c r="W85" s="15">
+        <v>0</v>
+      </c>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB85" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="19"/>
+    </row>
+    <row r="86" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="7">
+        <v>2700312</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7">
+        <v>27</v>
+      </c>
+      <c r="J86" s="7">
+        <v>104</v>
+      </c>
+      <c r="K86" s="15">
+        <v>0</v>
+      </c>
+      <c r="L86" s="15">
+        <v>0</v>
+      </c>
+      <c r="M86" s="15">
+        <v>0</v>
+      </c>
+      <c r="N86" s="15">
+        <v>0</v>
+      </c>
+      <c r="O86" s="15">
+        <v>0</v>
+      </c>
+      <c r="P86" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R86" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S86" s="15">
+        <v>1</v>
+      </c>
+      <c r="T86" s="8"/>
+      <c r="U86" s="15">
+        <v>1</v>
+      </c>
+      <c r="V86" s="15">
+        <v>5</v>
+      </c>
+      <c r="W86" s="15">
+        <v>0</v>
+      </c>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB86" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="19"/>
+    </row>
+    <row r="87" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="7">
+        <v>2700313</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7">
+        <v>27</v>
+      </c>
+      <c r="J87" s="7">
+        <v>104</v>
+      </c>
+      <c r="K87" s="15">
+        <v>0</v>
+      </c>
+      <c r="L87" s="15">
+        <v>0</v>
+      </c>
+      <c r="M87" s="15">
+        <v>0</v>
+      </c>
+      <c r="N87" s="15">
+        <v>0</v>
+      </c>
+      <c r="O87" s="15">
+        <v>0</v>
+      </c>
+      <c r="P87" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R87" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S87" s="15">
+        <v>1</v>
+      </c>
+      <c r="T87" s="8"/>
+      <c r="U87" s="15">
+        <v>1</v>
+      </c>
+      <c r="V87" s="15">
+        <v>5</v>
+      </c>
+      <c r="W87" s="15">
+        <v>0</v>
+      </c>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB87" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="19"/>
+    </row>
+    <row r="88" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="7">
+        <v>2700314</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7">
+        <v>27</v>
+      </c>
+      <c r="J88" s="7">
+        <v>104</v>
+      </c>
+      <c r="K88" s="15">
+        <v>0</v>
+      </c>
+      <c r="L88" s="15">
+        <v>0</v>
+      </c>
+      <c r="M88" s="15">
+        <v>0</v>
+      </c>
+      <c r="N88" s="15">
+        <v>0</v>
+      </c>
+      <c r="O88" s="15">
+        <v>0</v>
+      </c>
+      <c r="P88" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R88" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S88" s="15">
+        <v>1</v>
+      </c>
+      <c r="T88" s="8"/>
+      <c r="U88" s="15">
+        <v>1</v>
+      </c>
+      <c r="V88" s="15">
+        <v>5</v>
+      </c>
+      <c r="W88" s="15">
+        <v>0</v>
+      </c>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB88" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="19"/>
+    </row>
+    <row r="89" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="7">
+        <v>2700315</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7">
+        <v>27</v>
+      </c>
+      <c r="J89" s="7">
+        <v>104</v>
+      </c>
+      <c r="K89" s="15">
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <v>0</v>
+      </c>
+      <c r="M89" s="15">
+        <v>0</v>
+      </c>
+      <c r="N89" s="15">
+        <v>0</v>
+      </c>
+      <c r="O89" s="15">
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R89" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S89" s="15">
+        <v>1</v>
+      </c>
+      <c r="T89" s="8"/>
+      <c r="U89" s="15">
+        <v>1</v>
+      </c>
+      <c r="V89" s="15">
+        <v>5</v>
+      </c>
+      <c r="W89" s="15">
+        <v>0</v>
+      </c>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB89" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="19"/>
+    </row>
+    <row r="90" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="7">
+        <v>2700316</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7">
+        <v>27</v>
+      </c>
+      <c r="J90" s="7">
+        <v>104</v>
+      </c>
+      <c r="K90" s="15">
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <v>0</v>
+      </c>
+      <c r="M90" s="15">
+        <v>0</v>
+      </c>
+      <c r="N90" s="15">
+        <v>0</v>
+      </c>
+      <c r="O90" s="15">
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R90" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S90" s="15">
+        <v>1</v>
+      </c>
+      <c r="T90" s="8"/>
+      <c r="U90" s="15">
+        <v>1</v>
+      </c>
+      <c r="V90" s="15">
+        <v>5</v>
+      </c>
+      <c r="W90" s="15">
+        <v>0</v>
+      </c>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB90" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="19"/>
+    </row>
+    <row r="91" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="7">
+        <v>2700317</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7">
+        <v>27</v>
+      </c>
+      <c r="J91" s="7">
+        <v>104</v>
+      </c>
+      <c r="K91" s="15">
+        <v>0</v>
+      </c>
+      <c r="L91" s="15">
+        <v>0</v>
+      </c>
+      <c r="M91" s="15">
+        <v>0</v>
+      </c>
+      <c r="N91" s="15">
+        <v>0</v>
+      </c>
+      <c r="O91" s="15">
+        <v>0</v>
+      </c>
+      <c r="P91" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R91" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S91" s="15">
+        <v>1</v>
+      </c>
+      <c r="T91" s="8"/>
+      <c r="U91" s="15">
+        <v>1</v>
+      </c>
+      <c r="V91" s="15">
+        <v>5</v>
+      </c>
+      <c r="W91" s="15">
+        <v>0</v>
+      </c>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB91" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="19"/>
+    </row>
+    <row r="92" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="7">
+        <v>2700318</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7">
+        <v>27</v>
+      </c>
+      <c r="J92" s="7">
+        <v>104</v>
+      </c>
+      <c r="K92" s="15">
+        <v>0</v>
+      </c>
+      <c r="L92" s="15">
+        <v>0</v>
+      </c>
+      <c r="M92" s="15">
+        <v>0</v>
+      </c>
+      <c r="N92" s="15">
+        <v>0</v>
+      </c>
+      <c r="O92" s="15">
+        <v>0</v>
+      </c>
+      <c r="P92" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R92" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S92" s="15">
+        <v>1</v>
+      </c>
+      <c r="T92" s="8"/>
+      <c r="U92" s="15">
+        <v>1</v>
+      </c>
+      <c r="V92" s="15">
+        <v>5</v>
+      </c>
+      <c r="W92" s="15">
+        <v>0</v>
+      </c>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB92" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="19"/>
+    </row>
+    <row r="93" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="7">
+        <v>2700319</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7">
+        <v>27</v>
+      </c>
+      <c r="J93" s="7">
+        <v>104</v>
+      </c>
+      <c r="K93" s="15">
+        <v>0</v>
+      </c>
+      <c r="L93" s="15">
+        <v>0</v>
+      </c>
+      <c r="M93" s="15">
+        <v>0</v>
+      </c>
+      <c r="N93" s="15">
+        <v>0</v>
+      </c>
+      <c r="O93" s="15">
+        <v>0</v>
+      </c>
+      <c r="P93" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S93" s="15">
+        <v>1</v>
+      </c>
+      <c r="T93" s="8"/>
+      <c r="U93" s="15">
+        <v>1</v>
+      </c>
+      <c r="V93" s="15">
+        <v>5</v>
+      </c>
+      <c r="W93" s="15">
+        <v>0</v>
+      </c>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB93" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="19"/>
+    </row>
+    <row r="94" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="7">
+        <v>2700320</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7">
+        <v>27</v>
+      </c>
+      <c r="J94" s="7">
+        <v>104</v>
+      </c>
+      <c r="K94" s="15">
+        <v>0</v>
+      </c>
+      <c r="L94" s="15">
+        <v>0</v>
+      </c>
+      <c r="M94" s="15">
+        <v>0</v>
+      </c>
+      <c r="N94" s="15">
+        <v>0</v>
+      </c>
+      <c r="O94" s="15">
+        <v>0</v>
+      </c>
+      <c r="P94" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R94" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S94" s="15">
+        <v>1</v>
+      </c>
+      <c r="T94" s="8"/>
+      <c r="U94" s="15">
+        <v>1</v>
+      </c>
+      <c r="V94" s="15">
+        <v>5</v>
+      </c>
+      <c r="W94" s="15">
+        <v>0</v>
+      </c>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB94" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="19"/>
+    </row>
+    <row r="95" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="7">
+        <v>2700401</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7">
+        <v>27</v>
+      </c>
+      <c r="J95" s="7">
+        <v>104</v>
+      </c>
+      <c r="K95" s="15">
+        <v>0</v>
+      </c>
+      <c r="L95" s="15">
+        <v>0</v>
+      </c>
+      <c r="M95" s="15">
+        <v>0</v>
+      </c>
+      <c r="N95" s="15">
+        <v>0</v>
+      </c>
+      <c r="O95" s="15">
+        <v>0</v>
+      </c>
+      <c r="P95" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R95" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S95" s="15">
+        <v>1</v>
+      </c>
+      <c r="T95" s="8"/>
+      <c r="U95" s="15">
+        <v>1</v>
+      </c>
+      <c r="V95" s="15">
+        <v>5</v>
+      </c>
+      <c r="W95" s="15">
+        <v>0</v>
+      </c>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB95" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AE95" s="19"/>
+    </row>
+    <row r="96" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="7">
+        <v>2700402</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7">
+        <v>27</v>
+      </c>
+      <c r="J96" s="7">
+        <v>104</v>
+      </c>
+      <c r="K96" s="15">
+        <v>0</v>
+      </c>
+      <c r="L96" s="15">
+        <v>0</v>
+      </c>
+      <c r="M96" s="15">
+        <v>0</v>
+      </c>
+      <c r="N96" s="15">
+        <v>0</v>
+      </c>
+      <c r="O96" s="15">
+        <v>0</v>
+      </c>
+      <c r="P96" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R96" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S96" s="15">
+        <v>1</v>
+      </c>
+      <c r="T96" s="8"/>
+      <c r="U96" s="15">
+        <v>1</v>
+      </c>
+      <c r="V96" s="15">
+        <v>5</v>
+      </c>
+      <c r="W96" s="15">
+        <v>0</v>
+      </c>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB96" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AE96" s="19"/>
+    </row>
+    <row r="97" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="7">
+        <v>2700403</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7">
+        <v>27</v>
+      </c>
+      <c r="J97" s="7">
+        <v>104</v>
+      </c>
+      <c r="K97" s="15">
+        <v>0</v>
+      </c>
+      <c r="L97" s="15">
+        <v>0</v>
+      </c>
+      <c r="M97" s="15">
+        <v>0</v>
+      </c>
+      <c r="N97" s="15">
+        <v>0</v>
+      </c>
+      <c r="O97" s="15">
+        <v>0</v>
+      </c>
+      <c r="P97" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R97" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S97" s="15">
+        <v>1</v>
+      </c>
+      <c r="T97" s="8"/>
+      <c r="U97" s="15">
+        <v>1</v>
+      </c>
+      <c r="V97" s="15">
+        <v>5</v>
+      </c>
+      <c r="W97" s="15">
+        <v>0</v>
+      </c>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB97" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC97" s="15"/>
+      <c r="AD97" s="15"/>
+      <c r="AE97" s="19"/>
+    </row>
+    <row r="98" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="7">
+        <v>2700404</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7">
+        <v>27</v>
+      </c>
+      <c r="J98" s="7">
+        <v>104</v>
+      </c>
+      <c r="K98" s="15">
+        <v>0</v>
+      </c>
+      <c r="L98" s="15">
+        <v>0</v>
+      </c>
+      <c r="M98" s="15">
+        <v>0</v>
+      </c>
+      <c r="N98" s="15">
+        <v>0</v>
+      </c>
+      <c r="O98" s="15">
+        <v>0</v>
+      </c>
+      <c r="P98" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R98" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S98" s="15">
+        <v>1</v>
+      </c>
+      <c r="T98" s="8"/>
+      <c r="U98" s="15">
+        <v>1</v>
+      </c>
+      <c r="V98" s="15">
+        <v>5</v>
+      </c>
+      <c r="W98" s="15">
+        <v>0</v>
+      </c>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB98" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="19"/>
+    </row>
+    <row r="99" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="7">
+        <v>2700405</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7">
+        <v>27</v>
+      </c>
+      <c r="J99" s="7">
+        <v>104</v>
+      </c>
+      <c r="K99" s="15">
+        <v>0</v>
+      </c>
+      <c r="L99" s="15">
+        <v>0</v>
+      </c>
+      <c r="M99" s="15">
+        <v>0</v>
+      </c>
+      <c r="N99" s="15">
+        <v>0</v>
+      </c>
+      <c r="O99" s="15">
+        <v>0</v>
+      </c>
+      <c r="P99" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R99" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S99" s="15">
+        <v>1</v>
+      </c>
+      <c r="T99" s="8"/>
+      <c r="U99" s="15">
+        <v>1</v>
+      </c>
+      <c r="V99" s="15">
+        <v>5</v>
+      </c>
+      <c r="W99" s="15">
+        <v>0</v>
+      </c>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB99" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AE99" s="19"/>
+    </row>
+    <row r="100" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="7">
+        <v>2700406</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7">
+        <v>27</v>
+      </c>
+      <c r="J100" s="7">
+        <v>104</v>
+      </c>
+      <c r="K100" s="15">
+        <v>0</v>
+      </c>
+      <c r="L100" s="15">
+        <v>0</v>
+      </c>
+      <c r="M100" s="15">
+        <v>0</v>
+      </c>
+      <c r="N100" s="15">
+        <v>0</v>
+      </c>
+      <c r="O100" s="15">
+        <v>0</v>
+      </c>
+      <c r="P100" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R100" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S100" s="15">
+        <v>1</v>
+      </c>
+      <c r="T100" s="8"/>
+      <c r="U100" s="15">
+        <v>1</v>
+      </c>
+      <c r="V100" s="15">
+        <v>5</v>
+      </c>
+      <c r="W100" s="15">
+        <v>0</v>
+      </c>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB100" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AE100" s="19"/>
+    </row>
+    <row r="101" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="7">
+        <v>2700407</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7">
+        <v>27</v>
+      </c>
+      <c r="J101" s="7">
+        <v>104</v>
+      </c>
+      <c r="K101" s="15">
+        <v>0</v>
+      </c>
+      <c r="L101" s="15">
+        <v>0</v>
+      </c>
+      <c r="M101" s="15">
+        <v>0</v>
+      </c>
+      <c r="N101" s="15">
+        <v>0</v>
+      </c>
+      <c r="O101" s="15">
+        <v>0</v>
+      </c>
+      <c r="P101" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R101" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S101" s="15">
+        <v>1</v>
+      </c>
+      <c r="T101" s="8"/>
+      <c r="U101" s="15">
+        <v>1</v>
+      </c>
+      <c r="V101" s="15">
+        <v>5</v>
+      </c>
+      <c r="W101" s="15">
+        <v>0</v>
+      </c>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB101" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC101" s="15"/>
+      <c r="AD101" s="15"/>
+      <c r="AE101" s="19"/>
+    </row>
+    <row r="102" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="7">
+        <v>2700408</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7">
+        <v>27</v>
+      </c>
+      <c r="J102" s="7">
+        <v>104</v>
+      </c>
+      <c r="K102" s="15">
+        <v>0</v>
+      </c>
+      <c r="L102" s="15">
+        <v>0</v>
+      </c>
+      <c r="M102" s="15">
+        <v>0</v>
+      </c>
+      <c r="N102" s="15">
+        <v>0</v>
+      </c>
+      <c r="O102" s="15">
+        <v>0</v>
+      </c>
+      <c r="P102" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R102" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S102" s="15">
+        <v>1</v>
+      </c>
+      <c r="T102" s="8"/>
+      <c r="U102" s="15">
+        <v>1</v>
+      </c>
+      <c r="V102" s="15">
+        <v>5</v>
+      </c>
+      <c r="W102" s="15">
+        <v>0</v>
+      </c>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB102" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC102" s="15"/>
+      <c r="AD102" s="15"/>
+      <c r="AE102" s="19"/>
+    </row>
+    <row r="103" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="7">
+        <v>2700409</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7">
+        <v>27</v>
+      </c>
+      <c r="J103" s="7">
+        <v>104</v>
+      </c>
+      <c r="K103" s="15">
+        <v>0</v>
+      </c>
+      <c r="L103" s="15">
+        <v>0</v>
+      </c>
+      <c r="M103" s="15">
+        <v>0</v>
+      </c>
+      <c r="N103" s="15">
+        <v>0</v>
+      </c>
+      <c r="O103" s="15">
+        <v>0</v>
+      </c>
+      <c r="P103" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R103" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S103" s="15">
+        <v>1</v>
+      </c>
+      <c r="T103" s="8"/>
+      <c r="U103" s="15">
+        <v>1</v>
+      </c>
+      <c r="V103" s="15">
+        <v>5</v>
+      </c>
+      <c r="W103" s="15">
+        <v>0</v>
+      </c>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB103" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC103" s="15"/>
+      <c r="AD103" s="15"/>
+      <c r="AE103" s="19"/>
+    </row>
+    <row r="104" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="7">
+        <v>2700410</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7">
+        <v>27</v>
+      </c>
+      <c r="J104" s="7">
+        <v>104</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0</v>
+      </c>
+      <c r="L104" s="15">
+        <v>0</v>
+      </c>
+      <c r="M104" s="15">
+        <v>0</v>
+      </c>
+      <c r="N104" s="15">
+        <v>0</v>
+      </c>
+      <c r="O104" s="15">
+        <v>0</v>
+      </c>
+      <c r="P104" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R104" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S104" s="15">
+        <v>1</v>
+      </c>
+      <c r="T104" s="8"/>
+      <c r="U104" s="15">
+        <v>1</v>
+      </c>
+      <c r="V104" s="15">
+        <v>5</v>
+      </c>
+      <c r="W104" s="15">
+        <v>0</v>
+      </c>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB104" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC104" s="15"/>
+      <c r="AD104" s="15"/>
+      <c r="AE104" s="19"/>
+    </row>
+    <row r="105" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="7">
+        <v>2700411</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7">
+        <v>27</v>
+      </c>
+      <c r="J105" s="7">
+        <v>104</v>
+      </c>
+      <c r="K105" s="15">
+        <v>0</v>
+      </c>
+      <c r="L105" s="15">
+        <v>0</v>
+      </c>
+      <c r="M105" s="15">
+        <v>0</v>
+      </c>
+      <c r="N105" s="15">
+        <v>0</v>
+      </c>
+      <c r="O105" s="15">
+        <v>0</v>
+      </c>
+      <c r="P105" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R105" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S105" s="15">
+        <v>1</v>
+      </c>
+      <c r="T105" s="8"/>
+      <c r="U105" s="15">
+        <v>1</v>
+      </c>
+      <c r="V105" s="15">
+        <v>5</v>
+      </c>
+      <c r="W105" s="15">
+        <v>0</v>
+      </c>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB105" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC105" s="15"/>
+      <c r="AD105" s="15"/>
+      <c r="AE105" s="19"/>
+    </row>
+    <row r="106" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="7">
+        <v>2700412</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7">
+        <v>27</v>
+      </c>
+      <c r="J106" s="7">
+        <v>104</v>
+      </c>
+      <c r="K106" s="15">
+        <v>0</v>
+      </c>
+      <c r="L106" s="15">
+        <v>0</v>
+      </c>
+      <c r="M106" s="15">
+        <v>0</v>
+      </c>
+      <c r="N106" s="15">
+        <v>0</v>
+      </c>
+      <c r="O106" s="15">
+        <v>0</v>
+      </c>
+      <c r="P106" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R106" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S106" s="15">
+        <v>1</v>
+      </c>
+      <c r="T106" s="8"/>
+      <c r="U106" s="15">
+        <v>1</v>
+      </c>
+      <c r="V106" s="15">
+        <v>5</v>
+      </c>
+      <c r="W106" s="15">
+        <v>0</v>
+      </c>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB106" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC106" s="15"/>
+      <c r="AD106" s="15"/>
+      <c r="AE106" s="19"/>
+    </row>
+    <row r="107" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="7">
+        <v>2700413</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7">
+        <v>27</v>
+      </c>
+      <c r="J107" s="7">
+        <v>104</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0</v>
+      </c>
+      <c r="L107" s="15">
+        <v>0</v>
+      </c>
+      <c r="M107" s="15">
+        <v>0</v>
+      </c>
+      <c r="N107" s="15">
+        <v>0</v>
+      </c>
+      <c r="O107" s="15">
+        <v>0</v>
+      </c>
+      <c r="P107" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R107" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S107" s="15">
+        <v>1</v>
+      </c>
+      <c r="T107" s="8"/>
+      <c r="U107" s="15">
+        <v>1</v>
+      </c>
+      <c r="V107" s="15">
+        <v>5</v>
+      </c>
+      <c r="W107" s="15">
+        <v>0</v>
+      </c>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB107" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC107" s="15"/>
+      <c r="AD107" s="15"/>
+      <c r="AE107" s="19"/>
+    </row>
+    <row r="108" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="7">
+        <v>2700414</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7">
+        <v>27</v>
+      </c>
+      <c r="J108" s="7">
+        <v>104</v>
+      </c>
+      <c r="K108" s="15">
+        <v>0</v>
+      </c>
+      <c r="L108" s="15">
+        <v>0</v>
+      </c>
+      <c r="M108" s="15">
+        <v>0</v>
+      </c>
+      <c r="N108" s="15">
+        <v>0</v>
+      </c>
+      <c r="O108" s="15">
+        <v>0</v>
+      </c>
+      <c r="P108" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R108" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S108" s="15">
+        <v>1</v>
+      </c>
+      <c r="T108" s="8"/>
+      <c r="U108" s="15">
+        <v>1</v>
+      </c>
+      <c r="V108" s="15">
+        <v>5</v>
+      </c>
+      <c r="W108" s="15">
+        <v>0</v>
+      </c>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB108" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AE108" s="19"/>
+    </row>
+    <row r="109" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="7">
+        <v>2700415</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7">
+        <v>27</v>
+      </c>
+      <c r="J109" s="7">
+        <v>104</v>
+      </c>
+      <c r="K109" s="15">
+        <v>0</v>
+      </c>
+      <c r="L109" s="15">
+        <v>0</v>
+      </c>
+      <c r="M109" s="15">
+        <v>0</v>
+      </c>
+      <c r="N109" s="15">
+        <v>0</v>
+      </c>
+      <c r="O109" s="15">
+        <v>0</v>
+      </c>
+      <c r="P109" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R109" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S109" s="15">
+        <v>1</v>
+      </c>
+      <c r="T109" s="8"/>
+      <c r="U109" s="15">
+        <v>1</v>
+      </c>
+      <c r="V109" s="15">
+        <v>5</v>
+      </c>
+      <c r="W109" s="15">
+        <v>0</v>
+      </c>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB109" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="19"/>
+    </row>
+    <row r="110" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="7">
+        <v>2700416</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7">
+        <v>27</v>
+      </c>
+      <c r="J110" s="7">
+        <v>104</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0</v>
+      </c>
+      <c r="L110" s="15">
+        <v>0</v>
+      </c>
+      <c r="M110" s="15">
+        <v>0</v>
+      </c>
+      <c r="N110" s="15">
+        <v>0</v>
+      </c>
+      <c r="O110" s="15">
+        <v>0</v>
+      </c>
+      <c r="P110" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R110" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S110" s="15">
+        <v>1</v>
+      </c>
+      <c r="T110" s="8"/>
+      <c r="U110" s="15">
+        <v>1</v>
+      </c>
+      <c r="V110" s="15">
+        <v>5</v>
+      </c>
+      <c r="W110" s="15">
+        <v>0</v>
+      </c>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB110" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC110" s="15"/>
+      <c r="AD110" s="15"/>
+      <c r="AE110" s="19"/>
+    </row>
+    <row r="111" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="7">
+        <v>2700417</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7">
+        <v>27</v>
+      </c>
+      <c r="J111" s="7">
+        <v>104</v>
+      </c>
+      <c r="K111" s="15">
+        <v>0</v>
+      </c>
+      <c r="L111" s="15">
+        <v>0</v>
+      </c>
+      <c r="M111" s="15">
+        <v>0</v>
+      </c>
+      <c r="N111" s="15">
+        <v>0</v>
+      </c>
+      <c r="O111" s="15">
+        <v>0</v>
+      </c>
+      <c r="P111" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R111" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S111" s="15">
+        <v>1</v>
+      </c>
+      <c r="T111" s="8"/>
+      <c r="U111" s="15">
+        <v>1</v>
+      </c>
+      <c r="V111" s="15">
+        <v>5</v>
+      </c>
+      <c r="W111" s="15">
+        <v>0</v>
+      </c>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB111" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC111" s="15"/>
+      <c r="AD111" s="15"/>
+      <c r="AE111" s="19"/>
+    </row>
+    <row r="112" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="7">
+        <v>2700418</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7">
+        <v>27</v>
+      </c>
+      <c r="J112" s="7">
+        <v>104</v>
+      </c>
+      <c r="K112" s="15">
+        <v>0</v>
+      </c>
+      <c r="L112" s="15">
+        <v>0</v>
+      </c>
+      <c r="M112" s="15">
+        <v>0</v>
+      </c>
+      <c r="N112" s="15">
+        <v>0</v>
+      </c>
+      <c r="O112" s="15">
+        <v>0</v>
+      </c>
+      <c r="P112" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R112" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S112" s="15">
+        <v>1</v>
+      </c>
+      <c r="T112" s="8"/>
+      <c r="U112" s="15">
+        <v>1</v>
+      </c>
+      <c r="V112" s="15">
+        <v>5</v>
+      </c>
+      <c r="W112" s="15">
+        <v>0</v>
+      </c>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB112" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC112" s="15"/>
+      <c r="AD112" s="15"/>
+      <c r="AE112" s="19"/>
+    </row>
+    <row r="113" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="7">
+        <v>2700419</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7">
+        <v>27</v>
+      </c>
+      <c r="J113" s="7">
+        <v>104</v>
+      </c>
+      <c r="K113" s="15">
+        <v>0</v>
+      </c>
+      <c r="L113" s="15">
+        <v>0</v>
+      </c>
+      <c r="M113" s="15">
+        <v>0</v>
+      </c>
+      <c r="N113" s="15">
+        <v>0</v>
+      </c>
+      <c r="O113" s="15">
+        <v>0</v>
+      </c>
+      <c r="P113" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R113" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S113" s="15">
+        <v>1</v>
+      </c>
+      <c r="T113" s="8"/>
+      <c r="U113" s="15">
+        <v>1</v>
+      </c>
+      <c r="V113" s="15">
+        <v>5</v>
+      </c>
+      <c r="W113" s="15">
+        <v>0</v>
+      </c>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB113" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC113" s="15"/>
+      <c r="AD113" s="15"/>
+      <c r="AE113" s="19"/>
+    </row>
+    <row r="114" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="7">
+        <v>2700420</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7">
+        <v>27</v>
+      </c>
+      <c r="J114" s="7">
+        <v>104</v>
+      </c>
+      <c r="K114" s="15">
+        <v>0</v>
+      </c>
+      <c r="L114" s="15">
+        <v>0</v>
+      </c>
+      <c r="M114" s="15">
+        <v>0</v>
+      </c>
+      <c r="N114" s="15">
+        <v>0</v>
+      </c>
+      <c r="O114" s="15">
+        <v>0</v>
+      </c>
+      <c r="P114" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R114" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S114" s="15">
+        <v>1</v>
+      </c>
+      <c r="T114" s="8"/>
+      <c r="U114" s="15">
+        <v>1</v>
+      </c>
+      <c r="V114" s="15">
+        <v>5</v>
+      </c>
+      <c r="W114" s="15">
+        <v>0</v>
+      </c>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB114" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC114" s="15"/>
+      <c r="AD114" s="15"/>
+      <c r="AE114" s="19"/>
+    </row>
+    <row r="115" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="7">
+        <v>2700501</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7">
+        <v>27</v>
+      </c>
+      <c r="J115" s="7">
+        <v>104</v>
+      </c>
+      <c r="K115" s="15">
+        <v>0</v>
+      </c>
+      <c r="L115" s="15">
+        <v>0</v>
+      </c>
+      <c r="M115" s="15">
+        <v>0</v>
+      </c>
+      <c r="N115" s="15">
+        <v>0</v>
+      </c>
+      <c r="O115" s="15">
+        <v>0</v>
+      </c>
+      <c r="P115" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R115" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S115" s="15">
+        <v>1</v>
+      </c>
+      <c r="T115" s="8"/>
+      <c r="U115" s="15">
+        <v>1</v>
+      </c>
+      <c r="V115" s="15">
+        <v>5</v>
+      </c>
+      <c r="W115" s="15">
+        <v>0</v>
+      </c>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB115" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AE115" s="19"/>
+    </row>
+    <row r="116" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="7">
+        <v>2700502</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7">
+        <v>27</v>
+      </c>
+      <c r="J116" s="7">
+        <v>104</v>
+      </c>
+      <c r="K116" s="15">
+        <v>0</v>
+      </c>
+      <c r="L116" s="15">
+        <v>0</v>
+      </c>
+      <c r="M116" s="15">
+        <v>0</v>
+      </c>
+      <c r="N116" s="15">
+        <v>0</v>
+      </c>
+      <c r="O116" s="15">
+        <v>0</v>
+      </c>
+      <c r="P116" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R116" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S116" s="15">
+        <v>1</v>
+      </c>
+      <c r="T116" s="8"/>
+      <c r="U116" s="15">
+        <v>1</v>
+      </c>
+      <c r="V116" s="15">
+        <v>5</v>
+      </c>
+      <c r="W116" s="15">
+        <v>0</v>
+      </c>
+      <c r="X116" s="15"/>
+      <c r="Y116" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB116" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC116" s="15"/>
+      <c r="AD116" s="15"/>
+      <c r="AE116" s="19"/>
+    </row>
+    <row r="117" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="7">
+        <v>2700503</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7">
+        <v>27</v>
+      </c>
+      <c r="J117" s="7">
+        <v>104</v>
+      </c>
+      <c r="K117" s="15">
+        <v>0</v>
+      </c>
+      <c r="L117" s="15">
+        <v>0</v>
+      </c>
+      <c r="M117" s="15">
+        <v>0</v>
+      </c>
+      <c r="N117" s="15">
+        <v>0</v>
+      </c>
+      <c r="O117" s="15">
+        <v>0</v>
+      </c>
+      <c r="P117" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R117" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S117" s="15">
+        <v>1</v>
+      </c>
+      <c r="T117" s="8"/>
+      <c r="U117" s="15">
+        <v>1</v>
+      </c>
+      <c r="V117" s="15">
+        <v>5</v>
+      </c>
+      <c r="W117" s="15">
+        <v>0</v>
+      </c>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z117" s="8"/>
+      <c r="AA117" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB117" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="19"/>
+    </row>
+    <row r="118" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="7">
+        <v>2700504</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7">
+        <v>27</v>
+      </c>
+      <c r="J118" s="7">
+        <v>104</v>
+      </c>
+      <c r="K118" s="15">
+        <v>0</v>
+      </c>
+      <c r="L118" s="15">
+        <v>0</v>
+      </c>
+      <c r="M118" s="15">
+        <v>0</v>
+      </c>
+      <c r="N118" s="15">
+        <v>0</v>
+      </c>
+      <c r="O118" s="15">
+        <v>0</v>
+      </c>
+      <c r="P118" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R118" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S118" s="15">
+        <v>1</v>
+      </c>
+      <c r="T118" s="8"/>
+      <c r="U118" s="15">
+        <v>1</v>
+      </c>
+      <c r="V118" s="15">
+        <v>5</v>
+      </c>
+      <c r="W118" s="15">
+        <v>0</v>
+      </c>
+      <c r="X118" s="15"/>
+      <c r="Y118" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z118" s="8"/>
+      <c r="AA118" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB118" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC118" s="15"/>
+      <c r="AD118" s="15"/>
+      <c r="AE118" s="19"/>
+    </row>
+    <row r="119" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="7">
+        <v>2700505</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7">
+        <v>27</v>
+      </c>
+      <c r="J119" s="7">
+        <v>104</v>
+      </c>
+      <c r="K119" s="15">
+        <v>0</v>
+      </c>
+      <c r="L119" s="15">
+        <v>0</v>
+      </c>
+      <c r="M119" s="15">
+        <v>0</v>
+      </c>
+      <c r="N119" s="15">
+        <v>0</v>
+      </c>
+      <c r="O119" s="15">
+        <v>0</v>
+      </c>
+      <c r="P119" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R119" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S119" s="15">
+        <v>1</v>
+      </c>
+      <c r="T119" s="8"/>
+      <c r="U119" s="15">
+        <v>1</v>
+      </c>
+      <c r="V119" s="15">
+        <v>5</v>
+      </c>
+      <c r="W119" s="15">
+        <v>0</v>
+      </c>
+      <c r="X119" s="15"/>
+      <c r="Y119" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z119" s="8"/>
+      <c r="AA119" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB119" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC119" s="15"/>
+      <c r="AD119" s="15"/>
+      <c r="AE119" s="19"/>
+    </row>
+    <row r="120" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="7">
+        <v>2700506</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7">
+        <v>27</v>
+      </c>
+      <c r="J120" s="7">
+        <v>104</v>
+      </c>
+      <c r="K120" s="15">
+        <v>0</v>
+      </c>
+      <c r="L120" s="15">
+        <v>0</v>
+      </c>
+      <c r="M120" s="15">
+        <v>0</v>
+      </c>
+      <c r="N120" s="15">
+        <v>0</v>
+      </c>
+      <c r="O120" s="15">
+        <v>0</v>
+      </c>
+      <c r="P120" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R120" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S120" s="15">
+        <v>1</v>
+      </c>
+      <c r="T120" s="8"/>
+      <c r="U120" s="15">
+        <v>1</v>
+      </c>
+      <c r="V120" s="15">
+        <v>5</v>
+      </c>
+      <c r="W120" s="15">
+        <v>0</v>
+      </c>
+      <c r="X120" s="15"/>
+      <c r="Y120" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z120" s="8"/>
+      <c r="AA120" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB120" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC120" s="15"/>
+      <c r="AD120" s="15"/>
+      <c r="AE120" s="19"/>
+    </row>
+    <row r="121" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="7">
+        <v>2700507</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7">
+        <v>27</v>
+      </c>
+      <c r="J121" s="7">
+        <v>104</v>
+      </c>
+      <c r="K121" s="15">
+        <v>0</v>
+      </c>
+      <c r="L121" s="15">
+        <v>0</v>
+      </c>
+      <c r="M121" s="15">
+        <v>0</v>
+      </c>
+      <c r="N121" s="15">
+        <v>0</v>
+      </c>
+      <c r="O121" s="15">
+        <v>0</v>
+      </c>
+      <c r="P121" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R121" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S121" s="15">
+        <v>1</v>
+      </c>
+      <c r="T121" s="8"/>
+      <c r="U121" s="15">
+        <v>1</v>
+      </c>
+      <c r="V121" s="15">
+        <v>5</v>
+      </c>
+      <c r="W121" s="15">
+        <v>0</v>
+      </c>
+      <c r="X121" s="15"/>
+      <c r="Y121" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB121" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC121" s="15"/>
+      <c r="AD121" s="15"/>
+      <c r="AE121" s="19"/>
+    </row>
+    <row r="122" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="7">
+        <v>2700508</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7">
+        <v>27</v>
+      </c>
+      <c r="J122" s="7">
+        <v>104</v>
+      </c>
+      <c r="K122" s="15">
+        <v>0</v>
+      </c>
+      <c r="L122" s="15">
+        <v>0</v>
+      </c>
+      <c r="M122" s="15">
+        <v>0</v>
+      </c>
+      <c r="N122" s="15">
+        <v>0</v>
+      </c>
+      <c r="O122" s="15">
+        <v>0</v>
+      </c>
+      <c r="P122" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R122" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S122" s="15">
+        <v>1</v>
+      </c>
+      <c r="T122" s="8"/>
+      <c r="U122" s="15">
+        <v>1</v>
+      </c>
+      <c r="V122" s="15">
+        <v>5</v>
+      </c>
+      <c r="W122" s="15">
+        <v>0</v>
+      </c>
+      <c r="X122" s="15"/>
+      <c r="Y122" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z122" s="8"/>
+      <c r="AA122" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB122" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC122" s="15"/>
+      <c r="AD122" s="15"/>
+      <c r="AE122" s="19"/>
+    </row>
+    <row r="123" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="7">
+        <v>2700509</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7">
+        <v>27</v>
+      </c>
+      <c r="J123" s="7">
+        <v>104</v>
+      </c>
+      <c r="K123" s="15">
+        <v>0</v>
+      </c>
+      <c r="L123" s="15">
+        <v>0</v>
+      </c>
+      <c r="M123" s="15">
+        <v>0</v>
+      </c>
+      <c r="N123" s="15">
+        <v>0</v>
+      </c>
+      <c r="O123" s="15">
+        <v>0</v>
+      </c>
+      <c r="P123" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R123" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S123" s="15">
+        <v>1</v>
+      </c>
+      <c r="T123" s="8"/>
+      <c r="U123" s="15">
+        <v>1</v>
+      </c>
+      <c r="V123" s="15">
+        <v>5</v>
+      </c>
+      <c r="W123" s="15">
+        <v>0</v>
+      </c>
+      <c r="X123" s="15"/>
+      <c r="Y123" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z123" s="8"/>
+      <c r="AA123" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB123" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC123" s="15"/>
+      <c r="AD123" s="15"/>
+      <c r="AE123" s="19"/>
+    </row>
+    <row r="124" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="7">
+        <v>2700510</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7">
+        <v>27</v>
+      </c>
+      <c r="J124" s="7">
+        <v>104</v>
+      </c>
+      <c r="K124" s="15">
+        <v>0</v>
+      </c>
+      <c r="L124" s="15">
+        <v>0</v>
+      </c>
+      <c r="M124" s="15">
+        <v>0</v>
+      </c>
+      <c r="N124" s="15">
+        <v>0</v>
+      </c>
+      <c r="O124" s="15">
+        <v>0</v>
+      </c>
+      <c r="P124" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R124" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S124" s="15">
+        <v>1</v>
+      </c>
+      <c r="T124" s="8"/>
+      <c r="U124" s="15">
+        <v>1</v>
+      </c>
+      <c r="V124" s="15">
+        <v>5</v>
+      </c>
+      <c r="W124" s="15">
+        <v>0</v>
+      </c>
+      <c r="X124" s="15"/>
+      <c r="Y124" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z124" s="8"/>
+      <c r="AA124" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB124" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC124" s="15"/>
+      <c r="AD124" s="15"/>
+      <c r="AE124" s="19"/>
+    </row>
+    <row r="125" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="7">
+        <v>2700511</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7">
+        <v>27</v>
+      </c>
+      <c r="J125" s="7">
+        <v>104</v>
+      </c>
+      <c r="K125" s="15">
+        <v>0</v>
+      </c>
+      <c r="L125" s="15">
+        <v>0</v>
+      </c>
+      <c r="M125" s="15">
+        <v>0</v>
+      </c>
+      <c r="N125" s="15">
+        <v>0</v>
+      </c>
+      <c r="O125" s="15">
+        <v>0</v>
+      </c>
+      <c r="P125" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R125" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S125" s="15">
+        <v>1</v>
+      </c>
+      <c r="T125" s="8"/>
+      <c r="U125" s="15">
+        <v>1</v>
+      </c>
+      <c r="V125" s="15">
+        <v>5</v>
+      </c>
+      <c r="W125" s="15">
+        <v>0</v>
+      </c>
+      <c r="X125" s="15"/>
+      <c r="Y125" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z125" s="8"/>
+      <c r="AA125" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB125" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC125" s="15"/>
+      <c r="AD125" s="15"/>
+      <c r="AE125" s="19"/>
+    </row>
+    <row r="126" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="7">
+        <v>2700512</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7">
+        <v>27</v>
+      </c>
+      <c r="J126" s="7">
+        <v>104</v>
+      </c>
+      <c r="K126" s="15">
+        <v>0</v>
+      </c>
+      <c r="L126" s="15">
+        <v>0</v>
+      </c>
+      <c r="M126" s="15">
+        <v>0</v>
+      </c>
+      <c r="N126" s="15">
+        <v>0</v>
+      </c>
+      <c r="O126" s="15">
+        <v>0</v>
+      </c>
+      <c r="P126" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R126" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S126" s="15">
+        <v>1</v>
+      </c>
+      <c r="T126" s="8"/>
+      <c r="U126" s="15">
+        <v>1</v>
+      </c>
+      <c r="V126" s="15">
+        <v>5</v>
+      </c>
+      <c r="W126" s="15">
+        <v>0</v>
+      </c>
+      <c r="X126" s="15"/>
+      <c r="Y126" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z126" s="8"/>
+      <c r="AA126" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB126" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC126" s="15"/>
+      <c r="AD126" s="15"/>
+      <c r="AE126" s="19"/>
+    </row>
+    <row r="127" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="7">
+        <v>2700513</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7">
+        <v>27</v>
+      </c>
+      <c r="J127" s="7">
+        <v>104</v>
+      </c>
+      <c r="K127" s="15">
+        <v>0</v>
+      </c>
+      <c r="L127" s="15">
+        <v>0</v>
+      </c>
+      <c r="M127" s="15">
+        <v>0</v>
+      </c>
+      <c r="N127" s="15">
+        <v>0</v>
+      </c>
+      <c r="O127" s="15">
+        <v>0</v>
+      </c>
+      <c r="P127" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R127" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S127" s="15">
+        <v>1</v>
+      </c>
+      <c r="T127" s="8"/>
+      <c r="U127" s="15">
+        <v>1</v>
+      </c>
+      <c r="V127" s="15">
+        <v>5</v>
+      </c>
+      <c r="W127" s="15">
+        <v>0</v>
+      </c>
+      <c r="X127" s="15"/>
+      <c r="Y127" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z127" s="8"/>
+      <c r="AA127" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB127" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC127" s="15"/>
+      <c r="AD127" s="15"/>
+      <c r="AE127" s="19"/>
+    </row>
+    <row r="128" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="7">
+        <v>2700514</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7">
+        <v>27</v>
+      </c>
+      <c r="J128" s="7">
+        <v>104</v>
+      </c>
+      <c r="K128" s="15">
+        <v>0</v>
+      </c>
+      <c r="L128" s="15">
+        <v>0</v>
+      </c>
+      <c r="M128" s="15">
+        <v>0</v>
+      </c>
+      <c r="N128" s="15">
+        <v>0</v>
+      </c>
+      <c r="O128" s="15">
+        <v>0</v>
+      </c>
+      <c r="P128" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R128" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S128" s="15">
+        <v>1</v>
+      </c>
+      <c r="T128" s="8"/>
+      <c r="U128" s="15">
+        <v>1</v>
+      </c>
+      <c r="V128" s="15">
+        <v>5</v>
+      </c>
+      <c r="W128" s="15">
+        <v>0</v>
+      </c>
+      <c r="X128" s="15"/>
+      <c r="Y128" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z128" s="8"/>
+      <c r="AA128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB128" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC128" s="15"/>
+      <c r="AD128" s="15"/>
+      <c r="AE128" s="19"/>
+    </row>
+    <row r="129" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="7">
+        <v>2700515</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7">
+        <v>27</v>
+      </c>
+      <c r="J129" s="7">
+        <v>104</v>
+      </c>
+      <c r="K129" s="15">
+        <v>0</v>
+      </c>
+      <c r="L129" s="15">
+        <v>0</v>
+      </c>
+      <c r="M129" s="15">
+        <v>0</v>
+      </c>
+      <c r="N129" s="15">
+        <v>0</v>
+      </c>
+      <c r="O129" s="15">
+        <v>0</v>
+      </c>
+      <c r="P129" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R129" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S129" s="15">
+        <v>1</v>
+      </c>
+      <c r="T129" s="8"/>
+      <c r="U129" s="15">
+        <v>1</v>
+      </c>
+      <c r="V129" s="15">
+        <v>5</v>
+      </c>
+      <c r="W129" s="15">
+        <v>0</v>
+      </c>
+      <c r="X129" s="15"/>
+      <c r="Y129" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z129" s="8"/>
+      <c r="AA129" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB129" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC129" s="15"/>
+      <c r="AD129" s="15"/>
+      <c r="AE129" s="19"/>
+    </row>
+    <row r="130" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="7">
+        <v>2700516</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7">
+        <v>27</v>
+      </c>
+      <c r="J130" s="7">
+        <v>104</v>
+      </c>
+      <c r="K130" s="15">
+        <v>0</v>
+      </c>
+      <c r="L130" s="15">
+        <v>0</v>
+      </c>
+      <c r="M130" s="15">
+        <v>0</v>
+      </c>
+      <c r="N130" s="15">
+        <v>0</v>
+      </c>
+      <c r="O130" s="15">
+        <v>0</v>
+      </c>
+      <c r="P130" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R130" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S130" s="15">
+        <v>1</v>
+      </c>
+      <c r="T130" s="8"/>
+      <c r="U130" s="15">
+        <v>1</v>
+      </c>
+      <c r="V130" s="15">
+        <v>5</v>
+      </c>
+      <c r="W130" s="15">
+        <v>0</v>
+      </c>
+      <c r="X130" s="15"/>
+      <c r="Y130" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z130" s="8"/>
+      <c r="AA130" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB130" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC130" s="15"/>
+      <c r="AD130" s="15"/>
+      <c r="AE130" s="19"/>
+    </row>
+    <row r="131" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="7">
+        <v>2700517</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7">
+        <v>27</v>
+      </c>
+      <c r="J131" s="7">
+        <v>104</v>
+      </c>
+      <c r="K131" s="15">
+        <v>0</v>
+      </c>
+      <c r="L131" s="15">
+        <v>0</v>
+      </c>
+      <c r="M131" s="15">
+        <v>0</v>
+      </c>
+      <c r="N131" s="15">
+        <v>0</v>
+      </c>
+      <c r="O131" s="15">
+        <v>0</v>
+      </c>
+      <c r="P131" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R131" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S131" s="15">
+        <v>1</v>
+      </c>
+      <c r="T131" s="8"/>
+      <c r="U131" s="15">
+        <v>1</v>
+      </c>
+      <c r="V131" s="15">
+        <v>5</v>
+      </c>
+      <c r="W131" s="15">
+        <v>0</v>
+      </c>
+      <c r="X131" s="15"/>
+      <c r="Y131" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z131" s="8"/>
+      <c r="AA131" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB131" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC131" s="15"/>
+      <c r="AD131" s="15"/>
+      <c r="AE131" s="19"/>
+    </row>
+    <row r="132" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="7">
+        <v>2700518</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7">
+        <v>27</v>
+      </c>
+      <c r="J132" s="7">
+        <v>104</v>
+      </c>
+      <c r="K132" s="15">
+        <v>0</v>
+      </c>
+      <c r="L132" s="15">
+        <v>0</v>
+      </c>
+      <c r="M132" s="15">
+        <v>0</v>
+      </c>
+      <c r="N132" s="15">
+        <v>0</v>
+      </c>
+      <c r="O132" s="15">
+        <v>0</v>
+      </c>
+      <c r="P132" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R132" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S132" s="15">
+        <v>1</v>
+      </c>
+      <c r="T132" s="8"/>
+      <c r="U132" s="15">
+        <v>1</v>
+      </c>
+      <c r="V132" s="15">
+        <v>5</v>
+      </c>
+      <c r="W132" s="15">
+        <v>0</v>
+      </c>
+      <c r="X132" s="15"/>
+      <c r="Y132" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z132" s="8"/>
+      <c r="AA132" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB132" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC132" s="15"/>
+      <c r="AD132" s="15"/>
+      <c r="AE132" s="19"/>
+    </row>
+    <row r="133" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="7">
+        <v>2700519</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7">
+        <v>27</v>
+      </c>
+      <c r="J133" s="7">
+        <v>104</v>
+      </c>
+      <c r="K133" s="15">
+        <v>0</v>
+      </c>
+      <c r="L133" s="15">
+        <v>0</v>
+      </c>
+      <c r="M133" s="15">
+        <v>0</v>
+      </c>
+      <c r="N133" s="15">
+        <v>0</v>
+      </c>
+      <c r="O133" s="15">
+        <v>0</v>
+      </c>
+      <c r="P133" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R133" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S133" s="15">
+        <v>1</v>
+      </c>
+      <c r="T133" s="8"/>
+      <c r="U133" s="15">
+        <v>1</v>
+      </c>
+      <c r="V133" s="15">
+        <v>5</v>
+      </c>
+      <c r="W133" s="15">
+        <v>0</v>
+      </c>
+      <c r="X133" s="15"/>
+      <c r="Y133" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z133" s="8"/>
+      <c r="AA133" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB133" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC133" s="15"/>
+      <c r="AD133" s="15"/>
+      <c r="AE133" s="19"/>
+    </row>
+    <row r="134" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="7">
+        <v>2700520</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7">
+        <v>27</v>
+      </c>
+      <c r="J134" s="7">
+        <v>104</v>
+      </c>
+      <c r="K134" s="15">
+        <v>0</v>
+      </c>
+      <c r="L134" s="15">
+        <v>0</v>
+      </c>
+      <c r="M134" s="15">
+        <v>0</v>
+      </c>
+      <c r="N134" s="15">
+        <v>0</v>
+      </c>
+      <c r="O134" s="15">
+        <v>0</v>
+      </c>
+      <c r="P134" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R134" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S134" s="15">
+        <v>1</v>
+      </c>
+      <c r="T134" s="8"/>
+      <c r="U134" s="15">
+        <v>1</v>
+      </c>
+      <c r="V134" s="15">
+        <v>5</v>
+      </c>
+      <c r="W134" s="15">
+        <v>0</v>
+      </c>
+      <c r="X134" s="15"/>
+      <c r="Y134" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z134" s="8"/>
+      <c r="AA134" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB134" s="15">
+        <v>28000</v>
+      </c>
+      <c r="AC134" s="15"/>
+      <c r="AD134" s="15"/>
+      <c r="AE134" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FD51D2-67B5-4455-9508-50F8A8FEDA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A24706-7EEC-43CE-BD5D-9A6F23F7374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="276">
   <si>
     <t>Id</t>
   </si>
@@ -861,9 +861,6 @@
     <t>0,0,-1000</t>
   </si>
   <si>
-    <t>100102,100103,100104,100111,100112</t>
-  </si>
-  <si>
     <t>10000152;10</t>
   </si>
   <si>
@@ -1174,6 +1171,106 @@
   </si>
   <si>
     <t>征程5章-20关</t>
+  </si>
+  <si>
+    <t>510400,510401</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>510800,510801</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>511200,511201</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>511600,511601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>512000,512001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>520400,520401</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>520800,520801</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>521200,521201</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>521600,521601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>522000,522001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>530400,530401</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>530800,530801</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>531200,531201</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>531600,531601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>532000,532001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>540400,540401</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>540800,540801</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>541200,541201</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>541600,541601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>542000,542001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>550400,550401</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>550800,550801</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>551200,551201</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>551600,551601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>552000,552001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1805,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="N116" workbookViewId="0">
+      <selection activeCell="Y134" sqref="Y134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4182,7 +4279,7 @@
         <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -4234,12 +4331,12 @@
         <v>0</v>
       </c>
       <c r="X35" s="15"/>
-      <c r="Y35" s="21" t="s">
-        <v>148</v>
+      <c r="Y35" s="21">
+        <v>510100</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB35" s="15">
         <v>28000</v>
@@ -4253,7 +4350,7 @@
         <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -4305,12 +4402,12 @@
         <v>0</v>
       </c>
       <c r="X36" s="15"/>
-      <c r="Y36" s="21" t="s">
-        <v>148</v>
+      <c r="Y36" s="21">
+        <v>510200</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB36" s="15">
         <v>28000</v>
@@ -4324,7 +4421,7 @@
         <v>2700103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -4376,12 +4473,12 @@
         <v>0</v>
       </c>
       <c r="X37" s="15"/>
-      <c r="Y37" s="21" t="s">
-        <v>148</v>
+      <c r="Y37" s="21">
+        <v>510300</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB37" s="15">
         <v>28000</v>
@@ -4395,7 +4492,7 @@
         <v>2700104</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -4448,11 +4545,11 @@
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="21" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB38" s="15">
         <v>28000</v>
@@ -4466,7 +4563,7 @@
         <v>2700105</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -4518,12 +4615,12 @@
         <v>0</v>
       </c>
       <c r="X39" s="15"/>
-      <c r="Y39" s="21" t="s">
-        <v>148</v>
+      <c r="Y39" s="21">
+        <v>510500</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB39" s="15">
         <v>28000</v>
@@ -4537,7 +4634,7 @@
         <v>2700106</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -4589,12 +4686,12 @@
         <v>0</v>
       </c>
       <c r="X40" s="15"/>
-      <c r="Y40" s="21" t="s">
-        <v>148</v>
+      <c r="Y40" s="21">
+        <v>510600</v>
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB40" s="15">
         <v>28000</v>
@@ -4608,7 +4705,7 @@
         <v>2700107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -4660,12 +4757,12 @@
         <v>0</v>
       </c>
       <c r="X41" s="15"/>
-      <c r="Y41" s="21" t="s">
-        <v>148</v>
+      <c r="Y41" s="21">
+        <v>510700</v>
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB41" s="15">
         <v>28000</v>
@@ -4679,7 +4776,7 @@
         <v>2700108</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -4732,11 +4829,11 @@
       </c>
       <c r="X42" s="15"/>
       <c r="Y42" s="21" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB42" s="15">
         <v>28000</v>
@@ -4750,7 +4847,7 @@
         <v>2700109</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4802,12 +4899,12 @@
         <v>0</v>
       </c>
       <c r="X43" s="15"/>
-      <c r="Y43" s="21" t="s">
-        <v>148</v>
+      <c r="Y43" s="21">
+        <v>510900</v>
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB43" s="15">
         <v>28000</v>
@@ -4821,7 +4918,7 @@
         <v>2700110</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -4873,12 +4970,12 @@
         <v>0</v>
       </c>
       <c r="X44" s="15"/>
-      <c r="Y44" s="21" t="s">
-        <v>148</v>
+      <c r="Y44" s="21">
+        <v>511000</v>
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB44" s="15">
         <v>28000</v>
@@ -4892,7 +4989,7 @@
         <v>2700111</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -4944,12 +5041,12 @@
         <v>0</v>
       </c>
       <c r="X45" s="15"/>
-      <c r="Y45" s="21" t="s">
-        <v>148</v>
+      <c r="Y45" s="21">
+        <v>511100</v>
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB45" s="15">
         <v>28000</v>
@@ -4963,7 +5060,7 @@
         <v>2700112</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -5016,11 +5113,11 @@
       </c>
       <c r="X46" s="15"/>
       <c r="Y46" s="21" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB46" s="15">
         <v>28000</v>
@@ -5034,7 +5131,7 @@
         <v>2700113</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -5086,12 +5183,12 @@
         <v>0</v>
       </c>
       <c r="X47" s="15"/>
-      <c r="Y47" s="21" t="s">
-        <v>148</v>
+      <c r="Y47" s="21">
+        <v>511300</v>
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB47" s="15">
         <v>28000</v>
@@ -5105,7 +5202,7 @@
         <v>2700114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -5157,12 +5254,12 @@
         <v>0</v>
       </c>
       <c r="X48" s="15"/>
-      <c r="Y48" s="21" t="s">
-        <v>148</v>
+      <c r="Y48" s="21">
+        <v>511400</v>
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB48" s="15">
         <v>28000</v>
@@ -5176,7 +5273,7 @@
         <v>2700115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -5228,12 +5325,12 @@
         <v>0</v>
       </c>
       <c r="X49" s="15"/>
-      <c r="Y49" s="21" t="s">
-        <v>148</v>
+      <c r="Y49" s="21">
+        <v>511500</v>
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB49" s="15">
         <v>28000</v>
@@ -5247,7 +5344,7 @@
         <v>2700116</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -5300,11 +5397,11 @@
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="21" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB50" s="15">
         <v>28000</v>
@@ -5318,7 +5415,7 @@
         <v>2700117</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -5370,12 +5467,12 @@
         <v>0</v>
       </c>
       <c r="X51" s="15"/>
-      <c r="Y51" s="21" t="s">
-        <v>148</v>
+      <c r="Y51" s="21">
+        <v>511700</v>
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB51" s="15">
         <v>28000</v>
@@ -5389,7 +5486,7 @@
         <v>2700118</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -5441,12 +5538,12 @@
         <v>0</v>
       </c>
       <c r="X52" s="15"/>
-      <c r="Y52" s="21" t="s">
-        <v>148</v>
+      <c r="Y52" s="21">
+        <v>511800</v>
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB52" s="15">
         <v>28000</v>
@@ -5460,7 +5557,7 @@
         <v>2700119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -5512,12 +5609,12 @@
         <v>0</v>
       </c>
       <c r="X53" s="15"/>
-      <c r="Y53" s="21" t="s">
-        <v>148</v>
+      <c r="Y53" s="21">
+        <v>511900</v>
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB53" s="15">
         <v>28000</v>
@@ -5531,7 +5628,7 @@
         <v>2700120</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -5584,11 +5681,11 @@
       </c>
       <c r="X54" s="15"/>
       <c r="Y54" s="21" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB54" s="15">
         <v>28000</v>
@@ -5602,7 +5699,7 @@
         <v>2700201</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -5654,12 +5751,12 @@
         <v>0</v>
       </c>
       <c r="X55" s="15"/>
-      <c r="Y55" s="21" t="s">
-        <v>148</v>
+      <c r="Y55" s="21">
+        <v>520100</v>
       </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB55" s="15">
         <v>28000</v>
@@ -5673,7 +5770,7 @@
         <v>2700202</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -5725,12 +5822,12 @@
         <v>0</v>
       </c>
       <c r="X56" s="15"/>
-      <c r="Y56" s="21" t="s">
-        <v>148</v>
+      <c r="Y56" s="21">
+        <v>520200</v>
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB56" s="15">
         <v>28000</v>
@@ -5744,7 +5841,7 @@
         <v>2700203</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -5796,12 +5893,12 @@
         <v>0</v>
       </c>
       <c r="X57" s="15"/>
-      <c r="Y57" s="21" t="s">
-        <v>148</v>
+      <c r="Y57" s="21">
+        <v>520300</v>
       </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB57" s="15">
         <v>28000</v>
@@ -5815,7 +5912,7 @@
         <v>2700204</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -5868,11 +5965,11 @@
       </c>
       <c r="X58" s="15"/>
       <c r="Y58" s="21" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB58" s="15">
         <v>28000</v>
@@ -5886,7 +5983,7 @@
         <v>2700205</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -5938,12 +6035,12 @@
         <v>0</v>
       </c>
       <c r="X59" s="15"/>
-      <c r="Y59" s="21" t="s">
-        <v>148</v>
+      <c r="Y59" s="21">
+        <v>520500</v>
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB59" s="15">
         <v>28000</v>
@@ -5957,7 +6054,7 @@
         <v>2700206</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -6009,12 +6106,12 @@
         <v>0</v>
       </c>
       <c r="X60" s="15"/>
-      <c r="Y60" s="21" t="s">
-        <v>148</v>
+      <c r="Y60" s="21">
+        <v>520600</v>
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB60" s="15">
         <v>28000</v>
@@ -6028,7 +6125,7 @@
         <v>2700207</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -6080,12 +6177,12 @@
         <v>0</v>
       </c>
       <c r="X61" s="15"/>
-      <c r="Y61" s="21" t="s">
-        <v>148</v>
+      <c r="Y61" s="21">
+        <v>520700</v>
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB61" s="15">
         <v>28000</v>
@@ -6099,7 +6196,7 @@
         <v>2700208</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -6152,11 +6249,11 @@
       </c>
       <c r="X62" s="15"/>
       <c r="Y62" s="21" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB62" s="15">
         <v>28000</v>
@@ -6170,7 +6267,7 @@
         <v>2700209</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -6222,12 +6319,12 @@
         <v>0</v>
       </c>
       <c r="X63" s="15"/>
-      <c r="Y63" s="21" t="s">
-        <v>148</v>
+      <c r="Y63" s="21">
+        <v>520900</v>
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB63" s="15">
         <v>28000</v>
@@ -6241,7 +6338,7 @@
         <v>2700210</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -6293,12 +6390,12 @@
         <v>0</v>
       </c>
       <c r="X64" s="15"/>
-      <c r="Y64" s="21" t="s">
-        <v>148</v>
+      <c r="Y64" s="21">
+        <v>521000</v>
       </c>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB64" s="15">
         <v>28000</v>
@@ -6312,7 +6409,7 @@
         <v>2700211</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -6364,12 +6461,12 @@
         <v>0</v>
       </c>
       <c r="X65" s="15"/>
-      <c r="Y65" s="21" t="s">
-        <v>148</v>
+      <c r="Y65" s="21">
+        <v>521100</v>
       </c>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB65" s="15">
         <v>28000</v>
@@ -6383,7 +6480,7 @@
         <v>2700212</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -6436,11 +6533,11 @@
       </c>
       <c r="X66" s="15"/>
       <c r="Y66" s="21" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB66" s="15">
         <v>28000</v>
@@ -6454,7 +6551,7 @@
         <v>2700213</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -6506,12 +6603,12 @@
         <v>0</v>
       </c>
       <c r="X67" s="15"/>
-      <c r="Y67" s="21" t="s">
-        <v>148</v>
+      <c r="Y67" s="21">
+        <v>521300</v>
       </c>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB67" s="15">
         <v>28000</v>
@@ -6525,7 +6622,7 @@
         <v>2700214</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -6577,12 +6674,12 @@
         <v>0</v>
       </c>
       <c r="X68" s="15"/>
-      <c r="Y68" s="21" t="s">
-        <v>148</v>
+      <c r="Y68" s="21">
+        <v>521400</v>
       </c>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB68" s="15">
         <v>28000</v>
@@ -6596,7 +6693,7 @@
         <v>2700215</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -6648,12 +6745,12 @@
         <v>0</v>
       </c>
       <c r="X69" s="15"/>
-      <c r="Y69" s="21" t="s">
-        <v>148</v>
+      <c r="Y69" s="21">
+        <v>521500</v>
       </c>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB69" s="15">
         <v>28000</v>
@@ -6667,7 +6764,7 @@
         <v>2700216</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -6720,11 +6817,11 @@
       </c>
       <c r="X70" s="15"/>
       <c r="Y70" s="21" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="Z70" s="8"/>
       <c r="AA70" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB70" s="15">
         <v>28000</v>
@@ -6738,7 +6835,7 @@
         <v>2700217</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -6790,12 +6887,12 @@
         <v>0</v>
       </c>
       <c r="X71" s="15"/>
-      <c r="Y71" s="21" t="s">
-        <v>148</v>
+      <c r="Y71" s="21">
+        <v>521700</v>
       </c>
       <c r="Z71" s="8"/>
       <c r="AA71" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB71" s="15">
         <v>28000</v>
@@ -6809,7 +6906,7 @@
         <v>2700218</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -6861,12 +6958,12 @@
         <v>0</v>
       </c>
       <c r="X72" s="15"/>
-      <c r="Y72" s="21" t="s">
-        <v>148</v>
+      <c r="Y72" s="21">
+        <v>521800</v>
       </c>
       <c r="Z72" s="8"/>
       <c r="AA72" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB72" s="15">
         <v>28000</v>
@@ -6880,7 +6977,7 @@
         <v>2700219</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -6932,12 +7029,12 @@
         <v>0</v>
       </c>
       <c r="X73" s="15"/>
-      <c r="Y73" s="21" t="s">
-        <v>148</v>
+      <c r="Y73" s="21">
+        <v>521900</v>
       </c>
       <c r="Z73" s="8"/>
       <c r="AA73" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB73" s="15">
         <v>28000</v>
@@ -6951,7 +7048,7 @@
         <v>2700220</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -7004,11 +7101,11 @@
       </c>
       <c r="X74" s="15"/>
       <c r="Y74" s="21" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB74" s="15">
         <v>28000</v>
@@ -7022,7 +7119,7 @@
         <v>2700301</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -7074,12 +7171,12 @@
         <v>0</v>
       </c>
       <c r="X75" s="15"/>
-      <c r="Y75" s="21" t="s">
-        <v>148</v>
+      <c r="Y75" s="21">
+        <v>530100</v>
       </c>
       <c r="Z75" s="8"/>
       <c r="AA75" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB75" s="15">
         <v>28000</v>
@@ -7093,7 +7190,7 @@
         <v>2700302</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -7145,12 +7242,12 @@
         <v>0</v>
       </c>
       <c r="X76" s="15"/>
-      <c r="Y76" s="21" t="s">
-        <v>148</v>
+      <c r="Y76" s="21">
+        <v>530200</v>
       </c>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB76" s="15">
         <v>28000</v>
@@ -7164,7 +7261,7 @@
         <v>2700303</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -7216,12 +7313,12 @@
         <v>0</v>
       </c>
       <c r="X77" s="15"/>
-      <c r="Y77" s="21" t="s">
-        <v>148</v>
+      <c r="Y77" s="21">
+        <v>530300</v>
       </c>
       <c r="Z77" s="8"/>
       <c r="AA77" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB77" s="15">
         <v>28000</v>
@@ -7235,7 +7332,7 @@
         <v>2700304</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -7288,11 +7385,11 @@
       </c>
       <c r="X78" s="15"/>
       <c r="Y78" s="21" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="Z78" s="8"/>
       <c r="AA78" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB78" s="15">
         <v>28000</v>
@@ -7306,7 +7403,7 @@
         <v>2700305</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -7358,12 +7455,12 @@
         <v>0</v>
       </c>
       <c r="X79" s="15"/>
-      <c r="Y79" s="21" t="s">
-        <v>148</v>
+      <c r="Y79" s="21">
+        <v>530500</v>
       </c>
       <c r="Z79" s="8"/>
       <c r="AA79" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB79" s="15">
         <v>28000</v>
@@ -7377,7 +7474,7 @@
         <v>2700306</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -7429,12 +7526,12 @@
         <v>0</v>
       </c>
       <c r="X80" s="15"/>
-      <c r="Y80" s="21" t="s">
-        <v>148</v>
+      <c r="Y80" s="21">
+        <v>530600</v>
       </c>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB80" s="15">
         <v>28000</v>
@@ -7448,7 +7545,7 @@
         <v>2700307</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -7500,12 +7597,12 @@
         <v>0</v>
       </c>
       <c r="X81" s="15"/>
-      <c r="Y81" s="21" t="s">
-        <v>148</v>
+      <c r="Y81" s="21">
+        <v>530700</v>
       </c>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB81" s="15">
         <v>28000</v>
@@ -7519,7 +7616,7 @@
         <v>2700308</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -7572,11 +7669,11 @@
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="21" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB82" s="15">
         <v>28000</v>
@@ -7590,7 +7687,7 @@
         <v>2700309</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -7642,12 +7739,12 @@
         <v>0</v>
       </c>
       <c r="X83" s="15"/>
-      <c r="Y83" s="21" t="s">
-        <v>148</v>
+      <c r="Y83" s="21">
+        <v>530900</v>
       </c>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB83" s="15">
         <v>28000</v>
@@ -7661,7 +7758,7 @@
         <v>2700310</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -7713,12 +7810,12 @@
         <v>0</v>
       </c>
       <c r="X84" s="15"/>
-      <c r="Y84" s="21" t="s">
-        <v>148</v>
+      <c r="Y84" s="21">
+        <v>531000</v>
       </c>
       <c r="Z84" s="8"/>
       <c r="AA84" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB84" s="15">
         <v>28000</v>
@@ -7732,7 +7829,7 @@
         <v>2700311</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -7784,12 +7881,12 @@
         <v>0</v>
       </c>
       <c r="X85" s="15"/>
-      <c r="Y85" s="21" t="s">
-        <v>148</v>
+      <c r="Y85" s="21">
+        <v>531100</v>
       </c>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB85" s="15">
         <v>28000</v>
@@ -7803,7 +7900,7 @@
         <v>2700312</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -7856,11 +7953,11 @@
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="21" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB86" s="15">
         <v>28000</v>
@@ -7874,7 +7971,7 @@
         <v>2700313</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -7926,12 +8023,12 @@
         <v>0</v>
       </c>
       <c r="X87" s="15"/>
-      <c r="Y87" s="21" t="s">
-        <v>148</v>
+      <c r="Y87" s="21">
+        <v>531300</v>
       </c>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB87" s="15">
         <v>28000</v>
@@ -7945,7 +8042,7 @@
         <v>2700314</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -7997,12 +8094,12 @@
         <v>0</v>
       </c>
       <c r="X88" s="15"/>
-      <c r="Y88" s="21" t="s">
-        <v>148</v>
+      <c r="Y88" s="21">
+        <v>531400</v>
       </c>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB88" s="15">
         <v>28000</v>
@@ -8016,7 +8113,7 @@
         <v>2700315</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -8068,12 +8165,12 @@
         <v>0</v>
       </c>
       <c r="X89" s="15"/>
-      <c r="Y89" s="21" t="s">
-        <v>148</v>
+      <c r="Y89" s="21">
+        <v>531500</v>
       </c>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB89" s="15">
         <v>28000</v>
@@ -8087,7 +8184,7 @@
         <v>2700316</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -8140,11 +8237,11 @@
       </c>
       <c r="X90" s="15"/>
       <c r="Y90" s="21" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB90" s="15">
         <v>28000</v>
@@ -8158,7 +8255,7 @@
         <v>2700317</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -8210,12 +8307,12 @@
         <v>0</v>
       </c>
       <c r="X91" s="15"/>
-      <c r="Y91" s="21" t="s">
-        <v>148</v>
+      <c r="Y91" s="21">
+        <v>531700</v>
       </c>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB91" s="15">
         <v>28000</v>
@@ -8229,7 +8326,7 @@
         <v>2700318</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -8281,12 +8378,12 @@
         <v>0</v>
       </c>
       <c r="X92" s="15"/>
-      <c r="Y92" s="21" t="s">
-        <v>148</v>
+      <c r="Y92" s="21">
+        <v>531800</v>
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB92" s="15">
         <v>28000</v>
@@ -8300,7 +8397,7 @@
         <v>2700319</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -8352,12 +8449,12 @@
         <v>0</v>
       </c>
       <c r="X93" s="15"/>
-      <c r="Y93" s="21" t="s">
-        <v>148</v>
+      <c r="Y93" s="21">
+        <v>531900</v>
       </c>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB93" s="15">
         <v>28000</v>
@@ -8371,7 +8468,7 @@
         <v>2700320</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -8424,11 +8521,11 @@
       </c>
       <c r="X94" s="15"/>
       <c r="Y94" s="21" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB94" s="15">
         <v>28000</v>
@@ -8442,7 +8539,7 @@
         <v>2700401</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -8494,12 +8591,12 @@
         <v>0</v>
       </c>
       <c r="X95" s="15"/>
-      <c r="Y95" s="21" t="s">
-        <v>148</v>
+      <c r="Y95" s="21">
+        <v>540100</v>
       </c>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB95" s="15">
         <v>28000</v>
@@ -8513,7 +8610,7 @@
         <v>2700402</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -8565,12 +8662,12 @@
         <v>0</v>
       </c>
       <c r="X96" s="15"/>
-      <c r="Y96" s="21" t="s">
-        <v>148</v>
+      <c r="Y96" s="21">
+        <v>540200</v>
       </c>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB96" s="15">
         <v>28000</v>
@@ -8584,7 +8681,7 @@
         <v>2700403</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -8636,12 +8733,12 @@
         <v>0</v>
       </c>
       <c r="X97" s="15"/>
-      <c r="Y97" s="21" t="s">
-        <v>148</v>
+      <c r="Y97" s="21">
+        <v>540300</v>
       </c>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB97" s="15">
         <v>28000</v>
@@ -8655,7 +8752,7 @@
         <v>2700404</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -8708,11 +8805,11 @@
       </c>
       <c r="X98" s="15"/>
       <c r="Y98" s="21" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB98" s="15">
         <v>28000</v>
@@ -8726,7 +8823,7 @@
         <v>2700405</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -8778,12 +8875,12 @@
         <v>0</v>
       </c>
       <c r="X99" s="15"/>
-      <c r="Y99" s="21" t="s">
-        <v>148</v>
+      <c r="Y99" s="21">
+        <v>540500</v>
       </c>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB99" s="15">
         <v>28000</v>
@@ -8797,7 +8894,7 @@
         <v>2700406</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -8849,12 +8946,12 @@
         <v>0</v>
       </c>
       <c r="X100" s="15"/>
-      <c r="Y100" s="21" t="s">
-        <v>148</v>
+      <c r="Y100" s="21">
+        <v>540600</v>
       </c>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB100" s="15">
         <v>28000</v>
@@ -8868,7 +8965,7 @@
         <v>2700407</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -8920,12 +9017,12 @@
         <v>0</v>
       </c>
       <c r="X101" s="15"/>
-      <c r="Y101" s="21" t="s">
-        <v>148</v>
+      <c r="Y101" s="21">
+        <v>540700</v>
       </c>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB101" s="15">
         <v>28000</v>
@@ -8939,7 +9036,7 @@
         <v>2700408</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -8992,11 +9089,11 @@
       </c>
       <c r="X102" s="15"/>
       <c r="Y102" s="21" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB102" s="15">
         <v>28000</v>
@@ -9010,7 +9107,7 @@
         <v>2700409</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -9062,12 +9159,12 @@
         <v>0</v>
       </c>
       <c r="X103" s="15"/>
-      <c r="Y103" s="21" t="s">
-        <v>148</v>
+      <c r="Y103" s="21">
+        <v>540900</v>
       </c>
       <c r="Z103" s="8"/>
       <c r="AA103" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB103" s="15">
         <v>28000</v>
@@ -9081,7 +9178,7 @@
         <v>2700410</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -9133,12 +9230,12 @@
         <v>0</v>
       </c>
       <c r="X104" s="15"/>
-      <c r="Y104" s="21" t="s">
-        <v>148</v>
+      <c r="Y104" s="21">
+        <v>541000</v>
       </c>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB104" s="15">
         <v>28000</v>
@@ -9152,7 +9249,7 @@
         <v>2700411</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -9204,12 +9301,12 @@
         <v>0</v>
       </c>
       <c r="X105" s="15"/>
-      <c r="Y105" s="21" t="s">
-        <v>148</v>
+      <c r="Y105" s="21">
+        <v>541100</v>
       </c>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB105" s="15">
         <v>28000</v>
@@ -9223,7 +9320,7 @@
         <v>2700412</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -9276,11 +9373,11 @@
       </c>
       <c r="X106" s="15"/>
       <c r="Y106" s="21" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB106" s="15">
         <v>28000</v>
@@ -9294,7 +9391,7 @@
         <v>2700413</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -9346,12 +9443,12 @@
         <v>0</v>
       </c>
       <c r="X107" s="15"/>
-      <c r="Y107" s="21" t="s">
-        <v>148</v>
+      <c r="Y107" s="21">
+        <v>541300</v>
       </c>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB107" s="15">
         <v>28000</v>
@@ -9365,7 +9462,7 @@
         <v>2700414</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -9417,12 +9514,12 @@
         <v>0</v>
       </c>
       <c r="X108" s="15"/>
-      <c r="Y108" s="21" t="s">
-        <v>148</v>
+      <c r="Y108" s="21">
+        <v>541400</v>
       </c>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB108" s="15">
         <v>28000</v>
@@ -9436,7 +9533,7 @@
         <v>2700415</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -9488,12 +9585,12 @@
         <v>0</v>
       </c>
       <c r="X109" s="15"/>
-      <c r="Y109" s="21" t="s">
-        <v>148</v>
+      <c r="Y109" s="21">
+        <v>541500</v>
       </c>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB109" s="15">
         <v>28000</v>
@@ -9507,7 +9604,7 @@
         <v>2700416</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -9560,11 +9657,11 @@
       </c>
       <c r="X110" s="15"/>
       <c r="Y110" s="21" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="Z110" s="8"/>
       <c r="AA110" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB110" s="15">
         <v>28000</v>
@@ -9578,7 +9675,7 @@
         <v>2700417</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -9630,12 +9727,12 @@
         <v>0</v>
       </c>
       <c r="X111" s="15"/>
-      <c r="Y111" s="21" t="s">
-        <v>148</v>
+      <c r="Y111" s="21">
+        <v>541700</v>
       </c>
       <c r="Z111" s="8"/>
       <c r="AA111" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB111" s="15">
         <v>28000</v>
@@ -9649,7 +9746,7 @@
         <v>2700418</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
@@ -9701,12 +9798,12 @@
         <v>0</v>
       </c>
       <c r="X112" s="15"/>
-      <c r="Y112" s="21" t="s">
-        <v>148</v>
+      <c r="Y112" s="21">
+        <v>541800</v>
       </c>
       <c r="Z112" s="8"/>
       <c r="AA112" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB112" s="15">
         <v>28000</v>
@@ -9720,7 +9817,7 @@
         <v>2700419</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
@@ -9772,12 +9869,12 @@
         <v>0</v>
       </c>
       <c r="X113" s="15"/>
-      <c r="Y113" s="21" t="s">
-        <v>148</v>
+      <c r="Y113" s="21">
+        <v>541900</v>
       </c>
       <c r="Z113" s="8"/>
       <c r="AA113" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB113" s="15">
         <v>28000</v>
@@ -9791,7 +9888,7 @@
         <v>2700420</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
@@ -9844,11 +9941,11 @@
       </c>
       <c r="X114" s="15"/>
       <c r="Y114" s="21" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="Z114" s="8"/>
       <c r="AA114" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB114" s="15">
         <v>28000</v>
@@ -9862,7 +9959,7 @@
         <v>2700501</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
@@ -9914,12 +10011,12 @@
         <v>0</v>
       </c>
       <c r="X115" s="15"/>
-      <c r="Y115" s="21" t="s">
-        <v>148</v>
+      <c r="Y115" s="21">
+        <v>550100</v>
       </c>
       <c r="Z115" s="8"/>
       <c r="AA115" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB115" s="15">
         <v>28000</v>
@@ -9933,7 +10030,7 @@
         <v>2700502</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
@@ -9985,12 +10082,12 @@
         <v>0</v>
       </c>
       <c r="X116" s="15"/>
-      <c r="Y116" s="21" t="s">
-        <v>148</v>
+      <c r="Y116" s="21">
+        <v>550200</v>
       </c>
       <c r="Z116" s="8"/>
       <c r="AA116" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB116" s="15">
         <v>28000</v>
@@ -10004,7 +10101,7 @@
         <v>2700503</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -10056,12 +10153,12 @@
         <v>0</v>
       </c>
       <c r="X117" s="15"/>
-      <c r="Y117" s="21" t="s">
-        <v>148</v>
+      <c r="Y117" s="21">
+        <v>550300</v>
       </c>
       <c r="Z117" s="8"/>
       <c r="AA117" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB117" s="15">
         <v>28000</v>
@@ -10075,7 +10172,7 @@
         <v>2700504</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -10128,11 +10225,11 @@
       </c>
       <c r="X118" s="15"/>
       <c r="Y118" s="21" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="Z118" s="8"/>
       <c r="AA118" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB118" s="15">
         <v>28000</v>
@@ -10146,7 +10243,7 @@
         <v>2700505</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -10198,12 +10295,12 @@
         <v>0</v>
       </c>
       <c r="X119" s="15"/>
-      <c r="Y119" s="21" t="s">
-        <v>148</v>
+      <c r="Y119" s="21">
+        <v>550500</v>
       </c>
       <c r="Z119" s="8"/>
       <c r="AA119" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB119" s="15">
         <v>28000</v>
@@ -10217,7 +10314,7 @@
         <v>2700506</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -10269,12 +10366,12 @@
         <v>0</v>
       </c>
       <c r="X120" s="15"/>
-      <c r="Y120" s="21" t="s">
-        <v>148</v>
+      <c r="Y120" s="21">
+        <v>550600</v>
       </c>
       <c r="Z120" s="8"/>
       <c r="AA120" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB120" s="15">
         <v>28000</v>
@@ -10288,7 +10385,7 @@
         <v>2700507</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -10340,12 +10437,12 @@
         <v>0</v>
       </c>
       <c r="X121" s="15"/>
-      <c r="Y121" s="21" t="s">
-        <v>148</v>
+      <c r="Y121" s="21">
+        <v>550700</v>
       </c>
       <c r="Z121" s="8"/>
       <c r="AA121" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB121" s="15">
         <v>28000</v>
@@ -10359,7 +10456,7 @@
         <v>2700508</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -10412,11 +10509,11 @@
       </c>
       <c r="X122" s="15"/>
       <c r="Y122" s="21" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="Z122" s="8"/>
       <c r="AA122" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB122" s="15">
         <v>28000</v>
@@ -10430,7 +10527,7 @@
         <v>2700509</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -10482,12 +10579,12 @@
         <v>0</v>
       </c>
       <c r="X123" s="15"/>
-      <c r="Y123" s="21" t="s">
-        <v>148</v>
+      <c r="Y123" s="21">
+        <v>550900</v>
       </c>
       <c r="Z123" s="8"/>
       <c r="AA123" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB123" s="15">
         <v>28000</v>
@@ -10501,7 +10598,7 @@
         <v>2700510</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -10553,12 +10650,12 @@
         <v>0</v>
       </c>
       <c r="X124" s="15"/>
-      <c r="Y124" s="21" t="s">
-        <v>148</v>
+      <c r="Y124" s="21">
+        <v>551000</v>
       </c>
       <c r="Z124" s="8"/>
       <c r="AA124" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB124" s="15">
         <v>28000</v>
@@ -10572,7 +10669,7 @@
         <v>2700511</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -10624,12 +10721,12 @@
         <v>0</v>
       </c>
       <c r="X125" s="15"/>
-      <c r="Y125" s="21" t="s">
-        <v>148</v>
+      <c r="Y125" s="21">
+        <v>551100</v>
       </c>
       <c r="Z125" s="8"/>
       <c r="AA125" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB125" s="15">
         <v>28000</v>
@@ -10643,7 +10740,7 @@
         <v>2700512</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -10696,11 +10793,11 @@
       </c>
       <c r="X126" s="15"/>
       <c r="Y126" s="21" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="Z126" s="8"/>
       <c r="AA126" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB126" s="15">
         <v>28000</v>
@@ -10714,7 +10811,7 @@
         <v>2700513</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -10766,12 +10863,12 @@
         <v>0</v>
       </c>
       <c r="X127" s="15"/>
-      <c r="Y127" s="21" t="s">
-        <v>148</v>
+      <c r="Y127" s="21">
+        <v>551300</v>
       </c>
       <c r="Z127" s="8"/>
       <c r="AA127" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB127" s="15">
         <v>28000</v>
@@ -10785,7 +10882,7 @@
         <v>2700514</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
@@ -10837,12 +10934,12 @@
         <v>0</v>
       </c>
       <c r="X128" s="15"/>
-      <c r="Y128" s="21" t="s">
-        <v>148</v>
+      <c r="Y128" s="21">
+        <v>551400</v>
       </c>
       <c r="Z128" s="8"/>
       <c r="AA128" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB128" s="15">
         <v>28000</v>
@@ -10856,7 +10953,7 @@
         <v>2700515</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -10908,12 +11005,12 @@
         <v>0</v>
       </c>
       <c r="X129" s="15"/>
-      <c r="Y129" s="21" t="s">
-        <v>148</v>
+      <c r="Y129" s="21">
+        <v>551500</v>
       </c>
       <c r="Z129" s="8"/>
       <c r="AA129" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB129" s="15">
         <v>28000</v>
@@ -10927,7 +11024,7 @@
         <v>2700516</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -10980,11 +11077,11 @@
       </c>
       <c r="X130" s="15"/>
       <c r="Y130" s="21" t="s">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="Z130" s="8"/>
       <c r="AA130" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB130" s="15">
         <v>28000</v>
@@ -10998,7 +11095,7 @@
         <v>2700517</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -11050,12 +11147,12 @@
         <v>0</v>
       </c>
       <c r="X131" s="15"/>
-      <c r="Y131" s="21" t="s">
-        <v>148</v>
+      <c r="Y131" s="21">
+        <v>551700</v>
       </c>
       <c r="Z131" s="8"/>
       <c r="AA131" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB131" s="15">
         <v>28000</v>
@@ -11069,7 +11166,7 @@
         <v>2700518</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -11121,12 +11218,12 @@
         <v>0</v>
       </c>
       <c r="X132" s="15"/>
-      <c r="Y132" s="21" t="s">
-        <v>148</v>
+      <c r="Y132" s="21">
+        <v>551800</v>
       </c>
       <c r="Z132" s="8"/>
       <c r="AA132" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB132" s="15">
         <v>28000</v>
@@ -11140,7 +11237,7 @@
         <v>2700519</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -11192,12 +11289,12 @@
         <v>0</v>
       </c>
       <c r="X133" s="15"/>
-      <c r="Y133" s="21" t="s">
-        <v>148</v>
+      <c r="Y133" s="21">
+        <v>551900</v>
       </c>
       <c r="Z133" s="8"/>
       <c r="AA133" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB133" s="15">
         <v>28000</v>
@@ -11211,7 +11308,7 @@
         <v>2700520</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -11264,11 +11361,11 @@
       </c>
       <c r="X134" s="15"/>
       <c r="Y134" s="21" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="Z134" s="8"/>
       <c r="AA134" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB134" s="15">
         <v>28000</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A24706-7EEC-43CE-BD5D-9A6F23F7374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A961E0E-824E-49F5-9F5E-7D3CE9EF514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N116" workbookViewId="0">
-      <selection activeCell="Y134" sqref="Y134"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A961E0E-824E-49F5-9F5E-7D3CE9EF514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799D6AD-82CC-467C-9C96-B35C9BA01E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="272">
   <si>
     <t>Id</t>
   </si>
@@ -506,9 +506,6 @@
     <t>1800,0,-1250</t>
   </si>
   <si>
-    <t>Back_11</t>
-  </si>
-  <si>
     <t>jiaowai_1</t>
   </si>
   <si>
@@ -533,9 +530,6 @@
     <t>ImgBig_12</t>
   </si>
   <si>
-    <t>Back_14</t>
-  </si>
-  <si>
     <t>shamo_1</t>
   </si>
   <si>
@@ -554,9 +548,6 @@
     <t>ImgBig_14</t>
   </si>
   <si>
-    <t>Back_15</t>
-  </si>
-  <si>
     <t>jiaowai_2</t>
   </si>
   <si>
@@ -573,9 +564,6 @@
   </si>
   <si>
     <t>ImgBig_11</t>
-  </si>
-  <si>
-    <t>Back_13</t>
   </si>
   <si>
     <t>jiaowai_3</t>
@@ -1902,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2299,35 +2287,35 @@
       <c r="J7" s="7">
         <v>104</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="17">
+        <v>101</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="15">
-        <v>1</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="U7" s="15">
         <v>2</v>
@@ -2342,10 +2330,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15">
@@ -2358,7 +2346,7 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2366,10 +2354,10 @@
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="23" t="s">
@@ -2382,35 +2370,35 @@
       <c r="J8" s="7">
         <v>104</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="17">
+        <v>102</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="U8" s="15">
         <v>2</v>
@@ -2425,10 +2413,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15">
@@ -2441,7 +2429,7 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2449,10 +2437,10 @@
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -2465,35 +2453,35 @@
       <c r="J9" s="7">
         <v>104</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="17">
+        <v>103</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0</v>
-      </c>
-      <c r="O9" s="15">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="U9" s="15">
         <v>2</v>
@@ -2508,10 +2496,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15">
@@ -2524,7 +2512,7 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2532,10 +2520,10 @@
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="23" t="s">
@@ -2548,8 +2536,8 @@
       <c r="J10" s="7">
         <v>104</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>95</v>
+      <c r="K10" s="17">
+        <v>104</v>
       </c>
       <c r="L10" s="15">
         <v>1</v>
@@ -2567,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U10" s="15">
         <v>2</v>
@@ -2591,10 +2579,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15">
@@ -2607,7 +2595,7 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2615,10 +2603,10 @@
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="23" t="s">
@@ -2631,8 +2619,8 @@
       <c r="J11" s="7">
         <v>104</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>95</v>
+      <c r="K11" s="17">
+        <v>105</v>
       </c>
       <c r="L11" s="15">
         <v>1</v>
@@ -2650,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U11" s="15">
         <v>2</v>
@@ -2674,10 +2662,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15">
@@ -2690,7 +2678,7 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2698,7 +2686,7 @@
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2713,7 +2701,7 @@
         <v>104</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L12" s="15">
         <v>1</v>
@@ -2731,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>66</v>
@@ -2751,7 +2739,7 @@
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2759,7 +2747,7 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2767,7 +2755,7 @@
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2782,7 +2770,7 @@
         <v>104</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L13" s="15">
         <v>1</v>
@@ -2800,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>66</v>
@@ -2820,7 +2808,7 @@
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2828,7 +2816,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2836,7 +2824,7 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2851,7 +2839,7 @@
         <v>104</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2869,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>66</v>
@@ -2889,7 +2877,7 @@
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2903,7 +2891,7 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2918,7 +2906,7 @@
         <v>104</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2936,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>66</v>
@@ -2956,7 +2944,7 @@
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -2970,7 +2958,7 @@
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -2987,7 +2975,7 @@
         <v>104</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L16" s="15">
         <v>1</v>
@@ -3005,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>66</v>
@@ -3014,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U16" s="15">
         <v>0</v>
@@ -3027,7 +3015,7 @@
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -3035,7 +3023,7 @@
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3043,7 +3031,7 @@
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -3051,7 +3039,7 @@
         <v>71</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3060,7 +3048,7 @@
         <v>104</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L17" s="15">
         <v>1</v>
@@ -3078,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>66</v>
@@ -3087,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -3102,7 +3090,7 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -3110,7 +3098,7 @@
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3118,7 +3106,7 @@
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -3151,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>66</v>
@@ -3171,7 +3159,7 @@
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -3179,7 +3167,7 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3187,7 +3175,7 @@
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -3195,7 +3183,7 @@
         <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>65</v>
@@ -3222,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>67</v>
@@ -3256,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3264,7 +3252,7 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3297,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>66</v>
@@ -3329,7 +3317,7 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3362,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>66</v>
@@ -3382,7 +3370,7 @@
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -3396,12 +3384,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3429,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>66</v>
@@ -3449,7 +3437,7 @@
       </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3463,15 +3451,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3498,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>66</v>
@@ -3507,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U23" s="15">
         <v>40</v>
@@ -3520,7 +3508,7 @@
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3528,7 +3516,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3536,15 +3524,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3571,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>66</v>
@@ -3580,7 +3568,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="U24" s="15">
         <v>40</v>
@@ -3593,7 +3581,7 @@
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3601,7 +3589,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3609,7 +3597,7 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3642,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>66</v>
@@ -3662,7 +3650,7 @@
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3676,7 +3664,7 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3709,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>66</v>
@@ -3729,7 +3717,7 @@
       </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3743,12 +3731,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3776,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>66</v>
@@ -3785,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U27" s="15">
         <v>100</v>
@@ -3804,7 +3792,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3812,12 +3800,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -3845,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>66</v>
@@ -3871,7 +3859,7 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3879,12 +3867,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -3912,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>66</v>
@@ -3938,7 +3926,7 @@
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3946,7 +3934,7 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -3979,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>66</v>
@@ -3999,7 +3987,7 @@
       </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -4013,12 +4001,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4046,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>66</v>
@@ -4072,7 +4060,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4080,7 +4068,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4113,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>66</v>
@@ -4145,7 +4133,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4178,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>66</v>
@@ -4198,7 +4186,7 @@
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -4212,7 +4200,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -4245,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>66</v>
@@ -4271,7 +4259,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4279,12 +4267,12 @@
         <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -4294,7 +4282,7 @@
         <v>104</v>
       </c>
       <c r="K35" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L35" s="15">
         <v>0</v>
@@ -4312,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>66</v>
@@ -4336,7 +4324,7 @@
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB35" s="15">
         <v>28000</v>
@@ -4350,12 +4338,12 @@
         <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -4365,7 +4353,7 @@
         <v>104</v>
       </c>
       <c r="K36" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L36" s="15">
         <v>0</v>
@@ -4383,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>66</v>
@@ -4407,7 +4395,7 @@
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AB36" s="15">
         <v>28000</v>
@@ -4421,12 +4409,12 @@
         <v>2700103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -4436,7 +4424,7 @@
         <v>104</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L37" s="15">
         <v>0</v>
@@ -4454,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>66</v>
@@ -4478,7 +4466,7 @@
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB37" s="15">
         <v>28000</v>
@@ -4492,12 +4480,12 @@
         <v>2700104</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
@@ -4507,7 +4495,7 @@
         <v>104</v>
       </c>
       <c r="K38" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L38" s="15">
         <v>0</v>
@@ -4525,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R38" s="8" t="s">
         <v>66</v>
@@ -4545,11 +4533,11 @@
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB38" s="15">
         <v>28000</v>
@@ -4563,12 +4551,12 @@
         <v>2700105</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7">
@@ -4578,7 +4566,7 @@
         <v>104</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L39" s="15">
         <v>0</v>
@@ -4596,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>66</v>
@@ -4620,7 +4608,7 @@
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB39" s="15">
         <v>28000</v>
@@ -4634,12 +4622,12 @@
         <v>2700106</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7">
@@ -4649,7 +4637,7 @@
         <v>104</v>
       </c>
       <c r="K40" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L40" s="15">
         <v>0</v>
@@ -4667,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R40" s="8" t="s">
         <v>66</v>
@@ -4691,7 +4679,7 @@
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB40" s="15">
         <v>28000</v>
@@ -4705,12 +4693,12 @@
         <v>2700107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7">
@@ -4720,7 +4708,7 @@
         <v>104</v>
       </c>
       <c r="K41" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L41" s="15">
         <v>0</v>
@@ -4738,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R41" s="8" t="s">
         <v>66</v>
@@ -4762,7 +4750,7 @@
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB41" s="15">
         <v>28000</v>
@@ -4776,12 +4764,12 @@
         <v>2700108</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7">
@@ -4791,7 +4779,7 @@
         <v>104</v>
       </c>
       <c r="K42" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L42" s="15">
         <v>0</v>
@@ -4809,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R42" s="8" t="s">
         <v>66</v>
@@ -4829,11 +4817,11 @@
       </c>
       <c r="X42" s="15"/>
       <c r="Y42" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB42" s="15">
         <v>28000</v>
@@ -4847,12 +4835,12 @@
         <v>2700109</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7">
@@ -4862,7 +4850,7 @@
         <v>104</v>
       </c>
       <c r="K43" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L43" s="15">
         <v>0</v>
@@ -4880,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>66</v>
@@ -4904,7 +4892,7 @@
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB43" s="15">
         <v>28000</v>
@@ -4918,12 +4906,12 @@
         <v>2700110</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7">
@@ -4933,7 +4921,7 @@
         <v>104</v>
       </c>
       <c r="K44" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L44" s="15">
         <v>0</v>
@@ -4951,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R44" s="8" t="s">
         <v>66</v>
@@ -4975,7 +4963,7 @@
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB44" s="15">
         <v>28000</v>
@@ -4989,12 +4977,12 @@
         <v>2700111</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7">
@@ -5004,7 +4992,7 @@
         <v>104</v>
       </c>
       <c r="K45" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L45" s="15">
         <v>0</v>
@@ -5022,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R45" s="8" t="s">
         <v>66</v>
@@ -5046,7 +5034,7 @@
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB45" s="15">
         <v>28000</v>
@@ -5060,12 +5048,12 @@
         <v>2700112</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7">
@@ -5075,7 +5063,7 @@
         <v>104</v>
       </c>
       <c r="K46" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L46" s="15">
         <v>0</v>
@@ -5093,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R46" s="8" t="s">
         <v>66</v>
@@ -5113,11 +5101,11 @@
       </c>
       <c r="X46" s="15"/>
       <c r="Y46" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB46" s="15">
         <v>28000</v>
@@ -5131,12 +5119,12 @@
         <v>2700113</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7">
@@ -5146,7 +5134,7 @@
         <v>104</v>
       </c>
       <c r="K47" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L47" s="15">
         <v>0</v>
@@ -5164,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R47" s="8" t="s">
         <v>66</v>
@@ -5188,7 +5176,7 @@
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB47" s="15">
         <v>28000</v>
@@ -5202,12 +5190,12 @@
         <v>2700114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7">
@@ -5217,7 +5205,7 @@
         <v>104</v>
       </c>
       <c r="K48" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L48" s="15">
         <v>0</v>
@@ -5235,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R48" s="8" t="s">
         <v>66</v>
@@ -5259,7 +5247,7 @@
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB48" s="15">
         <v>28000</v>
@@ -5273,12 +5261,12 @@
         <v>2700115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7">
@@ -5288,7 +5276,7 @@
         <v>104</v>
       </c>
       <c r="K49" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L49" s="15">
         <v>0</v>
@@ -5306,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R49" s="8" t="s">
         <v>66</v>
@@ -5330,7 +5318,7 @@
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB49" s="15">
         <v>28000</v>
@@ -5344,12 +5332,12 @@
         <v>2700116</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7">
@@ -5359,7 +5347,7 @@
         <v>104</v>
       </c>
       <c r="K50" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L50" s="15">
         <v>0</v>
@@ -5377,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R50" s="8" t="s">
         <v>66</v>
@@ -5397,11 +5385,11 @@
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB50" s="15">
         <v>28000</v>
@@ -5415,12 +5403,12 @@
         <v>2700117</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7">
@@ -5430,7 +5418,7 @@
         <v>104</v>
       </c>
       <c r="K51" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L51" s="15">
         <v>0</v>
@@ -5448,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R51" s="8" t="s">
         <v>66</v>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB51" s="15">
         <v>28000</v>
@@ -5486,12 +5474,12 @@
         <v>2700118</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
@@ -5501,7 +5489,7 @@
         <v>104</v>
       </c>
       <c r="K52" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L52" s="15">
         <v>0</v>
@@ -5519,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R52" s="8" t="s">
         <v>66</v>
@@ -5543,7 +5531,7 @@
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB52" s="15">
         <v>28000</v>
@@ -5557,12 +5545,12 @@
         <v>2700119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
@@ -5572,7 +5560,7 @@
         <v>104</v>
       </c>
       <c r="K53" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L53" s="15">
         <v>0</v>
@@ -5590,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>66</v>
@@ -5614,7 +5602,7 @@
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB53" s="15">
         <v>28000</v>
@@ -5628,12 +5616,12 @@
         <v>2700120</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7">
@@ -5643,7 +5631,7 @@
         <v>104</v>
       </c>
       <c r="K54" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L54" s="15">
         <v>0</v>
@@ -5661,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>66</v>
@@ -5681,11 +5669,11 @@
       </c>
       <c r="X54" s="15"/>
       <c r="Y54" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB54" s="15">
         <v>28000</v>
@@ -5699,12 +5687,12 @@
         <v>2700201</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
@@ -5714,7 +5702,7 @@
         <v>104</v>
       </c>
       <c r="K55" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L55" s="15">
         <v>0</v>
@@ -5732,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R55" s="8" t="s">
         <v>66</v>
@@ -5756,7 +5744,7 @@
       </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB55" s="15">
         <v>28000</v>
@@ -5770,12 +5758,12 @@
         <v>2700202</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
@@ -5785,7 +5773,7 @@
         <v>104</v>
       </c>
       <c r="K56" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L56" s="15">
         <v>0</v>
@@ -5803,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R56" s="8" t="s">
         <v>66</v>
@@ -5827,7 +5815,7 @@
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AB56" s="15">
         <v>28000</v>
@@ -5841,12 +5829,12 @@
         <v>2700203</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
@@ -5856,7 +5844,7 @@
         <v>104</v>
       </c>
       <c r="K57" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L57" s="15">
         <v>0</v>
@@ -5874,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R57" s="8" t="s">
         <v>66</v>
@@ -5898,7 +5886,7 @@
       </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB57" s="15">
         <v>28000</v>
@@ -5912,12 +5900,12 @@
         <v>2700204</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
@@ -5927,7 +5915,7 @@
         <v>104</v>
       </c>
       <c r="K58" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L58" s="15">
         <v>0</v>
@@ -5945,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R58" s="8" t="s">
         <v>66</v>
@@ -5965,11 +5953,11 @@
       </c>
       <c r="X58" s="15"/>
       <c r="Y58" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB58" s="15">
         <v>28000</v>
@@ -5983,12 +5971,12 @@
         <v>2700205</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7">
@@ -5998,7 +5986,7 @@
         <v>104</v>
       </c>
       <c r="K59" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L59" s="15">
         <v>0</v>
@@ -6016,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R59" s="8" t="s">
         <v>66</v>
@@ -6040,7 +6028,7 @@
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB59" s="15">
         <v>28000</v>
@@ -6054,12 +6042,12 @@
         <v>2700206</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7">
@@ -6069,7 +6057,7 @@
         <v>104</v>
       </c>
       <c r="K60" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L60" s="15">
         <v>0</v>
@@ -6087,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R60" s="8" t="s">
         <v>66</v>
@@ -6111,7 +6099,7 @@
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB60" s="15">
         <v>28000</v>
@@ -6125,12 +6113,12 @@
         <v>2700207</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7">
@@ -6140,7 +6128,7 @@
         <v>104</v>
       </c>
       <c r="K61" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L61" s="15">
         <v>0</v>
@@ -6158,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R61" s="8" t="s">
         <v>66</v>
@@ -6182,7 +6170,7 @@
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB61" s="15">
         <v>28000</v>
@@ -6196,12 +6184,12 @@
         <v>2700208</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7">
@@ -6211,7 +6199,7 @@
         <v>104</v>
       </c>
       <c r="K62" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L62" s="15">
         <v>0</v>
@@ -6229,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R62" s="8" t="s">
         <v>66</v>
@@ -6249,11 +6237,11 @@
       </c>
       <c r="X62" s="15"/>
       <c r="Y62" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB62" s="15">
         <v>28000</v>
@@ -6267,12 +6255,12 @@
         <v>2700209</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7">
@@ -6282,7 +6270,7 @@
         <v>104</v>
       </c>
       <c r="K63" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L63" s="15">
         <v>0</v>
@@ -6300,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R63" s="8" t="s">
         <v>66</v>
@@ -6324,7 +6312,7 @@
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB63" s="15">
         <v>28000</v>
@@ -6338,12 +6326,12 @@
         <v>2700210</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7">
@@ -6353,7 +6341,7 @@
         <v>104</v>
       </c>
       <c r="K64" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L64" s="15">
         <v>0</v>
@@ -6371,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R64" s="8" t="s">
         <v>66</v>
@@ -6395,7 +6383,7 @@
       </c>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB64" s="15">
         <v>28000</v>
@@ -6409,12 +6397,12 @@
         <v>2700211</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7">
@@ -6424,7 +6412,7 @@
         <v>104</v>
       </c>
       <c r="K65" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L65" s="15">
         <v>0</v>
@@ -6442,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>66</v>
@@ -6466,7 +6454,7 @@
       </c>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB65" s="15">
         <v>28000</v>
@@ -6480,12 +6468,12 @@
         <v>2700212</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7">
@@ -6495,7 +6483,7 @@
         <v>104</v>
       </c>
       <c r="K66" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L66" s="15">
         <v>0</v>
@@ -6513,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>66</v>
@@ -6533,11 +6521,11 @@
       </c>
       <c r="X66" s="15"/>
       <c r="Y66" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB66" s="15">
         <v>28000</v>
@@ -6551,12 +6539,12 @@
         <v>2700213</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7">
@@ -6566,7 +6554,7 @@
         <v>104</v>
       </c>
       <c r="K67" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L67" s="15">
         <v>0</v>
@@ -6584,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R67" s="8" t="s">
         <v>66</v>
@@ -6608,7 +6596,7 @@
       </c>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB67" s="15">
         <v>28000</v>
@@ -6622,12 +6610,12 @@
         <v>2700214</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7">
@@ -6637,7 +6625,7 @@
         <v>104</v>
       </c>
       <c r="K68" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L68" s="15">
         <v>0</v>
@@ -6655,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R68" s="8" t="s">
         <v>66</v>
@@ -6679,7 +6667,7 @@
       </c>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB68" s="15">
         <v>28000</v>
@@ -6693,12 +6681,12 @@
         <v>2700215</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7">
@@ -6708,7 +6696,7 @@
         <v>104</v>
       </c>
       <c r="K69" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L69" s="15">
         <v>0</v>
@@ -6726,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R69" s="8" t="s">
         <v>66</v>
@@ -6750,7 +6738,7 @@
       </c>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB69" s="15">
         <v>28000</v>
@@ -6764,12 +6752,12 @@
         <v>2700216</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7">
@@ -6779,7 +6767,7 @@
         <v>104</v>
       </c>
       <c r="K70" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L70" s="15">
         <v>0</v>
@@ -6797,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>66</v>
@@ -6817,11 +6805,11 @@
       </c>
       <c r="X70" s="15"/>
       <c r="Y70" s="21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z70" s="8"/>
       <c r="AA70" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB70" s="15">
         <v>28000</v>
@@ -6835,12 +6823,12 @@
         <v>2700217</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7">
@@ -6850,7 +6838,7 @@
         <v>104</v>
       </c>
       <c r="K71" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L71" s="15">
         <v>0</v>
@@ -6868,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R71" s="8" t="s">
         <v>66</v>
@@ -6892,7 +6880,7 @@
       </c>
       <c r="Z71" s="8"/>
       <c r="AA71" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB71" s="15">
         <v>28000</v>
@@ -6906,12 +6894,12 @@
         <v>2700218</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7">
@@ -6921,7 +6909,7 @@
         <v>104</v>
       </c>
       <c r="K72" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L72" s="15">
         <v>0</v>
@@ -6939,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R72" s="8" t="s">
         <v>66</v>
@@ -6963,7 +6951,7 @@
       </c>
       <c r="Z72" s="8"/>
       <c r="AA72" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB72" s="15">
         <v>28000</v>
@@ -6977,12 +6965,12 @@
         <v>2700219</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7">
@@ -6992,7 +6980,7 @@
         <v>104</v>
       </c>
       <c r="K73" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L73" s="15">
         <v>0</v>
@@ -7010,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R73" s="8" t="s">
         <v>66</v>
@@ -7034,7 +7022,7 @@
       </c>
       <c r="Z73" s="8"/>
       <c r="AA73" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB73" s="15">
         <v>28000</v>
@@ -7048,12 +7036,12 @@
         <v>2700220</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7">
@@ -7063,7 +7051,7 @@
         <v>104</v>
       </c>
       <c r="K74" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L74" s="15">
         <v>0</v>
@@ -7081,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R74" s="8" t="s">
         <v>66</v>
@@ -7101,11 +7089,11 @@
       </c>
       <c r="X74" s="15"/>
       <c r="Y74" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB74" s="15">
         <v>28000</v>
@@ -7119,12 +7107,12 @@
         <v>2700301</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7">
@@ -7134,7 +7122,7 @@
         <v>104</v>
       </c>
       <c r="K75" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L75" s="15">
         <v>0</v>
@@ -7152,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R75" s="8" t="s">
         <v>66</v>
@@ -7176,7 +7164,7 @@
       </c>
       <c r="Z75" s="8"/>
       <c r="AA75" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB75" s="15">
         <v>28000</v>
@@ -7190,12 +7178,12 @@
         <v>2700302</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7">
@@ -7205,7 +7193,7 @@
         <v>104</v>
       </c>
       <c r="K76" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L76" s="15">
         <v>0</v>
@@ -7223,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R76" s="8" t="s">
         <v>66</v>
@@ -7247,7 +7235,7 @@
       </c>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AB76" s="15">
         <v>28000</v>
@@ -7261,12 +7249,12 @@
         <v>2700303</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7">
@@ -7276,7 +7264,7 @@
         <v>104</v>
       </c>
       <c r="K77" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L77" s="15">
         <v>0</v>
@@ -7294,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R77" s="8" t="s">
         <v>66</v>
@@ -7318,7 +7306,7 @@
       </c>
       <c r="Z77" s="8"/>
       <c r="AA77" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB77" s="15">
         <v>28000</v>
@@ -7332,12 +7320,12 @@
         <v>2700304</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7">
@@ -7347,7 +7335,7 @@
         <v>104</v>
       </c>
       <c r="K78" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L78" s="15">
         <v>0</v>
@@ -7365,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R78" s="8" t="s">
         <v>66</v>
@@ -7385,11 +7373,11 @@
       </c>
       <c r="X78" s="15"/>
       <c r="Y78" s="21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Z78" s="8"/>
       <c r="AA78" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB78" s="15">
         <v>28000</v>
@@ -7403,12 +7391,12 @@
         <v>2700305</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7">
@@ -7418,7 +7406,7 @@
         <v>104</v>
       </c>
       <c r="K79" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L79" s="15">
         <v>0</v>
@@ -7436,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R79" s="8" t="s">
         <v>66</v>
@@ -7460,7 +7448,7 @@
       </c>
       <c r="Z79" s="8"/>
       <c r="AA79" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB79" s="15">
         <v>28000</v>
@@ -7474,12 +7462,12 @@
         <v>2700306</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7">
@@ -7489,7 +7477,7 @@
         <v>104</v>
       </c>
       <c r="K80" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L80" s="15">
         <v>0</v>
@@ -7507,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R80" s="8" t="s">
         <v>66</v>
@@ -7531,7 +7519,7 @@
       </c>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB80" s="15">
         <v>28000</v>
@@ -7545,12 +7533,12 @@
         <v>2700307</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7">
@@ -7560,7 +7548,7 @@
         <v>104</v>
       </c>
       <c r="K81" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L81" s="15">
         <v>0</v>
@@ -7578,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R81" s="8" t="s">
         <v>66</v>
@@ -7602,7 +7590,7 @@
       </c>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB81" s="15">
         <v>28000</v>
@@ -7616,12 +7604,12 @@
         <v>2700308</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7">
@@ -7631,7 +7619,7 @@
         <v>104</v>
       </c>
       <c r="K82" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L82" s="15">
         <v>0</v>
@@ -7649,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R82" s="8" t="s">
         <v>66</v>
@@ -7669,11 +7657,11 @@
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB82" s="15">
         <v>28000</v>
@@ -7687,12 +7675,12 @@
         <v>2700309</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7">
@@ -7702,7 +7690,7 @@
         <v>104</v>
       </c>
       <c r="K83" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L83" s="15">
         <v>0</v>
@@ -7720,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R83" s="8" t="s">
         <v>66</v>
@@ -7744,7 +7732,7 @@
       </c>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB83" s="15">
         <v>28000</v>
@@ -7758,12 +7746,12 @@
         <v>2700310</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7">
@@ -7773,7 +7761,7 @@
         <v>104</v>
       </c>
       <c r="K84" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L84" s="15">
         <v>0</v>
@@ -7791,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R84" s="8" t="s">
         <v>66</v>
@@ -7815,7 +7803,7 @@
       </c>
       <c r="Z84" s="8"/>
       <c r="AA84" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB84" s="15">
         <v>28000</v>
@@ -7829,12 +7817,12 @@
         <v>2700311</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7">
@@ -7844,7 +7832,7 @@
         <v>104</v>
       </c>
       <c r="K85" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L85" s="15">
         <v>0</v>
@@ -7862,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R85" s="8" t="s">
         <v>66</v>
@@ -7886,7 +7874,7 @@
       </c>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB85" s="15">
         <v>28000</v>
@@ -7900,12 +7888,12 @@
         <v>2700312</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7">
@@ -7915,7 +7903,7 @@
         <v>104</v>
       </c>
       <c r="K86" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L86" s="15">
         <v>0</v>
@@ -7933,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R86" s="8" t="s">
         <v>66</v>
@@ -7953,11 +7941,11 @@
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB86" s="15">
         <v>28000</v>
@@ -7971,12 +7959,12 @@
         <v>2700313</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7">
@@ -7986,7 +7974,7 @@
         <v>104</v>
       </c>
       <c r="K87" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L87" s="15">
         <v>0</v>
@@ -8004,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R87" s="8" t="s">
         <v>66</v>
@@ -8028,7 +8016,7 @@
       </c>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB87" s="15">
         <v>28000</v>
@@ -8042,12 +8030,12 @@
         <v>2700314</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7">
@@ -8057,7 +8045,7 @@
         <v>104</v>
       </c>
       <c r="K88" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L88" s="15">
         <v>0</v>
@@ -8075,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R88" s="8" t="s">
         <v>66</v>
@@ -8099,7 +8087,7 @@
       </c>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB88" s="15">
         <v>28000</v>
@@ -8113,12 +8101,12 @@
         <v>2700315</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7">
@@ -8128,7 +8116,7 @@
         <v>104</v>
       </c>
       <c r="K89" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L89" s="15">
         <v>0</v>
@@ -8146,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R89" s="8" t="s">
         <v>66</v>
@@ -8170,7 +8158,7 @@
       </c>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB89" s="15">
         <v>28000</v>
@@ -8184,12 +8172,12 @@
         <v>2700316</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7">
@@ -8199,7 +8187,7 @@
         <v>104</v>
       </c>
       <c r="K90" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L90" s="15">
         <v>0</v>
@@ -8217,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R90" s="8" t="s">
         <v>66</v>
@@ -8237,11 +8225,11 @@
       </c>
       <c r="X90" s="15"/>
       <c r="Y90" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB90" s="15">
         <v>28000</v>
@@ -8255,12 +8243,12 @@
         <v>2700317</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7">
@@ -8270,7 +8258,7 @@
         <v>104</v>
       </c>
       <c r="K91" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L91" s="15">
         <v>0</v>
@@ -8288,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R91" s="8" t="s">
         <v>66</v>
@@ -8312,7 +8300,7 @@
       </c>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB91" s="15">
         <v>28000</v>
@@ -8326,12 +8314,12 @@
         <v>2700318</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7">
@@ -8341,7 +8329,7 @@
         <v>104</v>
       </c>
       <c r="K92" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L92" s="15">
         <v>0</v>
@@ -8359,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R92" s="8" t="s">
         <v>66</v>
@@ -8383,7 +8371,7 @@
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB92" s="15">
         <v>28000</v>
@@ -8397,12 +8385,12 @@
         <v>2700319</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7">
@@ -8412,7 +8400,7 @@
         <v>104</v>
       </c>
       <c r="K93" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L93" s="15">
         <v>0</v>
@@ -8430,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R93" s="8" t="s">
         <v>66</v>
@@ -8454,7 +8442,7 @@
       </c>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB93" s="15">
         <v>28000</v>
@@ -8468,12 +8456,12 @@
         <v>2700320</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7">
@@ -8483,7 +8471,7 @@
         <v>104</v>
       </c>
       <c r="K94" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L94" s="15">
         <v>0</v>
@@ -8501,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R94" s="8" t="s">
         <v>66</v>
@@ -8521,11 +8509,11 @@
       </c>
       <c r="X94" s="15"/>
       <c r="Y94" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB94" s="15">
         <v>28000</v>
@@ -8539,12 +8527,12 @@
         <v>2700401</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7">
@@ -8554,7 +8542,7 @@
         <v>104</v>
       </c>
       <c r="K95" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L95" s="15">
         <v>0</v>
@@ -8572,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R95" s="8" t="s">
         <v>66</v>
@@ -8596,7 +8584,7 @@
       </c>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB95" s="15">
         <v>28000</v>
@@ -8610,12 +8598,12 @@
         <v>2700402</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7">
@@ -8625,7 +8613,7 @@
         <v>104</v>
       </c>
       <c r="K96" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L96" s="15">
         <v>0</v>
@@ -8643,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R96" s="8" t="s">
         <v>66</v>
@@ -8667,7 +8655,7 @@
       </c>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AB96" s="15">
         <v>28000</v>
@@ -8681,12 +8669,12 @@
         <v>2700403</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7">
@@ -8696,7 +8684,7 @@
         <v>104</v>
       </c>
       <c r="K97" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L97" s="15">
         <v>0</v>
@@ -8714,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R97" s="8" t="s">
         <v>66</v>
@@ -8738,7 +8726,7 @@
       </c>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB97" s="15">
         <v>28000</v>
@@ -8752,12 +8740,12 @@
         <v>2700404</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7">
@@ -8767,7 +8755,7 @@
         <v>104</v>
       </c>
       <c r="K98" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L98" s="15">
         <v>0</v>
@@ -8785,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R98" s="8" t="s">
         <v>66</v>
@@ -8805,11 +8793,11 @@
       </c>
       <c r="X98" s="15"/>
       <c r="Y98" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB98" s="15">
         <v>28000</v>
@@ -8823,12 +8811,12 @@
         <v>2700405</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7">
@@ -8838,7 +8826,7 @@
         <v>104</v>
       </c>
       <c r="K99" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L99" s="15">
         <v>0</v>
@@ -8856,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R99" s="8" t="s">
         <v>66</v>
@@ -8880,7 +8868,7 @@
       </c>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB99" s="15">
         <v>28000</v>
@@ -8894,12 +8882,12 @@
         <v>2700406</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7">
@@ -8909,7 +8897,7 @@
         <v>104</v>
       </c>
       <c r="K100" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L100" s="15">
         <v>0</v>
@@ -8927,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R100" s="8" t="s">
         <v>66</v>
@@ -8951,7 +8939,7 @@
       </c>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB100" s="15">
         <v>28000</v>
@@ -8965,12 +8953,12 @@
         <v>2700407</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7">
@@ -8980,7 +8968,7 @@
         <v>104</v>
       </c>
       <c r="K101" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L101" s="15">
         <v>0</v>
@@ -8998,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R101" s="8" t="s">
         <v>66</v>
@@ -9022,7 +9010,7 @@
       </c>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB101" s="15">
         <v>28000</v>
@@ -9036,12 +9024,12 @@
         <v>2700408</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7">
@@ -9051,7 +9039,7 @@
         <v>104</v>
       </c>
       <c r="K102" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L102" s="15">
         <v>0</v>
@@ -9069,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R102" s="8" t="s">
         <v>66</v>
@@ -9089,11 +9077,11 @@
       </c>
       <c r="X102" s="15"/>
       <c r="Y102" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB102" s="15">
         <v>28000</v>
@@ -9107,12 +9095,12 @@
         <v>2700409</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7">
@@ -9122,7 +9110,7 @@
         <v>104</v>
       </c>
       <c r="K103" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L103" s="15">
         <v>0</v>
@@ -9140,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R103" s="8" t="s">
         <v>66</v>
@@ -9164,7 +9152,7 @@
       </c>
       <c r="Z103" s="8"/>
       <c r="AA103" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB103" s="15">
         <v>28000</v>
@@ -9178,12 +9166,12 @@
         <v>2700410</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7">
@@ -9193,7 +9181,7 @@
         <v>104</v>
       </c>
       <c r="K104" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L104" s="15">
         <v>0</v>
@@ -9211,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R104" s="8" t="s">
         <v>66</v>
@@ -9235,7 +9223,7 @@
       </c>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB104" s="15">
         <v>28000</v>
@@ -9249,12 +9237,12 @@
         <v>2700411</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7">
@@ -9264,7 +9252,7 @@
         <v>104</v>
       </c>
       <c r="K105" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L105" s="15">
         <v>0</v>
@@ -9282,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R105" s="8" t="s">
         <v>66</v>
@@ -9306,7 +9294,7 @@
       </c>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB105" s="15">
         <v>28000</v>
@@ -9320,12 +9308,12 @@
         <v>2700412</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7">
@@ -9335,7 +9323,7 @@
         <v>104</v>
       </c>
       <c r="K106" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L106" s="15">
         <v>0</v>
@@ -9353,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R106" s="8" t="s">
         <v>66</v>
@@ -9373,11 +9361,11 @@
       </c>
       <c r="X106" s="15"/>
       <c r="Y106" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB106" s="15">
         <v>28000</v>
@@ -9391,12 +9379,12 @@
         <v>2700413</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7">
@@ -9406,7 +9394,7 @@
         <v>104</v>
       </c>
       <c r="K107" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L107" s="15">
         <v>0</v>
@@ -9424,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R107" s="8" t="s">
         <v>66</v>
@@ -9448,7 +9436,7 @@
       </c>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB107" s="15">
         <v>28000</v>
@@ -9462,12 +9450,12 @@
         <v>2700414</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7">
@@ -9477,7 +9465,7 @@
         <v>104</v>
       </c>
       <c r="K108" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L108" s="15">
         <v>0</v>
@@ -9495,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R108" s="8" t="s">
         <v>66</v>
@@ -9519,7 +9507,7 @@
       </c>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB108" s="15">
         <v>28000</v>
@@ -9533,12 +9521,12 @@
         <v>2700415</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7">
@@ -9548,7 +9536,7 @@
         <v>104</v>
       </c>
       <c r="K109" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L109" s="15">
         <v>0</v>
@@ -9566,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R109" s="8" t="s">
         <v>66</v>
@@ -9590,7 +9578,7 @@
       </c>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB109" s="15">
         <v>28000</v>
@@ -9604,12 +9592,12 @@
         <v>2700416</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7">
@@ -9619,7 +9607,7 @@
         <v>104</v>
       </c>
       <c r="K110" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L110" s="15">
         <v>0</v>
@@ -9637,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R110" s="8" t="s">
         <v>66</v>
@@ -9657,11 +9645,11 @@
       </c>
       <c r="X110" s="15"/>
       <c r="Y110" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Z110" s="8"/>
       <c r="AA110" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB110" s="15">
         <v>28000</v>
@@ -9675,12 +9663,12 @@
         <v>2700417</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7">
@@ -9690,7 +9678,7 @@
         <v>104</v>
       </c>
       <c r="K111" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L111" s="15">
         <v>0</v>
@@ -9708,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R111" s="8" t="s">
         <v>66</v>
@@ -9732,7 +9720,7 @@
       </c>
       <c r="Z111" s="8"/>
       <c r="AA111" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB111" s="15">
         <v>28000</v>
@@ -9746,12 +9734,12 @@
         <v>2700418</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7">
@@ -9761,7 +9749,7 @@
         <v>104</v>
       </c>
       <c r="K112" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L112" s="15">
         <v>0</v>
@@ -9779,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R112" s="8" t="s">
         <v>66</v>
@@ -9803,7 +9791,7 @@
       </c>
       <c r="Z112" s="8"/>
       <c r="AA112" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB112" s="15">
         <v>28000</v>
@@ -9817,12 +9805,12 @@
         <v>2700419</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7">
@@ -9832,7 +9820,7 @@
         <v>104</v>
       </c>
       <c r="K113" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L113" s="15">
         <v>0</v>
@@ -9850,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R113" s="8" t="s">
         <v>66</v>
@@ -9874,7 +9862,7 @@
       </c>
       <c r="Z113" s="8"/>
       <c r="AA113" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB113" s="15">
         <v>28000</v>
@@ -9888,12 +9876,12 @@
         <v>2700420</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7">
@@ -9903,7 +9891,7 @@
         <v>104</v>
       </c>
       <c r="K114" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L114" s="15">
         <v>0</v>
@@ -9921,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R114" s="8" t="s">
         <v>66</v>
@@ -9941,11 +9929,11 @@
       </c>
       <c r="X114" s="15"/>
       <c r="Y114" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Z114" s="8"/>
       <c r="AA114" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB114" s="15">
         <v>28000</v>
@@ -9959,12 +9947,12 @@
         <v>2700501</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7">
@@ -9974,7 +9962,7 @@
         <v>104</v>
       </c>
       <c r="K115" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L115" s="15">
         <v>0</v>
@@ -9992,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R115" s="8" t="s">
         <v>66</v>
@@ -10016,7 +10004,7 @@
       </c>
       <c r="Z115" s="8"/>
       <c r="AA115" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB115" s="15">
         <v>28000</v>
@@ -10030,12 +10018,12 @@
         <v>2700502</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7">
@@ -10045,7 +10033,7 @@
         <v>104</v>
       </c>
       <c r="K116" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L116" s="15">
         <v>0</v>
@@ -10063,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R116" s="8" t="s">
         <v>66</v>
@@ -10087,7 +10075,7 @@
       </c>
       <c r="Z116" s="8"/>
       <c r="AA116" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AB116" s="15">
         <v>28000</v>
@@ -10101,12 +10089,12 @@
         <v>2700503</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7">
@@ -10116,7 +10104,7 @@
         <v>104</v>
       </c>
       <c r="K117" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L117" s="15">
         <v>0</v>
@@ -10134,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R117" s="8" t="s">
         <v>66</v>
@@ -10158,7 +10146,7 @@
       </c>
       <c r="Z117" s="8"/>
       <c r="AA117" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB117" s="15">
         <v>28000</v>
@@ -10172,12 +10160,12 @@
         <v>2700504</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7">
@@ -10187,7 +10175,7 @@
         <v>104</v>
       </c>
       <c r="K118" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L118" s="15">
         <v>0</v>
@@ -10205,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R118" s="8" t="s">
         <v>66</v>
@@ -10225,11 +10213,11 @@
       </c>
       <c r="X118" s="15"/>
       <c r="Y118" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Z118" s="8"/>
       <c r="AA118" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB118" s="15">
         <v>28000</v>
@@ -10243,12 +10231,12 @@
         <v>2700505</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7">
@@ -10258,7 +10246,7 @@
         <v>104</v>
       </c>
       <c r="K119" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L119" s="15">
         <v>0</v>
@@ -10276,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R119" s="8" t="s">
         <v>66</v>
@@ -10300,7 +10288,7 @@
       </c>
       <c r="Z119" s="8"/>
       <c r="AA119" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB119" s="15">
         <v>28000</v>
@@ -10314,12 +10302,12 @@
         <v>2700506</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7">
@@ -10329,7 +10317,7 @@
         <v>104</v>
       </c>
       <c r="K120" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L120" s="15">
         <v>0</v>
@@ -10347,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R120" s="8" t="s">
         <v>66</v>
@@ -10371,7 +10359,7 @@
       </c>
       <c r="Z120" s="8"/>
       <c r="AA120" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB120" s="15">
         <v>28000</v>
@@ -10385,12 +10373,12 @@
         <v>2700507</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7">
@@ -10400,7 +10388,7 @@
         <v>104</v>
       </c>
       <c r="K121" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L121" s="15">
         <v>0</v>
@@ -10418,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R121" s="8" t="s">
         <v>66</v>
@@ -10442,7 +10430,7 @@
       </c>
       <c r="Z121" s="8"/>
       <c r="AA121" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB121" s="15">
         <v>28000</v>
@@ -10456,12 +10444,12 @@
         <v>2700508</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7">
@@ -10471,7 +10459,7 @@
         <v>104</v>
       </c>
       <c r="K122" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L122" s="15">
         <v>0</v>
@@ -10489,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R122" s="8" t="s">
         <v>66</v>
@@ -10509,11 +10497,11 @@
       </c>
       <c r="X122" s="15"/>
       <c r="Y122" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Z122" s="8"/>
       <c r="AA122" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB122" s="15">
         <v>28000</v>
@@ -10527,12 +10515,12 @@
         <v>2700509</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7">
@@ -10542,7 +10530,7 @@
         <v>104</v>
       </c>
       <c r="K123" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L123" s="15">
         <v>0</v>
@@ -10560,7 +10548,7 @@
         <v>1</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R123" s="8" t="s">
         <v>66</v>
@@ -10584,7 +10572,7 @@
       </c>
       <c r="Z123" s="8"/>
       <c r="AA123" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB123" s="15">
         <v>28000</v>
@@ -10598,12 +10586,12 @@
         <v>2700510</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7">
@@ -10613,7 +10601,7 @@
         <v>104</v>
       </c>
       <c r="K124" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L124" s="15">
         <v>0</v>
@@ -10631,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R124" s="8" t="s">
         <v>66</v>
@@ -10655,7 +10643,7 @@
       </c>
       <c r="Z124" s="8"/>
       <c r="AA124" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB124" s="15">
         <v>28000</v>
@@ -10669,12 +10657,12 @@
         <v>2700511</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7">
@@ -10684,7 +10672,7 @@
         <v>104</v>
       </c>
       <c r="K125" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L125" s="15">
         <v>0</v>
@@ -10702,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R125" s="8" t="s">
         <v>66</v>
@@ -10726,7 +10714,7 @@
       </c>
       <c r="Z125" s="8"/>
       <c r="AA125" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB125" s="15">
         <v>28000</v>
@@ -10740,12 +10728,12 @@
         <v>2700512</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7">
@@ -10755,7 +10743,7 @@
         <v>104</v>
       </c>
       <c r="K126" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L126" s="15">
         <v>0</v>
@@ -10773,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R126" s="8" t="s">
         <v>66</v>
@@ -10793,11 +10781,11 @@
       </c>
       <c r="X126" s="15"/>
       <c r="Y126" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Z126" s="8"/>
       <c r="AA126" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB126" s="15">
         <v>28000</v>
@@ -10811,12 +10799,12 @@
         <v>2700513</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7">
@@ -10826,7 +10814,7 @@
         <v>104</v>
       </c>
       <c r="K127" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L127" s="15">
         <v>0</v>
@@ -10844,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R127" s="8" t="s">
         <v>66</v>
@@ -10868,7 +10856,7 @@
       </c>
       <c r="Z127" s="8"/>
       <c r="AA127" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB127" s="15">
         <v>28000</v>
@@ -10882,12 +10870,12 @@
         <v>2700514</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="7">
@@ -10897,7 +10885,7 @@
         <v>104</v>
       </c>
       <c r="K128" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L128" s="15">
         <v>0</v>
@@ -10915,7 +10903,7 @@
         <v>1</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R128" s="8" t="s">
         <v>66</v>
@@ -10939,7 +10927,7 @@
       </c>
       <c r="Z128" s="8"/>
       <c r="AA128" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB128" s="15">
         <v>28000</v>
@@ -10953,12 +10941,12 @@
         <v>2700515</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7">
@@ -10968,7 +10956,7 @@
         <v>104</v>
       </c>
       <c r="K129" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L129" s="15">
         <v>0</v>
@@ -10986,7 +10974,7 @@
         <v>1</v>
       </c>
       <c r="Q129" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R129" s="8" t="s">
         <v>66</v>
@@ -11010,7 +10998,7 @@
       </c>
       <c r="Z129" s="8"/>
       <c r="AA129" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB129" s="15">
         <v>28000</v>
@@ -11024,12 +11012,12 @@
         <v>2700516</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7">
@@ -11039,7 +11027,7 @@
         <v>104</v>
       </c>
       <c r="K130" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L130" s="15">
         <v>0</v>
@@ -11057,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R130" s="8" t="s">
         <v>66</v>
@@ -11077,11 +11065,11 @@
       </c>
       <c r="X130" s="15"/>
       <c r="Y130" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Z130" s="8"/>
       <c r="AA130" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB130" s="15">
         <v>28000</v>
@@ -11095,12 +11083,12 @@
         <v>2700517</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7">
@@ -11110,7 +11098,7 @@
         <v>104</v>
       </c>
       <c r="K131" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L131" s="15">
         <v>0</v>
@@ -11128,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R131" s="8" t="s">
         <v>66</v>
@@ -11152,7 +11140,7 @@
       </c>
       <c r="Z131" s="8"/>
       <c r="AA131" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB131" s="15">
         <v>28000</v>
@@ -11166,12 +11154,12 @@
         <v>2700518</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7">
@@ -11181,7 +11169,7 @@
         <v>104</v>
       </c>
       <c r="K132" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L132" s="15">
         <v>0</v>
@@ -11199,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="Q132" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R132" s="8" t="s">
         <v>66</v>
@@ -11223,7 +11211,7 @@
       </c>
       <c r="Z132" s="8"/>
       <c r="AA132" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB132" s="15">
         <v>28000</v>
@@ -11237,12 +11225,12 @@
         <v>2700519</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7">
@@ -11252,7 +11240,7 @@
         <v>104</v>
       </c>
       <c r="K133" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L133" s="15">
         <v>0</v>
@@ -11270,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="Q133" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R133" s="8" t="s">
         <v>66</v>
@@ -11294,7 +11282,7 @@
       </c>
       <c r="Z133" s="8"/>
       <c r="AA133" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB133" s="15">
         <v>28000</v>
@@ -11308,12 +11296,12 @@
         <v>2700520</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7">
@@ -11323,7 +11311,7 @@
         <v>104</v>
       </c>
       <c r="K134" s="15">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="L134" s="15">
         <v>0</v>
@@ -11341,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R134" s="8" t="s">
         <v>66</v>
@@ -11361,11 +11349,11 @@
       </c>
       <c r="X134" s="15"/>
       <c r="Y134" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Z134" s="8"/>
       <c r="AA134" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB134" s="15">
         <v>28000</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799D6AD-82CC-467C-9C96-B35C9BA01E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3080DB6A-A1AC-4E87-8253-7898CE2D5871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="270">
   <si>
     <t>Id</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>宝藏之地</t>
-  </si>
-  <si>
-    <t>Back_7</t>
   </si>
   <si>
     <t>-30,100,3,0,32</t>
@@ -672,9 +669,6 @@
   </si>
   <si>
     <t>20000101,20000102,20000103,20000104,20000105,20000106</t>
-  </si>
-  <si>
-    <t>Back_6</t>
   </si>
   <si>
     <t>竞技场</t>
@@ -1890,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2700,8 +2694,8 @@
       <c r="J12" s="7">
         <v>104</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>103</v>
+      <c r="K12" s="17">
+        <v>1002</v>
       </c>
       <c r="L12" s="15">
         <v>1</v>
@@ -2747,7 +2741,7 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2755,7 +2749,7 @@
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2769,8 +2763,8 @@
       <c r="J13" s="7">
         <v>104</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>103</v>
+      <c r="K13" s="17">
+        <v>1002</v>
       </c>
       <c r="L13" s="15">
         <v>1</v>
@@ -2788,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>66</v>
@@ -2816,7 +2810,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2824,7 +2818,7 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2838,8 +2832,8 @@
       <c r="J14" s="7">
         <v>104</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>103</v>
+      <c r="K14" s="17">
+        <v>1002</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2857,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>66</v>
@@ -2891,7 +2885,7 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2905,8 +2899,8 @@
       <c r="J15" s="7">
         <v>104</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>103</v>
+      <c r="K15" s="17">
+        <v>1002</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2924,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>66</v>
@@ -2958,7 +2952,7 @@
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -2974,8 +2968,8 @@
       <c r="J16" s="7">
         <v>104</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>103</v>
+      <c r="K16" s="17">
+        <v>1002</v>
       </c>
       <c r="L16" s="15">
         <v>1</v>
@@ -2993,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>66</v>
@@ -3002,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U16" s="15">
         <v>0</v>
@@ -3023,7 +3017,7 @@
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3031,7 +3025,7 @@
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -3039,7 +3033,7 @@
         <v>71</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3047,8 +3041,8 @@
       <c r="J17" s="7">
         <v>104</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>115</v>
+      <c r="K17" s="17">
+        <v>1002</v>
       </c>
       <c r="L17" s="15">
         <v>1</v>
@@ -3075,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -3098,7 +3092,7 @@
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3106,7 +3100,7 @@
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -3139,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>66</v>
@@ -3167,7 +3161,7 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3175,7 +3169,7 @@
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -3183,7 +3177,7 @@
         <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>65</v>
@@ -3210,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>67</v>
@@ -3244,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3252,7 +3246,7 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3285,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>66</v>
@@ -3317,7 +3311,7 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3350,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>66</v>
@@ -3384,12 +3378,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3417,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>66</v>
@@ -3451,15 +3445,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3486,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>66</v>
@@ -3495,7 +3489,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U23" s="15">
         <v>40</v>
@@ -3516,7 +3510,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3524,15 +3518,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3559,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>66</v>
@@ -3568,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U24" s="15">
         <v>40</v>
@@ -3589,7 +3583,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3597,7 +3591,7 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3630,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>66</v>
@@ -3664,7 +3658,7 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3697,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>66</v>
@@ -3731,12 +3725,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3764,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>66</v>
@@ -3773,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U27" s="15">
         <v>100</v>
@@ -3792,7 +3786,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3800,12 +3794,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -3833,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>66</v>
@@ -3859,7 +3853,7 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3867,12 +3861,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -3900,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>66</v>
@@ -3926,7 +3920,7 @@
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3934,7 +3928,7 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -3967,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>66</v>
@@ -4001,12 +3995,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4034,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>66</v>
@@ -4060,7 +4054,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4068,7 +4062,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4101,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>66</v>
@@ -4133,7 +4127,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4166,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>66</v>
@@ -4200,7 +4194,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -4233,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>66</v>
@@ -4259,7 +4253,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4267,12 +4261,12 @@
         <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -4300,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>66</v>
@@ -4324,7 +4318,7 @@
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB35" s="15">
         <v>28000</v>
@@ -4338,12 +4332,12 @@
         <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -4371,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>66</v>
@@ -4395,7 +4389,7 @@
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB36" s="15">
         <v>28000</v>
@@ -4409,12 +4403,12 @@
         <v>2700103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -4442,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>66</v>
@@ -4466,7 +4460,7 @@
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB37" s="15">
         <v>28000</v>
@@ -4480,12 +4474,12 @@
         <v>2700104</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
@@ -4513,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R38" s="8" t="s">
         <v>66</v>
@@ -4533,11 +4527,11 @@
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB38" s="15">
         <v>28000</v>
@@ -4551,12 +4545,12 @@
         <v>2700105</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7">
@@ -4584,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>66</v>
@@ -4608,7 +4602,7 @@
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB39" s="15">
         <v>28000</v>
@@ -4622,12 +4616,12 @@
         <v>2700106</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7">
@@ -4655,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R40" s="8" t="s">
         <v>66</v>
@@ -4679,7 +4673,7 @@
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB40" s="15">
         <v>28000</v>
@@ -4693,12 +4687,12 @@
         <v>2700107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7">
@@ -4726,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R41" s="8" t="s">
         <v>66</v>
@@ -4750,7 +4744,7 @@
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB41" s="15">
         <v>28000</v>
@@ -4764,12 +4758,12 @@
         <v>2700108</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7">
@@ -4797,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R42" s="8" t="s">
         <v>66</v>
@@ -4817,11 +4811,11 @@
       </c>
       <c r="X42" s="15"/>
       <c r="Y42" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB42" s="15">
         <v>28000</v>
@@ -4835,12 +4829,12 @@
         <v>2700109</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7">
@@ -4868,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>66</v>
@@ -4892,7 +4886,7 @@
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB43" s="15">
         <v>28000</v>
@@ -4906,12 +4900,12 @@
         <v>2700110</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7">
@@ -4939,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R44" s="8" t="s">
         <v>66</v>
@@ -4963,7 +4957,7 @@
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB44" s="15">
         <v>28000</v>
@@ -4977,12 +4971,12 @@
         <v>2700111</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7">
@@ -5010,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R45" s="8" t="s">
         <v>66</v>
@@ -5034,7 +5028,7 @@
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB45" s="15">
         <v>28000</v>
@@ -5048,12 +5042,12 @@
         <v>2700112</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7">
@@ -5081,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R46" s="8" t="s">
         <v>66</v>
@@ -5101,11 +5095,11 @@
       </c>
       <c r="X46" s="15"/>
       <c r="Y46" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB46" s="15">
         <v>28000</v>
@@ -5119,12 +5113,12 @@
         <v>2700113</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7">
@@ -5152,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R47" s="8" t="s">
         <v>66</v>
@@ -5176,7 +5170,7 @@
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB47" s="15">
         <v>28000</v>
@@ -5190,12 +5184,12 @@
         <v>2700114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7">
@@ -5223,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R48" s="8" t="s">
         <v>66</v>
@@ -5247,7 +5241,7 @@
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB48" s="15">
         <v>28000</v>
@@ -5261,12 +5255,12 @@
         <v>2700115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7">
@@ -5294,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R49" s="8" t="s">
         <v>66</v>
@@ -5318,7 +5312,7 @@
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB49" s="15">
         <v>28000</v>
@@ -5332,12 +5326,12 @@
         <v>2700116</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7">
@@ -5365,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R50" s="8" t="s">
         <v>66</v>
@@ -5385,11 +5379,11 @@
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB50" s="15">
         <v>28000</v>
@@ -5403,12 +5397,12 @@
         <v>2700117</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7">
@@ -5436,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R51" s="8" t="s">
         <v>66</v>
@@ -5460,7 +5454,7 @@
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB51" s="15">
         <v>28000</v>
@@ -5474,12 +5468,12 @@
         <v>2700118</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
@@ -5507,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R52" s="8" t="s">
         <v>66</v>
@@ -5531,7 +5525,7 @@
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB52" s="15">
         <v>28000</v>
@@ -5545,12 +5539,12 @@
         <v>2700119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
@@ -5578,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>66</v>
@@ -5602,7 +5596,7 @@
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB53" s="15">
         <v>28000</v>
@@ -5616,12 +5610,12 @@
         <v>2700120</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7">
@@ -5649,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>66</v>
@@ -5669,11 +5663,11 @@
       </c>
       <c r="X54" s="15"/>
       <c r="Y54" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB54" s="15">
         <v>28000</v>
@@ -5687,12 +5681,12 @@
         <v>2700201</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
@@ -5720,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R55" s="8" t="s">
         <v>66</v>
@@ -5744,7 +5738,7 @@
       </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB55" s="15">
         <v>28000</v>
@@ -5758,12 +5752,12 @@
         <v>2700202</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
@@ -5791,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R56" s="8" t="s">
         <v>66</v>
@@ -5815,7 +5809,7 @@
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB56" s="15">
         <v>28000</v>
@@ -5829,12 +5823,12 @@
         <v>2700203</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
@@ -5862,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R57" s="8" t="s">
         <v>66</v>
@@ -5886,7 +5880,7 @@
       </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB57" s="15">
         <v>28000</v>
@@ -5900,12 +5894,12 @@
         <v>2700204</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
@@ -5933,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R58" s="8" t="s">
         <v>66</v>
@@ -5953,11 +5947,11 @@
       </c>
       <c r="X58" s="15"/>
       <c r="Y58" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB58" s="15">
         <v>28000</v>
@@ -5971,12 +5965,12 @@
         <v>2700205</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7">
@@ -6004,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R59" s="8" t="s">
         <v>66</v>
@@ -6028,7 +6022,7 @@
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB59" s="15">
         <v>28000</v>
@@ -6042,12 +6036,12 @@
         <v>2700206</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7">
@@ -6075,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R60" s="8" t="s">
         <v>66</v>
@@ -6099,7 +6093,7 @@
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB60" s="15">
         <v>28000</v>
@@ -6113,12 +6107,12 @@
         <v>2700207</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7">
@@ -6146,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R61" s="8" t="s">
         <v>66</v>
@@ -6170,7 +6164,7 @@
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB61" s="15">
         <v>28000</v>
@@ -6184,12 +6178,12 @@
         <v>2700208</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7">
@@ -6217,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R62" s="8" t="s">
         <v>66</v>
@@ -6237,11 +6231,11 @@
       </c>
       <c r="X62" s="15"/>
       <c r="Y62" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB62" s="15">
         <v>28000</v>
@@ -6255,12 +6249,12 @@
         <v>2700209</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7">
@@ -6288,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R63" s="8" t="s">
         <v>66</v>
@@ -6312,7 +6306,7 @@
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB63" s="15">
         <v>28000</v>
@@ -6326,12 +6320,12 @@
         <v>2700210</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7">
@@ -6359,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R64" s="8" t="s">
         <v>66</v>
@@ -6383,7 +6377,7 @@
       </c>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB64" s="15">
         <v>28000</v>
@@ -6397,12 +6391,12 @@
         <v>2700211</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7">
@@ -6430,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>66</v>
@@ -6454,7 +6448,7 @@
       </c>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB65" s="15">
         <v>28000</v>
@@ -6468,12 +6462,12 @@
         <v>2700212</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7">
@@ -6501,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>66</v>
@@ -6521,11 +6515,11 @@
       </c>
       <c r="X66" s="15"/>
       <c r="Y66" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB66" s="15">
         <v>28000</v>
@@ -6539,12 +6533,12 @@
         <v>2700213</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7">
@@ -6572,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R67" s="8" t="s">
         <v>66</v>
@@ -6596,7 +6590,7 @@
       </c>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB67" s="15">
         <v>28000</v>
@@ -6610,12 +6604,12 @@
         <v>2700214</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7">
@@ -6643,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R68" s="8" t="s">
         <v>66</v>
@@ -6667,7 +6661,7 @@
       </c>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB68" s="15">
         <v>28000</v>
@@ -6681,12 +6675,12 @@
         <v>2700215</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7">
@@ -6714,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R69" s="8" t="s">
         <v>66</v>
@@ -6738,7 +6732,7 @@
       </c>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB69" s="15">
         <v>28000</v>
@@ -6752,12 +6746,12 @@
         <v>2700216</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7">
@@ -6785,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>66</v>
@@ -6805,11 +6799,11 @@
       </c>
       <c r="X70" s="15"/>
       <c r="Y70" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z70" s="8"/>
       <c r="AA70" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB70" s="15">
         <v>28000</v>
@@ -6823,12 +6817,12 @@
         <v>2700217</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7">
@@ -6856,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R71" s="8" t="s">
         <v>66</v>
@@ -6880,7 +6874,7 @@
       </c>
       <c r="Z71" s="8"/>
       <c r="AA71" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB71" s="15">
         <v>28000</v>
@@ -6894,12 +6888,12 @@
         <v>2700218</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7">
@@ -6927,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R72" s="8" t="s">
         <v>66</v>
@@ -6951,7 +6945,7 @@
       </c>
       <c r="Z72" s="8"/>
       <c r="AA72" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB72" s="15">
         <v>28000</v>
@@ -6965,12 +6959,12 @@
         <v>2700219</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7">
@@ -6998,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R73" s="8" t="s">
         <v>66</v>
@@ -7022,7 +7016,7 @@
       </c>
       <c r="Z73" s="8"/>
       <c r="AA73" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB73" s="15">
         <v>28000</v>
@@ -7036,12 +7030,12 @@
         <v>2700220</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7">
@@ -7069,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R74" s="8" t="s">
         <v>66</v>
@@ -7089,11 +7083,11 @@
       </c>
       <c r="X74" s="15"/>
       <c r="Y74" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB74" s="15">
         <v>28000</v>
@@ -7107,12 +7101,12 @@
         <v>2700301</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7">
@@ -7140,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R75" s="8" t="s">
         <v>66</v>
@@ -7164,7 +7158,7 @@
       </c>
       <c r="Z75" s="8"/>
       <c r="AA75" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB75" s="15">
         <v>28000</v>
@@ -7178,12 +7172,12 @@
         <v>2700302</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7">
@@ -7211,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R76" s="8" t="s">
         <v>66</v>
@@ -7235,7 +7229,7 @@
       </c>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB76" s="15">
         <v>28000</v>
@@ -7249,12 +7243,12 @@
         <v>2700303</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7">
@@ -7282,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R77" s="8" t="s">
         <v>66</v>
@@ -7306,7 +7300,7 @@
       </c>
       <c r="Z77" s="8"/>
       <c r="AA77" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB77" s="15">
         <v>28000</v>
@@ -7320,12 +7314,12 @@
         <v>2700304</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7">
@@ -7353,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R78" s="8" t="s">
         <v>66</v>
@@ -7373,11 +7367,11 @@
       </c>
       <c r="X78" s="15"/>
       <c r="Y78" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Z78" s="8"/>
       <c r="AA78" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB78" s="15">
         <v>28000</v>
@@ -7391,12 +7385,12 @@
         <v>2700305</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7">
@@ -7424,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R79" s="8" t="s">
         <v>66</v>
@@ -7448,7 +7442,7 @@
       </c>
       <c r="Z79" s="8"/>
       <c r="AA79" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB79" s="15">
         <v>28000</v>
@@ -7462,12 +7456,12 @@
         <v>2700306</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7">
@@ -7495,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R80" s="8" t="s">
         <v>66</v>
@@ -7519,7 +7513,7 @@
       </c>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB80" s="15">
         <v>28000</v>
@@ -7533,12 +7527,12 @@
         <v>2700307</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7">
@@ -7566,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R81" s="8" t="s">
         <v>66</v>
@@ -7590,7 +7584,7 @@
       </c>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB81" s="15">
         <v>28000</v>
@@ -7604,12 +7598,12 @@
         <v>2700308</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7">
@@ -7637,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R82" s="8" t="s">
         <v>66</v>
@@ -7657,11 +7651,11 @@
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB82" s="15">
         <v>28000</v>
@@ -7675,12 +7669,12 @@
         <v>2700309</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7">
@@ -7708,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R83" s="8" t="s">
         <v>66</v>
@@ -7732,7 +7726,7 @@
       </c>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB83" s="15">
         <v>28000</v>
@@ -7746,12 +7740,12 @@
         <v>2700310</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7">
@@ -7779,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R84" s="8" t="s">
         <v>66</v>
@@ -7803,7 +7797,7 @@
       </c>
       <c r="Z84" s="8"/>
       <c r="AA84" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB84" s="15">
         <v>28000</v>
@@ -7817,12 +7811,12 @@
         <v>2700311</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7">
@@ -7850,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R85" s="8" t="s">
         <v>66</v>
@@ -7874,7 +7868,7 @@
       </c>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB85" s="15">
         <v>28000</v>
@@ -7888,12 +7882,12 @@
         <v>2700312</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7">
@@ -7921,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R86" s="8" t="s">
         <v>66</v>
@@ -7941,11 +7935,11 @@
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB86" s="15">
         <v>28000</v>
@@ -7959,12 +7953,12 @@
         <v>2700313</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7">
@@ -7992,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R87" s="8" t="s">
         <v>66</v>
@@ -8016,7 +8010,7 @@
       </c>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB87" s="15">
         <v>28000</v>
@@ -8030,12 +8024,12 @@
         <v>2700314</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7">
@@ -8063,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R88" s="8" t="s">
         <v>66</v>
@@ -8087,7 +8081,7 @@
       </c>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB88" s="15">
         <v>28000</v>
@@ -8101,12 +8095,12 @@
         <v>2700315</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7">
@@ -8134,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R89" s="8" t="s">
         <v>66</v>
@@ -8158,7 +8152,7 @@
       </c>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB89" s="15">
         <v>28000</v>
@@ -8172,12 +8166,12 @@
         <v>2700316</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7">
@@ -8205,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R90" s="8" t="s">
         <v>66</v>
@@ -8225,11 +8219,11 @@
       </c>
       <c r="X90" s="15"/>
       <c r="Y90" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB90" s="15">
         <v>28000</v>
@@ -8243,12 +8237,12 @@
         <v>2700317</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7">
@@ -8276,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R91" s="8" t="s">
         <v>66</v>
@@ -8300,7 +8294,7 @@
       </c>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB91" s="15">
         <v>28000</v>
@@ -8314,12 +8308,12 @@
         <v>2700318</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7">
@@ -8347,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R92" s="8" t="s">
         <v>66</v>
@@ -8371,7 +8365,7 @@
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB92" s="15">
         <v>28000</v>
@@ -8385,12 +8379,12 @@
         <v>2700319</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7">
@@ -8418,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R93" s="8" t="s">
         <v>66</v>
@@ -8442,7 +8436,7 @@
       </c>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB93" s="15">
         <v>28000</v>
@@ -8456,12 +8450,12 @@
         <v>2700320</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7">
@@ -8489,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R94" s="8" t="s">
         <v>66</v>
@@ -8509,11 +8503,11 @@
       </c>
       <c r="X94" s="15"/>
       <c r="Y94" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB94" s="15">
         <v>28000</v>
@@ -8527,12 +8521,12 @@
         <v>2700401</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7">
@@ -8560,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R95" s="8" t="s">
         <v>66</v>
@@ -8584,7 +8578,7 @@
       </c>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB95" s="15">
         <v>28000</v>
@@ -8598,12 +8592,12 @@
         <v>2700402</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7">
@@ -8631,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R96" s="8" t="s">
         <v>66</v>
@@ -8655,7 +8649,7 @@
       </c>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB96" s="15">
         <v>28000</v>
@@ -8669,12 +8663,12 @@
         <v>2700403</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7">
@@ -8702,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R97" s="8" t="s">
         <v>66</v>
@@ -8726,7 +8720,7 @@
       </c>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB97" s="15">
         <v>28000</v>
@@ -8740,12 +8734,12 @@
         <v>2700404</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7">
@@ -8773,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R98" s="8" t="s">
         <v>66</v>
@@ -8793,11 +8787,11 @@
       </c>
       <c r="X98" s="15"/>
       <c r="Y98" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB98" s="15">
         <v>28000</v>
@@ -8811,12 +8805,12 @@
         <v>2700405</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7">
@@ -8844,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R99" s="8" t="s">
         <v>66</v>
@@ -8868,7 +8862,7 @@
       </c>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB99" s="15">
         <v>28000</v>
@@ -8882,12 +8876,12 @@
         <v>2700406</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7">
@@ -8915,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R100" s="8" t="s">
         <v>66</v>
@@ -8939,7 +8933,7 @@
       </c>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB100" s="15">
         <v>28000</v>
@@ -8953,12 +8947,12 @@
         <v>2700407</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7">
@@ -8986,7 +8980,7 @@
         <v>1</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R101" s="8" t="s">
         <v>66</v>
@@ -9010,7 +9004,7 @@
       </c>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB101" s="15">
         <v>28000</v>
@@ -9024,12 +9018,12 @@
         <v>2700408</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7">
@@ -9057,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R102" s="8" t="s">
         <v>66</v>
@@ -9077,11 +9071,11 @@
       </c>
       <c r="X102" s="15"/>
       <c r="Y102" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB102" s="15">
         <v>28000</v>
@@ -9095,12 +9089,12 @@
         <v>2700409</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7">
@@ -9128,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R103" s="8" t="s">
         <v>66</v>
@@ -9152,7 +9146,7 @@
       </c>
       <c r="Z103" s="8"/>
       <c r="AA103" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB103" s="15">
         <v>28000</v>
@@ -9166,12 +9160,12 @@
         <v>2700410</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7">
@@ -9199,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R104" s="8" t="s">
         <v>66</v>
@@ -9223,7 +9217,7 @@
       </c>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB104" s="15">
         <v>28000</v>
@@ -9237,12 +9231,12 @@
         <v>2700411</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7">
@@ -9270,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R105" s="8" t="s">
         <v>66</v>
@@ -9294,7 +9288,7 @@
       </c>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB105" s="15">
         <v>28000</v>
@@ -9308,12 +9302,12 @@
         <v>2700412</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7">
@@ -9341,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R106" s="8" t="s">
         <v>66</v>
@@ -9361,11 +9355,11 @@
       </c>
       <c r="X106" s="15"/>
       <c r="Y106" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB106" s="15">
         <v>28000</v>
@@ -9379,12 +9373,12 @@
         <v>2700413</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7">
@@ -9412,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R107" s="8" t="s">
         <v>66</v>
@@ -9436,7 +9430,7 @@
       </c>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB107" s="15">
         <v>28000</v>
@@ -9450,12 +9444,12 @@
         <v>2700414</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7">
@@ -9483,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R108" s="8" t="s">
         <v>66</v>
@@ -9507,7 +9501,7 @@
       </c>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB108" s="15">
         <v>28000</v>
@@ -9521,12 +9515,12 @@
         <v>2700415</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7">
@@ -9554,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R109" s="8" t="s">
         <v>66</v>
@@ -9578,7 +9572,7 @@
       </c>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB109" s="15">
         <v>28000</v>
@@ -9592,12 +9586,12 @@
         <v>2700416</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7">
@@ -9625,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R110" s="8" t="s">
         <v>66</v>
@@ -9645,11 +9639,11 @@
       </c>
       <c r="X110" s="15"/>
       <c r="Y110" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Z110" s="8"/>
       <c r="AA110" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB110" s="15">
         <v>28000</v>
@@ -9663,12 +9657,12 @@
         <v>2700417</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7">
@@ -9696,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R111" s="8" t="s">
         <v>66</v>
@@ -9720,7 +9714,7 @@
       </c>
       <c r="Z111" s="8"/>
       <c r="AA111" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB111" s="15">
         <v>28000</v>
@@ -9734,12 +9728,12 @@
         <v>2700418</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7">
@@ -9767,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R112" s="8" t="s">
         <v>66</v>
@@ -9791,7 +9785,7 @@
       </c>
       <c r="Z112" s="8"/>
       <c r="AA112" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB112" s="15">
         <v>28000</v>
@@ -9805,12 +9799,12 @@
         <v>2700419</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7">
@@ -9838,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R113" s="8" t="s">
         <v>66</v>
@@ -9862,7 +9856,7 @@
       </c>
       <c r="Z113" s="8"/>
       <c r="AA113" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB113" s="15">
         <v>28000</v>
@@ -9876,12 +9870,12 @@
         <v>2700420</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7">
@@ -9909,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R114" s="8" t="s">
         <v>66</v>
@@ -9929,11 +9923,11 @@
       </c>
       <c r="X114" s="15"/>
       <c r="Y114" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z114" s="8"/>
       <c r="AA114" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB114" s="15">
         <v>28000</v>
@@ -9947,12 +9941,12 @@
         <v>2700501</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7">
@@ -9980,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R115" s="8" t="s">
         <v>66</v>
@@ -10004,7 +9998,7 @@
       </c>
       <c r="Z115" s="8"/>
       <c r="AA115" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB115" s="15">
         <v>28000</v>
@@ -10018,12 +10012,12 @@
         <v>2700502</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7">
@@ -10051,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R116" s="8" t="s">
         <v>66</v>
@@ -10075,7 +10069,7 @@
       </c>
       <c r="Z116" s="8"/>
       <c r="AA116" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB116" s="15">
         <v>28000</v>
@@ -10089,12 +10083,12 @@
         <v>2700503</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7">
@@ -10122,7 +10116,7 @@
         <v>1</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R117" s="8" t="s">
         <v>66</v>
@@ -10146,7 +10140,7 @@
       </c>
       <c r="Z117" s="8"/>
       <c r="AA117" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB117" s="15">
         <v>28000</v>
@@ -10160,12 +10154,12 @@
         <v>2700504</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7">
@@ -10193,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R118" s="8" t="s">
         <v>66</v>
@@ -10213,11 +10207,11 @@
       </c>
       <c r="X118" s="15"/>
       <c r="Y118" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z118" s="8"/>
       <c r="AA118" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB118" s="15">
         <v>28000</v>
@@ -10231,12 +10225,12 @@
         <v>2700505</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7">
@@ -10264,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R119" s="8" t="s">
         <v>66</v>
@@ -10288,7 +10282,7 @@
       </c>
       <c r="Z119" s="8"/>
       <c r="AA119" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB119" s="15">
         <v>28000</v>
@@ -10302,12 +10296,12 @@
         <v>2700506</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7">
@@ -10335,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R120" s="8" t="s">
         <v>66</v>
@@ -10359,7 +10353,7 @@
       </c>
       <c r="Z120" s="8"/>
       <c r="AA120" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB120" s="15">
         <v>28000</v>
@@ -10373,12 +10367,12 @@
         <v>2700507</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7">
@@ -10406,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R121" s="8" t="s">
         <v>66</v>
@@ -10430,7 +10424,7 @@
       </c>
       <c r="Z121" s="8"/>
       <c r="AA121" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB121" s="15">
         <v>28000</v>
@@ -10444,12 +10438,12 @@
         <v>2700508</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7">
@@ -10477,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R122" s="8" t="s">
         <v>66</v>
@@ -10497,11 +10491,11 @@
       </c>
       <c r="X122" s="15"/>
       <c r="Y122" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z122" s="8"/>
       <c r="AA122" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB122" s="15">
         <v>28000</v>
@@ -10515,12 +10509,12 @@
         <v>2700509</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7">
@@ -10548,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R123" s="8" t="s">
         <v>66</v>
@@ -10572,7 +10566,7 @@
       </c>
       <c r="Z123" s="8"/>
       <c r="AA123" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB123" s="15">
         <v>28000</v>
@@ -10586,12 +10580,12 @@
         <v>2700510</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7">
@@ -10619,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R124" s="8" t="s">
         <v>66</v>
@@ -10643,7 +10637,7 @@
       </c>
       <c r="Z124" s="8"/>
       <c r="AA124" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB124" s="15">
         <v>28000</v>
@@ -10657,12 +10651,12 @@
         <v>2700511</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7">
@@ -10690,7 +10684,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R125" s="8" t="s">
         <v>66</v>
@@ -10714,7 +10708,7 @@
       </c>
       <c r="Z125" s="8"/>
       <c r="AA125" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB125" s="15">
         <v>28000</v>
@@ -10728,12 +10722,12 @@
         <v>2700512</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7">
@@ -10761,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R126" s="8" t="s">
         <v>66</v>
@@ -10781,11 +10775,11 @@
       </c>
       <c r="X126" s="15"/>
       <c r="Y126" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z126" s="8"/>
       <c r="AA126" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB126" s="15">
         <v>28000</v>
@@ -10799,12 +10793,12 @@
         <v>2700513</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7">
@@ -10832,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R127" s="8" t="s">
         <v>66</v>
@@ -10856,7 +10850,7 @@
       </c>
       <c r="Z127" s="8"/>
       <c r="AA127" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB127" s="15">
         <v>28000</v>
@@ -10870,12 +10864,12 @@
         <v>2700514</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="7">
@@ -10903,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R128" s="8" t="s">
         <v>66</v>
@@ -10927,7 +10921,7 @@
       </c>
       <c r="Z128" s="8"/>
       <c r="AA128" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB128" s="15">
         <v>28000</v>
@@ -10941,12 +10935,12 @@
         <v>2700515</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7">
@@ -10974,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="Q129" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R129" s="8" t="s">
         <v>66</v>
@@ -10998,7 +10992,7 @@
       </c>
       <c r="Z129" s="8"/>
       <c r="AA129" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB129" s="15">
         <v>28000</v>
@@ -11012,12 +11006,12 @@
         <v>2700516</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7">
@@ -11045,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R130" s="8" t="s">
         <v>66</v>
@@ -11065,11 +11059,11 @@
       </c>
       <c r="X130" s="15"/>
       <c r="Y130" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z130" s="8"/>
       <c r="AA130" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB130" s="15">
         <v>28000</v>
@@ -11083,12 +11077,12 @@
         <v>2700517</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7">
@@ -11116,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R131" s="8" t="s">
         <v>66</v>
@@ -11140,7 +11134,7 @@
       </c>
       <c r="Z131" s="8"/>
       <c r="AA131" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB131" s="15">
         <v>28000</v>
@@ -11154,12 +11148,12 @@
         <v>2700518</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7">
@@ -11187,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="Q132" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R132" s="8" t="s">
         <v>66</v>
@@ -11211,7 +11205,7 @@
       </c>
       <c r="Z132" s="8"/>
       <c r="AA132" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB132" s="15">
         <v>28000</v>
@@ -11225,12 +11219,12 @@
         <v>2700519</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7">
@@ -11258,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="Q133" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R133" s="8" t="s">
         <v>66</v>
@@ -11282,7 +11276,7 @@
       </c>
       <c r="Z133" s="8"/>
       <c r="AA133" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB133" s="15">
         <v>28000</v>
@@ -11296,12 +11290,12 @@
         <v>2700520</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7">
@@ -11329,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R134" s="8" t="s">
         <v>66</v>
@@ -11349,11 +11343,11 @@
       </c>
       <c r="X134" s="15"/>
       <c r="Y134" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z134" s="8"/>
       <c r="AA134" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB134" s="15">
         <v>28000</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3080DB6A-A1AC-4E87-8253-7898CE2D5871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F04C1-52F6-484B-AF5D-2413D3D2BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,9 +482,6 @@
     <t>987,150,-2897</t>
   </si>
   <si>
-    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -1252,6 +1249,10 @@
   </si>
   <si>
     <t>552000,552001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1884,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2196,10 +2197,10 @@
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="J6" s="15">
         <v>101</v>
@@ -2224,13 +2225,13 @@
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="S6" s="15">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="U6" s="15">
         <v>0</v>
@@ -2257,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2265,14 +2266,14 @@
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="16">
@@ -2300,16 +2301,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="U7" s="15">
         <v>2</v>
@@ -2324,10 +2325,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15">
@@ -2340,7 +2341,7 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2348,14 +2349,14 @@
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -2383,16 +2384,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="U8" s="15">
         <v>2</v>
@@ -2407,10 +2408,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15">
@@ -2423,7 +2424,7 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2431,14 +2432,14 @@
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2466,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="S9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="U9" s="15">
         <v>2</v>
@@ -2490,10 +2491,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15">
@@ -2506,7 +2507,7 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2514,14 +2515,14 @@
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="16">
@@ -2549,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="S10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="U10" s="15">
         <v>2</v>
@@ -2573,10 +2574,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15">
@@ -2589,7 +2590,7 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2597,14 +2598,14 @@
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="16">
@@ -2632,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="S11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="U11" s="15">
         <v>2</v>
@@ -2656,10 +2657,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15">
@@ -2672,7 +2673,7 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2680,12 +2681,12 @@
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2713,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
@@ -2733,7 +2734,7 @@
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2741,7 +2742,7 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2749,12 +2750,12 @@
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2782,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="15">
         <v>1</v>
@@ -2802,7 +2803,7 @@
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2810,7 +2811,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2818,12 +2819,12 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2851,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S14" s="15">
         <v>1</v>
@@ -2871,7 +2872,7 @@
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2885,12 +2886,12 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -2918,10 +2919,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S15" s="15">
         <v>1</v>
@@ -2938,7 +2939,7 @@
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -2952,12 +2953,12 @@
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -2987,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S16" s="15">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U16" s="15">
         <v>0</v>
@@ -3009,7 +3010,7 @@
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -3017,7 +3018,7 @@
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3025,15 +3026,15 @@
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3060,16 +3061,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S17" s="15">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -3084,7 +3085,7 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -3092,7 +3093,7 @@
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3100,12 +3101,12 @@
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -3133,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S18" s="15">
         <v>1</v>
@@ -3153,7 +3154,7 @@
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -3161,7 +3162,7 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3169,51 +3170,51 @@
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="7">
+        <v>104</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="7">
-        <v>104</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15">
-        <v>1</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="R19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S19" s="15">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U19" s="15">
         <v>0</v>
@@ -3238,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3246,12 +3247,12 @@
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -3279,10 +3280,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S20" s="15">
         <v>1</v>
@@ -3311,12 +3312,12 @@
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -3344,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S21" s="15">
         <v>1</v>
@@ -3364,7 +3365,7 @@
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -3378,12 +3379,12 @@
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3411,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S22" s="15">
         <v>1</v>
@@ -3431,7 +3432,7 @@
       </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3445,15 +3446,15 @@
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3480,16 +3481,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S23" s="15">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U23" s="15">
         <v>40</v>
@@ -3502,7 +3503,7 @@
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3510,7 +3511,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3518,15 +3519,15 @@
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3553,16 +3554,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S24" s="15">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U24" s="15">
         <v>40</v>
@@ -3575,7 +3576,7 @@
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3583,7 +3584,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3591,12 +3592,12 @@
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3624,10 +3625,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S25" s="15">
         <v>1</v>
@@ -3644,7 +3645,7 @@
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3658,12 +3659,12 @@
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3691,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S26" s="15">
         <v>1</v>
@@ -3711,7 +3712,7 @@
       </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3725,12 +3726,12 @@
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3758,16 +3759,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S27" s="15">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U27" s="15">
         <v>100</v>
@@ -3786,7 +3787,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3794,12 +3795,12 @@
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -3827,10 +3828,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S28" s="18">
         <v>1</v>
@@ -3853,7 +3854,7 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3861,12 +3862,12 @@
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -3894,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S29" s="18">
         <v>1</v>
@@ -3920,7 +3921,7 @@
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3928,12 +3929,12 @@
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -3961,10 +3962,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S30" s="15">
         <v>1</v>
@@ -3981,7 +3982,7 @@
       </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3995,12 +3996,12 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4028,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S31" s="15">
         <v>1</v>
@@ -4054,7 +4055,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4062,12 +4063,12 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4095,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S32" s="15">
         <v>1</v>
@@ -4127,12 +4128,12 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4160,10 +4161,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S33" s="15">
         <v>1</v>
@@ -4180,7 +4181,7 @@
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -4194,12 +4195,12 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4227,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S34" s="15">
         <v>1</v>
@@ -4253,7 +4254,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4261,12 +4262,12 @@
         <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -4294,10 +4295,10 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S35" s="15">
         <v>1</v>
@@ -4318,7 +4319,7 @@
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB35" s="15">
         <v>28000</v>
@@ -4332,12 +4333,12 @@
         <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -4365,10 +4366,10 @@
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S36" s="15">
         <v>1</v>
@@ -4389,7 +4390,7 @@
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB36" s="15">
         <v>28000</v>
@@ -4403,12 +4404,12 @@
         <v>2700103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -4436,10 +4437,10 @@
         <v>1</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S37" s="15">
         <v>1</v>
@@ -4460,7 +4461,7 @@
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB37" s="15">
         <v>28000</v>
@@ -4474,12 +4475,12 @@
         <v>2700104</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
@@ -4507,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S38" s="15">
         <v>1</v>
@@ -4527,11 +4528,11 @@
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB38" s="15">
         <v>28000</v>
@@ -4545,12 +4546,12 @@
         <v>2700105</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7">
@@ -4578,10 +4579,10 @@
         <v>1</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S39" s="15">
         <v>1</v>
@@ -4602,7 +4603,7 @@
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB39" s="15">
         <v>28000</v>
@@ -4616,12 +4617,12 @@
         <v>2700106</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7">
@@ -4649,10 +4650,10 @@
         <v>1</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S40" s="15">
         <v>1</v>
@@ -4673,7 +4674,7 @@
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB40" s="15">
         <v>28000</v>
@@ -4687,12 +4688,12 @@
         <v>2700107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7">
@@ -4720,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S41" s="15">
         <v>1</v>
@@ -4744,7 +4745,7 @@
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB41" s="15">
         <v>28000</v>
@@ -4758,12 +4759,12 @@
         <v>2700108</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7">
@@ -4791,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S42" s="15">
         <v>1</v>
@@ -4811,11 +4812,11 @@
       </c>
       <c r="X42" s="15"/>
       <c r="Y42" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB42" s="15">
         <v>28000</v>
@@ -4829,12 +4830,12 @@
         <v>2700109</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7">
@@ -4862,10 +4863,10 @@
         <v>1</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S43" s="15">
         <v>1</v>
@@ -4886,7 +4887,7 @@
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB43" s="15">
         <v>28000</v>
@@ -4900,12 +4901,12 @@
         <v>2700110</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7">
@@ -4933,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S44" s="15">
         <v>1</v>
@@ -4957,7 +4958,7 @@
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB44" s="15">
         <v>28000</v>
@@ -4971,12 +4972,12 @@
         <v>2700111</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7">
@@ -5004,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S45" s="15">
         <v>1</v>
@@ -5028,7 +5029,7 @@
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB45" s="15">
         <v>28000</v>
@@ -5042,12 +5043,12 @@
         <v>2700112</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7">
@@ -5075,10 +5076,10 @@
         <v>1</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S46" s="15">
         <v>1</v>
@@ -5095,11 +5096,11 @@
       </c>
       <c r="X46" s="15"/>
       <c r="Y46" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB46" s="15">
         <v>28000</v>
@@ -5113,12 +5114,12 @@
         <v>2700113</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7">
@@ -5146,10 +5147,10 @@
         <v>1</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S47" s="15">
         <v>1</v>
@@ -5170,7 +5171,7 @@
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB47" s="15">
         <v>28000</v>
@@ -5184,12 +5185,12 @@
         <v>2700114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7">
@@ -5217,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S48" s="15">
         <v>1</v>
@@ -5241,7 +5242,7 @@
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB48" s="15">
         <v>28000</v>
@@ -5255,12 +5256,12 @@
         <v>2700115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7">
@@ -5288,10 +5289,10 @@
         <v>1</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S49" s="15">
         <v>1</v>
@@ -5312,7 +5313,7 @@
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB49" s="15">
         <v>28000</v>
@@ -5326,12 +5327,12 @@
         <v>2700116</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7">
@@ -5359,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S50" s="15">
         <v>1</v>
@@ -5379,11 +5380,11 @@
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB50" s="15">
         <v>28000</v>
@@ -5397,12 +5398,12 @@
         <v>2700117</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7">
@@ -5430,10 +5431,10 @@
         <v>1</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S51" s="15">
         <v>1</v>
@@ -5454,7 +5455,7 @@
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB51" s="15">
         <v>28000</v>
@@ -5468,12 +5469,12 @@
         <v>2700118</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
@@ -5501,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S52" s="15">
         <v>1</v>
@@ -5525,7 +5526,7 @@
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB52" s="15">
         <v>28000</v>
@@ -5539,12 +5540,12 @@
         <v>2700119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
@@ -5572,10 +5573,10 @@
         <v>1</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S53" s="15">
         <v>1</v>
@@ -5596,7 +5597,7 @@
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB53" s="15">
         <v>28000</v>
@@ -5610,12 +5611,12 @@
         <v>2700120</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7">
@@ -5643,10 +5644,10 @@
         <v>1</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S54" s="15">
         <v>1</v>
@@ -5663,11 +5664,11 @@
       </c>
       <c r="X54" s="15"/>
       <c r="Y54" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB54" s="15">
         <v>28000</v>
@@ -5681,12 +5682,12 @@
         <v>2700201</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
@@ -5714,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S55" s="15">
         <v>1</v>
@@ -5738,7 +5739,7 @@
       </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB55" s="15">
         <v>28000</v>
@@ -5752,12 +5753,12 @@
         <v>2700202</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
@@ -5785,10 +5786,10 @@
         <v>1</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S56" s="15">
         <v>1</v>
@@ -5809,7 +5810,7 @@
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB56" s="15">
         <v>28000</v>
@@ -5823,12 +5824,12 @@
         <v>2700203</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
@@ -5856,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S57" s="15">
         <v>1</v>
@@ -5880,7 +5881,7 @@
       </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB57" s="15">
         <v>28000</v>
@@ -5894,12 +5895,12 @@
         <v>2700204</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
@@ -5927,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S58" s="15">
         <v>1</v>
@@ -5947,11 +5948,11 @@
       </c>
       <c r="X58" s="15"/>
       <c r="Y58" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB58" s="15">
         <v>28000</v>
@@ -5965,12 +5966,12 @@
         <v>2700205</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7">
@@ -5998,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S59" s="15">
         <v>1</v>
@@ -6022,7 +6023,7 @@
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB59" s="15">
         <v>28000</v>
@@ -6036,12 +6037,12 @@
         <v>2700206</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7">
@@ -6069,10 +6070,10 @@
         <v>1</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S60" s="15">
         <v>1</v>
@@ -6093,7 +6094,7 @@
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB60" s="15">
         <v>28000</v>
@@ -6107,12 +6108,12 @@
         <v>2700207</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7">
@@ -6140,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S61" s="15">
         <v>1</v>
@@ -6164,7 +6165,7 @@
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB61" s="15">
         <v>28000</v>
@@ -6178,12 +6179,12 @@
         <v>2700208</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7">
@@ -6211,10 +6212,10 @@
         <v>1</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S62" s="15">
         <v>1</v>
@@ -6231,11 +6232,11 @@
       </c>
       <c r="X62" s="15"/>
       <c r="Y62" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB62" s="15">
         <v>28000</v>
@@ -6249,12 +6250,12 @@
         <v>2700209</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7">
@@ -6282,10 +6283,10 @@
         <v>1</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S63" s="15">
         <v>1</v>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB63" s="15">
         <v>28000</v>
@@ -6320,12 +6321,12 @@
         <v>2700210</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7">
@@ -6353,10 +6354,10 @@
         <v>1</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S64" s="15">
         <v>1</v>
@@ -6377,7 +6378,7 @@
       </c>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB64" s="15">
         <v>28000</v>
@@ -6391,12 +6392,12 @@
         <v>2700211</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7">
@@ -6424,10 +6425,10 @@
         <v>1</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S65" s="15">
         <v>1</v>
@@ -6448,7 +6449,7 @@
       </c>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB65" s="15">
         <v>28000</v>
@@ -6462,12 +6463,12 @@
         <v>2700212</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7">
@@ -6495,10 +6496,10 @@
         <v>1</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S66" s="15">
         <v>1</v>
@@ -6515,11 +6516,11 @@
       </c>
       <c r="X66" s="15"/>
       <c r="Y66" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB66" s="15">
         <v>28000</v>
@@ -6533,12 +6534,12 @@
         <v>2700213</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7">
@@ -6566,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S67" s="15">
         <v>1</v>
@@ -6590,7 +6591,7 @@
       </c>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB67" s="15">
         <v>28000</v>
@@ -6604,12 +6605,12 @@
         <v>2700214</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7">
@@ -6637,10 +6638,10 @@
         <v>1</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S68" s="15">
         <v>1</v>
@@ -6661,7 +6662,7 @@
       </c>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB68" s="15">
         <v>28000</v>
@@ -6675,12 +6676,12 @@
         <v>2700215</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7">
@@ -6708,10 +6709,10 @@
         <v>1</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S69" s="15">
         <v>1</v>
@@ -6732,7 +6733,7 @@
       </c>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB69" s="15">
         <v>28000</v>
@@ -6746,12 +6747,12 @@
         <v>2700216</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7">
@@ -6779,10 +6780,10 @@
         <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S70" s="15">
         <v>1</v>
@@ -6799,11 +6800,11 @@
       </c>
       <c r="X70" s="15"/>
       <c r="Y70" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z70" s="8"/>
       <c r="AA70" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB70" s="15">
         <v>28000</v>
@@ -6817,12 +6818,12 @@
         <v>2700217</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7">
@@ -6850,10 +6851,10 @@
         <v>1</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S71" s="15">
         <v>1</v>
@@ -6874,7 +6875,7 @@
       </c>
       <c r="Z71" s="8"/>
       <c r="AA71" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB71" s="15">
         <v>28000</v>
@@ -6888,12 +6889,12 @@
         <v>2700218</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7">
@@ -6921,10 +6922,10 @@
         <v>1</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S72" s="15">
         <v>1</v>
@@ -6945,7 +6946,7 @@
       </c>
       <c r="Z72" s="8"/>
       <c r="AA72" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB72" s="15">
         <v>28000</v>
@@ -6959,12 +6960,12 @@
         <v>2700219</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7">
@@ -6992,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S73" s="15">
         <v>1</v>
@@ -7016,7 +7017,7 @@
       </c>
       <c r="Z73" s="8"/>
       <c r="AA73" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB73" s="15">
         <v>28000</v>
@@ -7030,12 +7031,12 @@
         <v>2700220</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7">
@@ -7063,10 +7064,10 @@
         <v>1</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S74" s="15">
         <v>1</v>
@@ -7083,11 +7084,11 @@
       </c>
       <c r="X74" s="15"/>
       <c r="Y74" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB74" s="15">
         <v>28000</v>
@@ -7101,12 +7102,12 @@
         <v>2700301</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7">
@@ -7134,10 +7135,10 @@
         <v>1</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S75" s="15">
         <v>1</v>
@@ -7158,7 +7159,7 @@
       </c>
       <c r="Z75" s="8"/>
       <c r="AA75" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB75" s="15">
         <v>28000</v>
@@ -7172,12 +7173,12 @@
         <v>2700302</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7">
@@ -7205,10 +7206,10 @@
         <v>1</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S76" s="15">
         <v>1</v>
@@ -7229,7 +7230,7 @@
       </c>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB76" s="15">
         <v>28000</v>
@@ -7243,12 +7244,12 @@
         <v>2700303</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7">
@@ -7276,10 +7277,10 @@
         <v>1</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S77" s="15">
         <v>1</v>
@@ -7300,7 +7301,7 @@
       </c>
       <c r="Z77" s="8"/>
       <c r="AA77" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB77" s="15">
         <v>28000</v>
@@ -7314,12 +7315,12 @@
         <v>2700304</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7">
@@ -7347,10 +7348,10 @@
         <v>1</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S78" s="15">
         <v>1</v>
@@ -7367,11 +7368,11 @@
       </c>
       <c r="X78" s="15"/>
       <c r="Y78" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z78" s="8"/>
       <c r="AA78" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB78" s="15">
         <v>28000</v>
@@ -7385,12 +7386,12 @@
         <v>2700305</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7">
@@ -7418,10 +7419,10 @@
         <v>1</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R79" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S79" s="15">
         <v>1</v>
@@ -7442,7 +7443,7 @@
       </c>
       <c r="Z79" s="8"/>
       <c r="AA79" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB79" s="15">
         <v>28000</v>
@@ -7456,12 +7457,12 @@
         <v>2700306</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7">
@@ -7489,10 +7490,10 @@
         <v>1</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R80" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S80" s="15">
         <v>1</v>
@@ -7513,7 +7514,7 @@
       </c>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB80" s="15">
         <v>28000</v>
@@ -7527,12 +7528,12 @@
         <v>2700307</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7">
@@ -7560,10 +7561,10 @@
         <v>1</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R81" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S81" s="15">
         <v>1</v>
@@ -7584,7 +7585,7 @@
       </c>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB81" s="15">
         <v>28000</v>
@@ -7598,12 +7599,12 @@
         <v>2700308</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7">
@@ -7631,10 +7632,10 @@
         <v>1</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R82" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S82" s="15">
         <v>1</v>
@@ -7651,11 +7652,11 @@
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB82" s="15">
         <v>28000</v>
@@ -7669,12 +7670,12 @@
         <v>2700309</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7">
@@ -7702,10 +7703,10 @@
         <v>1</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R83" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S83" s="15">
         <v>1</v>
@@ -7726,7 +7727,7 @@
       </c>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB83" s="15">
         <v>28000</v>
@@ -7740,12 +7741,12 @@
         <v>2700310</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7">
@@ -7773,10 +7774,10 @@
         <v>1</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S84" s="15">
         <v>1</v>
@@ -7797,7 +7798,7 @@
       </c>
       <c r="Z84" s="8"/>
       <c r="AA84" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB84" s="15">
         <v>28000</v>
@@ -7811,12 +7812,12 @@
         <v>2700311</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7">
@@ -7844,10 +7845,10 @@
         <v>1</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S85" s="15">
         <v>1</v>
@@ -7868,7 +7869,7 @@
       </c>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB85" s="15">
         <v>28000</v>
@@ -7882,12 +7883,12 @@
         <v>2700312</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7">
@@ -7915,10 +7916,10 @@
         <v>1</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S86" s="15">
         <v>1</v>
@@ -7935,11 +7936,11 @@
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB86" s="15">
         <v>28000</v>
@@ -7953,12 +7954,12 @@
         <v>2700313</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7">
@@ -7986,10 +7987,10 @@
         <v>1</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R87" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S87" s="15">
         <v>1</v>
@@ -8010,7 +8011,7 @@
       </c>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB87" s="15">
         <v>28000</v>
@@ -8024,12 +8025,12 @@
         <v>2700314</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7">
@@ -8057,10 +8058,10 @@
         <v>1</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R88" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S88" s="15">
         <v>1</v>
@@ -8081,7 +8082,7 @@
       </c>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB88" s="15">
         <v>28000</v>
@@ -8095,12 +8096,12 @@
         <v>2700315</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7">
@@ -8128,10 +8129,10 @@
         <v>1</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R89" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S89" s="15">
         <v>1</v>
@@ -8152,7 +8153,7 @@
       </c>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB89" s="15">
         <v>28000</v>
@@ -8166,12 +8167,12 @@
         <v>2700316</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7">
@@ -8199,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S90" s="15">
         <v>1</v>
@@ -8219,11 +8220,11 @@
       </c>
       <c r="X90" s="15"/>
       <c r="Y90" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB90" s="15">
         <v>28000</v>
@@ -8237,12 +8238,12 @@
         <v>2700317</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7">
@@ -8270,10 +8271,10 @@
         <v>1</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R91" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S91" s="15">
         <v>1</v>
@@ -8294,7 +8295,7 @@
       </c>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB91" s="15">
         <v>28000</v>
@@ -8308,12 +8309,12 @@
         <v>2700318</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7">
@@ -8341,10 +8342,10 @@
         <v>1</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S92" s="15">
         <v>1</v>
@@ -8365,7 +8366,7 @@
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB92" s="15">
         <v>28000</v>
@@ -8379,12 +8380,12 @@
         <v>2700319</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7">
@@ -8412,10 +8413,10 @@
         <v>1</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R93" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S93" s="15">
         <v>1</v>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB93" s="15">
         <v>28000</v>
@@ -8450,12 +8451,12 @@
         <v>2700320</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7">
@@ -8483,10 +8484,10 @@
         <v>1</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R94" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S94" s="15">
         <v>1</v>
@@ -8503,11 +8504,11 @@
       </c>
       <c r="X94" s="15"/>
       <c r="Y94" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB94" s="15">
         <v>28000</v>
@@ -8521,12 +8522,12 @@
         <v>2700401</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7">
@@ -8554,10 +8555,10 @@
         <v>1</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S95" s="15">
         <v>1</v>
@@ -8578,7 +8579,7 @@
       </c>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB95" s="15">
         <v>28000</v>
@@ -8592,12 +8593,12 @@
         <v>2700402</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7">
@@ -8625,10 +8626,10 @@
         <v>1</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S96" s="15">
         <v>1</v>
@@ -8649,7 +8650,7 @@
       </c>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB96" s="15">
         <v>28000</v>
@@ -8663,12 +8664,12 @@
         <v>2700403</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7">
@@ -8696,10 +8697,10 @@
         <v>1</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R97" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S97" s="15">
         <v>1</v>
@@ -8720,7 +8721,7 @@
       </c>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB97" s="15">
         <v>28000</v>
@@ -8734,12 +8735,12 @@
         <v>2700404</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7">
@@ -8767,10 +8768,10 @@
         <v>1</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S98" s="15">
         <v>1</v>
@@ -8787,11 +8788,11 @@
       </c>
       <c r="X98" s="15"/>
       <c r="Y98" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB98" s="15">
         <v>28000</v>
@@ -8805,12 +8806,12 @@
         <v>2700405</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7">
@@ -8838,10 +8839,10 @@
         <v>1</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R99" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S99" s="15">
         <v>1</v>
@@ -8862,7 +8863,7 @@
       </c>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB99" s="15">
         <v>28000</v>
@@ -8876,12 +8877,12 @@
         <v>2700406</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7">
@@ -8909,10 +8910,10 @@
         <v>1</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R100" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S100" s="15">
         <v>1</v>
@@ -8933,7 +8934,7 @@
       </c>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB100" s="15">
         <v>28000</v>
@@ -8947,12 +8948,12 @@
         <v>2700407</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7">
@@ -8980,10 +8981,10 @@
         <v>1</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R101" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S101" s="15">
         <v>1</v>
@@ -9004,7 +9005,7 @@
       </c>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB101" s="15">
         <v>28000</v>
@@ -9018,12 +9019,12 @@
         <v>2700408</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7">
@@ -9051,10 +9052,10 @@
         <v>1</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R102" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S102" s="15">
         <v>1</v>
@@ -9071,11 +9072,11 @@
       </c>
       <c r="X102" s="15"/>
       <c r="Y102" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB102" s="15">
         <v>28000</v>
@@ -9089,12 +9090,12 @@
         <v>2700409</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7">
@@ -9122,10 +9123,10 @@
         <v>1</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S103" s="15">
         <v>1</v>
@@ -9146,7 +9147,7 @@
       </c>
       <c r="Z103" s="8"/>
       <c r="AA103" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB103" s="15">
         <v>28000</v>
@@ -9160,12 +9161,12 @@
         <v>2700410</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7">
@@ -9193,10 +9194,10 @@
         <v>1</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R104" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S104" s="15">
         <v>1</v>
@@ -9217,7 +9218,7 @@
       </c>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB104" s="15">
         <v>28000</v>
@@ -9231,12 +9232,12 @@
         <v>2700411</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7">
@@ -9264,10 +9265,10 @@
         <v>1</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R105" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S105" s="15">
         <v>1</v>
@@ -9288,7 +9289,7 @@
       </c>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB105" s="15">
         <v>28000</v>
@@ -9302,12 +9303,12 @@
         <v>2700412</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7">
@@ -9335,10 +9336,10 @@
         <v>1</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R106" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S106" s="15">
         <v>1</v>
@@ -9355,11 +9356,11 @@
       </c>
       <c r="X106" s="15"/>
       <c r="Y106" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB106" s="15">
         <v>28000</v>
@@ -9373,12 +9374,12 @@
         <v>2700413</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7">
@@ -9406,10 +9407,10 @@
         <v>1</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R107" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S107" s="15">
         <v>1</v>
@@ -9430,7 +9431,7 @@
       </c>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB107" s="15">
         <v>28000</v>
@@ -9444,12 +9445,12 @@
         <v>2700414</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7">
@@ -9477,10 +9478,10 @@
         <v>1</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R108" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S108" s="15">
         <v>1</v>
@@ -9501,7 +9502,7 @@
       </c>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB108" s="15">
         <v>28000</v>
@@ -9515,12 +9516,12 @@
         <v>2700415</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7">
@@ -9548,10 +9549,10 @@
         <v>1</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R109" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S109" s="15">
         <v>1</v>
@@ -9572,7 +9573,7 @@
       </c>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB109" s="15">
         <v>28000</v>
@@ -9586,12 +9587,12 @@
         <v>2700416</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7">
@@ -9619,10 +9620,10 @@
         <v>1</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S110" s="15">
         <v>1</v>
@@ -9639,11 +9640,11 @@
       </c>
       <c r="X110" s="15"/>
       <c r="Y110" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z110" s="8"/>
       <c r="AA110" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB110" s="15">
         <v>28000</v>
@@ -9657,12 +9658,12 @@
         <v>2700417</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7">
@@ -9690,10 +9691,10 @@
         <v>1</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R111" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S111" s="15">
         <v>1</v>
@@ -9714,7 +9715,7 @@
       </c>
       <c r="Z111" s="8"/>
       <c r="AA111" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB111" s="15">
         <v>28000</v>
@@ -9728,12 +9729,12 @@
         <v>2700418</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7">
@@ -9761,10 +9762,10 @@
         <v>1</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R112" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S112" s="15">
         <v>1</v>
@@ -9785,7 +9786,7 @@
       </c>
       <c r="Z112" s="8"/>
       <c r="AA112" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB112" s="15">
         <v>28000</v>
@@ -9799,12 +9800,12 @@
         <v>2700419</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7">
@@ -9832,10 +9833,10 @@
         <v>1</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R113" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S113" s="15">
         <v>1</v>
@@ -9856,7 +9857,7 @@
       </c>
       <c r="Z113" s="8"/>
       <c r="AA113" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB113" s="15">
         <v>28000</v>
@@ -9870,12 +9871,12 @@
         <v>2700420</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7">
@@ -9903,10 +9904,10 @@
         <v>1</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R114" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S114" s="15">
         <v>1</v>
@@ -9923,11 +9924,11 @@
       </c>
       <c r="X114" s="15"/>
       <c r="Y114" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z114" s="8"/>
       <c r="AA114" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB114" s="15">
         <v>28000</v>
@@ -9941,12 +9942,12 @@
         <v>2700501</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7">
@@ -9974,10 +9975,10 @@
         <v>1</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R115" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S115" s="15">
         <v>1</v>
@@ -9998,7 +9999,7 @@
       </c>
       <c r="Z115" s="8"/>
       <c r="AA115" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB115" s="15">
         <v>28000</v>
@@ -10012,12 +10013,12 @@
         <v>2700502</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7">
@@ -10045,10 +10046,10 @@
         <v>1</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R116" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S116" s="15">
         <v>1</v>
@@ -10069,7 +10070,7 @@
       </c>
       <c r="Z116" s="8"/>
       <c r="AA116" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB116" s="15">
         <v>28000</v>
@@ -10083,12 +10084,12 @@
         <v>2700503</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7">
@@ -10116,10 +10117,10 @@
         <v>1</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R117" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S117" s="15">
         <v>1</v>
@@ -10140,7 +10141,7 @@
       </c>
       <c r="Z117" s="8"/>
       <c r="AA117" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB117" s="15">
         <v>28000</v>
@@ -10154,12 +10155,12 @@
         <v>2700504</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7">
@@ -10187,10 +10188,10 @@
         <v>1</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R118" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S118" s="15">
         <v>1</v>
@@ -10207,11 +10208,11 @@
       </c>
       <c r="X118" s="15"/>
       <c r="Y118" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z118" s="8"/>
       <c r="AA118" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB118" s="15">
         <v>28000</v>
@@ -10225,12 +10226,12 @@
         <v>2700505</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7">
@@ -10258,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R119" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S119" s="15">
         <v>1</v>
@@ -10282,7 +10283,7 @@
       </c>
       <c r="Z119" s="8"/>
       <c r="AA119" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB119" s="15">
         <v>28000</v>
@@ -10296,12 +10297,12 @@
         <v>2700506</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7">
@@ -10329,10 +10330,10 @@
         <v>1</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R120" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S120" s="15">
         <v>1</v>
@@ -10353,7 +10354,7 @@
       </c>
       <c r="Z120" s="8"/>
       <c r="AA120" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB120" s="15">
         <v>28000</v>
@@ -10367,12 +10368,12 @@
         <v>2700507</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7">
@@ -10400,10 +10401,10 @@
         <v>1</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R121" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S121" s="15">
         <v>1</v>
@@ -10424,7 +10425,7 @@
       </c>
       <c r="Z121" s="8"/>
       <c r="AA121" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB121" s="15">
         <v>28000</v>
@@ -10438,12 +10439,12 @@
         <v>2700508</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7">
@@ -10471,10 +10472,10 @@
         <v>1</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R122" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S122" s="15">
         <v>1</v>
@@ -10491,11 +10492,11 @@
       </c>
       <c r="X122" s="15"/>
       <c r="Y122" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z122" s="8"/>
       <c r="AA122" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB122" s="15">
         <v>28000</v>
@@ -10509,12 +10510,12 @@
         <v>2700509</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7">
@@ -10542,10 +10543,10 @@
         <v>1</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R123" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S123" s="15">
         <v>1</v>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="Z123" s="8"/>
       <c r="AA123" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB123" s="15">
         <v>28000</v>
@@ -10580,12 +10581,12 @@
         <v>2700510</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7">
@@ -10613,10 +10614,10 @@
         <v>1</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R124" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S124" s="15">
         <v>1</v>
@@ -10637,7 +10638,7 @@
       </c>
       <c r="Z124" s="8"/>
       <c r="AA124" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB124" s="15">
         <v>28000</v>
@@ -10651,12 +10652,12 @@
         <v>2700511</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7">
@@ -10684,10 +10685,10 @@
         <v>1</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R125" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S125" s="15">
         <v>1</v>
@@ -10708,7 +10709,7 @@
       </c>
       <c r="Z125" s="8"/>
       <c r="AA125" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB125" s="15">
         <v>28000</v>
@@ -10722,12 +10723,12 @@
         <v>2700512</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7">
@@ -10755,10 +10756,10 @@
         <v>1</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R126" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S126" s="15">
         <v>1</v>
@@ -10775,11 +10776,11 @@
       </c>
       <c r="X126" s="15"/>
       <c r="Y126" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z126" s="8"/>
       <c r="AA126" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB126" s="15">
         <v>28000</v>
@@ -10793,12 +10794,12 @@
         <v>2700513</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7">
@@ -10826,10 +10827,10 @@
         <v>1</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R127" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S127" s="15">
         <v>1</v>
@@ -10850,7 +10851,7 @@
       </c>
       <c r="Z127" s="8"/>
       <c r="AA127" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB127" s="15">
         <v>28000</v>
@@ -10864,12 +10865,12 @@
         <v>2700514</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="7">
@@ -10897,10 +10898,10 @@
         <v>1</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R128" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S128" s="15">
         <v>1</v>
@@ -10921,7 +10922,7 @@
       </c>
       <c r="Z128" s="8"/>
       <c r="AA128" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB128" s="15">
         <v>28000</v>
@@ -10935,12 +10936,12 @@
         <v>2700515</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7">
@@ -10968,10 +10969,10 @@
         <v>1</v>
       </c>
       <c r="Q129" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S129" s="15">
         <v>1</v>
@@ -10992,7 +10993,7 @@
       </c>
       <c r="Z129" s="8"/>
       <c r="AA129" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB129" s="15">
         <v>28000</v>
@@ -11006,12 +11007,12 @@
         <v>2700516</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7">
@@ -11039,10 +11040,10 @@
         <v>1</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S130" s="15">
         <v>1</v>
@@ -11059,11 +11060,11 @@
       </c>
       <c r="X130" s="15"/>
       <c r="Y130" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z130" s="8"/>
       <c r="AA130" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB130" s="15">
         <v>28000</v>
@@ -11077,12 +11078,12 @@
         <v>2700517</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7">
@@ -11110,10 +11111,10 @@
         <v>1</v>
       </c>
       <c r="Q131" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R131" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S131" s="15">
         <v>1</v>
@@ -11134,7 +11135,7 @@
       </c>
       <c r="Z131" s="8"/>
       <c r="AA131" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB131" s="15">
         <v>28000</v>
@@ -11148,12 +11149,12 @@
         <v>2700518</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7">
@@ -11181,10 +11182,10 @@
         <v>1</v>
       </c>
       <c r="Q132" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R132" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S132" s="15">
         <v>1</v>
@@ -11205,7 +11206,7 @@
       </c>
       <c r="Z132" s="8"/>
       <c r="AA132" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB132" s="15">
         <v>28000</v>
@@ -11219,12 +11220,12 @@
         <v>2700519</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7">
@@ -11252,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="Q133" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R133" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S133" s="15">
         <v>1</v>
@@ -11276,7 +11277,7 @@
       </c>
       <c r="Z133" s="8"/>
       <c r="AA133" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB133" s="15">
         <v>28000</v>
@@ -11290,12 +11291,12 @@
         <v>2700520</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7">
@@ -11323,10 +11324,10 @@
         <v>1</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R134" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S134" s="15">
         <v>1</v>
@@ -11343,11 +11344,11 @@
       </c>
       <c r="X134" s="15"/>
       <c r="Y134" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z134" s="8"/>
       <c r="AA134" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB134" s="15">
         <v>28000</v>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -1,40 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F04C1-52F6-484B-AF5D-2413D3D2BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="SceneProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +58,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -69,7 +73,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,14 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -94,7 +96,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,14 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +129,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -146,7 +144,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -156,14 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="W3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -172,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -181,14 +176,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -197,7 +191,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -205,14 +198,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>public const int NONE = 0;
@@ -247,14 +239,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -263,7 +254,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -277,12 +267,12 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
@@ -482,6 +472,9 @@
     <t>987,150,-2897</t>
   </si>
   <si>
+    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -610,7 +603,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4,100,4,</t>
@@ -620,7 +612,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -630,7 +621,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -640,7 +630,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -703,7 +692,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(</t>
@@ -713,7 +701,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -723,7 +710,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -733,7 +719,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -743,7 +728,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>29级)</t>
@@ -764,7 +748,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战场(3</t>
@@ -774,7 +757,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0-</t>
@@ -784,7 +766,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>60级</t>
@@ -794,7 +775,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -837,31 +817,33 @@
     <t>1V1挑战赛</t>
   </si>
   <si>
+    <t>征程1章-1关</t>
+  </si>
+  <si>
     <t>0,0,-1000</t>
   </si>
   <si>
     <t>10000152;10</t>
   </si>
   <si>
+    <t>征程1章-2关</t>
+  </si>
+  <si>
     <t>10000152;20</t>
   </si>
   <si>
+    <t>征程1章-3关</t>
+  </si>
+  <si>
     <t>10000152;30</t>
   </si>
   <si>
-    <t>征程1章-1关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>征程1章-2关</t>
-  </si>
-  <si>
-    <t>征程1章-3关</t>
-  </si>
-  <si>
     <t>征程1章-4关</t>
   </si>
   <si>
+    <t>510400,510401</t>
+  </si>
+  <si>
     <t>征程1章-5关</t>
   </si>
   <si>
@@ -874,6 +856,9 @@
     <t>征程1章-8关</t>
   </si>
   <si>
+    <t>510800,510801</t>
+  </si>
+  <si>
     <t>征程1章-9关</t>
   </si>
   <si>
@@ -886,6 +871,9 @@
     <t>征程1章-12关</t>
   </si>
   <si>
+    <t>511200,511201</t>
+  </si>
+  <si>
     <t>征程1章-13关</t>
   </si>
   <si>
@@ -898,6 +886,9 @@
     <t>征程1章-16关</t>
   </si>
   <si>
+    <t>511600,511601</t>
+  </si>
+  <si>
     <t>征程1章-17关</t>
   </si>
   <si>
@@ -910,23 +901,27 @@
     <t>征程1章-20关</t>
   </si>
   <si>
+    <t>512000,512001</t>
+  </si>
+  <si>
+    <t>征程2章-1关</t>
+  </si>
+  <si>
+    <t>征程2章-2关</t>
+  </si>
+  <si>
+    <t>征程2章-3关</t>
+  </si>
+  <si>
+    <t>征程2章-4关</t>
+  </si>
+  <si>
+    <t>520400,520401</t>
+  </si>
+  <si>
     <t>征程2章-5关</t>
   </si>
   <si>
-    <t>征程2章-1关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>征程2章-2关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>征程2章-3关</t>
-  </si>
-  <si>
-    <t>征程2章-4关</t>
-  </si>
-  <si>
     <t>征程2章-6关</t>
   </si>
   <si>
@@ -936,6 +931,9 @@
     <t>征程2章-8关</t>
   </si>
   <si>
+    <t>520800,520801</t>
+  </si>
+  <si>
     <t>征程2章-9关</t>
   </si>
   <si>
@@ -948,6 +946,9 @@
     <t>征程2章-12关</t>
   </si>
   <si>
+    <t>521200,521201</t>
+  </si>
+  <si>
     <t>征程2章-13关</t>
   </si>
   <si>
@@ -960,6 +961,9 @@
     <t>征程2章-16关</t>
   </si>
   <si>
+    <t>521600,521601</t>
+  </si>
+  <si>
     <t>征程2章-17关</t>
   </si>
   <si>
@@ -972,6 +976,9 @@
     <t>征程2章-20关</t>
   </si>
   <si>
+    <t>522000,522001</t>
+  </si>
+  <si>
     <t>征程3章-1关</t>
   </si>
   <si>
@@ -984,6 +991,9 @@
     <t>征程3章-4关</t>
   </si>
   <si>
+    <t>530400,530401</t>
+  </si>
+  <si>
     <t>征程3章-5关</t>
   </si>
   <si>
@@ -996,6 +1006,9 @@
     <t>征程3章-8关</t>
   </si>
   <si>
+    <t>530800,530801</t>
+  </si>
+  <si>
     <t>征程3章-9关</t>
   </si>
   <si>
@@ -1008,6 +1021,9 @@
     <t>征程3章-12关</t>
   </si>
   <si>
+    <t>531200,531201</t>
+  </si>
+  <si>
     <t>征程3章-13关</t>
   </si>
   <si>
@@ -1020,6 +1036,9 @@
     <t>征程3章-16关</t>
   </si>
   <si>
+    <t>531600,531601</t>
+  </si>
+  <si>
     <t>征程3章-17关</t>
   </si>
   <si>
@@ -1032,6 +1051,9 @@
     <t>征程3章-20关</t>
   </si>
   <si>
+    <t>532000,532001</t>
+  </si>
+  <si>
     <t>征程4章-1关</t>
   </si>
   <si>
@@ -1044,6 +1066,9 @@
     <t>征程4章-4关</t>
   </si>
   <si>
+    <t>540400,540401</t>
+  </si>
+  <si>
     <t>征程4章-5关</t>
   </si>
   <si>
@@ -1056,6 +1081,9 @@
     <t>征程4章-8关</t>
   </si>
   <si>
+    <t>540800,540801</t>
+  </si>
+  <si>
     <t>征程4章-9关</t>
   </si>
   <si>
@@ -1068,6 +1096,9 @@
     <t>征程4章-12关</t>
   </si>
   <si>
+    <t>541200,541201</t>
+  </si>
+  <si>
     <t>征程4章-13关</t>
   </si>
   <si>
@@ -1080,6 +1111,9 @@
     <t>征程4章-16关</t>
   </si>
   <si>
+    <t>541600,541601</t>
+  </si>
+  <si>
     <t>征程4章-17关</t>
   </si>
   <si>
@@ -1092,6 +1126,9 @@
     <t>征程4章-20关</t>
   </si>
   <si>
+    <t>542000,542001</t>
+  </si>
+  <si>
     <t>征程5章-1关</t>
   </si>
   <si>
@@ -1104,6 +1141,9 @@
     <t>征程5章-4关</t>
   </si>
   <si>
+    <t>550400,550401</t>
+  </si>
+  <si>
     <t>征程5章-5关</t>
   </si>
   <si>
@@ -1116,6 +1156,9 @@
     <t>征程5章-8关</t>
   </si>
   <si>
+    <t>550800,550801</t>
+  </si>
+  <si>
     <t>征程5章-9关</t>
   </si>
   <si>
@@ -1128,6 +1171,9 @@
     <t>征程5章-12关</t>
   </si>
   <si>
+    <t>551200,551201</t>
+  </si>
+  <si>
     <t>征程5章-13关</t>
   </si>
   <si>
@@ -1140,6 +1186,9 @@
     <t>征程5章-16关</t>
   </si>
   <si>
+    <t>551600,551601</t>
+  </si>
+  <si>
     <t>征程5章-17关</t>
   </si>
   <si>
@@ -1152,115 +1201,20 @@
     <t>征程5章-20关</t>
   </si>
   <si>
-    <t>510400,510401</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>510800,510801</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>511200,511201</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>511600,511601</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>512000,512001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>520400,520401</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>520800,520801</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>521200,521201</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>521600,521601</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>522000,522001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>530400,530401</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>530800,530801</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>531200,531201</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>531600,531601</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>532000,532001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>540400,540401</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>540800,540801</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>541200,541201</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>541600,541601</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>542000,542001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>550400,550401</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>550800,550801</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>551200,551201</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>551600,551601</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>552000,552001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,7 +1226,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1281,14 +1234,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1296,39 +1247,172 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1355,24 +1439,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14938810388500626"/>
+        <fgColor theme="0" tint="-0.149388103885006"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <fgColor theme="0" tint="-0.149876400036622"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14975432599871821"/>
+        <fgColor theme="0" tint="-0.149754325998718"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1445,14 +1715,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1515,36 +2027,80 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1581,16 +2137,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
-  <autoFilter ref="C4:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:I6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:I6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StallArea"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InitPos"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NpcList"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MapType"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Icon"/>
+    <tableColumn id="4" name="StallArea"/>
+    <tableColumn id="5" name="InitPos"/>
+    <tableColumn id="6" name="NpcList"/>
+    <tableColumn id="7" name="MapType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1877,19 +2433,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -1915,7 +2471,7 @@
     <col min="31" max="31" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
@@ -2182,7 +2738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C6" s="7">
         <v>101</v>
       </c>
@@ -2197,16 +2753,16 @@
         <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="15">
         <v>101</v>
       </c>
       <c r="K6" s="15">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="L6" s="15">
         <v>1</v>
@@ -2225,13 +2781,13 @@
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S6" s="15">
         <v>0</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U6" s="15">
         <v>0</v>
@@ -2258,22 +2814,22 @@
         <v>0</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C7" s="7">
         <v>110001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="16">
@@ -2301,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" s="15">
         <v>2</v>
@@ -2325,10 +2881,10 @@
         <v>72000156</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15">
@@ -2341,22 +2897,22 @@
         <v>601500201</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C8" s="7">
         <v>110002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
@@ -2384,16 +2940,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U8" s="15">
         <v>2</v>
@@ -2408,10 +2964,10 @@
         <v>72000156</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15">
@@ -2424,22 +2980,22 @@
         <v>601500301</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C9" s="7">
         <v>110003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -2467,16 +3023,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U9" s="15">
         <v>2</v>
@@ -2491,10 +3047,10 @@
         <v>72000156</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15">
@@ -2507,22 +3063,22 @@
         <v>601500401</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C10" s="7">
         <v>110004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="16">
@@ -2550,16 +3106,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U10" s="15">
         <v>2</v>
@@ -2574,10 +3130,10 @@
         <v>72000156</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15">
@@ -2590,22 +3146,22 @@
         <v>601500501</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C11" s="7">
         <v>110005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="16">
@@ -2633,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U11" s="15">
         <v>2</v>
@@ -2657,10 +3213,10 @@
         <v>72000156</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15">
@@ -2673,20 +3229,20 @@
         <v>601500501</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C12" s="7">
         <v>2000001</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
@@ -2714,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
@@ -2734,7 +3290,7 @@
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2742,20 +3298,20 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C13" s="7">
         <v>2000002</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -2783,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S13" s="15">
         <v>1</v>
@@ -2803,7 +3359,7 @@
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2811,20 +3367,20 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C14" s="7">
         <v>2000003</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
@@ -2852,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S14" s="15">
         <v>1</v>
@@ -2872,7 +3428,7 @@
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2881,17 +3437,17 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="19"/>
     </row>
-    <row r="15" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C15" s="7">
         <v>2000004</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
@@ -2919,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S15" s="15">
         <v>1</v>
@@ -2939,7 +3495,7 @@
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -2948,17 +3504,17 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="19"/>
     </row>
-    <row r="16" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="3:31">
       <c r="C16" s="7">
         <v>2000008</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>20000038</v>
@@ -2988,16 +3544,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S16" s="15">
         <v>12</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U16" s="15">
         <v>0</v>
@@ -3010,7 +3566,7 @@
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -3018,23 +3574,23 @@
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:31">
       <c r="C17" s="7">
         <v>2000009</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
         <v>17</v>
@@ -3061,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S17" s="15">
         <v>12</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -3085,7 +3641,7 @@
         <v>72000156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -3093,20 +3649,20 @@
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="3:31">
       <c r="C18" s="7">
         <v>2000010</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
@@ -3134,10 +3690,10 @@
         <v>1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S18" s="15">
         <v>1</v>
@@ -3154,7 +3710,7 @@
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -3162,26 +3718,26 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C19" s="7">
         <v>2000011</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J19" s="7">
         <v>104</v>
@@ -3205,16 +3761,16 @@
         <v>1</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S19" s="15">
         <v>10</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U19" s="15">
         <v>0</v>
@@ -3239,20 +3795,20 @@
         <v>0</v>
       </c>
       <c r="AE19" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C20" s="7">
         <v>2100001</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
@@ -3280,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S20" s="15">
         <v>1</v>
@@ -3307,17 +3863,17 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="19"/>
     </row>
-    <row r="21" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C21" s="7">
         <v>2100002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
@@ -3345,10 +3901,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S21" s="15">
         <v>1</v>
@@ -3365,7 +3921,7 @@
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -3374,17 +3930,17 @@
       <c r="AD21" s="15"/>
       <c r="AE21" s="19"/>
     </row>
-    <row r="22" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C22" s="7">
         <v>2200001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
@@ -3412,10 +3968,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S22" s="15">
         <v>1</v>
@@ -3432,7 +3988,7 @@
       </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3441,20 +3997,20 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="19"/>
     </row>
-    <row r="23" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:31">
       <c r="C23" s="7">
         <v>3000001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I23" s="7">
         <v>12</v>
@@ -3481,16 +4037,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S23" s="15">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U23" s="15">
         <v>40</v>
@@ -3503,7 +4059,7 @@
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3511,23 +4067,23 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" customHeight="1" spans="3:31">
       <c r="C24" s="7">
         <v>3000002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
@@ -3554,16 +4110,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S24" s="15">
         <v>30</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U24" s="15">
         <v>40</v>
@@ -3576,7 +4132,7 @@
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -3584,20 +4140,20 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C25" s="7">
         <v>4000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -3625,10 +4181,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S25" s="15">
         <v>1</v>
@@ -3645,7 +4201,7 @@
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -3654,17 +4210,17 @@
       <c r="AD25" s="15"/>
       <c r="AE25" s="19"/>
     </row>
-    <row r="26" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C26" s="7">
         <v>5000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
@@ -3692,10 +4248,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S26" s="15">
         <v>1</v>
@@ -3712,7 +4268,7 @@
       </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -3721,17 +4277,17 @@
       <c r="AD26" s="15"/>
       <c r="AE26" s="19"/>
     </row>
-    <row r="27" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:31">
       <c r="C27" s="7">
         <v>6000001</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
@@ -3759,16 +4315,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S27" s="15">
         <v>12</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U27" s="15">
         <v>100</v>
@@ -3787,20 +4343,20 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C28" s="14">
         <v>6000002</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
@@ -3828,10 +4384,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S28" s="18">
         <v>1</v>
@@ -3854,20 +4410,20 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="3:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C29" s="14">
         <v>6000003</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
@@ -3895,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S29" s="18">
         <v>1</v>
@@ -3921,20 +4477,20 @@
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C30" s="7">
         <v>7000001</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
@@ -3962,10 +4518,10 @@
         <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S30" s="15">
         <v>1</v>
@@ -3982,7 +4538,7 @@
       </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3991,17 +4547,17 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="19"/>
     </row>
-    <row r="31" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C31" s="7">
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
@@ -4029,10 +4585,10 @@
         <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S31" s="15">
         <v>1</v>
@@ -4055,20 +4611,20 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C32" s="7">
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
@@ -4096,10 +4652,10 @@
         <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S32" s="15">
         <v>1</v>
@@ -4123,17 +4679,17 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="19"/>
     </row>
-    <row r="33" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C33" s="7">
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
@@ -4161,10 +4717,10 @@
         <v>1</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S33" s="15">
         <v>1</v>
@@ -4181,7 +4737,7 @@
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -4190,17 +4746,17 @@
       <c r="AD33" s="15"/>
       <c r="AE33" s="19"/>
     </row>
-    <row r="34" spans="3:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:31">
       <c r="C34" s="7">
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
@@ -4228,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S34" s="15">
         <v>1</v>
@@ -4254,20 +4810,20 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C35" s="7">
         <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -4295,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S35" s="15">
         <v>1</v>
@@ -4319,7 +4875,7 @@
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB35" s="15">
         <v>28000</v>
@@ -4328,17 +4884,17 @@
       <c r="AD35" s="15"/>
       <c r="AE35" s="19"/>
     </row>
-    <row r="36" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C36" s="7">
         <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -4366,10 +4922,10 @@
         <v>1</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S36" s="15">
         <v>1</v>
@@ -4390,7 +4946,7 @@
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB36" s="15">
         <v>28000</v>
@@ -4399,7 +4955,7 @@
       <c r="AD36" s="15"/>
       <c r="AE36" s="19"/>
     </row>
-    <row r="37" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C37" s="7">
         <v>2700103</v>
       </c>
@@ -4409,7 +4965,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -4437,10 +4993,10 @@
         <v>1</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S37" s="15">
         <v>1</v>
@@ -4461,7 +5017,7 @@
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB37" s="15">
         <v>28000</v>
@@ -4470,17 +5026,17 @@
       <c r="AD37" s="15"/>
       <c r="AE37" s="19"/>
     </row>
-    <row r="38" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C38" s="7">
         <v>2700104</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
@@ -4508,10 +5064,10 @@
         <v>1</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S38" s="15">
         <v>1</v>
@@ -4528,11 +5084,11 @@
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="21" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB38" s="15">
         <v>28000</v>
@@ -4541,17 +5097,17 @@
       <c r="AD38" s="15"/>
       <c r="AE38" s="19"/>
     </row>
-    <row r="39" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C39" s="7">
         <v>2700105</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7">
@@ -4579,10 +5135,10 @@
         <v>1</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S39" s="15">
         <v>1</v>
@@ -4603,7 +5159,7 @@
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB39" s="15">
         <v>28000</v>
@@ -4612,17 +5168,17 @@
       <c r="AD39" s="15"/>
       <c r="AE39" s="19"/>
     </row>
-    <row r="40" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C40" s="7">
         <v>2700106</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7">
@@ -4650,10 +5206,10 @@
         <v>1</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S40" s="15">
         <v>1</v>
@@ -4674,7 +5230,7 @@
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB40" s="15">
         <v>28000</v>
@@ -4683,17 +5239,17 @@
       <c r="AD40" s="15"/>
       <c r="AE40" s="19"/>
     </row>
-    <row r="41" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C41" s="7">
         <v>2700107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7">
@@ -4721,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S41" s="15">
         <v>1</v>
@@ -4745,7 +5301,7 @@
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB41" s="15">
         <v>28000</v>
@@ -4754,17 +5310,17 @@
       <c r="AD41" s="15"/>
       <c r="AE41" s="19"/>
     </row>
-    <row r="42" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C42" s="7">
         <v>2700108</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7">
@@ -4792,10 +5348,10 @@
         <v>1</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S42" s="15">
         <v>1</v>
@@ -4812,11 +5368,11 @@
       </c>
       <c r="X42" s="15"/>
       <c r="Y42" s="21" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB42" s="15">
         <v>28000</v>
@@ -4825,17 +5381,17 @@
       <c r="AD42" s="15"/>
       <c r="AE42" s="19"/>
     </row>
-    <row r="43" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C43" s="7">
         <v>2700109</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7">
@@ -4863,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S43" s="15">
         <v>1</v>
@@ -4887,7 +5443,7 @@
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB43" s="15">
         <v>28000</v>
@@ -4896,17 +5452,17 @@
       <c r="AD43" s="15"/>
       <c r="AE43" s="19"/>
     </row>
-    <row r="44" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C44" s="7">
         <v>2700110</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7">
@@ -4934,10 +5490,10 @@
         <v>1</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S44" s="15">
         <v>1</v>
@@ -4958,7 +5514,7 @@
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB44" s="15">
         <v>28000</v>
@@ -4967,17 +5523,17 @@
       <c r="AD44" s="15"/>
       <c r="AE44" s="19"/>
     </row>
-    <row r="45" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C45" s="7">
         <v>2700111</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7">
@@ -5005,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S45" s="15">
         <v>1</v>
@@ -5029,7 +5585,7 @@
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB45" s="15">
         <v>28000</v>
@@ -5038,17 +5594,17 @@
       <c r="AD45" s="15"/>
       <c r="AE45" s="19"/>
     </row>
-    <row r="46" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C46" s="7">
         <v>2700112</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7">
@@ -5076,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S46" s="15">
         <v>1</v>
@@ -5096,11 +5652,11 @@
       </c>
       <c r="X46" s="15"/>
       <c r="Y46" s="21" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB46" s="15">
         <v>28000</v>
@@ -5109,17 +5665,17 @@
       <c r="AD46" s="15"/>
       <c r="AE46" s="19"/>
     </row>
-    <row r="47" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C47" s="7">
         <v>2700113</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7">
@@ -5147,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S47" s="15">
         <v>1</v>
@@ -5171,7 +5727,7 @@
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB47" s="15">
         <v>28000</v>
@@ -5180,17 +5736,17 @@
       <c r="AD47" s="15"/>
       <c r="AE47" s="19"/>
     </row>
-    <row r="48" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C48" s="7">
         <v>2700114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7">
@@ -5218,10 +5774,10 @@
         <v>1</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S48" s="15">
         <v>1</v>
@@ -5242,7 +5798,7 @@
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB48" s="15">
         <v>28000</v>
@@ -5251,17 +5807,17 @@
       <c r="AD48" s="15"/>
       <c r="AE48" s="19"/>
     </row>
-    <row r="49" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C49" s="7">
         <v>2700115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7">
@@ -5289,10 +5845,10 @@
         <v>1</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S49" s="15">
         <v>1</v>
@@ -5313,7 +5869,7 @@
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB49" s="15">
         <v>28000</v>
@@ -5322,17 +5878,17 @@
       <c r="AD49" s="15"/>
       <c r="AE49" s="19"/>
     </row>
-    <row r="50" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C50" s="7">
         <v>2700116</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7">
@@ -5360,10 +5916,10 @@
         <v>1</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S50" s="15">
         <v>1</v>
@@ -5380,11 +5936,11 @@
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="21" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB50" s="15">
         <v>28000</v>
@@ -5393,17 +5949,17 @@
       <c r="AD50" s="15"/>
       <c r="AE50" s="19"/>
     </row>
-    <row r="51" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C51" s="7">
         <v>2700117</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7">
@@ -5431,10 +5987,10 @@
         <v>1</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S51" s="15">
         <v>1</v>
@@ -5455,7 +6011,7 @@
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB51" s="15">
         <v>28000</v>
@@ -5464,17 +6020,17 @@
       <c r="AD51" s="15"/>
       <c r="AE51" s="19"/>
     </row>
-    <row r="52" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C52" s="7">
         <v>2700118</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
@@ -5502,10 +6058,10 @@
         <v>1</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S52" s="15">
         <v>1</v>
@@ -5526,7 +6082,7 @@
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB52" s="15">
         <v>28000</v>
@@ -5535,17 +6091,17 @@
       <c r="AD52" s="15"/>
       <c r="AE52" s="19"/>
     </row>
-    <row r="53" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C53" s="7">
         <v>2700119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
@@ -5573,10 +6129,10 @@
         <v>1</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S53" s="15">
         <v>1</v>
@@ -5597,7 +6153,7 @@
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB53" s="15">
         <v>28000</v>
@@ -5606,17 +6162,17 @@
       <c r="AD53" s="15"/>
       <c r="AE53" s="19"/>
     </row>
-    <row r="54" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C54" s="7">
         <v>2700120</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7">
@@ -5644,10 +6200,10 @@
         <v>1</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S54" s="15">
         <v>1</v>
@@ -5664,11 +6220,11 @@
       </c>
       <c r="X54" s="15"/>
       <c r="Y54" s="21" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB54" s="15">
         <v>28000</v>
@@ -5677,17 +6233,17 @@
       <c r="AD54" s="15"/>
       <c r="AE54" s="19"/>
     </row>
-    <row r="55" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C55" s="7">
         <v>2700201</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
@@ -5715,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S55" s="15">
         <v>1</v>
@@ -5739,7 +6295,7 @@
       </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB55" s="15">
         <v>28000</v>
@@ -5748,17 +6304,17 @@
       <c r="AD55" s="15"/>
       <c r="AE55" s="19"/>
     </row>
-    <row r="56" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C56" s="7">
         <v>2700202</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
@@ -5786,10 +6342,10 @@
         <v>1</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S56" s="15">
         <v>1</v>
@@ -5810,7 +6366,7 @@
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB56" s="15">
         <v>28000</v>
@@ -5819,17 +6375,17 @@
       <c r="AD56" s="15"/>
       <c r="AE56" s="19"/>
     </row>
-    <row r="57" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C57" s="7">
         <v>2700203</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
@@ -5857,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S57" s="15">
         <v>1</v>
@@ -5881,7 +6437,7 @@
       </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB57" s="15">
         <v>28000</v>
@@ -5890,17 +6446,17 @@
       <c r="AD57" s="15"/>
       <c r="AE57" s="19"/>
     </row>
-    <row r="58" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C58" s="7">
         <v>2700204</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
@@ -5928,10 +6484,10 @@
         <v>1</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S58" s="15">
         <v>1</v>
@@ -5948,11 +6504,11 @@
       </c>
       <c r="X58" s="15"/>
       <c r="Y58" s="21" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB58" s="15">
         <v>28000</v>
@@ -5961,17 +6517,17 @@
       <c r="AD58" s="15"/>
       <c r="AE58" s="19"/>
     </row>
-    <row r="59" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C59" s="7">
         <v>2700205</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7">
@@ -5999,10 +6555,10 @@
         <v>1</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S59" s="15">
         <v>1</v>
@@ -6023,7 +6579,7 @@
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB59" s="15">
         <v>28000</v>
@@ -6032,17 +6588,17 @@
       <c r="AD59" s="15"/>
       <c r="AE59" s="19"/>
     </row>
-    <row r="60" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C60" s="7">
         <v>2700206</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7">
@@ -6070,10 +6626,10 @@
         <v>1</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S60" s="15">
         <v>1</v>
@@ -6094,7 +6650,7 @@
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB60" s="15">
         <v>28000</v>
@@ -6103,17 +6659,17 @@
       <c r="AD60" s="15"/>
       <c r="AE60" s="19"/>
     </row>
-    <row r="61" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C61" s="7">
         <v>2700207</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7">
@@ -6141,10 +6697,10 @@
         <v>1</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S61" s="15">
         <v>1</v>
@@ -6165,7 +6721,7 @@
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB61" s="15">
         <v>28000</v>
@@ -6174,17 +6730,17 @@
       <c r="AD61" s="15"/>
       <c r="AE61" s="19"/>
     </row>
-    <row r="62" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C62" s="7">
         <v>2700208</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7">
@@ -6212,10 +6768,10 @@
         <v>1</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S62" s="15">
         <v>1</v>
@@ -6232,11 +6788,11 @@
       </c>
       <c r="X62" s="15"/>
       <c r="Y62" s="21" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB62" s="15">
         <v>28000</v>
@@ -6245,17 +6801,17 @@
       <c r="AD62" s="15"/>
       <c r="AE62" s="19"/>
     </row>
-    <row r="63" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C63" s="7">
         <v>2700209</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7">
@@ -6283,10 +6839,10 @@
         <v>1</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S63" s="15">
         <v>1</v>
@@ -6307,7 +6863,7 @@
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB63" s="15">
         <v>28000</v>
@@ -6316,17 +6872,17 @@
       <c r="AD63" s="15"/>
       <c r="AE63" s="19"/>
     </row>
-    <row r="64" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C64" s="7">
         <v>2700210</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7">
@@ -6354,10 +6910,10 @@
         <v>1</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S64" s="15">
         <v>1</v>
@@ -6378,7 +6934,7 @@
       </c>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB64" s="15">
         <v>28000</v>
@@ -6387,17 +6943,17 @@
       <c r="AD64" s="15"/>
       <c r="AE64" s="19"/>
     </row>
-    <row r="65" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C65" s="7">
         <v>2700211</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7">
@@ -6425,10 +6981,10 @@
         <v>1</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S65" s="15">
         <v>1</v>
@@ -6449,7 +7005,7 @@
       </c>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB65" s="15">
         <v>28000</v>
@@ -6458,17 +7014,17 @@
       <c r="AD65" s="15"/>
       <c r="AE65" s="19"/>
     </row>
-    <row r="66" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C66" s="7">
         <v>2700212</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7">
@@ -6496,10 +7052,10 @@
         <v>1</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S66" s="15">
         <v>1</v>
@@ -6516,11 +7072,11 @@
       </c>
       <c r="X66" s="15"/>
       <c r="Y66" s="21" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB66" s="15">
         <v>28000</v>
@@ -6529,17 +7085,17 @@
       <c r="AD66" s="15"/>
       <c r="AE66" s="19"/>
     </row>
-    <row r="67" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C67" s="7">
         <v>2700213</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7">
@@ -6567,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S67" s="15">
         <v>1</v>
@@ -6591,7 +7147,7 @@
       </c>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB67" s="15">
         <v>28000</v>
@@ -6600,17 +7156,17 @@
       <c r="AD67" s="15"/>
       <c r="AE67" s="19"/>
     </row>
-    <row r="68" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C68" s="7">
         <v>2700214</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7">
@@ -6638,10 +7194,10 @@
         <v>1</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S68" s="15">
         <v>1</v>
@@ -6662,7 +7218,7 @@
       </c>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB68" s="15">
         <v>28000</v>
@@ -6671,17 +7227,17 @@
       <c r="AD68" s="15"/>
       <c r="AE68" s="19"/>
     </row>
-    <row r="69" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C69" s="7">
         <v>2700215</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7">
@@ -6709,10 +7265,10 @@
         <v>1</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S69" s="15">
         <v>1</v>
@@ -6733,7 +7289,7 @@
       </c>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB69" s="15">
         <v>28000</v>
@@ -6742,17 +7298,17 @@
       <c r="AD69" s="15"/>
       <c r="AE69" s="19"/>
     </row>
-    <row r="70" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C70" s="7">
         <v>2700216</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7">
@@ -6780,10 +7336,10 @@
         <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S70" s="15">
         <v>1</v>
@@ -6800,11 +7356,11 @@
       </c>
       <c r="X70" s="15"/>
       <c r="Y70" s="21" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="Z70" s="8"/>
       <c r="AA70" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB70" s="15">
         <v>28000</v>
@@ -6813,17 +7369,17 @@
       <c r="AD70" s="15"/>
       <c r="AE70" s="19"/>
     </row>
-    <row r="71" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C71" s="7">
         <v>2700217</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7">
@@ -6851,10 +7407,10 @@
         <v>1</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S71" s="15">
         <v>1</v>
@@ -6875,7 +7431,7 @@
       </c>
       <c r="Z71" s="8"/>
       <c r="AA71" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB71" s="15">
         <v>28000</v>
@@ -6884,17 +7440,17 @@
       <c r="AD71" s="15"/>
       <c r="AE71" s="19"/>
     </row>
-    <row r="72" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C72" s="7">
         <v>2700218</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7">
@@ -6922,10 +7478,10 @@
         <v>1</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S72" s="15">
         <v>1</v>
@@ -6946,7 +7502,7 @@
       </c>
       <c r="Z72" s="8"/>
       <c r="AA72" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB72" s="15">
         <v>28000</v>
@@ -6955,17 +7511,17 @@
       <c r="AD72" s="15"/>
       <c r="AE72" s="19"/>
     </row>
-    <row r="73" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C73" s="7">
         <v>2700219</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7">
@@ -6993,10 +7549,10 @@
         <v>1</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S73" s="15">
         <v>1</v>
@@ -7017,7 +7573,7 @@
       </c>
       <c r="Z73" s="8"/>
       <c r="AA73" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB73" s="15">
         <v>28000</v>
@@ -7026,17 +7582,17 @@
       <c r="AD73" s="15"/>
       <c r="AE73" s="19"/>
     </row>
-    <row r="74" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C74" s="7">
         <v>2700220</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7">
@@ -7064,10 +7620,10 @@
         <v>1</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S74" s="15">
         <v>1</v>
@@ -7084,11 +7640,11 @@
       </c>
       <c r="X74" s="15"/>
       <c r="Y74" s="21" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB74" s="15">
         <v>28000</v>
@@ -7097,17 +7653,17 @@
       <c r="AD74" s="15"/>
       <c r="AE74" s="19"/>
     </row>
-    <row r="75" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C75" s="7">
         <v>2700301</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7">
@@ -7135,10 +7691,10 @@
         <v>1</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S75" s="15">
         <v>1</v>
@@ -7159,7 +7715,7 @@
       </c>
       <c r="Z75" s="8"/>
       <c r="AA75" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB75" s="15">
         <v>28000</v>
@@ -7168,17 +7724,17 @@
       <c r="AD75" s="15"/>
       <c r="AE75" s="19"/>
     </row>
-    <row r="76" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C76" s="7">
         <v>2700302</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7">
@@ -7206,10 +7762,10 @@
         <v>1</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S76" s="15">
         <v>1</v>
@@ -7230,7 +7786,7 @@
       </c>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB76" s="15">
         <v>28000</v>
@@ -7239,17 +7795,17 @@
       <c r="AD76" s="15"/>
       <c r="AE76" s="19"/>
     </row>
-    <row r="77" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C77" s="7">
         <v>2700303</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7">
@@ -7277,10 +7833,10 @@
         <v>1</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S77" s="15">
         <v>1</v>
@@ -7301,7 +7857,7 @@
       </c>
       <c r="Z77" s="8"/>
       <c r="AA77" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB77" s="15">
         <v>28000</v>
@@ -7310,17 +7866,17 @@
       <c r="AD77" s="15"/>
       <c r="AE77" s="19"/>
     </row>
-    <row r="78" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C78" s="7">
         <v>2700304</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7">
@@ -7348,10 +7904,10 @@
         <v>1</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S78" s="15">
         <v>1</v>
@@ -7368,11 +7924,11 @@
       </c>
       <c r="X78" s="15"/>
       <c r="Y78" s="21" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="Z78" s="8"/>
       <c r="AA78" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB78" s="15">
         <v>28000</v>
@@ -7381,17 +7937,17 @@
       <c r="AD78" s="15"/>
       <c r="AE78" s="19"/>
     </row>
-    <row r="79" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C79" s="7">
         <v>2700305</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7">
@@ -7419,10 +7975,10 @@
         <v>1</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R79" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S79" s="15">
         <v>1</v>
@@ -7443,7 +7999,7 @@
       </c>
       <c r="Z79" s="8"/>
       <c r="AA79" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB79" s="15">
         <v>28000</v>
@@ -7452,17 +8008,17 @@
       <c r="AD79" s="15"/>
       <c r="AE79" s="19"/>
     </row>
-    <row r="80" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C80" s="7">
         <v>2700306</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7">
@@ -7490,10 +8046,10 @@
         <v>1</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R80" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S80" s="15">
         <v>1</v>
@@ -7514,7 +8070,7 @@
       </c>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB80" s="15">
         <v>28000</v>
@@ -7523,17 +8079,17 @@
       <c r="AD80" s="15"/>
       <c r="AE80" s="19"/>
     </row>
-    <row r="81" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C81" s="7">
         <v>2700307</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7">
@@ -7561,10 +8117,10 @@
         <v>1</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R81" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S81" s="15">
         <v>1</v>
@@ -7585,7 +8141,7 @@
       </c>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB81" s="15">
         <v>28000</v>
@@ -7594,17 +8150,17 @@
       <c r="AD81" s="15"/>
       <c r="AE81" s="19"/>
     </row>
-    <row r="82" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C82" s="7">
         <v>2700308</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7">
@@ -7632,10 +8188,10 @@
         <v>1</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R82" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S82" s="15">
         <v>1</v>
@@ -7652,11 +8208,11 @@
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="21" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB82" s="15">
         <v>28000</v>
@@ -7665,17 +8221,17 @@
       <c r="AD82" s="15"/>
       <c r="AE82" s="19"/>
     </row>
-    <row r="83" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C83" s="7">
         <v>2700309</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7">
@@ -7703,10 +8259,10 @@
         <v>1</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R83" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S83" s="15">
         <v>1</v>
@@ -7727,7 +8283,7 @@
       </c>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB83" s="15">
         <v>28000</v>
@@ -7736,17 +8292,17 @@
       <c r="AD83" s="15"/>
       <c r="AE83" s="19"/>
     </row>
-    <row r="84" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C84" s="7">
         <v>2700310</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7">
@@ -7774,10 +8330,10 @@
         <v>1</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S84" s="15">
         <v>1</v>
@@ -7798,7 +8354,7 @@
       </c>
       <c r="Z84" s="8"/>
       <c r="AA84" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB84" s="15">
         <v>28000</v>
@@ -7807,17 +8363,17 @@
       <c r="AD84" s="15"/>
       <c r="AE84" s="19"/>
     </row>
-    <row r="85" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C85" s="7">
         <v>2700311</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7">
@@ -7845,10 +8401,10 @@
         <v>1</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S85" s="15">
         <v>1</v>
@@ -7869,7 +8425,7 @@
       </c>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB85" s="15">
         <v>28000</v>
@@ -7878,17 +8434,17 @@
       <c r="AD85" s="15"/>
       <c r="AE85" s="19"/>
     </row>
-    <row r="86" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C86" s="7">
         <v>2700312</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7">
@@ -7916,10 +8472,10 @@
         <v>1</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S86" s="15">
         <v>1</v>
@@ -7936,11 +8492,11 @@
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="21" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB86" s="15">
         <v>28000</v>
@@ -7949,17 +8505,17 @@
       <c r="AD86" s="15"/>
       <c r="AE86" s="19"/>
     </row>
-    <row r="87" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C87" s="7">
         <v>2700313</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7">
@@ -7987,10 +8543,10 @@
         <v>1</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R87" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S87" s="15">
         <v>1</v>
@@ -8011,7 +8567,7 @@
       </c>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB87" s="15">
         <v>28000</v>
@@ -8020,17 +8576,17 @@
       <c r="AD87" s="15"/>
       <c r="AE87" s="19"/>
     </row>
-    <row r="88" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C88" s="7">
         <v>2700314</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7">
@@ -8058,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R88" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S88" s="15">
         <v>1</v>
@@ -8082,7 +8638,7 @@
       </c>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB88" s="15">
         <v>28000</v>
@@ -8091,17 +8647,17 @@
       <c r="AD88" s="15"/>
       <c r="AE88" s="19"/>
     </row>
-    <row r="89" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C89" s="7">
         <v>2700315</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7">
@@ -8129,10 +8685,10 @@
         <v>1</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R89" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S89" s="15">
         <v>1</v>
@@ -8153,7 +8709,7 @@
       </c>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB89" s="15">
         <v>28000</v>
@@ -8162,17 +8718,17 @@
       <c r="AD89" s="15"/>
       <c r="AE89" s="19"/>
     </row>
-    <row r="90" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C90" s="7">
         <v>2700316</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7">
@@ -8200,10 +8756,10 @@
         <v>1</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S90" s="15">
         <v>1</v>
@@ -8220,11 +8776,11 @@
       </c>
       <c r="X90" s="15"/>
       <c r="Y90" s="21" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB90" s="15">
         <v>28000</v>
@@ -8233,17 +8789,17 @@
       <c r="AD90" s="15"/>
       <c r="AE90" s="19"/>
     </row>
-    <row r="91" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C91" s="7">
         <v>2700317</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7">
@@ -8271,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R91" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S91" s="15">
         <v>1</v>
@@ -8295,7 +8851,7 @@
       </c>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB91" s="15">
         <v>28000</v>
@@ -8304,17 +8860,17 @@
       <c r="AD91" s="15"/>
       <c r="AE91" s="19"/>
     </row>
-    <row r="92" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C92" s="7">
         <v>2700318</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7">
@@ -8342,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S92" s="15">
         <v>1</v>
@@ -8366,7 +8922,7 @@
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB92" s="15">
         <v>28000</v>
@@ -8375,17 +8931,17 @@
       <c r="AD92" s="15"/>
       <c r="AE92" s="19"/>
     </row>
-    <row r="93" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C93" s="7">
         <v>2700319</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7">
@@ -8413,10 +8969,10 @@
         <v>1</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R93" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S93" s="15">
         <v>1</v>
@@ -8437,7 +8993,7 @@
       </c>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB93" s="15">
         <v>28000</v>
@@ -8446,17 +9002,17 @@
       <c r="AD93" s="15"/>
       <c r="AE93" s="19"/>
     </row>
-    <row r="94" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C94" s="7">
         <v>2700320</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7">
@@ -8484,10 +9040,10 @@
         <v>1</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R94" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S94" s="15">
         <v>1</v>
@@ -8504,11 +9060,11 @@
       </c>
       <c r="X94" s="15"/>
       <c r="Y94" s="21" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB94" s="15">
         <v>28000</v>
@@ -8517,17 +9073,17 @@
       <c r="AD94" s="15"/>
       <c r="AE94" s="19"/>
     </row>
-    <row r="95" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C95" s="7">
         <v>2700401</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7">
@@ -8555,10 +9111,10 @@
         <v>1</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S95" s="15">
         <v>1</v>
@@ -8579,7 +9135,7 @@
       </c>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB95" s="15">
         <v>28000</v>
@@ -8588,17 +9144,17 @@
       <c r="AD95" s="15"/>
       <c r="AE95" s="19"/>
     </row>
-    <row r="96" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C96" s="7">
         <v>2700402</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7">
@@ -8626,10 +9182,10 @@
         <v>1</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S96" s="15">
         <v>1</v>
@@ -8650,7 +9206,7 @@
       </c>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB96" s="15">
         <v>28000</v>
@@ -8659,17 +9215,17 @@
       <c r="AD96" s="15"/>
       <c r="AE96" s="19"/>
     </row>
-    <row r="97" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C97" s="7">
         <v>2700403</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7">
@@ -8697,10 +9253,10 @@
         <v>1</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R97" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S97" s="15">
         <v>1</v>
@@ -8721,7 +9277,7 @@
       </c>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB97" s="15">
         <v>28000</v>
@@ -8730,17 +9286,17 @@
       <c r="AD97" s="15"/>
       <c r="AE97" s="19"/>
     </row>
-    <row r="98" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C98" s="7">
         <v>2700404</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7">
@@ -8768,10 +9324,10 @@
         <v>1</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S98" s="15">
         <v>1</v>
@@ -8788,11 +9344,11 @@
       </c>
       <c r="X98" s="15"/>
       <c r="Y98" s="21" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB98" s="15">
         <v>28000</v>
@@ -8801,17 +9357,17 @@
       <c r="AD98" s="15"/>
       <c r="AE98" s="19"/>
     </row>
-    <row r="99" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C99" s="7">
         <v>2700405</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7">
@@ -8839,10 +9395,10 @@
         <v>1</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R99" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S99" s="15">
         <v>1</v>
@@ -8863,7 +9419,7 @@
       </c>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB99" s="15">
         <v>28000</v>
@@ -8872,17 +9428,17 @@
       <c r="AD99" s="15"/>
       <c r="AE99" s="19"/>
     </row>
-    <row r="100" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C100" s="7">
         <v>2700406</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7">
@@ -8910,10 +9466,10 @@
         <v>1</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R100" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S100" s="15">
         <v>1</v>
@@ -8934,7 +9490,7 @@
       </c>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB100" s="15">
         <v>28000</v>
@@ -8943,17 +9499,17 @@
       <c r="AD100" s="15"/>
       <c r="AE100" s="19"/>
     </row>
-    <row r="101" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C101" s="7">
         <v>2700407</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7">
@@ -8981,10 +9537,10 @@
         <v>1</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R101" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S101" s="15">
         <v>1</v>
@@ -9005,7 +9561,7 @@
       </c>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB101" s="15">
         <v>28000</v>
@@ -9014,17 +9570,17 @@
       <c r="AD101" s="15"/>
       <c r="AE101" s="19"/>
     </row>
-    <row r="102" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C102" s="7">
         <v>2700408</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7">
@@ -9052,10 +9608,10 @@
         <v>1</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R102" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S102" s="15">
         <v>1</v>
@@ -9072,11 +9628,11 @@
       </c>
       <c r="X102" s="15"/>
       <c r="Y102" s="21" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB102" s="15">
         <v>28000</v>
@@ -9085,17 +9641,17 @@
       <c r="AD102" s="15"/>
       <c r="AE102" s="19"/>
     </row>
-    <row r="103" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C103" s="7">
         <v>2700409</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7">
@@ -9123,10 +9679,10 @@
         <v>1</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S103" s="15">
         <v>1</v>
@@ -9147,7 +9703,7 @@
       </c>
       <c r="Z103" s="8"/>
       <c r="AA103" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB103" s="15">
         <v>28000</v>
@@ -9156,17 +9712,17 @@
       <c r="AD103" s="15"/>
       <c r="AE103" s="19"/>
     </row>
-    <row r="104" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C104" s="7">
         <v>2700410</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7">
@@ -9194,10 +9750,10 @@
         <v>1</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R104" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S104" s="15">
         <v>1</v>
@@ -9218,7 +9774,7 @@
       </c>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB104" s="15">
         <v>28000</v>
@@ -9227,17 +9783,17 @@
       <c r="AD104" s="15"/>
       <c r="AE104" s="19"/>
     </row>
-    <row r="105" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C105" s="7">
         <v>2700411</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7">
@@ -9265,10 +9821,10 @@
         <v>1</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R105" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S105" s="15">
         <v>1</v>
@@ -9289,7 +9845,7 @@
       </c>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB105" s="15">
         <v>28000</v>
@@ -9298,17 +9854,17 @@
       <c r="AD105" s="15"/>
       <c r="AE105" s="19"/>
     </row>
-    <row r="106" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C106" s="7">
         <v>2700412</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7">
@@ -9336,10 +9892,10 @@
         <v>1</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R106" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S106" s="15">
         <v>1</v>
@@ -9356,11 +9912,11 @@
       </c>
       <c r="X106" s="15"/>
       <c r="Y106" s="21" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB106" s="15">
         <v>28000</v>
@@ -9369,17 +9925,17 @@
       <c r="AD106" s="15"/>
       <c r="AE106" s="19"/>
     </row>
-    <row r="107" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C107" s="7">
         <v>2700413</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7">
@@ -9407,10 +9963,10 @@
         <v>1</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R107" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S107" s="15">
         <v>1</v>
@@ -9431,7 +9987,7 @@
       </c>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB107" s="15">
         <v>28000</v>
@@ -9440,17 +9996,17 @@
       <c r="AD107" s="15"/>
       <c r="AE107" s="19"/>
     </row>
-    <row r="108" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C108" s="7">
         <v>2700414</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7">
@@ -9478,10 +10034,10 @@
         <v>1</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R108" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S108" s="15">
         <v>1</v>
@@ -9502,7 +10058,7 @@
       </c>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB108" s="15">
         <v>28000</v>
@@ -9511,17 +10067,17 @@
       <c r="AD108" s="15"/>
       <c r="AE108" s="19"/>
     </row>
-    <row r="109" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C109" s="7">
         <v>2700415</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7">
@@ -9549,10 +10105,10 @@
         <v>1</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R109" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S109" s="15">
         <v>1</v>
@@ -9573,7 +10129,7 @@
       </c>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB109" s="15">
         <v>28000</v>
@@ -9582,17 +10138,17 @@
       <c r="AD109" s="15"/>
       <c r="AE109" s="19"/>
     </row>
-    <row r="110" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C110" s="7">
         <v>2700416</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7">
@@ -9620,10 +10176,10 @@
         <v>1</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S110" s="15">
         <v>1</v>
@@ -9640,11 +10196,11 @@
       </c>
       <c r="X110" s="15"/>
       <c r="Y110" s="21" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="Z110" s="8"/>
       <c r="AA110" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB110" s="15">
         <v>28000</v>
@@ -9653,17 +10209,17 @@
       <c r="AD110" s="15"/>
       <c r="AE110" s="19"/>
     </row>
-    <row r="111" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C111" s="7">
         <v>2700417</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7">
@@ -9691,10 +10247,10 @@
         <v>1</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R111" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S111" s="15">
         <v>1</v>
@@ -9715,7 +10271,7 @@
       </c>
       <c r="Z111" s="8"/>
       <c r="AA111" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB111" s="15">
         <v>28000</v>
@@ -9724,17 +10280,17 @@
       <c r="AD111" s="15"/>
       <c r="AE111" s="19"/>
     </row>
-    <row r="112" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C112" s="7">
         <v>2700418</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7">
@@ -9762,10 +10318,10 @@
         <v>1</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R112" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S112" s="15">
         <v>1</v>
@@ -9786,7 +10342,7 @@
       </c>
       <c r="Z112" s="8"/>
       <c r="AA112" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB112" s="15">
         <v>28000</v>
@@ -9795,17 +10351,17 @@
       <c r="AD112" s="15"/>
       <c r="AE112" s="19"/>
     </row>
-    <row r="113" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C113" s="7">
         <v>2700419</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7">
@@ -9833,10 +10389,10 @@
         <v>1</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R113" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S113" s="15">
         <v>1</v>
@@ -9857,7 +10413,7 @@
       </c>
       <c r="Z113" s="8"/>
       <c r="AA113" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB113" s="15">
         <v>28000</v>
@@ -9866,17 +10422,17 @@
       <c r="AD113" s="15"/>
       <c r="AE113" s="19"/>
     </row>
-    <row r="114" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C114" s="7">
         <v>2700420</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7">
@@ -9904,10 +10460,10 @@
         <v>1</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R114" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S114" s="15">
         <v>1</v>
@@ -9924,11 +10480,11 @@
       </c>
       <c r="X114" s="15"/>
       <c r="Y114" s="21" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="Z114" s="8"/>
       <c r="AA114" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB114" s="15">
         <v>28000</v>
@@ -9937,17 +10493,17 @@
       <c r="AD114" s="15"/>
       <c r="AE114" s="19"/>
     </row>
-    <row r="115" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C115" s="7">
         <v>2700501</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7">
@@ -9975,10 +10531,10 @@
         <v>1</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R115" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S115" s="15">
         <v>1</v>
@@ -9999,7 +10555,7 @@
       </c>
       <c r="Z115" s="8"/>
       <c r="AA115" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB115" s="15">
         <v>28000</v>
@@ -10008,17 +10564,17 @@
       <c r="AD115" s="15"/>
       <c r="AE115" s="19"/>
     </row>
-    <row r="116" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C116" s="7">
         <v>2700502</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7">
@@ -10046,10 +10602,10 @@
         <v>1</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R116" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S116" s="15">
         <v>1</v>
@@ -10070,7 +10626,7 @@
       </c>
       <c r="Z116" s="8"/>
       <c r="AA116" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB116" s="15">
         <v>28000</v>
@@ -10079,17 +10635,17 @@
       <c r="AD116" s="15"/>
       <c r="AE116" s="19"/>
     </row>
-    <row r="117" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C117" s="7">
         <v>2700503</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7">
@@ -10117,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R117" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S117" s="15">
         <v>1</v>
@@ -10141,7 +10697,7 @@
       </c>
       <c r="Z117" s="8"/>
       <c r="AA117" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB117" s="15">
         <v>28000</v>
@@ -10150,17 +10706,17 @@
       <c r="AD117" s="15"/>
       <c r="AE117" s="19"/>
     </row>
-    <row r="118" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C118" s="7">
         <v>2700504</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7">
@@ -10188,10 +10744,10 @@
         <v>1</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R118" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S118" s="15">
         <v>1</v>
@@ -10208,11 +10764,11 @@
       </c>
       <c r="X118" s="15"/>
       <c r="Y118" s="21" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="Z118" s="8"/>
       <c r="AA118" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB118" s="15">
         <v>28000</v>
@@ -10221,17 +10777,17 @@
       <c r="AD118" s="15"/>
       <c r="AE118" s="19"/>
     </row>
-    <row r="119" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C119" s="7">
         <v>2700505</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7">
@@ -10259,10 +10815,10 @@
         <v>1</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R119" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S119" s="15">
         <v>1</v>
@@ -10283,7 +10839,7 @@
       </c>
       <c r="Z119" s="8"/>
       <c r="AA119" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB119" s="15">
         <v>28000</v>
@@ -10292,17 +10848,17 @@
       <c r="AD119" s="15"/>
       <c r="AE119" s="19"/>
     </row>
-    <row r="120" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C120" s="7">
         <v>2700506</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7">
@@ -10330,10 +10886,10 @@
         <v>1</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R120" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S120" s="15">
         <v>1</v>
@@ -10354,7 +10910,7 @@
       </c>
       <c r="Z120" s="8"/>
       <c r="AA120" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB120" s="15">
         <v>28000</v>
@@ -10363,17 +10919,17 @@
       <c r="AD120" s="15"/>
       <c r="AE120" s="19"/>
     </row>
-    <row r="121" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C121" s="7">
         <v>2700507</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7">
@@ -10401,10 +10957,10 @@
         <v>1</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R121" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S121" s="15">
         <v>1</v>
@@ -10425,7 +10981,7 @@
       </c>
       <c r="Z121" s="8"/>
       <c r="AA121" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB121" s="15">
         <v>28000</v>
@@ -10434,17 +10990,17 @@
       <c r="AD121" s="15"/>
       <c r="AE121" s="19"/>
     </row>
-    <row r="122" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C122" s="7">
         <v>2700508</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7">
@@ -10472,10 +11028,10 @@
         <v>1</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R122" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S122" s="15">
         <v>1</v>
@@ -10492,11 +11048,11 @@
       </c>
       <c r="X122" s="15"/>
       <c r="Y122" s="21" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Z122" s="8"/>
       <c r="AA122" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB122" s="15">
         <v>28000</v>
@@ -10505,17 +11061,17 @@
       <c r="AD122" s="15"/>
       <c r="AE122" s="19"/>
     </row>
-    <row r="123" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C123" s="7">
         <v>2700509</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7">
@@ -10543,10 +11099,10 @@
         <v>1</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R123" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S123" s="15">
         <v>1</v>
@@ -10567,7 +11123,7 @@
       </c>
       <c r="Z123" s="8"/>
       <c r="AA123" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB123" s="15">
         <v>28000</v>
@@ -10576,17 +11132,17 @@
       <c r="AD123" s="15"/>
       <c r="AE123" s="19"/>
     </row>
-    <row r="124" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C124" s="7">
         <v>2700510</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7">
@@ -10614,10 +11170,10 @@
         <v>1</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R124" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S124" s="15">
         <v>1</v>
@@ -10638,7 +11194,7 @@
       </c>
       <c r="Z124" s="8"/>
       <c r="AA124" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB124" s="15">
         <v>28000</v>
@@ -10647,17 +11203,17 @@
       <c r="AD124" s="15"/>
       <c r="AE124" s="19"/>
     </row>
-    <row r="125" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C125" s="7">
         <v>2700511</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7">
@@ -10685,10 +11241,10 @@
         <v>1</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R125" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S125" s="15">
         <v>1</v>
@@ -10709,7 +11265,7 @@
       </c>
       <c r="Z125" s="8"/>
       <c r="AA125" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB125" s="15">
         <v>28000</v>
@@ -10718,17 +11274,17 @@
       <c r="AD125" s="15"/>
       <c r="AE125" s="19"/>
     </row>
-    <row r="126" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C126" s="7">
         <v>2700512</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7">
@@ -10756,10 +11312,10 @@
         <v>1</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R126" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S126" s="15">
         <v>1</v>
@@ -10776,11 +11332,11 @@
       </c>
       <c r="X126" s="15"/>
       <c r="Y126" s="21" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Z126" s="8"/>
       <c r="AA126" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB126" s="15">
         <v>28000</v>
@@ -10789,17 +11345,17 @@
       <c r="AD126" s="15"/>
       <c r="AE126" s="19"/>
     </row>
-    <row r="127" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C127" s="7">
         <v>2700513</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7">
@@ -10827,10 +11383,10 @@
         <v>1</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R127" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S127" s="15">
         <v>1</v>
@@ -10851,7 +11407,7 @@
       </c>
       <c r="Z127" s="8"/>
       <c r="AA127" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB127" s="15">
         <v>28000</v>
@@ -10860,17 +11416,17 @@
       <c r="AD127" s="15"/>
       <c r="AE127" s="19"/>
     </row>
-    <row r="128" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C128" s="7">
         <v>2700514</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="7">
@@ -10898,10 +11454,10 @@
         <v>1</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R128" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S128" s="15">
         <v>1</v>
@@ -10922,7 +11478,7 @@
       </c>
       <c r="Z128" s="8"/>
       <c r="AA128" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB128" s="15">
         <v>28000</v>
@@ -10931,17 +11487,17 @@
       <c r="AD128" s="15"/>
       <c r="AE128" s="19"/>
     </row>
-    <row r="129" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C129" s="7">
         <v>2700515</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7">
@@ -10969,10 +11525,10 @@
         <v>1</v>
       </c>
       <c r="Q129" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S129" s="15">
         <v>1</v>
@@ -10993,7 +11549,7 @@
       </c>
       <c r="Z129" s="8"/>
       <c r="AA129" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB129" s="15">
         <v>28000</v>
@@ -11002,17 +11558,17 @@
       <c r="AD129" s="15"/>
       <c r="AE129" s="19"/>
     </row>
-    <row r="130" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C130" s="7">
         <v>2700516</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7">
@@ -11040,10 +11596,10 @@
         <v>1</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S130" s="15">
         <v>1</v>
@@ -11060,11 +11616,11 @@
       </c>
       <c r="X130" s="15"/>
       <c r="Y130" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Z130" s="8"/>
       <c r="AA130" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB130" s="15">
         <v>28000</v>
@@ -11073,17 +11629,17 @@
       <c r="AD130" s="15"/>
       <c r="AE130" s="19"/>
     </row>
-    <row r="131" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C131" s="7">
         <v>2700517</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7">
@@ -11111,10 +11667,10 @@
         <v>1</v>
       </c>
       <c r="Q131" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R131" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S131" s="15">
         <v>1</v>
@@ -11135,7 +11691,7 @@
       </c>
       <c r="Z131" s="8"/>
       <c r="AA131" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB131" s="15">
         <v>28000</v>
@@ -11144,17 +11700,17 @@
       <c r="AD131" s="15"/>
       <c r="AE131" s="19"/>
     </row>
-    <row r="132" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C132" s="7">
         <v>2700518</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7">
@@ -11182,10 +11738,10 @@
         <v>1</v>
       </c>
       <c r="Q132" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R132" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S132" s="15">
         <v>1</v>
@@ -11206,7 +11762,7 @@
       </c>
       <c r="Z132" s="8"/>
       <c r="AA132" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB132" s="15">
         <v>28000</v>
@@ -11215,17 +11771,17 @@
       <c r="AD132" s="15"/>
       <c r="AE132" s="19"/>
     </row>
-    <row r="133" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C133" s="7">
         <v>2700519</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7">
@@ -11253,10 +11809,10 @@
         <v>1</v>
       </c>
       <c r="Q133" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R133" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S133" s="15">
         <v>1</v>
@@ -11277,7 +11833,7 @@
       </c>
       <c r="Z133" s="8"/>
       <c r="AA133" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB133" s="15">
         <v>28000</v>
@@ -11286,17 +11842,17 @@
       <c r="AD133" s="15"/>
       <c r="AE133" s="19"/>
     </row>
-    <row r="134" spans="3:31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:31">
       <c r="C134" s="7">
         <v>2700520</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7">
@@ -11324,10 +11880,10 @@
         <v>1</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R134" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S134" s="15">
         <v>1</v>
@@ -11344,11 +11900,11 @@
       </c>
       <c r="X134" s="15"/>
       <c r="Y134" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z134" s="8"/>
       <c r="AA134" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AB134" s="15">
         <v>28000</v>
@@ -11358,12 +11914,12 @@
       <c r="AE134" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -805,6 +805,9 @@
     <t>封印之塔</t>
   </si>
   <si>
+    <t>100,0,100</t>
+  </si>
+  <si>
     <t>喜从天降</t>
   </si>
   <si>
@@ -1214,7 +1217,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,13 +1394,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1960,9 +1956,9 @@
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2441,8 +2437,8 @@
   <sheetPr/>
   <dimension ref="C3:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="D30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4490,14 +4486,14 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="23" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
         <v>20</v>
       </c>
       <c r="J30" s="7">
-        <v>104</v>
+        <v>100101</v>
       </c>
       <c r="K30" s="15">
         <v>0</v>
@@ -4552,7 +4548,7 @@
         <v>8000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -4619,7 +4615,7 @@
         <v>2400001</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4684,7 +4680,7 @@
         <v>2500001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4751,7 +4747,7 @@
         <v>2600001</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -4818,12 +4814,12 @@
         <v>2700101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7">
@@ -4875,7 +4871,7 @@
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB35" s="15">
         <v>28000</v>
@@ -4889,12 +4885,12 @@
         <v>2700102</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
@@ -4946,7 +4942,7 @@
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB36" s="15">
         <v>28000</v>
@@ -4960,12 +4956,12 @@
         <v>2700103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
@@ -5017,7 +5013,7 @@
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB37" s="15">
         <v>28000</v>
@@ -5031,12 +5027,12 @@
         <v>2700104</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
@@ -5084,11 +5080,11 @@
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB38" s="15">
         <v>28000</v>
@@ -5102,12 +5098,12 @@
         <v>2700105</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7">
@@ -5159,7 +5155,7 @@
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB39" s="15">
         <v>28000</v>
@@ -5173,12 +5169,12 @@
         <v>2700106</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7">
@@ -5230,7 +5226,7 @@
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB40" s="15">
         <v>28000</v>
@@ -5244,12 +5240,12 @@
         <v>2700107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7">
@@ -5301,7 +5297,7 @@
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB41" s="15">
         <v>28000</v>
@@ -5315,12 +5311,12 @@
         <v>2700108</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7">
@@ -5368,11 +5364,11 @@
       </c>
       <c r="X42" s="15"/>
       <c r="Y42" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB42" s="15">
         <v>28000</v>
@@ -5386,12 +5382,12 @@
         <v>2700109</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7">
@@ -5443,7 +5439,7 @@
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB43" s="15">
         <v>28000</v>
@@ -5457,12 +5453,12 @@
         <v>2700110</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7">
@@ -5514,7 +5510,7 @@
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB44" s="15">
         <v>28000</v>
@@ -5528,12 +5524,12 @@
         <v>2700111</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7">
@@ -5585,7 +5581,7 @@
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB45" s="15">
         <v>28000</v>
@@ -5599,12 +5595,12 @@
         <v>2700112</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7">
@@ -5652,11 +5648,11 @@
       </c>
       <c r="X46" s="15"/>
       <c r="Y46" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB46" s="15">
         <v>28000</v>
@@ -5670,12 +5666,12 @@
         <v>2700113</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7">
@@ -5727,7 +5723,7 @@
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB47" s="15">
         <v>28000</v>
@@ -5741,12 +5737,12 @@
         <v>2700114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7">
@@ -5798,7 +5794,7 @@
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB48" s="15">
         <v>28000</v>
@@ -5812,12 +5808,12 @@
         <v>2700115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7">
@@ -5869,7 +5865,7 @@
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB49" s="15">
         <v>28000</v>
@@ -5883,12 +5879,12 @@
         <v>2700116</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7">
@@ -5936,11 +5932,11 @@
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB50" s="15">
         <v>28000</v>
@@ -5954,12 +5950,12 @@
         <v>2700117</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7">
@@ -6011,7 +6007,7 @@
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB51" s="15">
         <v>28000</v>
@@ -6025,12 +6021,12 @@
         <v>2700118</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
@@ -6082,7 +6078,7 @@
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB52" s="15">
         <v>28000</v>
@@ -6096,12 +6092,12 @@
         <v>2700119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
@@ -6153,7 +6149,7 @@
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB53" s="15">
         <v>28000</v>
@@ -6167,12 +6163,12 @@
         <v>2700120</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7">
@@ -6220,11 +6216,11 @@
       </c>
       <c r="X54" s="15"/>
       <c